--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
   <si>
     <t>Feature</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>FxEditor</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -705,6 +702,15 @@
   </si>
   <si>
     <t>configurable style</t>
+  </si>
+  <si>
+    <t>select word at cursor (single selection only)</t>
+  </si>
+  <si>
+    <t>select line(s) at cursor</t>
+  </si>
+  <si>
+    <t>duplicate line</t>
   </si>
 </sst>
 </file>
@@ -964,7 +970,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955291"/>
+          <c:w val="0.91978071330955302"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -997,30 +1003,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$49</c:f>
+              <c:f>Progress!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,29 +1065,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
@@ -1109,29 +1127,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1165,46 +1189,52 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$53</c:f>
+              <c:f>Progress!$E$48:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169336192"/>
-        <c:axId val="169096320"/>
+        <c:axId val="190504320"/>
+        <c:axId val="190264448"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="169336192"/>
+        <c:axId val="190504320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169096320"/>
+        <c:crossAx val="190264448"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1247,7 +1277,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169096320"/>
+        <c:axId val="190264448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169336192"/>
+        <c:crossAx val="190504320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,7 +1342,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218447"/>
+          <c:y val="0.33819556996218453"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1379,7 +1409,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1433,7 +1463,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127664E-2"/>
+          <c:x val="4.4510450248127678E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1468,40 +1498,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$49</c:f>
+              <c:f>Progress!$G$48:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.7873303167420809E-2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.623318385650224E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169120128"/>
-        <c:axId val="169121664"/>
+        <c:axId val="190288256"/>
+        <c:axId val="190289792"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="169120128"/>
+        <c:axId val="190288256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,13 +1545,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="169121664"/>
+        <c:crossAx val="190289792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169121664"/>
+        <c:axId val="190289792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1558,7 +1594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169120128"/>
+        <c:crossAx val="190288256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,7 +1643,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1658,29 +1694,35 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$49</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
@@ -1714,40 +1756,46 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$49</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43645</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$49</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169142528"/>
-        <c:axId val="169361408"/>
+        <c:axId val="190310656"/>
+        <c:axId val="190521344"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="169142528"/>
+        <c:axId val="190310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169361408"/>
+        <c:crossAx val="190521344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1789,7 +1837,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169361408"/>
+        <c:axId val="190521344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169142528"/>
+        <c:crossAx val="190310656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,7 +1928,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001443" r="0.75000000000001443" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1930,7 +1978,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2338,10 +2386,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2354,7 +2402,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2377,7 +2425,7 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2389,7 +2437,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -2398,7 +2446,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -2412,7 +2460,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2421,7 +2469,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2435,7 +2483,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2444,7 +2492,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2453,7 +2501,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2462,7 +2510,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2476,7 +2524,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2500,7 +2548,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4"/>
@@ -2512,7 +2560,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2521,7 +2569,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2530,7 +2578,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2539,7 +2587,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -2548,7 +2596,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2562,7 +2610,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2571,7 +2619,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2580,7 +2628,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2589,7 +2637,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2598,7 +2646,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2632,7 +2680,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="4"/>
@@ -2644,7 +2692,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -2653,7 +2701,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2687,7 +2735,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="4"/>
@@ -2699,7 +2747,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2708,7 +2756,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2722,7 +2770,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2731,7 +2779,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2740,7 +2788,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -2749,16 +2797,16 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -2772,7 +2820,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -2786,7 +2834,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -2795,7 +2843,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2804,7 +2852,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -2818,7 +2866,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -2827,7 +2875,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2836,7 +2884,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2845,7 +2893,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2854,7 +2902,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -2863,7 +2911,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2872,7 +2920,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2886,7 +2934,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>2</v>
@@ -2895,7 +2943,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -2904,7 +2952,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -2913,7 +2961,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2</v>
@@ -2922,7 +2970,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2</v>
@@ -2936,7 +2984,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2945,7 +2993,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -2954,7 +3002,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -2963,7 +3011,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2972,7 +3020,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2986,7 +3034,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>2</v>
@@ -2995,7 +3043,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>2</v>
@@ -3004,7 +3052,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3013,7 +3061,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3022,7 +3070,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3031,7 +3079,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3040,7 +3088,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3049,7 +3097,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3058,7 +3106,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3072,7 +3120,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>2</v>
@@ -3081,7 +3129,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>2</v>
@@ -3090,16 +3138,16 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3108,7 +3156,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3117,7 +3165,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>14</v>
@@ -3126,7 +3174,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3165,7 +3213,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3179,7 +3227,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3193,7 +3241,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3202,7 +3250,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3211,7 +3259,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -3225,7 +3273,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3234,7 +3282,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3248,7 +3296,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3272,7 +3320,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="4"/>
@@ -3284,14 +3332,14 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3300,7 +3348,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3309,7 +3357,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3318,7 +3366,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3332,7 +3380,7 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>14</v>
@@ -3341,7 +3389,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3350,7 +3398,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>14</v>
@@ -3359,7 +3407,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>14</v>
@@ -3368,7 +3416,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>14</v>
@@ -3377,7 +3425,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3386,7 +3434,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3395,7 +3443,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>14</v>
@@ -3409,7 +3457,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3418,7 +3466,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3432,7 +3480,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3441,7 +3489,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3450,7 +3498,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
@@ -3464,7 +3512,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3473,7 +3521,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3482,7 +3530,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3496,7 +3544,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3505,7 +3553,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3519,7 +3567,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3528,7 +3576,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>14</v>
@@ -3537,7 +3585,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3551,7 +3599,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>14</v>
@@ -3565,7 +3613,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3574,7 +3622,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -3588,7 +3636,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -3597,7 +3645,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -3606,7 +3654,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -3620,7 +3668,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -3629,7 +3677,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3638,7 +3686,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3652,7 +3700,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>14</v>
@@ -3661,7 +3709,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
@@ -3670,7 +3718,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
@@ -3684,7 +3732,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -3693,7 +3741,7 @@
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
@@ -3702,7 +3750,7 @@
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
       <c r="B178" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>14</v>
@@ -3716,7 +3764,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -3730,14 +3778,14 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -3746,7 +3794,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -3755,7 +3803,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -3764,7 +3812,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -3778,7 +3826,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>14</v>
@@ -3787,7 +3835,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>14</v>
@@ -3801,7 +3849,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>14</v>
@@ -3810,7 +3858,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
@@ -3824,7 +3872,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -3833,7 +3881,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3847,7 +3895,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>14</v>
@@ -3856,7 +3904,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -3865,7 +3913,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>14</v>
@@ -3874,7 +3922,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>14</v>
@@ -3888,7 +3936,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -3897,7 +3945,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>14</v>
@@ -3906,7 +3954,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -3915,7 +3963,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
@@ -3924,7 +3972,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>14</v>
@@ -3933,7 +3981,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>14</v>
@@ -3962,7 +4010,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
@@ -3972,7 +4020,7 @@
     </row>
     <row r="214" spans="2:4">
       <c r="B214" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C214" s="7"/>
     </row>
@@ -3981,7 +4029,7 @@
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
@@ -3989,7 +4037,7 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
@@ -3997,7 +4045,7 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>14</v>
@@ -4005,7 +4053,7 @@
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>14</v>
@@ -4013,7 +4061,7 @@
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>14</v>
@@ -4021,7 +4069,7 @@
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>14</v>
@@ -4029,7 +4077,7 @@
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>14</v>
@@ -4037,7 +4085,7 @@
     </row>
     <row r="223" spans="2:4">
       <c r="B223" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>14</v>
@@ -4045,7 +4093,7 @@
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>14</v>
@@ -4053,7 +4101,7 @@
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>14</v>
@@ -4061,7 +4109,7 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>14</v>
@@ -4069,7 +4117,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>14</v>
@@ -4077,7 +4125,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>14</v>
@@ -4085,7 +4133,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>14</v>
@@ -4117,7 +4165,7 @@
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237" s="9"/>
     </row>
@@ -4126,7 +4174,7 @@
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>14</v>
@@ -4134,7 +4182,7 @@
     </row>
     <row r="240" spans="2:3">
       <c r="B240" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>14</v>
@@ -4142,7 +4190,7 @@
     </row>
     <row r="241" spans="2:3">
       <c r="B241" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>14</v>
@@ -4150,7 +4198,7 @@
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4158,7 +4206,7 @@
     </row>
     <row r="243" spans="2:3">
       <c r="B243" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>14</v>
@@ -4166,7 +4214,7 @@
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>14</v>
@@ -4174,7 +4222,7 @@
     </row>
     <row r="245" spans="2:3">
       <c r="B245" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
@@ -4191,13 +4239,13 @@
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C249" s="9"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>14</v>
@@ -4205,7 +4253,7 @@
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>14</v>
@@ -4213,7 +4261,7 @@
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>14</v>
@@ -4221,7 +4269,7 @@
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>14</v>
@@ -4233,7 +4281,7 @@
     </row>
     <row r="257" spans="2:3">
       <c r="B257" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>14</v>
@@ -4244,7 +4292,7 @@
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>14</v>
@@ -4255,7 +4303,7 @@
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>14</v>
@@ -4263,7 +4311,7 @@
     </row>
     <row r="262" spans="2:3">
       <c r="B262" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>14</v>
@@ -4274,7 +4322,7 @@
     </row>
     <row r="264" spans="2:3">
       <c r="B264" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
@@ -4300,13 +4348,13 @@
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>14</v>
@@ -4314,7 +4362,7 @@
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>14</v>
@@ -4322,7 +4370,7 @@
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>14</v>
@@ -4333,7 +4381,7 @@
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>14</v>
@@ -4341,7 +4389,7 @@
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>14</v>
@@ -4352,7 +4400,7 @@
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4366,7 +4414,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C283" s="7"/>
       <c r="D283" s="4"/>
@@ -4378,7 +4426,7 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>14</v>
@@ -4387,7 +4435,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>14</v>
@@ -4396,7 +4444,7 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>14</v>
@@ -4405,7 +4453,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>14</v>
@@ -4419,7 +4467,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>14</v>
@@ -4428,7 +4476,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>14</v>
@@ -4442,7 +4490,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>14</v>
@@ -4450,49 +4498,53 @@
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22"/>
-      <c r="C294" s="7"/>
+      <c r="B294" t="s">
+        <v>228</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22" t="s">
+      <c r="B295" t="s">
+        <v>229</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="C297" s="7"/>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="C298" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22"/>
       <c r="C299" s="7"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22" t="s">
-        <v>181</v>
+      <c r="B300" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>14</v>
@@ -4506,32 +4558,28 @@
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C302" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B303" s="22"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B304" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C304" s="7"/>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>14</v>
@@ -4540,7 +4588,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>14</v>
@@ -4549,7 +4597,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>14</v>
@@ -4557,13 +4605,17 @@
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22" t="s">
-        <v>179</v>
+      <c r="B309" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>14</v>
@@ -4571,22 +4623,22 @@
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B310" s="22"/>
+      <c r="C310" s="7"/>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="22" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>14</v>
@@ -4599,12 +4651,18 @@
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22"/>
-      <c r="C314" s="7"/>
+      <c r="B314" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22"/>
+      <c r="B315" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="C315" s="7"/>
       <c r="D315" s="4"/>
     </row>
@@ -4614,9 +4672,7 @@
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B317" s="22"/>
       <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
@@ -4626,26 +4682,20 @@
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B319" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="7"/>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B320" s="22"/>
+      <c r="C320" s="7"/>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>14</v>
@@ -4654,21 +4704,25 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="2:4" s="6" customFormat="1">
+      <c r="B323" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D322" s="4"/>
-    </row>
-    <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="7"/>
+      <c r="C323" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>14</v>
@@ -4676,22 +4730,22 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B325" s="22"/>
+      <c r="C325" s="7"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>14</v>
@@ -4699,17 +4753,13 @@
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B328" s="22"/>
+      <c r="C328" s="7"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>14</v>
@@ -4717,13 +4767,17 @@
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="22"/>
-      <c r="C330" s="7"/>
+      <c r="B330" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="22" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>14</v>
@@ -4737,7 +4791,7 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="22" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>14</v>
@@ -4750,8 +4804,12 @@
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
@@ -4770,9 +4828,7 @@
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="B339" s="22"/>
       <c r="C339" s="7"/>
       <c r="D339" s="4"/>
     </row>
@@ -4782,28 +4838,22 @@
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22" t="s">
-        <v>149</v>
+      <c r="B341" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C341" s="7"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B342" s="22"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B343" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
@@ -4811,52 +4861,52 @@
         <v>153</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
       <c r="B345" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22"/>
-      <c r="C346" s="7"/>
+      <c r="B346" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C347" s="7"/>
+      <c r="B347" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B348" s="22"/>
+      <c r="C348" s="7"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B349" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C349" s="7"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="20" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -4864,12 +4914,16 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22" t="s">
+      <c r="B352" s="20" t="s">
         <v>213</v>
       </c>
       <c r="C352" s="7" t="s">
@@ -4884,7 +4938,7 @@
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="22" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -4892,40 +4946,44 @@
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="7"/>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20"/>
-      <c r="C359" s="7"/>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
@@ -4934,31 +4992,27 @@
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="7"/>
+      <c r="B363" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="22" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>14</v>
@@ -4971,8 +5025,12 @@
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22"/>
-      <c r="C366" s="7"/>
+      <c r="B366" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
@@ -4986,26 +5044,18 @@
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B370" s="22"/>
+      <c r="C370" s="7"/>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="20" t="s">
-        <v>202</v>
+      <c r="B371" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
@@ -5014,7 +5064,7 @@
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
       <c r="B372" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>14</v>
@@ -5023,7 +5073,7 @@
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
       <c r="B373" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>14</v>
@@ -5032,7 +5082,7 @@
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
@@ -5040,13 +5090,21 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
@@ -5106,94 +5164,104 @@
     </row>
     <row r="388" spans="1:4" s="6" customFormat="1">
       <c r="B388" s="22"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="1:4" s="6" customFormat="1">
-      <c r="B389" s="19"/>
-      <c r="C389" s="4"/>
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="1:4" s="6" customFormat="1">
-      <c r="B390" s="21"/>
+      <c r="B390" s="22"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="1:4" s="6" customFormat="1">
-      <c r="B391" s="21"/>
+      <c r="B391" s="19"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="3"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
-      <c r="D392" s="3"/>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="3"/>
-      <c r="B393" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C393" s="6">
-        <f>COUNTIF(C5:C392,"y")</f>
-        <v>15</v>
-      </c>
-      <c r="D393" s="2"/>
+    <row r="392" spans="1:4" s="6" customFormat="1">
+      <c r="B392" s="21"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="1:4" s="6" customFormat="1">
+      <c r="B393" s="21"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="3"/>
-      <c r="B394" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C394" s="6">
-        <f>COUNTIF(C5:C392,"n")</f>
-        <v>206</v>
-      </c>
-      <c r="D394" s="2"/>
+      <c r="B394" s="11"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="3"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="3"/>
       <c r="B395" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C395" s="7">
-        <f>COUNTIF(C5:C392,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C395" s="6">
+        <f>COUNTIF(C5:C394,"y")</f>
+        <v>17</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="3"/>
       <c r="B396" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C396">
-        <f>SUM(C393:C395)</f>
-        <v>221</v>
+        <v>7</v>
+      </c>
+      <c r="C396" s="6">
+        <f>COUNTIF(C5:C394,"n")</f>
+        <v>206</v>
       </c>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:4" ht="18">
+    <row r="397" spans="1:4">
       <c r="A397" s="3"/>
-      <c r="B397" s="10"/>
-      <c r="C397" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D397" s="41">
-        <f>C393/(C394+C393 + C395)</f>
-        <v>6.7873303167420809E-2</v>
-      </c>
+      <c r="B397" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397" s="7">
+        <f>COUNTIF(C5:C394,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D397" s="2"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="3"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="11"/>
-      <c r="D398" s="3"/>
+      <c r="B398" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398">
+        <f>SUM(C395:C397)</f>
+        <v>223</v>
+      </c>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4" ht="18">
+      <c r="A399" s="3"/>
+      <c r="B399" s="10"/>
+      <c r="C399" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" s="41">
+        <f>C395/(C396+C395 + C397)</f>
+        <v>7.623318385650224E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="3"/>
+      <c r="B400" s="11"/>
+      <c r="C400" s="11"/>
+      <c r="D400" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C283:C65146 C252:C281 C1:C3 C6:C249">
+  <conditionalFormatting sqref="C283:C65148 C252:C281 C1:C3 C6:C249">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5215,11 +5283,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT863"/>
+  <dimension ref="A1:IT864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5240,7 +5309,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5502,13 +5571,26 @@
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="47"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+      <c r="A50" s="47">
+        <v>43823</v>
+      </c>
+      <c r="B50" s="4">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4">
+        <v>206</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="30">
+        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
+        <v>7.623318385650224E-2</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
@@ -5517,84 +5599,84 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="31"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="30"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="38">
-        <f>MIN(G49)</f>
-        <v>6.7873303167420809E-2</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="39">
-        <f>SUM(B53:D53)</f>
-        <v>221</v>
-      </c>
-      <c r="B53" s="15">
-        <f>Features!C393</f>
-        <v>15</v>
-      </c>
-      <c r="C53" s="16">
-        <f>Features!C394</f>
+      <c r="G53" s="38">
+        <f>MIN(G50)</f>
+        <v>7.623318385650224E-2</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="39">
+        <f>SUM(B54:D54)</f>
+        <v>223</v>
+      </c>
+      <c r="B54" s="15">
+        <f>Features!C395</f>
+        <v>17</v>
+      </c>
+      <c r="C54" s="16">
+        <f>Features!C396</f>
         <v>206</v>
       </c>
-      <c r="D53" s="17">
-        <f>Features!C395</f>
+      <c r="D54" s="17">
+        <f>Features!C397</f>
         <v>0</v>
       </c>
-      <c r="E53" s="18">
-        <f>MIN(E49)</f>
+      <c r="E54" s="18">
+        <f>MIN(E50)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
-      <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -5603,13 +5685,8 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="49">
-        <f>(A49-A48)*A53/B53 +A48</f>
-        <v>44317.933333333334</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -5618,8 +5695,13 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="49">
+        <f>(A50-A48)*A54/B54 +A48</f>
+        <v>46573.705882352944</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -5629,7 +5711,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5649,7 +5731,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5669,7 +5751,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5679,7 +5761,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5698,7 +5780,7 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="20"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
@@ -5709,7 +5791,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5840,7 +5922,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -5849,7 +5931,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5857,15 +5939,15 @@
       <c r="G81" s="30"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="4"/>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1">
       <c r="A83" s="4"/>
@@ -6039,7 +6121,7 @@
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6049,7 +6131,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6079,7 +6161,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6119,7 +6201,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="21"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6129,7 +6211,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6139,7 +6221,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6149,7 +6231,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6159,7 +6241,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6179,7 +6261,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6239,7 +6321,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6339,7 +6421,7 @@
     </row>
     <row r="130" spans="1:254" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6389,7 +6471,7 @@
     </row>
     <row r="135" spans="1:254" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6409,7 +6491,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6448,284 +6530,284 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:254" s="2" customFormat="1">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-      <c r="AD141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AF141" s="5"/>
-      <c r="AG141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AI141" s="5"/>
-      <c r="AJ141" s="5"/>
-      <c r="AK141" s="5"/>
-      <c r="AL141" s="5"/>
-      <c r="AM141" s="5"/>
-      <c r="AN141" s="5"/>
-      <c r="AO141" s="5"/>
-      <c r="AP141" s="5"/>
-      <c r="AQ141" s="5"/>
-      <c r="AR141" s="5"/>
-      <c r="AS141" s="5"/>
-      <c r="AT141" s="5"/>
-      <c r="AU141" s="5"/>
-      <c r="AV141" s="5"/>
-      <c r="AW141" s="5"/>
-      <c r="AX141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="AZ141" s="5"/>
-      <c r="BA141" s="5"/>
-      <c r="BB141" s="5"/>
-      <c r="BC141" s="5"/>
-      <c r="BD141" s="5"/>
-      <c r="BE141" s="5"/>
-      <c r="BF141" s="5"/>
-      <c r="BG141" s="5"/>
-      <c r="BH141" s="5"/>
-      <c r="BI141" s="5"/>
-      <c r="BJ141" s="5"/>
-      <c r="BK141" s="5"/>
-      <c r="BL141" s="5"/>
-      <c r="BM141" s="5"/>
-      <c r="BN141" s="5"/>
-      <c r="BO141" s="5"/>
-      <c r="BP141" s="5"/>
-      <c r="BQ141" s="5"/>
-      <c r="BR141" s="5"/>
-      <c r="BS141" s="5"/>
-      <c r="BT141" s="5"/>
-      <c r="BU141" s="5"/>
-      <c r="BV141" s="5"/>
-      <c r="BW141" s="5"/>
-      <c r="BX141" s="5"/>
-      <c r="BY141" s="5"/>
-      <c r="BZ141" s="5"/>
-      <c r="CA141" s="5"/>
-      <c r="CB141" s="5"/>
-      <c r="CC141" s="5"/>
-      <c r="CD141" s="5"/>
-      <c r="CE141" s="5"/>
-      <c r="CF141" s="5"/>
-      <c r="CG141" s="5"/>
-      <c r="CH141" s="5"/>
-      <c r="CI141" s="5"/>
-      <c r="CJ141" s="5"/>
-      <c r="CK141" s="5"/>
-      <c r="CL141" s="5"/>
-      <c r="CM141" s="5"/>
-      <c r="CN141" s="5"/>
-      <c r="CO141" s="5"/>
-      <c r="CP141" s="5"/>
-      <c r="CQ141" s="5"/>
-      <c r="CR141" s="5"/>
-      <c r="CS141" s="5"/>
-      <c r="CT141" s="5"/>
-      <c r="CU141" s="5"/>
-      <c r="CV141" s="5"/>
-      <c r="CW141" s="5"/>
-      <c r="CX141" s="5"/>
-      <c r="CY141" s="5"/>
-      <c r="CZ141" s="5"/>
-      <c r="DA141" s="5"/>
-      <c r="DB141" s="5"/>
-      <c r="DC141" s="5"/>
-      <c r="DD141" s="5"/>
-      <c r="DE141" s="5"/>
-      <c r="DF141" s="5"/>
-      <c r="DG141" s="5"/>
-      <c r="DH141" s="5"/>
-      <c r="DI141" s="5"/>
-      <c r="DJ141" s="5"/>
-      <c r="DK141" s="5"/>
-      <c r="DL141" s="5"/>
-      <c r="DM141" s="5"/>
-      <c r="DN141" s="5"/>
-      <c r="DO141" s="5"/>
-      <c r="DP141" s="5"/>
-      <c r="DQ141" s="5"/>
-      <c r="DR141" s="5"/>
-      <c r="DS141" s="5"/>
-      <c r="DT141" s="5"/>
-      <c r="DU141" s="5"/>
-      <c r="DV141" s="5"/>
-      <c r="DW141" s="5"/>
-      <c r="DX141" s="5"/>
-      <c r="DY141" s="5"/>
-      <c r="DZ141" s="5"/>
-      <c r="EA141" s="5"/>
-      <c r="EB141" s="5"/>
-      <c r="EC141" s="5"/>
-      <c r="ED141" s="5"/>
-      <c r="EE141" s="5"/>
-      <c r="EF141" s="5"/>
-      <c r="EG141" s="5"/>
-      <c r="EH141" s="5"/>
-      <c r="EI141" s="5"/>
-      <c r="EJ141" s="5"/>
-      <c r="EK141" s="5"/>
-      <c r="EL141" s="5"/>
-      <c r="EM141" s="5"/>
-      <c r="EN141" s="5"/>
-      <c r="EO141" s="5"/>
-      <c r="EP141" s="5"/>
-      <c r="EQ141" s="5"/>
-      <c r="ER141" s="5"/>
-      <c r="ES141" s="5"/>
-      <c r="ET141" s="5"/>
-      <c r="EU141" s="5"/>
-      <c r="EV141" s="5"/>
-      <c r="EW141" s="5"/>
-      <c r="EX141" s="5"/>
-      <c r="EY141" s="5"/>
-      <c r="EZ141" s="5"/>
-      <c r="FA141" s="5"/>
-      <c r="FB141" s="5"/>
-      <c r="FC141" s="5"/>
-      <c r="FD141" s="5"/>
-      <c r="FE141" s="5"/>
-      <c r="FF141" s="5"/>
-      <c r="FG141" s="5"/>
-      <c r="FH141" s="5"/>
-      <c r="FI141" s="5"/>
-      <c r="FJ141" s="5"/>
-      <c r="FK141" s="5"/>
-      <c r="FL141" s="5"/>
-      <c r="FM141" s="5"/>
-      <c r="FN141" s="5"/>
-      <c r="FO141" s="5"/>
-      <c r="FP141" s="5"/>
-      <c r="FQ141" s="5"/>
-      <c r="FR141" s="5"/>
-      <c r="FS141" s="5"/>
-      <c r="FT141" s="5"/>
-      <c r="FU141" s="5"/>
-      <c r="FV141" s="5"/>
-      <c r="FW141" s="5"/>
-      <c r="FX141" s="5"/>
-      <c r="FY141" s="5"/>
-      <c r="FZ141" s="5"/>
-      <c r="GA141" s="5"/>
-      <c r="GB141" s="5"/>
-      <c r="GC141" s="5"/>
-      <c r="GD141" s="5"/>
-      <c r="GE141" s="5"/>
-      <c r="GF141" s="5"/>
-      <c r="GG141" s="5"/>
-      <c r="GH141" s="5"/>
-      <c r="GI141" s="5"/>
-      <c r="GJ141" s="5"/>
-      <c r="GK141" s="5"/>
-      <c r="GL141" s="5"/>
-      <c r="GM141" s="5"/>
-      <c r="GN141" s="5"/>
-      <c r="GO141" s="5"/>
-      <c r="GP141" s="5"/>
-      <c r="GQ141" s="5"/>
-      <c r="GR141" s="5"/>
-      <c r="GS141" s="5"/>
-      <c r="GT141" s="5"/>
-      <c r="GU141" s="5"/>
-      <c r="GV141" s="5"/>
-      <c r="GW141" s="5"/>
-      <c r="GX141" s="5"/>
-      <c r="GY141" s="5"/>
-      <c r="GZ141" s="5"/>
-      <c r="HA141" s="5"/>
-      <c r="HB141" s="5"/>
-      <c r="HC141" s="5"/>
-      <c r="HD141" s="5"/>
-      <c r="HE141" s="5"/>
-      <c r="HF141" s="5"/>
-      <c r="HG141" s="5"/>
-      <c r="HH141" s="5"/>
-      <c r="HI141" s="5"/>
-      <c r="HJ141" s="5"/>
-      <c r="HK141" s="5"/>
-      <c r="HL141" s="5"/>
-      <c r="HM141" s="5"/>
-      <c r="HN141" s="5"/>
-      <c r="HO141" s="5"/>
-      <c r="HP141" s="5"/>
-      <c r="HQ141" s="5"/>
-      <c r="HR141" s="5"/>
-      <c r="HS141" s="5"/>
-      <c r="HT141" s="5"/>
-      <c r="HU141" s="5"/>
-      <c r="HV141" s="5"/>
-      <c r="HW141" s="5"/>
-      <c r="HX141" s="5"/>
-      <c r="HY141" s="5"/>
-      <c r="HZ141" s="5"/>
-      <c r="IA141" s="5"/>
-      <c r="IB141" s="5"/>
-      <c r="IC141" s="5"/>
-      <c r="ID141" s="5"/>
-      <c r="IE141" s="5"/>
-      <c r="IF141" s="5"/>
-      <c r="IG141" s="5"/>
-      <c r="IH141" s="5"/>
-      <c r="II141" s="5"/>
-      <c r="IJ141" s="5"/>
-      <c r="IK141" s="5"/>
-      <c r="IL141" s="5"/>
-      <c r="IM141" s="5"/>
-      <c r="IN141" s="5"/>
-      <c r="IO141" s="5"/>
-      <c r="IP141" s="5"/>
-      <c r="IQ141" s="5"/>
-      <c r="IR141" s="5"/>
-      <c r="IS141" s="5"/>
-      <c r="IT141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:254">
-      <c r="A143" s="7"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="7"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="CX142" s="5"/>
+      <c r="CY142" s="5"/>
+      <c r="CZ142" s="5"/>
+      <c r="DA142" s="5"/>
+      <c r="DB142" s="5"/>
+      <c r="DC142" s="5"/>
+      <c r="DD142" s="5"/>
+      <c r="DE142" s="5"/>
+      <c r="DF142" s="5"/>
+      <c r="DG142" s="5"/>
+      <c r="DH142" s="5"/>
+      <c r="DI142" s="5"/>
+      <c r="DJ142" s="5"/>
+      <c r="DK142" s="5"/>
+      <c r="DL142" s="5"/>
+      <c r="DM142" s="5"/>
+      <c r="DN142" s="5"/>
+      <c r="DO142" s="5"/>
+      <c r="DP142" s="5"/>
+      <c r="DQ142" s="5"/>
+      <c r="DR142" s="5"/>
+      <c r="DS142" s="5"/>
+      <c r="DT142" s="5"/>
+      <c r="DU142" s="5"/>
+      <c r="DV142" s="5"/>
+      <c r="DW142" s="5"/>
+      <c r="DX142" s="5"/>
+      <c r="DY142" s="5"/>
+      <c r="DZ142" s="5"/>
+      <c r="EA142" s="5"/>
+      <c r="EB142" s="5"/>
+      <c r="EC142" s="5"/>
+      <c r="ED142" s="5"/>
+      <c r="EE142" s="5"/>
+      <c r="EF142" s="5"/>
+      <c r="EG142" s="5"/>
+      <c r="EH142" s="5"/>
+      <c r="EI142" s="5"/>
+      <c r="EJ142" s="5"/>
+      <c r="EK142" s="5"/>
+      <c r="EL142" s="5"/>
+      <c r="EM142" s="5"/>
+      <c r="EN142" s="5"/>
+      <c r="EO142" s="5"/>
+      <c r="EP142" s="5"/>
+      <c r="EQ142" s="5"/>
+      <c r="ER142" s="5"/>
+      <c r="ES142" s="5"/>
+      <c r="ET142" s="5"/>
+      <c r="EU142" s="5"/>
+      <c r="EV142" s="5"/>
+      <c r="EW142" s="5"/>
+      <c r="EX142" s="5"/>
+      <c r="EY142" s="5"/>
+      <c r="EZ142" s="5"/>
+      <c r="FA142" s="5"/>
+      <c r="FB142" s="5"/>
+      <c r="FC142" s="5"/>
+      <c r="FD142" s="5"/>
+      <c r="FE142" s="5"/>
+      <c r="FF142" s="5"/>
+      <c r="FG142" s="5"/>
+      <c r="FH142" s="5"/>
+      <c r="FI142" s="5"/>
+      <c r="FJ142" s="5"/>
+      <c r="FK142" s="5"/>
+      <c r="FL142" s="5"/>
+      <c r="FM142" s="5"/>
+      <c r="FN142" s="5"/>
+      <c r="FO142" s="5"/>
+      <c r="FP142" s="5"/>
+      <c r="FQ142" s="5"/>
+      <c r="FR142" s="5"/>
+      <c r="FS142" s="5"/>
+      <c r="FT142" s="5"/>
+      <c r="FU142" s="5"/>
+      <c r="FV142" s="5"/>
+      <c r="FW142" s="5"/>
+      <c r="FX142" s="5"/>
+      <c r="FY142" s="5"/>
+      <c r="FZ142" s="5"/>
+      <c r="GA142" s="5"/>
+      <c r="GB142" s="5"/>
+      <c r="GC142" s="5"/>
+      <c r="GD142" s="5"/>
+      <c r="GE142" s="5"/>
+      <c r="GF142" s="5"/>
+      <c r="GG142" s="5"/>
+      <c r="GH142" s="5"/>
+      <c r="GI142" s="5"/>
+      <c r="GJ142" s="5"/>
+      <c r="GK142" s="5"/>
+      <c r="GL142" s="5"/>
+      <c r="GM142" s="5"/>
+      <c r="GN142" s="5"/>
+      <c r="GO142" s="5"/>
+      <c r="GP142" s="5"/>
+      <c r="GQ142" s="5"/>
+      <c r="GR142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+      <c r="HQ142" s="5"/>
+      <c r="HR142" s="5"/>
+      <c r="HS142" s="5"/>
+      <c r="HT142" s="5"/>
+      <c r="HU142" s="5"/>
+      <c r="HV142" s="5"/>
+      <c r="HW142" s="5"/>
+      <c r="HX142" s="5"/>
+      <c r="HY142" s="5"/>
+      <c r="HZ142" s="5"/>
+      <c r="IA142" s="5"/>
+      <c r="IB142" s="5"/>
+      <c r="IC142" s="5"/>
+      <c r="ID142" s="5"/>
+      <c r="IE142" s="5"/>
+      <c r="IF142" s="5"/>
+      <c r="IG142" s="5"/>
+      <c r="IH142" s="5"/>
+      <c r="II142" s="5"/>
+      <c r="IJ142" s="5"/>
+      <c r="IK142" s="5"/>
+      <c r="IL142" s="5"/>
+      <c r="IM142" s="5"/>
+      <c r="IN142" s="5"/>
+      <c r="IO142" s="5"/>
+      <c r="IP142" s="5"/>
+      <c r="IQ142" s="5"/>
+      <c r="IR142" s="5"/>
+      <c r="IS142" s="5"/>
+      <c r="IT142" s="5"/>
+    </row>
+    <row r="143" spans="1:254" s="2" customFormat="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6735,7 +6817,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6745,7 +6827,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6756,7 +6838,7 @@
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -6796,7 +6878,7 @@
     <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -6805,7 +6887,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6825,7 +6907,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6835,7 +6917,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6855,7 +6937,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6875,7 +6957,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6895,7 +6977,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6915,7 +6997,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6935,7 +7017,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6975,7 +7057,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -6985,8 +7067,8 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -6995,7 +7077,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="19"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7065,7 +7147,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7075,7 +7157,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7085,7 +7167,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="21"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7105,7 +7187,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7146,7 +7228,7 @@
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
       <c r="B186" s="19"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -7155,7 +7237,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7175,7 +7257,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7235,7 +7317,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="21"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7275,7 +7357,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7285,7 +7367,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7295,7 +7377,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7305,7 +7387,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="19"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7355,7 +7437,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="21"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7365,7 +7447,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7415,7 +7497,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7475,7 +7557,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7485,7 +7567,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="6"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7495,8 +7577,8 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
@@ -7505,7 +7587,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="19"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7515,7 +7597,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -7525,7 +7607,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7565,7 +7647,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7575,7 +7657,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7585,7 +7667,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="23"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7605,7 +7687,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7645,7 +7727,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -7655,7 +7737,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7705,7 +7787,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -7715,8 +7797,8 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
@@ -7725,7 +7807,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7735,7 +7817,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7745,7 +7827,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7795,8 +7877,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -7805,7 +7887,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -7815,7 +7897,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -7843,9 +7925,9 @@
       <c r="G255" s="30"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" ht="11.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="25"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7853,9 +7935,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="11.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -7895,7 +7977,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -7925,7 +8007,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -7935,7 +8017,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -7943,15 +8025,15 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" s="2" customFormat="1">
-      <c r="A266" s="4"/>
+    <row r="266" spans="1:8">
+      <c r="A266" s="7"/>
       <c r="B266" s="24"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="4"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="7"/>
     </row>
     <row r="267" spans="1:8" s="2" customFormat="1">
       <c r="A267" s="4"/>
@@ -7963,19 +8045,19 @@
       <c r="G267" s="34"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7"/>
+    <row r="268" spans="1:8" s="2" customFormat="1">
+      <c r="A268" s="4"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="7"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -7985,7 +8067,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8015,7 +8097,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8025,7 +8107,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8045,7 +8127,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="20"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8065,7 +8147,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8096,7 +8178,7 @@
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
+      <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -8105,7 +8187,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8115,7 +8197,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8195,7 +8277,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -8205,8 +8287,8 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
@@ -8215,7 +8297,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="19"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8245,7 +8327,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8305,7 +8387,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -8325,7 +8407,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -8335,8 +8417,8 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
@@ -8345,7 +8427,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -8353,15 +8435,15 @@
       <c r="G306" s="30"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" s="2" customFormat="1">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="34"/>
-      <c r="H307" s="4"/>
+    <row r="307" spans="1:8">
+      <c r="A307" s="7"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="7"/>
     </row>
     <row r="308" spans="1:8" s="2" customFormat="1">
       <c r="A308" s="4"/>
@@ -8385,7 +8467,7 @@
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="9"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -8435,8 +8517,8 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="4"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -8485,7 +8567,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="21"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -8535,7 +8617,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="19"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -8545,7 +8627,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -8555,7 +8637,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -8563,20 +8645,20 @@
       <c r="G327" s="34"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="7"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="30"/>
-      <c r="H328" s="7"/>
+    <row r="328" spans="1:8" s="2" customFormat="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="34"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
-      <c r="C329" s="4"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
@@ -8645,7 +8727,7 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="7"/>
       <c r="C336" s="4"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -8656,7 +8738,7 @@
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="7"/>
+      <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -8665,7 +8747,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="4"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -8675,7 +8757,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -8685,7 +8767,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="22"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -8695,7 +8777,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="22"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8735,7 +8817,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -8745,7 +8827,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8755,7 +8837,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="20"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8785,7 +8867,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -8795,7 +8877,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -8815,7 +8897,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8825,7 +8907,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8835,7 +8917,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8845,7 +8927,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8875,7 +8957,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -8885,7 +8967,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="27"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -8895,7 +8977,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -8905,8 +8987,8 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
@@ -8915,7 +8997,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="4"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -8945,7 +9027,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -8975,7 +9057,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -8995,8 +9077,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -9005,7 +9087,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -9015,7 +9097,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9075,7 +9157,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9085,7 +9167,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9106,7 +9188,7 @@
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
@@ -9115,7 +9197,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="20"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9126,7 +9208,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="20"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -9135,7 +9217,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9145,7 +9227,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="22"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9195,7 +9277,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="22"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9205,7 +9287,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9215,7 +9297,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9225,7 +9307,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="20"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9235,7 +9317,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9255,7 +9337,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9295,7 +9377,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9305,7 +9387,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9325,7 +9407,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9335,7 +9417,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9345,7 +9427,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9355,7 +9437,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9375,7 +9457,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9385,7 +9467,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9395,7 +9477,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9415,7 +9497,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9425,7 +9507,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9435,7 +9517,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9485,7 +9567,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9495,7 +9577,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9555,7 +9637,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9565,7 +9647,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9585,7 +9667,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9595,7 +9677,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9615,7 +9697,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9645,7 +9727,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -9655,8 +9737,8 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="4"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
@@ -9706,7 +9788,7 @@
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="4"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -9715,7 +9797,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -9725,8 +9807,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -9766,7 +9848,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -9775,7 +9857,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -9785,7 +9867,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="22"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9845,7 +9927,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="22"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -9855,7 +9937,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -9865,7 +9947,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -9894,8 +9976,8 @@
       <c r="H460" s="7"/>
     </row>
     <row r="461" spans="1:8">
-      <c r="A461" s="6"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -9904,7 +9986,7 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="7"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
@@ -9945,7 +10027,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="28"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -9975,7 +10057,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="28"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -9985,7 +10067,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -9995,7 +10077,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10005,21 +10087,21 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="29"/>
-      <c r="C472" s="30"/>
+      <c r="B472" s="7"/>
+      <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
-      <c r="F472" s="29"/>
+      <c r="F472" s="7"/>
       <c r="G472" s="30"/>
       <c r="H472" s="7"/>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="30"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="7"/>
+      <c r="F473" s="29"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
@@ -13923,6 +14005,16 @@
       <c r="G863" s="30"/>
       <c r="H863" s="7"/>
     </row>
+    <row r="864" spans="1:8">
+      <c r="A864" s="7"/>
+      <c r="B864" s="7"/>
+      <c r="C864" s="7"/>
+      <c r="D864" s="7"/>
+      <c r="E864" s="7"/>
+      <c r="F864" s="7"/>
+      <c r="G864" s="30"/>
+      <c r="H864" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -970,7 +970,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955302"/>
+          <c:w val="0.91978071330955313"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1003,10 +1003,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1016,15 +1016,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1033,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,10 +1071,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1078,15 +1084,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1095,6 +1104,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,10 +1139,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1140,15 +1152,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1156,6 +1171,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1189,10 +1207,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1202,15 +1220,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$54</c:f>
+              <c:f>Progress!$E$48:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1220,21 +1241,24 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="190504320"/>
-        <c:axId val="190264448"/>
+        <c:axId val="160161152"/>
+        <c:axId val="159921280"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="190504320"/>
+        <c:axId val="160161152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190264448"/>
+        <c:crossAx val="159921280"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1277,7 +1301,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190264448"/>
+        <c:axId val="159921280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190504320"/>
+        <c:crossAx val="160161152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1366,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218453"/>
+          <c:y val="0.33819556996218464"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1409,7 +1433,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1463,7 +1487,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127678E-2"/>
+          <c:x val="4.4510450248127699E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1498,10 +1522,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1511,15 +1535,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1529,15 +1556,18 @@
                 <c:pt idx="2">
                   <c:v>7.623318385650224E-2</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8654708520179366E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="190288256"/>
-        <c:axId val="190289792"/>
+        <c:axId val="159945088"/>
+        <c:axId val="159946624"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="190288256"/>
+        <c:axId val="159945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,13 +1575,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190289792"/>
+        <c:crossAx val="159946624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190289792"/>
+        <c:axId val="159946624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1594,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190288256"/>
+        <c:crossAx val="159945088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1643,7 +1673,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1694,10 +1724,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1707,15 +1737,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1724,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,10 +1792,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1769,15 +1805,18 @@
                 <c:pt idx="2">
                   <c:v>43823</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1787,15 +1826,18 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="190310656"/>
-        <c:axId val="190521344"/>
+        <c:axId val="159971584"/>
+        <c:axId val="160571392"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="190310656"/>
+        <c:axId val="159971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190521344"/>
+        <c:crossAx val="160571392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1837,7 +1879,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190521344"/>
+        <c:axId val="160571392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190310656"/>
+        <c:crossAx val="159971584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1928,7 +1970,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001465" r="0.75000000000001465" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1978,7 +2020,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2388,8 +2430,8 @@
   </sheetPr>
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2440,7 +2482,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -2449,7 +2491,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -2463,7 +2505,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2472,7 +2514,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2486,7 +2528,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -5205,7 +5247,7 @@
       </c>
       <c r="C395" s="6">
         <f>COUNTIF(C5:C394,"y")</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D395" s="2"/>
     </row>
@@ -5216,7 +5258,7 @@
       </c>
       <c r="C396" s="6">
         <f>COUNTIF(C5:C394,"n")</f>
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D396" s="2"/>
     </row>
@@ -5250,7 +5292,7 @@
       </c>
       <c r="D399" s="41">
         <f>C395/(C396+C395 + C397)</f>
-        <v>7.623318385650224E-2</v>
+        <v>9.8654708520179366E-2</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5283,12 +5325,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5594,13 +5636,26 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="47"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="47">
+        <v>43916</v>
+      </c>
+      <c r="B51" s="4">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4">
+        <v>201</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="30">
+        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <v>9.8654708520179366E-2</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
@@ -5609,84 +5664,84 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="31"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="30"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="38">
-        <f>MIN(G50)</f>
-        <v>7.623318385650224E-2</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="39">
-        <f>SUM(B54:D54)</f>
+      <c r="G54" s="38">
+        <f>MIN(G51)</f>
+        <v>9.8654708520179366E-2</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="39">
+        <f>SUM(B55:D55)</f>
         <v>223</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B55" s="15">
         <f>Features!C395</f>
-        <v>17</v>
-      </c>
-      <c r="C54" s="16">
+        <v>22</v>
+      </c>
+      <c r="C55" s="16">
         <f>Features!C396</f>
-        <v>206</v>
-      </c>
-      <c r="D54" s="17">
+        <v>201</v>
+      </c>
+      <c r="D55" s="17">
         <f>Features!C397</f>
         <v>0</v>
       </c>
-      <c r="E54" s="18">
-        <f>MIN(E50)</f>
+      <c r="E55" s="18">
+        <f>MIN(E51)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -5695,13 +5750,8 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="49">
-        <f>(A50-A48)*A54/B54 +A48</f>
-        <v>46573.705882352944</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -5710,8 +5760,13 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="49">
+        <f>(A51-A48)*A55/B55 +A48</f>
+        <v>46839.63636363636</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5721,7 +5776,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5741,7 +5796,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5761,7 +5816,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5771,7 +5826,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5790,7 +5845,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
@@ -5801,7 +5856,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -5932,7 +5987,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -5941,7 +5996,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -5949,15 +6004,15 @@
       <c r="G82" s="30"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="4"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="4"/>
@@ -6131,7 +6186,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6141,7 +6196,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6171,7 +6226,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6211,7 +6266,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6221,7 +6276,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6231,7 +6286,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6241,7 +6296,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6251,7 +6306,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6271,7 +6326,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6331,7 +6386,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6431,7 +6486,7 @@
     </row>
     <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6481,7 +6536,7 @@
     </row>
     <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6501,7 +6556,7 @@
     </row>
     <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6540,284 +6595,284 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AS142" s="5"/>
-      <c r="AT142" s="5"/>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BA142" s="5"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-      <c r="BE142" s="5"/>
-      <c r="BF142" s="5"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="5"/>
-      <c r="BI142" s="5"/>
-      <c r="BJ142" s="5"/>
-      <c r="BK142" s="5"/>
-      <c r="BL142" s="5"/>
-      <c r="BM142" s="5"/>
-      <c r="BN142" s="5"/>
-      <c r="BO142" s="5"/>
-      <c r="BP142" s="5"/>
-      <c r="BQ142" s="5"/>
-      <c r="BR142" s="5"/>
-      <c r="BS142" s="5"/>
-      <c r="BT142" s="5"/>
-      <c r="BU142" s="5"/>
-      <c r="BV142" s="5"/>
-      <c r="BW142" s="5"/>
-      <c r="BX142" s="5"/>
-      <c r="BY142" s="5"/>
-      <c r="BZ142" s="5"/>
-      <c r="CA142" s="5"/>
-      <c r="CB142" s="5"/>
-      <c r="CC142" s="5"/>
-      <c r="CD142" s="5"/>
-      <c r="CE142" s="5"/>
-      <c r="CF142" s="5"/>
-      <c r="CG142" s="5"/>
-      <c r="CH142" s="5"/>
-      <c r="CI142" s="5"/>
-      <c r="CJ142" s="5"/>
-      <c r="CK142" s="5"/>
-      <c r="CL142" s="5"/>
-      <c r="CM142" s="5"/>
-      <c r="CN142" s="5"/>
-      <c r="CO142" s="5"/>
-      <c r="CP142" s="5"/>
-      <c r="CQ142" s="5"/>
-      <c r="CR142" s="5"/>
-      <c r="CS142" s="5"/>
-      <c r="CT142" s="5"/>
-      <c r="CU142" s="5"/>
-      <c r="CV142" s="5"/>
-      <c r="CW142" s="5"/>
-      <c r="CX142" s="5"/>
-      <c r="CY142" s="5"/>
-      <c r="CZ142" s="5"/>
-      <c r="DA142" s="5"/>
-      <c r="DB142" s="5"/>
-      <c r="DC142" s="5"/>
-      <c r="DD142" s="5"/>
-      <c r="DE142" s="5"/>
-      <c r="DF142" s="5"/>
-      <c r="DG142" s="5"/>
-      <c r="DH142" s="5"/>
-      <c r="DI142" s="5"/>
-      <c r="DJ142" s="5"/>
-      <c r="DK142" s="5"/>
-      <c r="DL142" s="5"/>
-      <c r="DM142" s="5"/>
-      <c r="DN142" s="5"/>
-      <c r="DO142" s="5"/>
-      <c r="DP142" s="5"/>
-      <c r="DQ142" s="5"/>
-      <c r="DR142" s="5"/>
-      <c r="DS142" s="5"/>
-      <c r="DT142" s="5"/>
-      <c r="DU142" s="5"/>
-      <c r="DV142" s="5"/>
-      <c r="DW142" s="5"/>
-      <c r="DX142" s="5"/>
-      <c r="DY142" s="5"/>
-      <c r="DZ142" s="5"/>
-      <c r="EA142" s="5"/>
-      <c r="EB142" s="5"/>
-      <c r="EC142" s="5"/>
-      <c r="ED142" s="5"/>
-      <c r="EE142" s="5"/>
-      <c r="EF142" s="5"/>
-      <c r="EG142" s="5"/>
-      <c r="EH142" s="5"/>
-      <c r="EI142" s="5"/>
-      <c r="EJ142" s="5"/>
-      <c r="EK142" s="5"/>
-      <c r="EL142" s="5"/>
-      <c r="EM142" s="5"/>
-      <c r="EN142" s="5"/>
-      <c r="EO142" s="5"/>
-      <c r="EP142" s="5"/>
-      <c r="EQ142" s="5"/>
-      <c r="ER142" s="5"/>
-      <c r="ES142" s="5"/>
-      <c r="ET142" s="5"/>
-      <c r="EU142" s="5"/>
-      <c r="EV142" s="5"/>
-      <c r="EW142" s="5"/>
-      <c r="EX142" s="5"/>
-      <c r="EY142" s="5"/>
-      <c r="EZ142" s="5"/>
-      <c r="FA142" s="5"/>
-      <c r="FB142" s="5"/>
-      <c r="FC142" s="5"/>
-      <c r="FD142" s="5"/>
-      <c r="FE142" s="5"/>
-      <c r="FF142" s="5"/>
-      <c r="FG142" s="5"/>
-      <c r="FH142" s="5"/>
-      <c r="FI142" s="5"/>
-      <c r="FJ142" s="5"/>
-      <c r="FK142" s="5"/>
-      <c r="FL142" s="5"/>
-      <c r="FM142" s="5"/>
-      <c r="FN142" s="5"/>
-      <c r="FO142" s="5"/>
-      <c r="FP142" s="5"/>
-      <c r="FQ142" s="5"/>
-      <c r="FR142" s="5"/>
-      <c r="FS142" s="5"/>
-      <c r="FT142" s="5"/>
-      <c r="FU142" s="5"/>
-      <c r="FV142" s="5"/>
-      <c r="FW142" s="5"/>
-      <c r="FX142" s="5"/>
-      <c r="FY142" s="5"/>
-      <c r="FZ142" s="5"/>
-      <c r="GA142" s="5"/>
-      <c r="GB142" s="5"/>
-      <c r="GC142" s="5"/>
-      <c r="GD142" s="5"/>
-      <c r="GE142" s="5"/>
-      <c r="GF142" s="5"/>
-      <c r="GG142" s="5"/>
-      <c r="GH142" s="5"/>
-      <c r="GI142" s="5"/>
-      <c r="GJ142" s="5"/>
-      <c r="GK142" s="5"/>
-      <c r="GL142" s="5"/>
-      <c r="GM142" s="5"/>
-      <c r="GN142" s="5"/>
-      <c r="GO142" s="5"/>
-      <c r="GP142" s="5"/>
-      <c r="GQ142" s="5"/>
-      <c r="GR142" s="5"/>
-      <c r="GS142" s="5"/>
-      <c r="GT142" s="5"/>
-      <c r="GU142" s="5"/>
-      <c r="GV142" s="5"/>
-      <c r="GW142" s="5"/>
-      <c r="GX142" s="5"/>
-      <c r="GY142" s="5"/>
-      <c r="GZ142" s="5"/>
-      <c r="HA142" s="5"/>
-      <c r="HB142" s="5"/>
-      <c r="HC142" s="5"/>
-      <c r="HD142" s="5"/>
-      <c r="HE142" s="5"/>
-      <c r="HF142" s="5"/>
-      <c r="HG142" s="5"/>
-      <c r="HH142" s="5"/>
-      <c r="HI142" s="5"/>
-      <c r="HJ142" s="5"/>
-      <c r="HK142" s="5"/>
-      <c r="HL142" s="5"/>
-      <c r="HM142" s="5"/>
-      <c r="HN142" s="5"/>
-      <c r="HO142" s="5"/>
-      <c r="HP142" s="5"/>
-      <c r="HQ142" s="5"/>
-      <c r="HR142" s="5"/>
-      <c r="HS142" s="5"/>
-      <c r="HT142" s="5"/>
-      <c r="HU142" s="5"/>
-      <c r="HV142" s="5"/>
-      <c r="HW142" s="5"/>
-      <c r="HX142" s="5"/>
-      <c r="HY142" s="5"/>
-      <c r="HZ142" s="5"/>
-      <c r="IA142" s="5"/>
-      <c r="IB142" s="5"/>
-      <c r="IC142" s="5"/>
-      <c r="ID142" s="5"/>
-      <c r="IE142" s="5"/>
-      <c r="IF142" s="5"/>
-      <c r="IG142" s="5"/>
-      <c r="IH142" s="5"/>
-      <c r="II142" s="5"/>
-      <c r="IJ142" s="5"/>
-      <c r="IK142" s="5"/>
-      <c r="IL142" s="5"/>
-      <c r="IM142" s="5"/>
-      <c r="IN142" s="5"/>
-      <c r="IO142" s="5"/>
-      <c r="IP142" s="5"/>
-      <c r="IQ142" s="5"/>
-      <c r="IR142" s="5"/>
-      <c r="IS142" s="5"/>
-      <c r="IT142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="7"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="CX143" s="5"/>
+      <c r="CY143" s="5"/>
+      <c r="CZ143" s="5"/>
+      <c r="DA143" s="5"/>
+      <c r="DB143" s="5"/>
+      <c r="DC143" s="5"/>
+      <c r="DD143" s="5"/>
+      <c r="DE143" s="5"/>
+      <c r="DF143" s="5"/>
+      <c r="DG143" s="5"/>
+      <c r="DH143" s="5"/>
+      <c r="DI143" s="5"/>
+      <c r="DJ143" s="5"/>
+      <c r="DK143" s="5"/>
+      <c r="DL143" s="5"/>
+      <c r="DM143" s="5"/>
+      <c r="DN143" s="5"/>
+      <c r="DO143" s="5"/>
+      <c r="DP143" s="5"/>
+      <c r="DQ143" s="5"/>
+      <c r="DR143" s="5"/>
+      <c r="DS143" s="5"/>
+      <c r="DT143" s="5"/>
+      <c r="DU143" s="5"/>
+      <c r="DV143" s="5"/>
+      <c r="DW143" s="5"/>
+      <c r="DX143" s="5"/>
+      <c r="DY143" s="5"/>
+      <c r="DZ143" s="5"/>
+      <c r="EA143" s="5"/>
+      <c r="EB143" s="5"/>
+      <c r="EC143" s="5"/>
+      <c r="ED143" s="5"/>
+      <c r="EE143" s="5"/>
+      <c r="EF143" s="5"/>
+      <c r="EG143" s="5"/>
+      <c r="EH143" s="5"/>
+      <c r="EI143" s="5"/>
+      <c r="EJ143" s="5"/>
+      <c r="EK143" s="5"/>
+      <c r="EL143" s="5"/>
+      <c r="EM143" s="5"/>
+      <c r="EN143" s="5"/>
+      <c r="EO143" s="5"/>
+      <c r="EP143" s="5"/>
+      <c r="EQ143" s="5"/>
+      <c r="ER143" s="5"/>
+      <c r="ES143" s="5"/>
+      <c r="ET143" s="5"/>
+      <c r="EU143" s="5"/>
+      <c r="EV143" s="5"/>
+      <c r="EW143" s="5"/>
+      <c r="EX143" s="5"/>
+      <c r="EY143" s="5"/>
+      <c r="EZ143" s="5"/>
+      <c r="FA143" s="5"/>
+      <c r="FB143" s="5"/>
+      <c r="FC143" s="5"/>
+      <c r="FD143" s="5"/>
+      <c r="FE143" s="5"/>
+      <c r="FF143" s="5"/>
+      <c r="FG143" s="5"/>
+      <c r="FH143" s="5"/>
+      <c r="FI143" s="5"/>
+      <c r="FJ143" s="5"/>
+      <c r="FK143" s="5"/>
+      <c r="FL143" s="5"/>
+      <c r="FM143" s="5"/>
+      <c r="FN143" s="5"/>
+      <c r="FO143" s="5"/>
+      <c r="FP143" s="5"/>
+      <c r="FQ143" s="5"/>
+      <c r="FR143" s="5"/>
+      <c r="FS143" s="5"/>
+      <c r="FT143" s="5"/>
+      <c r="FU143" s="5"/>
+      <c r="FV143" s="5"/>
+      <c r="FW143" s="5"/>
+      <c r="FX143" s="5"/>
+      <c r="FY143" s="5"/>
+      <c r="FZ143" s="5"/>
+      <c r="GA143" s="5"/>
+      <c r="GB143" s="5"/>
+      <c r="GC143" s="5"/>
+      <c r="GD143" s="5"/>
+      <c r="GE143" s="5"/>
+      <c r="GF143" s="5"/>
+      <c r="GG143" s="5"/>
+      <c r="GH143" s="5"/>
+      <c r="GI143" s="5"/>
+      <c r="GJ143" s="5"/>
+      <c r="GK143" s="5"/>
+      <c r="GL143" s="5"/>
+      <c r="GM143" s="5"/>
+      <c r="GN143" s="5"/>
+      <c r="GO143" s="5"/>
+      <c r="GP143" s="5"/>
+      <c r="GQ143" s="5"/>
+      <c r="GR143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+      <c r="HQ143" s="5"/>
+      <c r="HR143" s="5"/>
+      <c r="HS143" s="5"/>
+      <c r="HT143" s="5"/>
+      <c r="HU143" s="5"/>
+      <c r="HV143" s="5"/>
+      <c r="HW143" s="5"/>
+      <c r="HX143" s="5"/>
+      <c r="HY143" s="5"/>
+      <c r="HZ143" s="5"/>
+      <c r="IA143" s="5"/>
+      <c r="IB143" s="5"/>
+      <c r="IC143" s="5"/>
+      <c r="ID143" s="5"/>
+      <c r="IE143" s="5"/>
+      <c r="IF143" s="5"/>
+      <c r="IG143" s="5"/>
+      <c r="IH143" s="5"/>
+      <c r="II143" s="5"/>
+      <c r="IJ143" s="5"/>
+      <c r="IK143" s="5"/>
+      <c r="IL143" s="5"/>
+      <c r="IM143" s="5"/>
+      <c r="IN143" s="5"/>
+      <c r="IO143" s="5"/>
+      <c r="IP143" s="5"/>
+      <c r="IQ143" s="5"/>
+      <c r="IR143" s="5"/>
+      <c r="IS143" s="5"/>
+      <c r="IT143" s="5"/>
+    </row>
+    <row r="144" spans="1:254" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6827,7 +6882,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6837,7 +6892,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6848,7 +6903,7 @@
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -6888,7 +6943,7 @@
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -6897,7 +6952,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6917,7 +6972,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6927,7 +6982,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6947,7 +7002,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6967,7 +7022,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6987,7 +7042,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7007,7 +7062,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7027,7 +7082,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7067,7 +7122,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7077,8 +7132,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -7087,7 +7142,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7157,7 +7212,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7167,7 +7222,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7177,7 +7232,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7197,7 +7252,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7238,7 +7293,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="19"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -7247,7 +7302,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7267,7 +7322,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7327,7 +7382,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7367,7 +7422,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7377,7 +7432,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7387,7 +7442,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7397,7 +7452,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7447,7 +7502,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7457,7 +7512,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7507,7 +7562,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -7567,7 +7622,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7577,7 +7632,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7587,8 +7642,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -7597,7 +7652,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -7607,7 +7662,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7617,7 +7672,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7657,7 +7712,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7667,7 +7722,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7677,7 +7732,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="23"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7697,7 +7752,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -7737,7 +7792,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7747,7 +7802,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7797,7 +7852,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7807,8 +7862,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -7817,7 +7872,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7827,7 +7882,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7837,7 +7892,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7887,8 +7942,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -7897,7 +7952,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -7907,7 +7962,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -7935,9 +7990,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" ht="11.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -7945,9 +8000,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="11.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -7987,7 +8042,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8017,7 +8072,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8027,7 +8082,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8035,15 +8090,15 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1">
-      <c r="A267" s="4"/>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7"/>
       <c r="B267" s="24"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="7"/>
     </row>
     <row r="268" spans="1:8" s="2" customFormat="1">
       <c r="A268" s="4"/>
@@ -8055,19 +8110,19 @@
       <c r="G268" s="34"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7"/>
+    <row r="269" spans="1:8" s="2" customFormat="1">
+      <c r="A269" s="4"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="7"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8077,7 +8132,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8107,7 +8162,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8117,7 +8172,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8137,7 +8192,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8157,7 +8212,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8188,7 +8243,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -8197,7 +8252,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8207,7 +8262,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8287,7 +8342,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8297,8 +8352,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -8307,7 +8362,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="19"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8337,7 +8392,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8397,7 +8452,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -8417,7 +8472,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="21"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8427,8 +8482,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -8437,7 +8492,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8445,15 +8500,15 @@
       <c r="G307" s="30"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" s="2" customFormat="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="34"/>
-      <c r="H308" s="4"/>
+    <row r="308" spans="1:8">
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="30"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" s="2" customFormat="1">
       <c r="A309" s="4"/>
@@ -8477,7 +8532,7 @@
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -8527,8 +8582,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -8577,7 +8632,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -8627,7 +8682,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="19"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -8637,7 +8692,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -8647,7 +8702,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8655,20 +8710,20 @@
       <c r="G328" s="34"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="7"/>
+    <row r="329" spans="1:8" s="2" customFormat="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="34"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
@@ -8737,7 +8792,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -8748,7 +8803,7 @@
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -8757,7 +8812,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -8767,7 +8822,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -8777,7 +8832,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="22"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8787,7 +8842,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="22"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8827,7 +8882,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8837,7 +8892,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8847,7 +8902,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="20"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8877,7 +8932,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="22"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -8887,7 +8942,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -8907,7 +8962,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8917,7 +8972,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8927,7 +8982,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8937,7 +8992,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8967,7 +9022,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -8977,7 +9032,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -8987,7 +9042,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -8997,8 +9052,8 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -9007,7 +9062,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9037,7 +9092,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9067,7 +9122,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9087,8 +9142,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -9097,7 +9152,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9107,7 +9162,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9167,7 +9222,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9177,7 +9232,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9198,7 +9253,7 @@
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -9207,7 +9262,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="20"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9218,7 +9273,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="20"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -9227,7 +9282,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="27"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9237,7 +9292,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="22"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9287,7 +9342,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="22"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9297,7 +9352,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9307,7 +9362,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9317,7 +9372,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9327,7 +9382,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9347,7 +9402,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9387,7 +9442,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9397,7 +9452,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9417,7 +9472,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9427,7 +9482,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9437,7 +9492,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9447,7 +9502,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9467,7 +9522,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9477,7 +9532,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9487,7 +9542,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9507,7 +9562,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9517,7 +9572,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9527,7 +9582,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9577,7 +9632,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9587,7 +9642,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9647,7 +9702,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9657,7 +9712,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9677,7 +9732,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9687,7 +9742,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9707,7 +9762,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9737,7 +9792,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -9747,8 +9802,8 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="4"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -9798,7 +9853,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="4"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -9807,7 +9862,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -9817,8 +9872,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -9858,7 +9913,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -9867,7 +9922,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9877,7 +9932,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="22"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9937,7 +9992,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -9947,7 +10002,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -9957,7 +10012,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -9986,8 +10041,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="6"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -9996,7 +10051,7 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
@@ -10037,7 +10092,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="28"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10067,7 +10122,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10077,7 +10132,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10087,7 +10142,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10097,21 +10152,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="30"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="7"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="30"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="29"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
@@ -14015,6 +14070,16 @@
       <c r="G864" s="30"/>
       <c r="H864" s="7"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="30"/>
+      <c r="H865" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="232">
   <si>
     <t>Feature</t>
   </si>
@@ -89,30 +89,15 @@
     <t>Mouse Gestures</t>
   </si>
   <si>
-    <t>Keyboard Events</t>
-  </si>
-  <si>
-    <t>Public Actions</t>
-  </si>
-  <si>
     <t>int line index (2 billion lines)</t>
   </si>
   <si>
     <t>plain text model</t>
   </si>
   <si>
-    <t>syntax colored, arbitrary graphics model</t>
-  </si>
-  <si>
     <t>line-oriented model</t>
   </si>
   <si>
-    <t>multiple selection blocks</t>
-  </si>
-  <si>
-    <t>multiple carets</t>
-  </si>
-  <si>
     <t>styles</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>display line wrapped</t>
   </si>
   <si>
-    <t>Settings</t>
-  </si>
-  <si>
     <t>line wrapping</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>backspace</t>
   </si>
   <si>
-    <t>Key Strokes</t>
-  </si>
-  <si>
     <t>undo</t>
   </si>
   <si>
@@ -431,27 +410,15 @@
     <t>is modified</t>
   </si>
   <si>
-    <t>bottom area</t>
-  </si>
-  <si>
     <t>pops up with multiple search results</t>
   </si>
   <si>
     <t>ETA:</t>
   </si>
   <si>
-    <t>service components between lines</t>
-  </si>
-  <si>
     <t>enabled horizontal scroll bar</t>
   </si>
   <si>
-    <t>vertical scrollbar policy</t>
-  </si>
-  <si>
-    <t>horizontal scrollbar policy</t>
-  </si>
-  <si>
     <t>select all</t>
   </si>
   <si>
@@ -461,36 +428,12 @@
     <t>blink</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>wrap text property</t>
-  </si>
-  <si>
-    <t>display caret property</t>
-  </si>
-  <si>
-    <t>blink rate property</t>
-  </si>
-  <si>
-    <t>editable property</t>
-  </si>
-  <si>
-    <t>model property</t>
-  </si>
-  <si>
     <t>display loading</t>
   </si>
   <si>
     <t>focus border</t>
   </si>
   <si>
-    <t>multiple selection property</t>
-  </si>
-  <si>
     <t>scrolls to visible when dragging outside of the component boundaries</t>
   </si>
   <si>
@@ -548,9 +491,6 @@
     <t>highlight occurences of selected text</t>
   </si>
   <si>
-    <t>line at caret(s) highlighted</t>
-  </si>
-  <si>
     <t>line numbers</t>
   </si>
   <si>
@@ -611,12 +551,6 @@
     <t>search options</t>
   </si>
   <si>
-    <t>highlight processor</t>
-  </si>
-  <si>
-    <t>plugin interface</t>
-  </si>
-  <si>
     <t>with history</t>
   </si>
   <si>
@@ -656,12 +590,6 @@
     <t>expand selection shape of the first/last line to the left/right border, considering LTR/RTL</t>
   </si>
   <si>
-    <t>show line numbers property</t>
-  </si>
-  <si>
-    <t>highlight caret line property</t>
-  </si>
-  <si>
     <t>dragging</t>
   </si>
   <si>
@@ -680,37 +608,112 @@
     <t>select line</t>
   </si>
   <si>
-    <t>select word at marker</t>
-  </si>
-  <si>
-    <t>pluggable word selector</t>
-  </si>
-  <si>
-    <t>supports unicode beyond basic multilingual plane</t>
-  </si>
-  <si>
     <t>stop blinking on key pressed</t>
   </si>
   <si>
     <t>moves caret after the last symbol of inserted text (char)</t>
   </si>
   <si>
-    <t>Status Line Properties</t>
-  </si>
-  <si>
     <t>FxTextEditor</t>
   </si>
   <si>
-    <t>configurable style</t>
-  </si>
-  <si>
-    <t>select word at cursor (single selection only)</t>
-  </si>
-  <si>
-    <t>select line(s) at cursor</t>
-  </si>
-  <si>
     <t>duplicate line</t>
+  </si>
+  <si>
+    <t>rich text model</t>
+  </si>
+  <si>
+    <t>supports combining characters</t>
+  </si>
+  <si>
+    <t>supports unicode beyond basic plane (flags, etc.)</t>
+  </si>
+  <si>
+    <t>tab policy</t>
+  </si>
+  <si>
+    <t>display caret</t>
+  </si>
+  <si>
+    <t>background color</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>highlight caret line</t>
+  </si>
+  <si>
+    <t>caret blink rate</t>
+  </si>
+  <si>
+    <t>API: Properties</t>
+  </si>
+  <si>
+    <t>line number formatter</t>
+  </si>
+  <si>
+    <t>selection segment</t>
+  </si>
+  <si>
+    <t>selection (committed)</t>
+  </si>
+  <si>
+    <t>API: actions</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>move down</t>
+  </si>
+  <si>
+    <t>move end</t>
+  </si>
+  <si>
+    <t>move home</t>
+  </si>
+  <si>
+    <t>move left</t>
+  </si>
+  <si>
+    <t>move right</t>
+  </si>
+  <si>
+    <t>move up</t>
+  </si>
+  <si>
+    <t>select word policy</t>
+  </si>
+  <si>
+    <t>API: Plugins</t>
+  </si>
+  <si>
+    <t>word selector</t>
+  </si>
+  <si>
+    <t>configurable format</t>
+  </si>
+  <si>
+    <t>line at caret highlight</t>
+  </si>
+  <si>
+    <t>service components between lines (like comments)</t>
+  </si>
+  <si>
+    <t>Key Map</t>
+  </si>
+  <si>
+    <t>select word at cursor</t>
+  </si>
+  <si>
+    <t>select line at cursor</t>
+  </si>
+  <si>
+    <t>provide own sections for plain text and rich text models</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -970,7 +994,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955313"/>
+          <c:w val="0.91978071330955324"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1003,10 +1027,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1017,17 +1041,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$51</c:f>
+              <c:f>Progress!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1039,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,10 +1101,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1085,17 +1115,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1107,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,10 +1175,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1153,17 +1189,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1174,6 +1213,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1207,10 +1249,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1221,17 +1263,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$55</c:f>
+              <c:f>Progress!$E$48:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1244,21 +1289,24 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160161152"/>
-        <c:axId val="159921280"/>
+        <c:axId val="160816512"/>
+        <c:axId val="160572544"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160161152"/>
+        <c:axId val="160816512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159921280"/>
+        <c:crossAx val="160572544"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1301,7 +1349,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159921280"/>
+        <c:axId val="160572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160161152"/>
+        <c:crossAx val="160816512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1414,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218464"/>
+          <c:y val="0.33819556996218475"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1487,7 +1535,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127699E-2"/>
+          <c:x val="4.4510450248127713E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1522,10 +1570,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1536,17 +1584,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$51</c:f>
+              <c:f>Progress!$G$48:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1559,15 +1610,18 @@
                 <c:pt idx="3">
                   <c:v>9.8654708520179366E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20614035087719298</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159945088"/>
-        <c:axId val="159946624"/>
+        <c:axId val="160596352"/>
+        <c:axId val="160597888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="159945088"/>
+        <c:axId val="160596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,13 +1629,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="159946624"/>
+        <c:crossAx val="160597888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159946624"/>
+        <c:axId val="160597888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1624,7 +1678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159945088"/>
+        <c:crossAx val="160596352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,10 +1778,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1738,17 +1792,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1760,6 +1817,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,10 +1852,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1806,17 +1866,20 @@
                   <c:v>43823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916</c:v>
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1829,15 +1892,18 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159971584"/>
-        <c:axId val="160571392"/>
+        <c:axId val="160622848"/>
+        <c:axId val="162144256"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="159971584"/>
+        <c:axId val="160622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160571392"/>
+        <c:crossAx val="162144256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1879,7 +1945,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160571392"/>
+        <c:axId val="162144256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159971584"/>
+        <c:crossAx val="160622848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2020,7 +2086,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2428,10 +2494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2444,7 +2510,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2479,7 +2545,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2488,7 +2554,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2502,7 +2568,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -2510,40 +2576,40 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="B11" s="22" t="s">
-        <v>25</v>
+      <c r="B11" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="22" t="s">
-        <v>26</v>
+      <c r="B13" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2551,8 +2617,8 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="20" t="s">
-        <v>132</v>
+      <c r="B16" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2566,7 +2632,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2574,25 +2640,39 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7"/>
+      <c r="B22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
@@ -2601,153 +2681,156 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="22"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="4"/>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
@@ -2761,7 +2844,9 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22"/>
+      <c r="B46" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
@@ -2771,25 +2856,35 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2798,7 +2893,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2806,86 +2901,98 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>227</v>
+      <c r="B55" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="20" t="s">
-        <v>141</v>
+      <c r="B57" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4" s="6" customFormat="1">
+      <c r="B59" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20" t="s">
-        <v>183</v>
+      <c r="B63" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2893,8 +3000,8 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20" t="s">
-        <v>211</v>
+      <c r="B64" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -2908,7 +3015,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -2917,7 +3024,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2926,7 +3033,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2935,7 +3042,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2943,17 +3050,13 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>199</v>
+      <c r="B71" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2962,7 +3065,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2975,126 +3078,99 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="27" t="s">
-        <v>32</v>
+      <c r="B74" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
-        <v>146</v>
+      <c r="B75" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>161</v>
+      <c r="B77" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="22"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="22"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22"/>
       <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20" t="s">
-        <v>41</v>
+      <c r="B87" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="20" t="s">
-        <v>204</v>
+      <c r="B88" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3102,8 +3178,8 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20" t="s">
-        <v>56</v>
+      <c r="B89" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3111,8 +3187,8 @@
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20" t="s">
-        <v>58</v>
+      <c r="B90" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3120,8 +3196,8 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="20" t="s">
-        <v>57</v>
+      <c r="B91" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3129,8 +3205,8 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="20" t="s">
-        <v>59</v>
+      <c r="B92" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3138,93 +3214,59 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="20"/>
-      <c r="C95" s="9"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22"/>
+      <c r="B103" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C103" s="7"/>
       <c r="D103" s="4"/>
     </row>
@@ -3234,13 +3276,21 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
@@ -3249,73 +3299,81 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="3" t="s">
-        <v>189</v>
+      <c r="B109" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
-        <v>190</v>
+      <c r="B111" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="7"/>
+      <c r="B112" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
-        <v>194</v>
+      <c r="B117" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3323,8 +3381,8 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22" t="s">
-        <v>195</v>
+      <c r="B118" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3338,7 +3396,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="22" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3346,13 +3404,21 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
@@ -3361,10 +3427,12 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="7"/>
+      <c r="B124" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
@@ -3373,15 +3441,17 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="7"/>
+      <c r="B126" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3390,7 +3460,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3398,67 +3468,63 @@
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>205</v>
+      <c r="B130" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="27" t="s">
-        <v>52</v>
+      <c r="B132" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="20" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
-        <v>51</v>
+      <c r="B134" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20" t="s">
-        <v>162</v>
+      <c r="B136" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>14</v>
@@ -3466,8 +3532,8 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23" t="s">
-        <v>163</v>
+      <c r="B137" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3476,7 +3542,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="20" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3484,8 +3550,8 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="23" t="s">
-        <v>210</v>
+      <c r="B139" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>14</v>
@@ -3493,36 +3559,40 @@
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B141" s="22"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="23" t="s">
-        <v>208</v>
+      <c r="B142" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="20" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3530,40 +3600,44 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="23" t="s">
-        <v>64</v>
+      <c r="B145" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="23" t="s">
-        <v>65</v>
+      <c r="B146" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="23" t="s">
-        <v>66</v>
+      <c r="B149" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3571,8 +3645,8 @@
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="23" t="s">
-        <v>157</v>
+      <c r="B150" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3580,72 +3654,76 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>70</v>
+      <c r="B152" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="23" t="s">
-        <v>75</v>
+      <c r="B153" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="23" t="s">
-        <v>74</v>
+      <c r="B156" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="23" t="s">
-        <v>76</v>
+      <c r="B157" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B159" s="22"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
@@ -3654,40 +3732,28 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B164" s="22"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="23" t="s">
-        <v>122</v>
+      <c r="B165" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -3695,31 +3761,27 @@
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B166" s="22"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="23" t="s">
-        <v>51</v>
+      <c r="B169" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3727,8 +3789,8 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="23" t="s">
-        <v>126</v>
+      <c r="B170" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3736,22 +3798,22 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="23" t="s">
-        <v>51</v>
+      <c r="B173" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
@@ -3759,8 +3821,8 @@
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="23" t="s">
-        <v>126</v>
+      <c r="B174" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
@@ -3768,13 +3830,13 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
-        <v>128</v>
+      <c r="B176" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -3782,52 +3844,42 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="23"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="7"/>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="27" t="s">
-        <v>53</v>
+      <c r="B182" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -3835,8 +3887,8 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="23" t="s">
-        <v>207</v>
+      <c r="B184" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -3844,8 +3896,8 @@
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="23" t="s">
-        <v>54</v>
+      <c r="B185" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
@@ -3854,7 +3906,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="20" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -3867,8 +3919,8 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
-        <v>68</v>
+      <c r="B188" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>14</v>
@@ -3876,8 +3928,8 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="23" t="s">
-        <v>69</v>
+      <c r="B189" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>14</v>
@@ -3885,13 +3937,17 @@
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
-        <v>71</v>
+      <c r="B191" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>14</v>
@@ -3899,8 +3955,8 @@
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="23" t="s">
-        <v>69</v>
+      <c r="B192" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
@@ -3908,13 +3964,17 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -3923,7 +3983,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="23" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3936,8 +3996,8 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="27" t="s">
-        <v>214</v>
+      <c r="B197" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>14</v>
@@ -3945,8 +4005,8 @@
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>215</v>
+      <c r="B198" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -3954,17 +4014,13 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B199" s="22"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>14</v>
@@ -3972,13 +4028,17 @@
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="27" t="s">
-        <v>130</v>
+      <c r="B202" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>14</v>
@@ -3986,17 +4046,13 @@
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="20" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -4004,8 +4060,8 @@
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22" t="s">
-        <v>160</v>
+      <c r="B205" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
@@ -4013,8 +4069,8 @@
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20" t="s">
-        <v>84</v>
+      <c r="B206" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>14</v>
@@ -4022,786 +4078,855 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B207" s="22"/>
+      <c r="C207" s="7"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20"/>
-      <c r="C209" s="7"/>
+      <c r="B209" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="19"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="4"/>
-      <c r="C211" s="7"/>
+      <c r="B211" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C212" s="7"/>
+      <c r="B212" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="2:4">
-      <c r="C213" s="7"/>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="43" t="s">
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="22"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="22"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="20"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" s="6" customFormat="1">
+      <c r="B220" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="22"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="20"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" s="6" customFormat="1">
+      <c r="B229" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="20"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" s="6" customFormat="1">
+      <c r="B234" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="23"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" s="6" customFormat="1">
+      <c r="B237" s="20"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" s="6" customFormat="1">
+      <c r="B242" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="22"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" s="6" customFormat="1">
+      <c r="B245" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="22"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="22"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="20"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" s="6" customFormat="1">
+      <c r="B254" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" s="6" customFormat="1">
+      <c r="B255" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="20"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" s="6" customFormat="1">
+      <c r="B258" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" s="6" customFormat="1">
+      <c r="B259" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" s="6" customFormat="1">
+      <c r="B260" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" s="6" customFormat="1">
+      <c r="B261" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" s="6" customFormat="1">
+      <c r="B262" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="2:4" s="6" customFormat="1">
+      <c r="B263" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" s="6" customFormat="1">
+      <c r="B264" s="22"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" s="6" customFormat="1">
+      <c r="B265" s="20"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="19"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" s="6" customFormat="1">
+      <c r="B267" s="4"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" s="6" customFormat="1">
+      <c r="B268" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="C269" s="7"/>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C270" s="7"/>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="C271" s="7"/>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272" t="s">
+        <v>74</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" t="s">
+        <v>75</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" t="s">
+        <v>76</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" t="s">
+        <v>77</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" t="s">
+        <v>78</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" t="s">
+        <v>79</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" t="s">
+        <v>80</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" t="s">
+        <v>81</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" t="s">
+        <v>84</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" s="44"/>
+      <c r="C286" s="9"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" s="44"/>
+      <c r="C287" s="9"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="44"/>
+      <c r="C288" s="9"/>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="C291" s="9"/>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C293" s="9"/>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" t="s">
+        <v>101</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" t="s">
+        <v>102</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" t="s">
+        <v>103</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" t="s">
+        <v>104</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" t="s">
+        <v>105</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" t="s">
+        <v>106</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" t="s">
         <v>133</v>
       </c>
-      <c r="C214" s="7"/>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="C215" s="7"/>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" t="s">
-        <v>80</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" t="s">
-        <v>81</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" t="s">
-        <v>82</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" t="s">
-        <v>83</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
-      <c r="B220" t="s">
-        <v>84</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" t="s">
-        <v>85</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" t="s">
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="C303" s="9"/>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="C304" s="9"/>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C305" s="9"/>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" t="s">
+        <v>73</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="44"/>
+      <c r="C311" s="7"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" t="s">
         <v>86</v>
       </c>
-      <c r="C222" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" s="44" t="s">
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
+        <v>90</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" t="s">
+        <v>161</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" t="s">
+        <v>42</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>43</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>44</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" t="s">
+        <v>87</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" t="s">
         <v>88</v>
       </c>
-      <c r="C223" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" t="s">
-        <v>87</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" t="s">
-        <v>90</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="44"/>
-      <c r="C230" s="9"/>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="44"/>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="44"/>
-      <c r="C232" s="9"/>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="C233" s="9"/>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="C234" s="9"/>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="C235" s="9"/>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="C236" s="9"/>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C237" s="9"/>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="C238" s="9"/>
-    </row>
-    <row r="239" spans="2:3">
-      <c r="B239" t="s">
-        <v>108</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3">
-      <c r="B240" t="s">
-        <v>109</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="B241" t="s">
-        <v>110</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3">
-      <c r="B242" t="s">
-        <v>111</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" t="s">
-        <v>112</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="B244" t="s">
-        <v>113</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" t="s">
-        <v>144</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="C246" s="9"/>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="C247" s="9"/>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="C248" s="9"/>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="B249" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C249" s="9"/>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" t="s">
-        <v>79</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="44"/>
-      <c r="C256" s="7"/>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" t="s">
-        <v>92</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="C258" s="9"/>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="C260" s="9"/>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" t="s">
-        <v>97</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="C263" s="9"/>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" t="s">
-        <v>181</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="C265" s="9"/>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="C266" s="9"/>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="C267" s="9"/>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="C268" s="9"/>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="C269" s="9"/>
-    </row>
-    <row r="270" spans="2:3">
-      <c r="C270" s="9"/>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="B271" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C271" s="9"/>
-    </row>
-    <row r="272" spans="2:3">
-      <c r="B272" t="s">
-        <v>48</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="B273" t="s">
-        <v>49</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4">
-      <c r="B274" t="s">
-        <v>50</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4">
-      <c r="C275" s="9"/>
-    </row>
-    <row r="276" spans="2:4">
-      <c r="B276" t="s">
-        <v>94</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4">
-      <c r="B277" t="s">
-        <v>95</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="C278" s="9"/>
-    </row>
-    <row r="279" spans="2:4">
-      <c r="B279" t="s">
-        <v>144</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4">
-      <c r="C280" s="9"/>
-    </row>
-    <row r="281" spans="2:4">
-      <c r="C281" s="9"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C283" s="7"/>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="4"/>
-    </row>
-    <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" t="s">
-        <v>144</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" t="s">
-        <v>228</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" t="s">
-        <v>229</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="4"/>
-    </row>
-    <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="C299" s="7"/>
-      <c r="D299" s="4"/>
-    </row>
-    <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D300" s="4"/>
-    </row>
-    <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="7"/>
-      <c r="D301" s="4"/>
-    </row>
-    <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" s="4"/>
-    </row>
-    <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="4"/>
-    </row>
-    <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C304" s="7"/>
-      <c r="D304" s="4"/>
-    </row>
-    <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305" s="4"/>
-    </row>
-    <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D306" s="4"/>
-    </row>
-    <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D307" s="4"/>
-    </row>
-    <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308" s="4"/>
-    </row>
-    <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D312" s="4"/>
-    </row>
-    <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="22"/>
-      <c r="C313" s="7"/>
-      <c r="D313" s="4"/>
-    </row>
-    <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="7"/>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="7"/>
-      <c r="D317" s="4"/>
-    </row>
-    <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22"/>
-      <c r="C318" s="7"/>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C319" s="7"/>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22"/>
-      <c r="C320" s="7"/>
-      <c r="D320" s="4"/>
-    </row>
-    <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D321" s="4"/>
-    </row>
-    <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D322" s="4"/>
-    </row>
-    <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D323" s="4"/>
-    </row>
-    <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" s="4"/>
-    </row>
-    <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22"/>
-      <c r="C325" s="7"/>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="C326" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D326" s="4"/>
-    </row>
-    <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D327" s="4"/>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="22"/>
+      <c r="B328" s="22" t="s">
+        <v>154</v>
+      </c>
       <c r="C328" s="7"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22" t="s">
-        <v>48</v>
+      <c r="B329" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>14</v>
@@ -4809,8 +4934,8 @@
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="22" t="s">
-        <v>49</v>
+      <c r="B330" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>14</v>
@@ -4818,8 +4943,8 @@
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22" t="s">
-        <v>50</v>
+      <c r="B331" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>14</v>
@@ -4827,13 +4952,17 @@
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22"/>
-      <c r="C332" s="7"/>
+      <c r="B332" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22" t="s">
-        <v>136</v>
+      <c r="B333" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>14</v>
@@ -4847,7 +4976,7 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="22" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>14</v>
@@ -4855,8 +4984,12 @@
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22"/>
-      <c r="C336" s="7"/>
+      <c r="B336" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
@@ -4865,69 +4998,60 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22"/>
-      <c r="C338" s="7"/>
+      <c r="B338" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22"/>
+      <c r="B339" s="22" t="s">
+        <v>199</v>
+      </c>
       <c r="C339" s="7"/>
       <c r="D339" s="4"/>
     </row>
-    <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="22"/>
-      <c r="C340" s="7"/>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C341" s="7"/>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22"/>
-      <c r="C342" s="7"/>
-      <c r="D342" s="4"/>
+    <row r="340" spans="2:4">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="C341" s="9"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22" t="s">
-        <v>148</v>
+      <c r="B343" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C344" s="7" t="s">
+      <c r="B344" s="22"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="20" t="s">
-        <v>156</v>
+      <c r="B347" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -4935,20 +5059,22 @@
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22"/>
-      <c r="C348" s="7"/>
+      <c r="B348" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B349" s="22"/>
       <c r="C349" s="7"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="20" t="s">
-        <v>150</v>
+      <c r="B350" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -4956,8 +5082,8 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20" t="s">
-        <v>151</v>
+      <c r="B351" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>14</v>
@@ -4965,352 +5091,186 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B352" s="22"/>
+      <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="20"/>
-      <c r="C353" s="7"/>
+    <row r="353" spans="1:4" s="6" customFormat="1">
+      <c r="B353" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D353" s="4"/>
     </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
+    <row r="354" spans="1:4" s="6" customFormat="1">
       <c r="B354" s="22" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="20"/>
-      <c r="C355" s="7"/>
+    <row r="355" spans="1:4" s="6" customFormat="1">
+      <c r="B355" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="356" spans="1:4" s="6" customFormat="1">
+      <c r="B356" s="22"/>
+      <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
+    <row r="357" spans="1:4" s="6" customFormat="1">
       <c r="B357" s="22" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="358" spans="1:4" s="6" customFormat="1">
+      <c r="B358" s="22"/>
+      <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20" t="s">
-        <v>221</v>
+    <row r="359" spans="1:4" s="6" customFormat="1">
+      <c r="B359" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
+    <row r="360" spans="1:4" s="6" customFormat="1">
       <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="20"/>
-      <c r="C361" s="7"/>
+    <row r="361" spans="1:4" s="6" customFormat="1">
+      <c r="B361" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
+    <row r="362" spans="1:4" s="6" customFormat="1">
       <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="363" spans="1:4" s="6" customFormat="1">
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="364" spans="1:4" s="6" customFormat="1">
+      <c r="B364" s="22"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22"/>
-      <c r="C365" s="7"/>
+    <row r="365" spans="1:4" s="6" customFormat="1">
+      <c r="B365" s="19"/>
+      <c r="C365" s="4"/>
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="366" spans="1:4" s="6" customFormat="1">
+      <c r="B366" s="21"/>
+      <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="7"/>
+    <row r="367" spans="1:4" s="6" customFormat="1">
+      <c r="B367" s="21"/>
+      <c r="C367" s="4"/>
       <c r="D367" s="4"/>
     </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22"/>
-      <c r="C368" s="7"/>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="7"/>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="22"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22"/>
-      <c r="C377" s="7"/>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="7"/>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22"/>
-      <c r="C380" s="7"/>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22"/>
-      <c r="C381" s="7"/>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22"/>
-      <c r="C383" s="7"/>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="7"/>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="1:4" s="6" customFormat="1">
-      <c r="B385" s="22"/>
-      <c r="C385" s="7"/>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="1:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="1:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="7"/>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="1:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
-      <c r="D388" s="4"/>
-    </row>
-    <row r="389" spans="1:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
-      <c r="D389" s="4"/>
-    </row>
-    <row r="390" spans="1:4" s="6" customFormat="1">
-      <c r="B390" s="22"/>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
-    </row>
-    <row r="391" spans="1:4" s="6" customFormat="1">
-      <c r="B391" s="19"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="1:4" s="6" customFormat="1">
-      <c r="B392" s="21"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="1:4" s="6" customFormat="1">
-      <c r="B393" s="21"/>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="3"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="11"/>
-      <c r="D394" s="3"/>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="3"/>
-      <c r="B395" s="8" t="s">
+    <row r="368" spans="1:4">
+      <c r="A368" s="3"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="3"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="3"/>
+      <c r="B369" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C395" s="6">
-        <f>COUNTIF(C5:C394,"y")</f>
-        <v>22</v>
-      </c>
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="3"/>
-      <c r="B396" s="8" t="s">
+      <c r="C369" s="6">
+        <f>COUNTIF(C5:C368,"y")</f>
+        <v>47</v>
+      </c>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="3"/>
+      <c r="B370" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C396" s="6">
-        <f>COUNTIF(C5:C394,"n")</f>
-        <v>201</v>
-      </c>
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="3"/>
-      <c r="B397" s="8" t="s">
+      <c r="C370" s="6">
+        <f>COUNTIF(C5:C368,"n")</f>
+        <v>181</v>
+      </c>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="3"/>
+      <c r="B371" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C397" s="7">
-        <f>COUNTIF(C5:C394,"TBD")</f>
+      <c r="C371" s="7">
+        <f>COUNTIF(C5:C368,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="3"/>
-      <c r="B398" s="8" t="s">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="3"/>
+      <c r="B372" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C398">
-        <f>SUM(C395:C397)</f>
-        <v>223</v>
-      </c>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="1:4" ht="18">
-      <c r="A399" s="3"/>
-      <c r="B399" s="10"/>
-      <c r="C399" s="10" t="s">
+      <c r="C372">
+        <f>SUM(C369:C371)</f>
+        <v>228</v>
+      </c>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4" ht="18">
+      <c r="A373" s="3"/>
+      <c r="B373" s="10"/>
+      <c r="C373" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D399" s="41">
-        <f>C395/(C396+C395 + C397)</f>
-        <v>9.8654708520179366E-2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="3"/>
-      <c r="B400" s="11"/>
-      <c r="C400" s="11"/>
-      <c r="D400" s="3"/>
+      <c r="D373" s="41">
+        <f>C369/(C370+C369 + C371)</f>
+        <v>0.20614035087719298</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="3"/>
+      <c r="B374" s="11"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C283:C65148 C252:C281 C1:C3 C6:C249">
-    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C343:C65122 C307:C341 C6:C305 C1:C3">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5325,12 +5285,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT865"/>
+  <dimension ref="A1:IT866"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection activeCell="R30" sqref="R30"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5351,7 +5311,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5637,7 +5597,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="47">
-        <v>43916</v>
+        <v>43956</v>
       </c>
       <c r="B51" s="4">
         <v>22</v>
@@ -5659,13 +5619,26 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="47"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
+      <c r="A52" s="47">
+        <v>43957</v>
+      </c>
+      <c r="B52" s="4">
+        <v>47</v>
+      </c>
+      <c r="C52" s="4">
+        <v>181</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="30">
+        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <v>0.20614035087719298</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
@@ -5674,84 +5647,84 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="31"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="30"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="38">
-        <f>MIN(G51)</f>
-        <v>9.8654708520179366E-2</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="39">
-        <f>SUM(B55:D55)</f>
-        <v>223</v>
-      </c>
-      <c r="B55" s="15">
-        <f>Features!C395</f>
-        <v>22</v>
-      </c>
-      <c r="C55" s="16">
-        <f>Features!C396</f>
-        <v>201</v>
-      </c>
-      <c r="D55" s="17">
-        <f>Features!C397</f>
+      <c r="G55" s="38">
+        <f>MIN(G52)</f>
+        <v>0.20614035087719298</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="39">
+        <f>SUM(B56:D56)</f>
+        <v>228</v>
+      </c>
+      <c r="B56" s="15">
+        <f>Features!C369</f>
+        <v>47</v>
+      </c>
+      <c r="C56" s="16">
+        <f>Features!C370</f>
+        <v>181</v>
+      </c>
+      <c r="D56" s="17">
+        <f>Features!C371</f>
         <v>0</v>
       </c>
-      <c r="E55" s="18">
-        <f>MIN(E51)</f>
+      <c r="E56" s="18">
+        <f>MIN(E52)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
-      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -5760,13 +5733,8 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="49">
-        <f>(A51-A48)*A55/B55 +A48</f>
-        <v>46839.63636363636</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5775,8 +5743,13 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="49">
+        <f>(A52-A48)*A56/B56 +A48</f>
+        <v>45347.234042553195</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5786,7 +5759,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5806,7 +5779,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5826,7 +5799,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5836,7 +5809,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5855,7 +5828,7 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
@@ -5866,7 +5839,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -5997,7 +5970,7 @@
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -6006,7 +5979,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6014,15 +5987,15 @@
       <c r="G83" s="30"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="4"/>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" s="2" customFormat="1">
       <c r="A85" s="4"/>
@@ -6196,7 +6169,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6206,7 +6179,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -6236,7 +6209,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6276,7 +6249,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="21"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6286,7 +6259,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6296,7 +6269,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6306,7 +6279,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6316,7 +6289,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6336,7 +6309,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6396,7 +6369,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6496,7 +6469,7 @@
     </row>
     <row r="132" spans="1:254" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6546,7 +6519,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6566,7 +6539,7 @@
     </row>
     <row r="139" spans="1:254" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6605,284 +6578,284 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
-      <c r="Z143" s="5"/>
-      <c r="AA143" s="5"/>
-      <c r="AB143" s="5"/>
-      <c r="AC143" s="5"/>
-      <c r="AD143" s="5"/>
-      <c r="AE143" s="5"/>
-      <c r="AF143" s="5"/>
-      <c r="AG143" s="5"/>
-      <c r="AH143" s="5"/>
-      <c r="AI143" s="5"/>
-      <c r="AJ143" s="5"/>
-      <c r="AK143" s="5"/>
-      <c r="AL143" s="5"/>
-      <c r="AM143" s="5"/>
-      <c r="AN143" s="5"/>
-      <c r="AO143" s="5"/>
-      <c r="AP143" s="5"/>
-      <c r="AQ143" s="5"/>
-      <c r="AR143" s="5"/>
-      <c r="AS143" s="5"/>
-      <c r="AT143" s="5"/>
-      <c r="AU143" s="5"/>
-      <c r="AV143" s="5"/>
-      <c r="AW143" s="5"/>
-      <c r="AX143" s="5"/>
-      <c r="AY143" s="5"/>
-      <c r="AZ143" s="5"/>
-      <c r="BA143" s="5"/>
-      <c r="BB143" s="5"/>
-      <c r="BC143" s="5"/>
-      <c r="BD143" s="5"/>
-      <c r="BE143" s="5"/>
-      <c r="BF143" s="5"/>
-      <c r="BG143" s="5"/>
-      <c r="BH143" s="5"/>
-      <c r="BI143" s="5"/>
-      <c r="BJ143" s="5"/>
-      <c r="BK143" s="5"/>
-      <c r="BL143" s="5"/>
-      <c r="BM143" s="5"/>
-      <c r="BN143" s="5"/>
-      <c r="BO143" s="5"/>
-      <c r="BP143" s="5"/>
-      <c r="BQ143" s="5"/>
-      <c r="BR143" s="5"/>
-      <c r="BS143" s="5"/>
-      <c r="BT143" s="5"/>
-      <c r="BU143" s="5"/>
-      <c r="BV143" s="5"/>
-      <c r="BW143" s="5"/>
-      <c r="BX143" s="5"/>
-      <c r="BY143" s="5"/>
-      <c r="BZ143" s="5"/>
-      <c r="CA143" s="5"/>
-      <c r="CB143" s="5"/>
-      <c r="CC143" s="5"/>
-      <c r="CD143" s="5"/>
-      <c r="CE143" s="5"/>
-      <c r="CF143" s="5"/>
-      <c r="CG143" s="5"/>
-      <c r="CH143" s="5"/>
-      <c r="CI143" s="5"/>
-      <c r="CJ143" s="5"/>
-      <c r="CK143" s="5"/>
-      <c r="CL143" s="5"/>
-      <c r="CM143" s="5"/>
-      <c r="CN143" s="5"/>
-      <c r="CO143" s="5"/>
-      <c r="CP143" s="5"/>
-      <c r="CQ143" s="5"/>
-      <c r="CR143" s="5"/>
-      <c r="CS143" s="5"/>
-      <c r="CT143" s="5"/>
-      <c r="CU143" s="5"/>
-      <c r="CV143" s="5"/>
-      <c r="CW143" s="5"/>
-      <c r="CX143" s="5"/>
-      <c r="CY143" s="5"/>
-      <c r="CZ143" s="5"/>
-      <c r="DA143" s="5"/>
-      <c r="DB143" s="5"/>
-      <c r="DC143" s="5"/>
-      <c r="DD143" s="5"/>
-      <c r="DE143" s="5"/>
-      <c r="DF143" s="5"/>
-      <c r="DG143" s="5"/>
-      <c r="DH143" s="5"/>
-      <c r="DI143" s="5"/>
-      <c r="DJ143" s="5"/>
-      <c r="DK143" s="5"/>
-      <c r="DL143" s="5"/>
-      <c r="DM143" s="5"/>
-      <c r="DN143" s="5"/>
-      <c r="DO143" s="5"/>
-      <c r="DP143" s="5"/>
-      <c r="DQ143" s="5"/>
-      <c r="DR143" s="5"/>
-      <c r="DS143" s="5"/>
-      <c r="DT143" s="5"/>
-      <c r="DU143" s="5"/>
-      <c r="DV143" s="5"/>
-      <c r="DW143" s="5"/>
-      <c r="DX143" s="5"/>
-      <c r="DY143" s="5"/>
-      <c r="DZ143" s="5"/>
-      <c r="EA143" s="5"/>
-      <c r="EB143" s="5"/>
-      <c r="EC143" s="5"/>
-      <c r="ED143" s="5"/>
-      <c r="EE143" s="5"/>
-      <c r="EF143" s="5"/>
-      <c r="EG143" s="5"/>
-      <c r="EH143" s="5"/>
-      <c r="EI143" s="5"/>
-      <c r="EJ143" s="5"/>
-      <c r="EK143" s="5"/>
-      <c r="EL143" s="5"/>
-      <c r="EM143" s="5"/>
-      <c r="EN143" s="5"/>
-      <c r="EO143" s="5"/>
-      <c r="EP143" s="5"/>
-      <c r="EQ143" s="5"/>
-      <c r="ER143" s="5"/>
-      <c r="ES143" s="5"/>
-      <c r="ET143" s="5"/>
-      <c r="EU143" s="5"/>
-      <c r="EV143" s="5"/>
-      <c r="EW143" s="5"/>
-      <c r="EX143" s="5"/>
-      <c r="EY143" s="5"/>
-      <c r="EZ143" s="5"/>
-      <c r="FA143" s="5"/>
-      <c r="FB143" s="5"/>
-      <c r="FC143" s="5"/>
-      <c r="FD143" s="5"/>
-      <c r="FE143" s="5"/>
-      <c r="FF143" s="5"/>
-      <c r="FG143" s="5"/>
-      <c r="FH143" s="5"/>
-      <c r="FI143" s="5"/>
-      <c r="FJ143" s="5"/>
-      <c r="FK143" s="5"/>
-      <c r="FL143" s="5"/>
-      <c r="FM143" s="5"/>
-      <c r="FN143" s="5"/>
-      <c r="FO143" s="5"/>
-      <c r="FP143" s="5"/>
-      <c r="FQ143" s="5"/>
-      <c r="FR143" s="5"/>
-      <c r="FS143" s="5"/>
-      <c r="FT143" s="5"/>
-      <c r="FU143" s="5"/>
-      <c r="FV143" s="5"/>
-      <c r="FW143" s="5"/>
-      <c r="FX143" s="5"/>
-      <c r="FY143" s="5"/>
-      <c r="FZ143" s="5"/>
-      <c r="GA143" s="5"/>
-      <c r="GB143" s="5"/>
-      <c r="GC143" s="5"/>
-      <c r="GD143" s="5"/>
-      <c r="GE143" s="5"/>
-      <c r="GF143" s="5"/>
-      <c r="GG143" s="5"/>
-      <c r="GH143" s="5"/>
-      <c r="GI143" s="5"/>
-      <c r="GJ143" s="5"/>
-      <c r="GK143" s="5"/>
-      <c r="GL143" s="5"/>
-      <c r="GM143" s="5"/>
-      <c r="GN143" s="5"/>
-      <c r="GO143" s="5"/>
-      <c r="GP143" s="5"/>
-      <c r="GQ143" s="5"/>
-      <c r="GR143" s="5"/>
-      <c r="GS143" s="5"/>
-      <c r="GT143" s="5"/>
-      <c r="GU143" s="5"/>
-      <c r="GV143" s="5"/>
-      <c r="GW143" s="5"/>
-      <c r="GX143" s="5"/>
-      <c r="GY143" s="5"/>
-      <c r="GZ143" s="5"/>
-      <c r="HA143" s="5"/>
-      <c r="HB143" s="5"/>
-      <c r="HC143" s="5"/>
-      <c r="HD143" s="5"/>
-      <c r="HE143" s="5"/>
-      <c r="HF143" s="5"/>
-      <c r="HG143" s="5"/>
-      <c r="HH143" s="5"/>
-      <c r="HI143" s="5"/>
-      <c r="HJ143" s="5"/>
-      <c r="HK143" s="5"/>
-      <c r="HL143" s="5"/>
-      <c r="HM143" s="5"/>
-      <c r="HN143" s="5"/>
-      <c r="HO143" s="5"/>
-      <c r="HP143" s="5"/>
-      <c r="HQ143" s="5"/>
-      <c r="HR143" s="5"/>
-      <c r="HS143" s="5"/>
-      <c r="HT143" s="5"/>
-      <c r="HU143" s="5"/>
-      <c r="HV143" s="5"/>
-      <c r="HW143" s="5"/>
-      <c r="HX143" s="5"/>
-      <c r="HY143" s="5"/>
-      <c r="HZ143" s="5"/>
-      <c r="IA143" s="5"/>
-      <c r="IB143" s="5"/>
-      <c r="IC143" s="5"/>
-      <c r="ID143" s="5"/>
-      <c r="IE143" s="5"/>
-      <c r="IF143" s="5"/>
-      <c r="IG143" s="5"/>
-      <c r="IH143" s="5"/>
-      <c r="II143" s="5"/>
-      <c r="IJ143" s="5"/>
-      <c r="IK143" s="5"/>
-      <c r="IL143" s="5"/>
-      <c r="IM143" s="5"/>
-      <c r="IN143" s="5"/>
-      <c r="IO143" s="5"/>
-      <c r="IP143" s="5"/>
-      <c r="IQ143" s="5"/>
-      <c r="IR143" s="5"/>
-      <c r="IS143" s="5"/>
-      <c r="IT143" s="5"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="7"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+      <c r="AO144" s="5"/>
+      <c r="AP144" s="5"/>
+      <c r="AQ144" s="5"/>
+      <c r="AR144" s="5"/>
+      <c r="AS144" s="5"/>
+      <c r="AT144" s="5"/>
+      <c r="AU144" s="5"/>
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5"/>
+      <c r="BA144" s="5"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+      <c r="BG144" s="5"/>
+      <c r="BH144" s="5"/>
+      <c r="BI144" s="5"/>
+      <c r="BJ144" s="5"/>
+      <c r="BK144" s="5"/>
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+      <c r="BN144" s="5"/>
+      <c r="BO144" s="5"/>
+      <c r="BP144" s="5"/>
+      <c r="BQ144" s="5"/>
+      <c r="BR144" s="5"/>
+      <c r="BS144" s="5"/>
+      <c r="BT144" s="5"/>
+      <c r="BU144" s="5"/>
+      <c r="BV144" s="5"/>
+      <c r="BW144" s="5"/>
+      <c r="BX144" s="5"/>
+      <c r="BY144" s="5"/>
+      <c r="BZ144" s="5"/>
+      <c r="CA144" s="5"/>
+      <c r="CB144" s="5"/>
+      <c r="CC144" s="5"/>
+      <c r="CD144" s="5"/>
+      <c r="CE144" s="5"/>
+      <c r="CF144" s="5"/>
+      <c r="CG144" s="5"/>
+      <c r="CH144" s="5"/>
+      <c r="CI144" s="5"/>
+      <c r="CJ144" s="5"/>
+      <c r="CK144" s="5"/>
+      <c r="CL144" s="5"/>
+      <c r="CM144" s="5"/>
+      <c r="CN144" s="5"/>
+      <c r="CO144" s="5"/>
+      <c r="CP144" s="5"/>
+      <c r="CQ144" s="5"/>
+      <c r="CR144" s="5"/>
+      <c r="CS144" s="5"/>
+      <c r="CT144" s="5"/>
+      <c r="CU144" s="5"/>
+      <c r="CV144" s="5"/>
+      <c r="CW144" s="5"/>
+      <c r="CX144" s="5"/>
+      <c r="CY144" s="5"/>
+      <c r="CZ144" s="5"/>
+      <c r="DA144" s="5"/>
+      <c r="DB144" s="5"/>
+      <c r="DC144" s="5"/>
+      <c r="DD144" s="5"/>
+      <c r="DE144" s="5"/>
+      <c r="DF144" s="5"/>
+      <c r="DG144" s="5"/>
+      <c r="DH144" s="5"/>
+      <c r="DI144" s="5"/>
+      <c r="DJ144" s="5"/>
+      <c r="DK144" s="5"/>
+      <c r="DL144" s="5"/>
+      <c r="DM144" s="5"/>
+      <c r="DN144" s="5"/>
+      <c r="DO144" s="5"/>
+      <c r="DP144" s="5"/>
+      <c r="DQ144" s="5"/>
+      <c r="DR144" s="5"/>
+      <c r="DS144" s="5"/>
+      <c r="DT144" s="5"/>
+      <c r="DU144" s="5"/>
+      <c r="DV144" s="5"/>
+      <c r="DW144" s="5"/>
+      <c r="DX144" s="5"/>
+      <c r="DY144" s="5"/>
+      <c r="DZ144" s="5"/>
+      <c r="EA144" s="5"/>
+      <c r="EB144" s="5"/>
+      <c r="EC144" s="5"/>
+      <c r="ED144" s="5"/>
+      <c r="EE144" s="5"/>
+      <c r="EF144" s="5"/>
+      <c r="EG144" s="5"/>
+      <c r="EH144" s="5"/>
+      <c r="EI144" s="5"/>
+      <c r="EJ144" s="5"/>
+      <c r="EK144" s="5"/>
+      <c r="EL144" s="5"/>
+      <c r="EM144" s="5"/>
+      <c r="EN144" s="5"/>
+      <c r="EO144" s="5"/>
+      <c r="EP144" s="5"/>
+      <c r="EQ144" s="5"/>
+      <c r="ER144" s="5"/>
+      <c r="ES144" s="5"/>
+      <c r="ET144" s="5"/>
+      <c r="EU144" s="5"/>
+      <c r="EV144" s="5"/>
+      <c r="EW144" s="5"/>
+      <c r="EX144" s="5"/>
+      <c r="EY144" s="5"/>
+      <c r="EZ144" s="5"/>
+      <c r="FA144" s="5"/>
+      <c r="FB144" s="5"/>
+      <c r="FC144" s="5"/>
+      <c r="FD144" s="5"/>
+      <c r="FE144" s="5"/>
+      <c r="FF144" s="5"/>
+      <c r="FG144" s="5"/>
+      <c r="FH144" s="5"/>
+      <c r="FI144" s="5"/>
+      <c r="FJ144" s="5"/>
+      <c r="FK144" s="5"/>
+      <c r="FL144" s="5"/>
+      <c r="FM144" s="5"/>
+      <c r="FN144" s="5"/>
+      <c r="FO144" s="5"/>
+      <c r="FP144" s="5"/>
+      <c r="FQ144" s="5"/>
+      <c r="FR144" s="5"/>
+      <c r="FS144" s="5"/>
+      <c r="FT144" s="5"/>
+      <c r="FU144" s="5"/>
+      <c r="FV144" s="5"/>
+      <c r="FW144" s="5"/>
+      <c r="FX144" s="5"/>
+      <c r="FY144" s="5"/>
+      <c r="FZ144" s="5"/>
+      <c r="GA144" s="5"/>
+      <c r="GB144" s="5"/>
+      <c r="GC144" s="5"/>
+      <c r="GD144" s="5"/>
+      <c r="GE144" s="5"/>
+      <c r="GF144" s="5"/>
+      <c r="GG144" s="5"/>
+      <c r="GH144" s="5"/>
+      <c r="GI144" s="5"/>
+      <c r="GJ144" s="5"/>
+      <c r="GK144" s="5"/>
+      <c r="GL144" s="5"/>
+      <c r="GM144" s="5"/>
+      <c r="GN144" s="5"/>
+      <c r="GO144" s="5"/>
+      <c r="GP144" s="5"/>
+      <c r="GQ144" s="5"/>
+      <c r="GR144" s="5"/>
+      <c r="GS144" s="5"/>
+      <c r="GT144" s="5"/>
+      <c r="GU144" s="5"/>
+      <c r="GV144" s="5"/>
+      <c r="GW144" s="5"/>
+      <c r="GX144" s="5"/>
+      <c r="GY144" s="5"/>
+      <c r="GZ144" s="5"/>
+      <c r="HA144" s="5"/>
+      <c r="HB144" s="5"/>
+      <c r="HC144" s="5"/>
+      <c r="HD144" s="5"/>
+      <c r="HE144" s="5"/>
+      <c r="HF144" s="5"/>
+      <c r="HG144" s="5"/>
+      <c r="HH144" s="5"/>
+      <c r="HI144" s="5"/>
+      <c r="HJ144" s="5"/>
+      <c r="HK144" s="5"/>
+      <c r="HL144" s="5"/>
+      <c r="HM144" s="5"/>
+      <c r="HN144" s="5"/>
+      <c r="HO144" s="5"/>
+      <c r="HP144" s="5"/>
+      <c r="HQ144" s="5"/>
+      <c r="HR144" s="5"/>
+      <c r="HS144" s="5"/>
+      <c r="HT144" s="5"/>
+      <c r="HU144" s="5"/>
+      <c r="HV144" s="5"/>
+      <c r="HW144" s="5"/>
+      <c r="HX144" s="5"/>
+      <c r="HY144" s="5"/>
+      <c r="HZ144" s="5"/>
+      <c r="IA144" s="5"/>
+      <c r="IB144" s="5"/>
+      <c r="IC144" s="5"/>
+      <c r="ID144" s="5"/>
+      <c r="IE144" s="5"/>
+      <c r="IF144" s="5"/>
+      <c r="IG144" s="5"/>
+      <c r="IH144" s="5"/>
+      <c r="II144" s="5"/>
+      <c r="IJ144" s="5"/>
+      <c r="IK144" s="5"/>
+      <c r="IL144" s="5"/>
+      <c r="IM144" s="5"/>
+      <c r="IN144" s="5"/>
+      <c r="IO144" s="5"/>
+      <c r="IP144" s="5"/>
+      <c r="IQ144" s="5"/>
+      <c r="IR144" s="5"/>
+      <c r="IS144" s="5"/>
+      <c r="IT144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" s="2" customFormat="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6892,7 +6865,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6902,7 +6875,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6913,7 +6886,7 @@
     <row r="149" spans="1:8">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -6953,7 +6926,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -6962,7 +6935,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6982,7 +6955,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6992,7 +6965,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -7012,7 +6985,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7032,7 +7005,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7052,7 +7025,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7072,7 +7045,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7092,7 +7065,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7132,7 +7105,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="6"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7142,8 +7115,8 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -7152,7 +7125,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7222,7 +7195,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7232,7 +7205,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7242,7 +7215,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7262,7 +7235,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7303,7 +7276,7 @@
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
       <c r="B188" s="19"/>
-      <c r="C188" s="7"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -7312,7 +7285,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7332,7 +7305,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7392,7 +7365,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="21"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7432,7 +7405,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7442,7 +7415,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7452,7 +7425,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7462,7 +7435,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7512,7 +7485,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="21"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7522,7 +7495,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7572,7 +7545,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="21"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7632,7 +7605,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7642,7 +7615,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="6"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7652,8 +7625,8 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -7662,7 +7635,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="19"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7672,7 +7645,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7682,7 +7655,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="7"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7722,7 +7695,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7732,7 +7705,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7742,7 +7715,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="23"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7762,7 +7735,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -7802,7 +7775,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7812,7 +7785,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7862,7 +7835,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7872,8 +7845,8 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -7882,7 +7855,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -7892,7 +7865,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7902,7 +7875,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="23"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7952,8 +7925,8 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -7962,7 +7935,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -7972,7 +7945,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -8000,9 +7973,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8" ht="11.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="25"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8010,9 +7983,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="11.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8052,7 +8025,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8082,7 +8055,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8092,7 +8065,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8100,15 +8073,15 @@
       <c r="G267" s="30"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" s="2" customFormat="1">
-      <c r="A268" s="4"/>
+    <row r="268" spans="1:8">
+      <c r="A268" s="7"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="34"/>
-      <c r="H268" s="4"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="7"/>
     </row>
     <row r="269" spans="1:8" s="2" customFormat="1">
       <c r="A269" s="4"/>
@@ -8120,19 +8093,19 @@
       <c r="G269" s="34"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="7"/>
+    <row r="270" spans="1:8" s="2" customFormat="1">
+      <c r="A270" s="4"/>
       <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="7"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8142,7 +8115,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8172,7 +8145,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8182,7 +8155,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8202,7 +8175,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="20"/>
+      <c r="B278" s="7"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8222,7 +8195,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8253,7 +8226,7 @@
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
+      <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -8262,7 +8235,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="6"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8272,7 +8245,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8352,7 +8325,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8362,8 +8335,8 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -8372,7 +8345,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="19"/>
+      <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -8402,7 +8375,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="4"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8462,7 +8435,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="19"/>
+      <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -8482,7 +8455,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="21"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -8492,8 +8465,8 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
@@ -8502,7 +8475,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="6"/>
+      <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -8510,15 +8483,15 @@
       <c r="G308" s="30"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8" s="2" customFormat="1">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="34"/>
-      <c r="H309" s="4"/>
+    <row r="309" spans="1:8">
+      <c r="A309" s="7"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="30"/>
+      <c r="H309" s="7"/>
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
@@ -8542,7 +8515,7 @@
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
-      <c r="B312" s="19"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="9"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -8592,8 +8565,8 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="4"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="9"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -8642,7 +8615,7 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="21"/>
+      <c r="B322" s="26"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -8692,7 +8665,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="19"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -8702,7 +8675,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8712,7 +8685,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -8720,20 +8693,20 @@
       <c r="G329" s="34"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="7"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="7"/>
-      <c r="G330" s="30"/>
-      <c r="H330" s="7"/>
+    <row r="330" spans="1:8" s="2" customFormat="1">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="34"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
-      <c r="C331" s="4"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
@@ -8802,7 +8775,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="7"/>
       <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -8813,7 +8786,7 @@
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -8822,7 +8795,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="6"/>
+      <c r="B340" s="4"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -8832,7 +8805,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8842,7 +8815,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="22"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8852,7 +8825,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -8892,7 +8865,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8902,7 +8875,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8912,7 +8885,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="20"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -8942,7 +8915,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="22"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -8952,7 +8925,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="20"/>
+      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8972,7 +8945,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -8982,7 +8955,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8992,7 +8965,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9002,7 +8975,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9032,7 +9005,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9042,7 +9015,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="27"/>
+      <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9052,7 +9025,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9062,8 +9035,8 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
@@ -9072,7 +9045,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="4"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9102,7 +9075,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9132,7 +9105,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="20"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9152,8 +9125,8 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
-      <c r="C373" s="7"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
@@ -9162,7 +9135,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="6"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9172,7 +9145,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9232,7 +9205,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9242,7 +9215,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9263,7 +9236,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -9272,7 +9245,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="20"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9283,7 +9256,7 @@
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
       <c r="B386" s="20"/>
-      <c r="C386" s="7"/>
+      <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -9292,7 +9265,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="27"/>
+      <c r="B387" s="20"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9302,7 +9275,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="22"/>
+      <c r="B388" s="27"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9352,7 +9325,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="22"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9362,7 +9335,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9372,7 +9345,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9382,7 +9355,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9392,7 +9365,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="22"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9412,7 +9385,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9452,7 +9425,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9462,7 +9435,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9482,7 +9455,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="22"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9492,7 +9465,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="22"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9502,7 +9475,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="6"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9512,7 +9485,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9532,7 +9505,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9542,7 +9515,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9552,7 +9525,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="20"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9572,7 +9545,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9582,7 +9555,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9592,7 +9565,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9642,7 +9615,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9652,7 +9625,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9712,7 +9685,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9722,7 +9695,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9742,7 +9715,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9752,7 +9725,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9772,7 +9745,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="4"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9802,7 +9775,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -9812,8 +9785,8 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
-      <c r="C439" s="4"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
@@ -9863,7 +9836,7 @@
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
-      <c r="C444" s="7"/>
+      <c r="C444" s="4"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -9872,7 +9845,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -9882,8 +9855,8 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -9923,7 +9896,7 @@
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -9932,7 +9905,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -9942,7 +9915,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="22"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -10002,7 +9975,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="22"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -10012,7 +9985,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -10022,7 +9995,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="22"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -10051,8 +10024,8 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="6"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="7"/>
+      <c r="B463" s="22"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10061,7 +10034,7 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="7"/>
+      <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
@@ -10102,7 +10075,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="28"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -10132,7 +10105,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10142,7 +10115,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10152,7 +10125,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -10162,21 +10135,21 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="29"/>
-      <c r="C474" s="30"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="29"/>
+      <c r="F474" s="7"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
-      <c r="C475" s="7"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="30"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="7"/>
+      <c r="F475" s="29"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
@@ -14080,6 +14053,16 @@
       <c r="G865" s="30"/>
       <c r="H865" s="7"/>
     </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="7"/>
+      <c r="B866" s="7"/>
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+      <c r="E866" s="7"/>
+      <c r="F866" s="7"/>
+      <c r="G866" s="30"/>
+      <c r="H866" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="244">
   <si>
     <t>Feature</t>
   </si>
@@ -266,12 +266,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>configurable: start of line, start of text on line</t>
-  </si>
-  <si>
-    <t>configurable: end of line, end of text on line</t>
-  </si>
-  <si>
     <t>move caret word left</t>
   </si>
   <si>
@@ -714,6 +708,48 @@
   </si>
   <si>
     <t>provide own sections for plain text and rich text models</t>
+  </si>
+  <si>
+    <t>move to document start</t>
+  </si>
+  <si>
+    <t>move to document end</t>
+  </si>
+  <si>
+    <t>move to document start: shortcut-Home</t>
+  </si>
+  <si>
+    <t>move to document end: shortcut-End</t>
+  </si>
+  <si>
+    <t>next key press navigates to the end of next row, if wrapped, unless already there</t>
+  </si>
+  <si>
+    <t>first key press navigates to the end of text</t>
+  </si>
+  <si>
+    <t>next key press navigates to the end of row</t>
+  </si>
+  <si>
+    <t>first key press navigates to the start of text</t>
+  </si>
+  <si>
+    <t>next key press navigates to the start of row</t>
+  </si>
+  <si>
+    <t>next key press navigates to the start of previous row, if wrapped, unless already there</t>
+  </si>
+  <si>
+    <t>sets phantom position</t>
+  </si>
+  <si>
+    <t>uses phantom position</t>
+  </si>
+  <si>
+    <t>move to the start of the document</t>
+  </si>
+  <si>
+    <t>move to the end of the document</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1030,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955324"/>
+          <c:w val="0.91978071330955335"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1027,10 +1063,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1046,15 +1082,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$52</c:f>
+              <c:f>Progress!$B$48:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1069,6 +1108,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,10 +1143,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1120,15 +1162,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1188,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,10 +1223,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1194,15 +1242,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1216,6 +1267,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1249,10 +1303,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1268,15 +1322,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$56</c:f>
+              <c:f>Progress!$E$48:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1292,21 +1349,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160816512"/>
-        <c:axId val="160572544"/>
+        <c:axId val="153472384"/>
+        <c:axId val="153232512"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160816512"/>
+        <c:axId val="153472384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160572544"/>
+        <c:crossAx val="153232512"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1349,7 +1409,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160572544"/>
+        <c:axId val="153232512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160816512"/>
+        <c:crossAx val="153472384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,7 +1474,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218475"/>
+          <c:y val="0.33819556996218486"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1535,7 +1595,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127713E-2"/>
+          <c:x val="4.4510450248127727E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1570,10 +1630,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1589,15 +1649,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$52</c:f>
+              <c:f>Progress!$G$48:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1613,15 +1676,18 @@
                 <c:pt idx="4">
                   <c:v>0.20614035087719298</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22093023255813954</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160596352"/>
-        <c:axId val="160597888"/>
+        <c:axId val="153252224"/>
+        <c:axId val="153253760"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160596352"/>
+        <c:axId val="153252224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,13 +1695,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="160597888"/>
+        <c:crossAx val="153253760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160597888"/>
+        <c:axId val="153253760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1678,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160596352"/>
+        <c:crossAx val="153252224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,10 +1844,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1797,15 +1863,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1820,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,10 +1924,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1871,15 +1943,18 @@
                 <c:pt idx="4">
                   <c:v>43957</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1895,15 +1970,18 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160622848"/>
-        <c:axId val="162144256"/>
+        <c:axId val="153282816"/>
+        <c:axId val="153812992"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160622848"/>
+        <c:axId val="153282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +2014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162144256"/>
+        <c:crossAx val="153812992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1945,7 +2023,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162144256"/>
+        <c:axId val="153812992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160622848"/>
+        <c:crossAx val="153282816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2086,7 +2164,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2494,10 +2572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2510,7 +2588,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2577,7 +2655,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2586,7 +2664,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2595,7 +2673,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2609,7 +2687,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2618,7 +2696,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2650,7 +2728,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2659,7 +2737,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2668,7 +2746,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2692,7 +2770,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2704,7 +2782,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2722,7 +2800,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2731,7 +2809,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2740,7 +2818,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2749,7 +2827,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2758,7 +2836,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2767,7 +2845,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2776,7 +2854,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2784,7 +2862,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2792,7 +2870,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2800,7 +2878,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2808,7 +2886,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2816,7 +2894,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2845,7 +2923,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
@@ -2857,7 +2935,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2875,7 +2953,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2884,7 +2962,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2893,7 +2971,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2902,7 +2980,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2911,7 +2989,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -2920,7 +2998,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2929,7 +3007,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2956,7 +3034,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -2965,34 +3043,30 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3001,7 +3075,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3009,13 +3083,17 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3024,7 +3102,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3032,17 +3110,13 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3050,13 +3124,17 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3065,7 +3143,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3079,7 +3157,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="22" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3088,7 +3166,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3096,12 +3174,13 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="22"/>
       <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="9" t="s">
-        <v>155</v>
+      <c r="B77" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3109,22 +3188,25 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
@@ -3133,8 +3215,12 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
@@ -3148,9 +3234,7 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="B85" s="22"/>
       <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
@@ -3160,35 +3244,25 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3197,7 +3271,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3206,7 +3280,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3214,18 +3288,30 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
@@ -3264,9 +3350,7 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B103" s="22"/>
       <c r="C103" s="7"/>
       <c r="D103" s="4"/>
     </row>
@@ -3276,21 +3360,15 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
@@ -3300,34 +3378,30 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="20" t="s">
-        <v>225</v>
+      <c r="B109" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="20" t="s">
-        <v>132</v>
+      <c r="B111" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>2</v>
@@ -3335,8 +3409,8 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
-        <v>30</v>
+      <c r="B112" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2</v>
@@ -3344,13 +3418,17 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22" t="s">
-        <v>226</v>
+      <c r="B114" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3358,45 +3436,45 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" s="7" t="s">
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1">
+      <c r="B117" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22" t="s">
-        <v>94</v>
+      <c r="B120" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3404,8 +3482,8 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22" t="s">
-        <v>97</v>
+      <c r="B121" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>14</v>
@@ -3413,22 +3491,22 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="22" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3436,22 +3514,22 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="7"/>
+      <c r="B125" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
-        <v>130</v>
+      <c r="B127" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3459,49 +3537,45 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="27" t="s">
-        <v>27</v>
+      <c r="B130" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="20" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="20" t="s">
-        <v>142</v>
+      <c r="B133" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3510,7 +3584,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="20" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -3518,40 +3592,40 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="27" t="s">
-        <v>26</v>
+      <c r="B136" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="20" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B138" s="22"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
-        <v>28</v>
+      <c r="B139" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>14</v>
@@ -3560,7 +3634,7 @@
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3568,40 +3642,40 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="27" t="s">
-        <v>32</v>
+      <c r="B142" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B144" s="22"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="20" t="s">
-        <v>50</v>
+      <c r="B145" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>2</v>
@@ -3610,7 +3684,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="20" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>2</v>
@@ -3619,16 +3693,16 @@
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="20" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>2</v>
@@ -3637,57 +3711,57 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20"/>
-      <c r="C151" s="9"/>
+      <c r="B151" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="27" t="s">
-        <v>33</v>
+      <c r="B152" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="9"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20" t="s">
-        <v>52</v>
+      <c r="B155" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>2</v>
@@ -3696,7 +3770,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3705,7 +3779,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3714,7 +3788,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3722,18 +3796,30 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="22"/>
-      <c r="C160" s="7"/>
+      <c r="B160" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
@@ -3752,12 +3838,8 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B165" s="22"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
@@ -3766,31 +3848,27 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B169" s="22"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3798,22 +3876,22 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B171" s="22"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>14</v>
@@ -3822,7 +3900,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
@@ -3836,7 +3914,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>14</v>
@@ -3844,8 +3922,12 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
@@ -3854,14 +3936,16 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
+      <c r="B179" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B180" s="22"/>
       <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
@@ -3871,42 +3955,32 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22" t="s">
-        <v>108</v>
-      </c>
+      <c r="B182" s="22"/>
       <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="7"/>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B185" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="20" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -3914,13 +3988,17 @@
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="27" t="s">
-        <v>46</v>
+      <c r="B188" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>14</v>
@@ -3929,25 +4007,21 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="22"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>14</v>
@@ -3956,7 +4030,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
@@ -3965,7 +4039,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>14</v>
@@ -3973,8 +4047,8 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>145</v>
+      <c r="B194" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -3982,8 +4056,8 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="23" t="s">
-        <v>188</v>
+      <c r="B195" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -3991,13 +4065,17 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="20" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>14</v>
@@ -4014,13 +4092,13 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>14</v>
@@ -4029,30 +4107,30 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="22"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -4061,30 +4139,30 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="20"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>14</v>
@@ -4093,7 +4171,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>14</v>
@@ -4107,7 +4185,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>14</v>
@@ -4116,53 +4194,53 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="22"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="23" t="s">
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="22"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="22"/>
-      <c r="C216" s="7"/>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B217" s="22"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23" t="s">
-        <v>113</v>
+      <c r="B218" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>14</v>
@@ -4170,13 +4248,13 @@
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>14</v>
@@ -4185,7 +4263,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>14</v>
@@ -4193,22 +4271,22 @@
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="22"/>
-      <c r="C223" s="7"/>
+      <c r="B223" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="20" t="s">
-        <v>118</v>
+      <c r="B224" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>14</v>
@@ -4217,30 +4295,30 @@
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="22"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4249,30 +4327,30 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="20"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>14</v>
@@ -4281,7 +4359,7 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>14</v>
@@ -4289,22 +4367,22 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="23"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="20" t="s">
-        <v>117</v>
+      <c r="B236" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4312,47 +4390,43 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="20"/>
-      <c r="C237" s="7"/>
+      <c r="B237" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="B238" s="23"/>
       <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="20"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" s="4"/>
-    </row>
-    <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="20" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4360,13 +4434,17 @@
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="22"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="20" t="s">
-        <v>62</v>
+      <c r="B244" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>14</v>
@@ -4374,8 +4452,8 @@
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="23" t="s">
-        <v>63</v>
+      <c r="B245" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
@@ -4389,7 +4467,7 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>14</v>
@@ -4412,7 +4490,7 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>14</v>
@@ -4429,13 +4507,13 @@
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="20"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="7"/>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="27" t="s">
-        <v>190</v>
+      <c r="B253" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>14</v>
@@ -4443,8 +4521,8 @@
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="20" t="s">
-        <v>191</v>
+      <c r="B254" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>14</v>
@@ -4452,31 +4530,31 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B255" s="20"/>
+      <c r="C255" s="7"/>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="20" t="s">
+      <c r="B256" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" s="6" customFormat="1">
+      <c r="B258" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="20"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="27" t="s">
-        <v>123</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>14</v>
@@ -4485,7 +4563,7 @@
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
       <c r="B259" s="20" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>14</v>
@@ -4493,17 +4571,13 @@
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B260" s="20"/>
+      <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="22" t="s">
-        <v>141</v>
+      <c r="B261" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>14</v>
@@ -4512,7 +4586,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="20" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>14</v>
@@ -4521,749 +4595,1135 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" s="6" customFormat="1">
+      <c r="B264" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" s="6" customFormat="1">
+      <c r="B265" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C263" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D263" s="4"/>
-    </row>
-    <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="22"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="4"/>
-    </row>
-    <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="20"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="4"/>
-    </row>
-    <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="19"/>
-      <c r="C266" s="7"/>
+      <c r="C266" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="4"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="7"/>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="B268" s="22"/>
       <c r="C268" s="7"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="2:4">
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="22"/>
       <c r="C269" s="7"/>
-    </row>
-    <row r="270" spans="2:4">
-      <c r="B270" s="43" t="s">
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C270" s="7"/>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="22"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="2:4" s="6" customFormat="1">
+      <c r="B273" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" s="6" customFormat="1">
+      <c r="B274" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" s="6" customFormat="1">
+      <c r="B275" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" s="6" customFormat="1">
+      <c r="B276" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="20"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="22"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="22"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" s="6" customFormat="1">
+      <c r="B288" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="22"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" s="6" customFormat="1">
+      <c r="B290" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="2:4" s="6" customFormat="1">
+      <c r="B291" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="22"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="22"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="22"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="22"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" s="6" customFormat="1">
+      <c r="B302" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" s="6" customFormat="1">
+      <c r="B303" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" s="6" customFormat="1">
+      <c r="B304" s="22"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="2:4" s="6" customFormat="1">
+      <c r="B305" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="2:4" s="6" customFormat="1">
+      <c r="B306" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" s="6" customFormat="1">
+      <c r="B307" s="22"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" s="6" customFormat="1">
+      <c r="B308" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" s="6" customFormat="1">
+      <c r="B310" s="22"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="22"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="2:4" s="6" customFormat="1">
+      <c r="B313" s="22"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" s="6" customFormat="1">
+      <c r="B314" s="22"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="22"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="22"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="20"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="19"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" s="6" customFormat="1">
+      <c r="B319" s="4"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" s="6" customFormat="1">
+      <c r="B320" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C320" s="7"/>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="C321" s="7"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C322" s="7"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="C323" s="7"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>74</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" t="s">
+        <v>75</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
+        <v>76</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
+        <v>77</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" t="s">
+        <v>232</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>233</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
+        <v>78</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" t="s">
+        <v>79</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" t="s">
+        <v>80</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" t="s">
+        <v>81</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>82</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="44"/>
+      <c r="C338" s="9"/>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" s="44"/>
+      <c r="C339" s="9"/>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" s="44"/>
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="C341" s="9"/>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="C342" s="9"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="C344" s="9"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C345" s="9"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="C346" s="9"/>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>99</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" t="s">
+        <v>100</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" t="s">
+        <v>101</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" t="s">
+        <v>102</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" t="s">
+        <v>103</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" t="s">
+        <v>104</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" t="s">
+        <v>131</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="C354" s="9"/>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="C355" s="9"/>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="C356" s="9"/>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C270" s="7"/>
-    </row>
-    <row r="271" spans="2:4">
-      <c r="C271" s="7"/>
-    </row>
-    <row r="272" spans="2:4">
-      <c r="B272" t="s">
-        <v>74</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3">
-      <c r="B273" t="s">
-        <v>75</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3">
-      <c r="B274" t="s">
-        <v>76</v>
-      </c>
-      <c r="C274" s="7" t="s">
+      <c r="C357" s="9"/>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" t="s">
+        <v>73</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="B372" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" s="44"/>
+      <c r="C375" s="7"/>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" t="s">
+        <v>84</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="C377" s="9"/>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="C379" s="9"/>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" t="s">
+        <v>88</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="C382" s="9"/>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" t="s">
+        <v>159</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="C384" s="9"/>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" t="s">
+        <v>42</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386" t="s">
+        <v>43</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" t="s">
+        <v>44</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="C388" s="9"/>
+    </row>
+    <row r="389" spans="2:4">
+      <c r="B389" t="s">
+        <v>85</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390" t="s">
+        <v>86</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
+      <c r="C391" s="9"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C392" s="7"/>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="22"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="2:4" s="6" customFormat="1">
+      <c r="B400" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="2:4" s="6" customFormat="1">
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="2:4" s="6" customFormat="1">
+      <c r="B402" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" s="4"/>
+    </row>
+    <row r="403" spans="2:4" s="6" customFormat="1">
+      <c r="B403" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C403" s="7"/>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="C404" s="9"/>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="C405" s="9"/>
+    </row>
+    <row r="407" spans="2:4" s="6" customFormat="1">
+      <c r="B407" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C407" s="7"/>
+      <c r="D407" s="4"/>
+    </row>
+    <row r="408" spans="2:4" s="6" customFormat="1">
+      <c r="B408" s="22"/>
+      <c r="C408" s="7"/>
+      <c r="D408" s="4"/>
+    </row>
+    <row r="409" spans="2:4" s="6" customFormat="1">
+      <c r="B409" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="4"/>
+    </row>
+    <row r="410" spans="2:4" s="6" customFormat="1">
+      <c r="B410" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C410" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="2:3">
-      <c r="B275" t="s">
-        <v>77</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3">
-      <c r="B276" t="s">
-        <v>78</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3">
-      <c r="B277" t="s">
-        <v>79</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3">
-      <c r="B278" t="s">
-        <v>80</v>
-      </c>
-      <c r="C278" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3">
-      <c r="B279" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3">
-      <c r="B280" t="s">
-        <v>81</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3">
-      <c r="B281" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3">
-      <c r="B282" t="s">
-        <v>84</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3">
-      <c r="B283" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3">
-      <c r="B284" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3">
-      <c r="B285" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3">
-      <c r="B286" s="44"/>
-      <c r="C286" s="9"/>
-    </row>
-    <row r="287" spans="2:3">
-      <c r="B287" s="44"/>
-      <c r="C287" s="9"/>
-    </row>
-    <row r="288" spans="2:3">
-      <c r="B288" s="44"/>
-      <c r="C288" s="9"/>
-    </row>
-    <row r="289" spans="2:3">
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="2:3">
-      <c r="C290" s="9"/>
-    </row>
-    <row r="291" spans="2:3">
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="2:3">
-      <c r="C292" s="9"/>
-    </row>
-    <row r="293" spans="2:3">
-      <c r="B293" s="43" t="s">
+      <c r="D410" s="4"/>
+    </row>
+    <row r="411" spans="2:4" s="6" customFormat="1">
+      <c r="B411" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" s="4"/>
+    </row>
+    <row r="412" spans="2:4" s="6" customFormat="1">
+      <c r="B412" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="4"/>
+    </row>
+    <row r="413" spans="2:4" s="6" customFormat="1">
+      <c r="B413" s="22"/>
+      <c r="C413" s="7"/>
+      <c r="D413" s="4"/>
+    </row>
+    <row r="414" spans="2:4" s="6" customFormat="1">
+      <c r="B414" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="4"/>
+    </row>
+    <row r="415" spans="2:4" s="6" customFormat="1">
+      <c r="B415" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="4"/>
+    </row>
+    <row r="416" spans="2:4" s="6" customFormat="1">
+      <c r="B416" s="22"/>
+      <c r="C416" s="7"/>
+      <c r="D416" s="4"/>
+    </row>
+    <row r="417" spans="1:4" s="6" customFormat="1">
+      <c r="B417" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417" s="4"/>
+    </row>
+    <row r="418" spans="1:4" s="6" customFormat="1">
+      <c r="B418" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D418" s="4"/>
+    </row>
+    <row r="419" spans="1:4" s="6" customFormat="1">
+      <c r="B419" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="4"/>
+    </row>
+    <row r="420" spans="1:4" s="6" customFormat="1">
+      <c r="B420" s="22"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="4"/>
+    </row>
+    <row r="421" spans="1:4" s="6" customFormat="1">
+      <c r="B421" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C293" s="9"/>
-    </row>
-    <row r="294" spans="2:3">
-      <c r="C294" s="9"/>
-    </row>
-    <row r="295" spans="2:3">
-      <c r="B295" t="s">
-        <v>101</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3">
-      <c r="B296" t="s">
-        <v>102</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3">
-      <c r="B297" t="s">
-        <v>103</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3">
-      <c r="B298" t="s">
-        <v>104</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3">
-      <c r="B299" t="s">
-        <v>105</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3">
-      <c r="B300" t="s">
-        <v>106</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3">
-      <c r="B301" t="s">
-        <v>133</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3">
-      <c r="C302" s="9"/>
-    </row>
-    <row r="303" spans="2:3">
-      <c r="C303" s="9"/>
-    </row>
-    <row r="304" spans="2:3">
-      <c r="C304" s="9"/>
-    </row>
-    <row r="305" spans="2:3">
-      <c r="B305" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C305" s="9"/>
-    </row>
-    <row r="307" spans="2:3">
-      <c r="B307" t="s">
-        <v>73</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="308" spans="2:3">
-      <c r="B308" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="309" spans="2:3">
-      <c r="B309" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="2:3">
-      <c r="B310" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="311" spans="2:3">
-      <c r="B311" s="44"/>
-      <c r="C311" s="7"/>
-    </row>
-    <row r="312" spans="2:3">
-      <c r="B312" t="s">
-        <v>86</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3">
-      <c r="C313" s="9"/>
-    </row>
-    <row r="314" spans="2:3">
-      <c r="B314" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C314" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3">
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="2:3">
-      <c r="B316" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3">
-      <c r="B317" t="s">
-        <v>90</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="318" spans="2:3">
-      <c r="C318" s="9"/>
-    </row>
-    <row r="319" spans="2:3">
-      <c r="B319" t="s">
-        <v>161</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3">
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="B321" t="s">
-        <v>42</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4">
-      <c r="B322" t="s">
-        <v>43</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4">
-      <c r="B323" t="s">
-        <v>44</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="C324" s="9"/>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="B325" t="s">
-        <v>87</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="B326" t="s">
-        <v>88</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4">
-      <c r="C327" s="9"/>
-    </row>
-    <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C328" s="7"/>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="22"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="C340" s="9"/>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="C341" s="9"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C343" s="7"/>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22"/>
-      <c r="C344" s="7"/>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22"/>
-      <c r="C349" s="7"/>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22"/>
-      <c r="C352" s="7"/>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="1:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="1:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="1:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="1:4" s="6" customFormat="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="7"/>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="1:4" s="6" customFormat="1">
-      <c r="B357" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="1:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="7"/>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="1:4" s="6" customFormat="1">
-      <c r="B359" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="1:4" s="6" customFormat="1">
-      <c r="B360" s="22"/>
-      <c r="C360" s="7"/>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="1:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="1:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="1:4" s="6" customFormat="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="7"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="1:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="1:4" s="6" customFormat="1">
-      <c r="B365" s="19"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="1:4" s="6" customFormat="1">
-      <c r="B366" s="21"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="1:4" s="6" customFormat="1">
-      <c r="B367" s="21"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="3"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
-      <c r="D368" s="3"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="3"/>
-      <c r="B369" s="8" t="s">
+      <c r="C421" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421" s="4"/>
+    </row>
+    <row r="422" spans="1:4" s="6" customFormat="1">
+      <c r="B422" s="22"/>
+      <c r="C422" s="7"/>
+      <c r="D422" s="4"/>
+    </row>
+    <row r="423" spans="1:4" s="6" customFormat="1">
+      <c r="B423" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="4"/>
+    </row>
+    <row r="424" spans="1:4" s="6" customFormat="1">
+      <c r="B424" s="22"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="4"/>
+    </row>
+    <row r="425" spans="1:4" s="6" customFormat="1">
+      <c r="B425" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="4"/>
+    </row>
+    <row r="426" spans="1:4" s="6" customFormat="1">
+      <c r="B426" s="22"/>
+      <c r="C426" s="7"/>
+      <c r="D426" s="4"/>
+    </row>
+    <row r="427" spans="1:4" s="6" customFormat="1">
+      <c r="B427" s="22"/>
+      <c r="C427" s="7"/>
+      <c r="D427" s="4"/>
+    </row>
+    <row r="428" spans="1:4" s="6" customFormat="1">
+      <c r="B428" s="22"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+    </row>
+    <row r="429" spans="1:4" s="6" customFormat="1">
+      <c r="B429" s="19"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+    </row>
+    <row r="430" spans="1:4" s="6" customFormat="1">
+      <c r="B430" s="21"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
+    </row>
+    <row r="431" spans="1:4" s="6" customFormat="1">
+      <c r="B431" s="21"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="3"/>
+      <c r="B432" s="11"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="3"/>
+      <c r="B433" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C369" s="6">
-        <f>COUNTIF(C5:C368,"y")</f>
-        <v>47</v>
-      </c>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="3"/>
-      <c r="B370" s="8" t="s">
+      <c r="C433" s="6">
+        <f>COUNTIF(C5:C432,"y")</f>
+        <v>57</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="3"/>
+      <c r="B434" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C370" s="6">
-        <f>COUNTIF(C5:C368,"n")</f>
-        <v>181</v>
-      </c>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="3"/>
-      <c r="B371" s="8" t="s">
+      <c r="C434" s="6">
+        <f>COUNTIF(C5:C432,"n")</f>
+        <v>201</v>
+      </c>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="3"/>
+      <c r="B435" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C371" s="7">
-        <f>COUNTIF(C5:C368,"TBD")</f>
+      <c r="C435" s="7">
+        <f>COUNTIF(C5:C432,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="3"/>
-      <c r="B372" s="8" t="s">
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="3"/>
+      <c r="B436" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C372">
-        <f>SUM(C369:C371)</f>
-        <v>228</v>
-      </c>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4" ht="18">
-      <c r="A373" s="3"/>
-      <c r="B373" s="10"/>
-      <c r="C373" s="10" t="s">
+      <c r="C436">
+        <f>SUM(C433:C435)</f>
+        <v>258</v>
+      </c>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4" ht="18">
+      <c r="A437" s="3"/>
+      <c r="B437" s="10"/>
+      <c r="C437" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D373" s="41">
-        <f>C369/(C370+C369 + C371)</f>
-        <v>0.20614035087719298</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="3"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
-      <c r="D374" s="3"/>
+      <c r="D437" s="41">
+        <f>C433/(C434+C433 + C435)</f>
+        <v>0.22093023255813954</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3"/>
+      <c r="B438" s="11"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C343:C65122 C307:C341 C6:C305 C1:C3">
+  <conditionalFormatting sqref="C407:C65186 C371:C405 C1:C3 C6:C357">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5285,12 +5745,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT866"/>
+  <dimension ref="A1:IT867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5311,7 +5771,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5613,7 +6073,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
         <v>9.8654708520179366E-2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5636,19 +6096,32 @@
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="30">
-        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <f t="shared" si="2"/>
         <v>0.20614035087719298</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="47"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
+      <c r="A53" s="47">
+        <v>43959</v>
+      </c>
+      <c r="B53" s="4">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4">
+        <v>201</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="30">
+        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <v>0.22093023255813954</v>
+      </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:10">
@@ -5657,84 +6130,84 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="31"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="38">
-        <f>MIN(G52)</f>
-        <v>0.20614035087719298</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="39">
-        <f>SUM(B56:D56)</f>
-        <v>228</v>
-      </c>
-      <c r="B56" s="15">
-        <f>Features!C369</f>
-        <v>47</v>
-      </c>
-      <c r="C56" s="16">
-        <f>Features!C370</f>
-        <v>181</v>
-      </c>
-      <c r="D56" s="17">
-        <f>Features!C371</f>
+      <c r="G56" s="38">
+        <f>MIN(G53)</f>
+        <v>0.22093023255813954</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="39">
+        <f>SUM(B57:D57)</f>
+        <v>258</v>
+      </c>
+      <c r="B57" s="15">
+        <f>Features!C433</f>
+        <v>57</v>
+      </c>
+      <c r="C57" s="16">
+        <f>Features!C434</f>
+        <v>201</v>
+      </c>
+      <c r="D57" s="17">
+        <f>Features!C435</f>
         <v>0</v>
       </c>
-      <c r="E56" s="18">
-        <f>MIN(E52)</f>
+      <c r="E57" s="18">
+        <f>MIN(E53)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
-      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5743,13 +6216,8 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="49">
-        <f>(A52-A48)*A56/B56 +A48</f>
-        <v>45347.234042553195</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5758,8 +6226,13 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="49">
+        <f>(A53-A48)*A57/B57 +A48</f>
+        <v>45239.052631578947</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5769,7 +6242,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5789,7 +6262,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5809,7 +6282,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5819,7 +6292,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5838,7 +6311,7 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
@@ -5849,7 +6322,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5980,7 +6453,7 @@
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -5989,7 +6462,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -5997,15 +6470,15 @@
       <c r="G84" s="30"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="4"/>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="4"/>
@@ -6179,7 +6652,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -6189,7 +6662,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6219,7 +6692,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6259,7 +6732,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="21"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6269,7 +6742,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6279,7 +6752,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6289,7 +6762,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6299,7 +6772,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6319,7 +6792,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6379,7 +6852,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6437,7 +6910,7 @@
       <c r="G128" s="34"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:254" s="2" customFormat="1">
+    <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
       <c r="B129" s="19"/>
       <c r="C129" s="4"/>
@@ -6447,7 +6920,7 @@
       <c r="G129" s="34"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:254" s="2" customFormat="1">
+    <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
       <c r="B130" s="19"/>
       <c r="C130" s="4"/>
@@ -6457,7 +6930,7 @@
       <c r="G130" s="34"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:254" s="2" customFormat="1">
+    <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
       <c r="B131" s="19"/>
       <c r="C131" s="4"/>
@@ -6467,7 +6940,7 @@
       <c r="G131" s="34"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:254" s="2" customFormat="1">
+    <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
       <c r="B132" s="19"/>
       <c r="C132" s="4"/>
@@ -6477,9 +6950,9 @@
       <c r="G132" s="34"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:254" s="2" customFormat="1">
+    <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6487,7 +6960,7 @@
       <c r="G133" s="34"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:254" s="2" customFormat="1">
+    <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6497,7 +6970,7 @@
       <c r="G134" s="34"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:254" s="2" customFormat="1">
+    <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6507,7 +6980,7 @@
       <c r="G135" s="34"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:254" s="2" customFormat="1">
+    <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6517,7 +6990,7 @@
       <c r="G136" s="34"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:254" s="2" customFormat="1">
+    <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6527,9 +7000,9 @@
       <c r="G137" s="34"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:254" s="2" customFormat="1">
+    <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6537,7 +7010,7 @@
       <c r="G138" s="34"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:254" s="2" customFormat="1">
+    <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
       <c r="B139" s="19"/>
       <c r="C139" s="4"/>
@@ -6547,9 +7020,9 @@
       <c r="G139" s="34"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:254" s="2" customFormat="1">
+    <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6557,7 +7030,7 @@
       <c r="G140" s="34"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:254" s="2" customFormat="1">
+    <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6567,7 +7040,7 @@
       <c r="G141" s="34"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:254" s="2" customFormat="1">
+    <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6577,7 +7050,7 @@
       <c r="G142" s="34"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:254" s="2" customFormat="1">
+    <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6587,285 +7060,285 @@
       <c r="G143" s="34"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-      <c r="AA144" s="5"/>
-      <c r="AB144" s="5"/>
-      <c r="AC144" s="5"/>
-      <c r="AD144" s="5"/>
-      <c r="AE144" s="5"/>
-      <c r="AF144" s="5"/>
-      <c r="AG144" s="5"/>
-      <c r="AH144" s="5"/>
-      <c r="AI144" s="5"/>
-      <c r="AJ144" s="5"/>
-      <c r="AK144" s="5"/>
-      <c r="AL144" s="5"/>
-      <c r="AM144" s="5"/>
-      <c r="AN144" s="5"/>
-      <c r="AO144" s="5"/>
-      <c r="AP144" s="5"/>
-      <c r="AQ144" s="5"/>
-      <c r="AR144" s="5"/>
-      <c r="AS144" s="5"/>
-      <c r="AT144" s="5"/>
-      <c r="AU144" s="5"/>
-      <c r="AV144" s="5"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
-      <c r="AY144" s="5"/>
-      <c r="AZ144" s="5"/>
-      <c r="BA144" s="5"/>
-      <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="5"/>
-      <c r="BE144" s="5"/>
-      <c r="BF144" s="5"/>
-      <c r="BG144" s="5"/>
-      <c r="BH144" s="5"/>
-      <c r="BI144" s="5"/>
-      <c r="BJ144" s="5"/>
-      <c r="BK144" s="5"/>
-      <c r="BL144" s="5"/>
-      <c r="BM144" s="5"/>
-      <c r="BN144" s="5"/>
-      <c r="BO144" s="5"/>
-      <c r="BP144" s="5"/>
-      <c r="BQ144" s="5"/>
-      <c r="BR144" s="5"/>
-      <c r="BS144" s="5"/>
-      <c r="BT144" s="5"/>
-      <c r="BU144" s="5"/>
-      <c r="BV144" s="5"/>
-      <c r="BW144" s="5"/>
-      <c r="BX144" s="5"/>
-      <c r="BY144" s="5"/>
-      <c r="BZ144" s="5"/>
-      <c r="CA144" s="5"/>
-      <c r="CB144" s="5"/>
-      <c r="CC144" s="5"/>
-      <c r="CD144" s="5"/>
-      <c r="CE144" s="5"/>
-      <c r="CF144" s="5"/>
-      <c r="CG144" s="5"/>
-      <c r="CH144" s="5"/>
-      <c r="CI144" s="5"/>
-      <c r="CJ144" s="5"/>
-      <c r="CK144" s="5"/>
-      <c r="CL144" s="5"/>
-      <c r="CM144" s="5"/>
-      <c r="CN144" s="5"/>
-      <c r="CO144" s="5"/>
-      <c r="CP144" s="5"/>
-      <c r="CQ144" s="5"/>
-      <c r="CR144" s="5"/>
-      <c r="CS144" s="5"/>
-      <c r="CT144" s="5"/>
-      <c r="CU144" s="5"/>
-      <c r="CV144" s="5"/>
-      <c r="CW144" s="5"/>
-      <c r="CX144" s="5"/>
-      <c r="CY144" s="5"/>
-      <c r="CZ144" s="5"/>
-      <c r="DA144" s="5"/>
-      <c r="DB144" s="5"/>
-      <c r="DC144" s="5"/>
-      <c r="DD144" s="5"/>
-      <c r="DE144" s="5"/>
-      <c r="DF144" s="5"/>
-      <c r="DG144" s="5"/>
-      <c r="DH144" s="5"/>
-      <c r="DI144" s="5"/>
-      <c r="DJ144" s="5"/>
-      <c r="DK144" s="5"/>
-      <c r="DL144" s="5"/>
-      <c r="DM144" s="5"/>
-      <c r="DN144" s="5"/>
-      <c r="DO144" s="5"/>
-      <c r="DP144" s="5"/>
-      <c r="DQ144" s="5"/>
-      <c r="DR144" s="5"/>
-      <c r="DS144" s="5"/>
-      <c r="DT144" s="5"/>
-      <c r="DU144" s="5"/>
-      <c r="DV144" s="5"/>
-      <c r="DW144" s="5"/>
-      <c r="DX144" s="5"/>
-      <c r="DY144" s="5"/>
-      <c r="DZ144" s="5"/>
-      <c r="EA144" s="5"/>
-      <c r="EB144" s="5"/>
-      <c r="EC144" s="5"/>
-      <c r="ED144" s="5"/>
-      <c r="EE144" s="5"/>
-      <c r="EF144" s="5"/>
-      <c r="EG144" s="5"/>
-      <c r="EH144" s="5"/>
-      <c r="EI144" s="5"/>
-      <c r="EJ144" s="5"/>
-      <c r="EK144" s="5"/>
-      <c r="EL144" s="5"/>
-      <c r="EM144" s="5"/>
-      <c r="EN144" s="5"/>
-      <c r="EO144" s="5"/>
-      <c r="EP144" s="5"/>
-      <c r="EQ144" s="5"/>
-      <c r="ER144" s="5"/>
-      <c r="ES144" s="5"/>
-      <c r="ET144" s="5"/>
-      <c r="EU144" s="5"/>
-      <c r="EV144" s="5"/>
-      <c r="EW144" s="5"/>
-      <c r="EX144" s="5"/>
-      <c r="EY144" s="5"/>
-      <c r="EZ144" s="5"/>
-      <c r="FA144" s="5"/>
-      <c r="FB144" s="5"/>
-      <c r="FC144" s="5"/>
-      <c r="FD144" s="5"/>
-      <c r="FE144" s="5"/>
-      <c r="FF144" s="5"/>
-      <c r="FG144" s="5"/>
-      <c r="FH144" s="5"/>
-      <c r="FI144" s="5"/>
-      <c r="FJ144" s="5"/>
-      <c r="FK144" s="5"/>
-      <c r="FL144" s="5"/>
-      <c r="FM144" s="5"/>
-      <c r="FN144" s="5"/>
-      <c r="FO144" s="5"/>
-      <c r="FP144" s="5"/>
-      <c r="FQ144" s="5"/>
-      <c r="FR144" s="5"/>
-      <c r="FS144" s="5"/>
-      <c r="FT144" s="5"/>
-      <c r="FU144" s="5"/>
-      <c r="FV144" s="5"/>
-      <c r="FW144" s="5"/>
-      <c r="FX144" s="5"/>
-      <c r="FY144" s="5"/>
-      <c r="FZ144" s="5"/>
-      <c r="GA144" s="5"/>
-      <c r="GB144" s="5"/>
-      <c r="GC144" s="5"/>
-      <c r="GD144" s="5"/>
-      <c r="GE144" s="5"/>
-      <c r="GF144" s="5"/>
-      <c r="GG144" s="5"/>
-      <c r="GH144" s="5"/>
-      <c r="GI144" s="5"/>
-      <c r="GJ144" s="5"/>
-      <c r="GK144" s="5"/>
-      <c r="GL144" s="5"/>
-      <c r="GM144" s="5"/>
-      <c r="GN144" s="5"/>
-      <c r="GO144" s="5"/>
-      <c r="GP144" s="5"/>
-      <c r="GQ144" s="5"/>
-      <c r="GR144" s="5"/>
-      <c r="GS144" s="5"/>
-      <c r="GT144" s="5"/>
-      <c r="GU144" s="5"/>
-      <c r="GV144" s="5"/>
-      <c r="GW144" s="5"/>
-      <c r="GX144" s="5"/>
-      <c r="GY144" s="5"/>
-      <c r="GZ144" s="5"/>
-      <c r="HA144" s="5"/>
-      <c r="HB144" s="5"/>
-      <c r="HC144" s="5"/>
-      <c r="HD144" s="5"/>
-      <c r="HE144" s="5"/>
-      <c r="HF144" s="5"/>
-      <c r="HG144" s="5"/>
-      <c r="HH144" s="5"/>
-      <c r="HI144" s="5"/>
-      <c r="HJ144" s="5"/>
-      <c r="HK144" s="5"/>
-      <c r="HL144" s="5"/>
-      <c r="HM144" s="5"/>
-      <c r="HN144" s="5"/>
-      <c r="HO144" s="5"/>
-      <c r="HP144" s="5"/>
-      <c r="HQ144" s="5"/>
-      <c r="HR144" s="5"/>
-      <c r="HS144" s="5"/>
-      <c r="HT144" s="5"/>
-      <c r="HU144" s="5"/>
-      <c r="HV144" s="5"/>
-      <c r="HW144" s="5"/>
-      <c r="HX144" s="5"/>
-      <c r="HY144" s="5"/>
-      <c r="HZ144" s="5"/>
-      <c r="IA144" s="5"/>
-      <c r="IB144" s="5"/>
-      <c r="IC144" s="5"/>
-      <c r="ID144" s="5"/>
-      <c r="IE144" s="5"/>
-      <c r="IF144" s="5"/>
-      <c r="IG144" s="5"/>
-      <c r="IH144" s="5"/>
-      <c r="II144" s="5"/>
-      <c r="IJ144" s="5"/>
-      <c r="IK144" s="5"/>
-      <c r="IL144" s="5"/>
-      <c r="IM144" s="5"/>
-      <c r="IN144" s="5"/>
-      <c r="IO144" s="5"/>
-      <c r="IP144" s="5"/>
-      <c r="IQ144" s="5"/>
-      <c r="IR144" s="5"/>
-      <c r="IS144" s="5"/>
-      <c r="IT144" s="5"/>
-    </row>
-    <row r="145" spans="1:8" s="2" customFormat="1">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
+    <row r="144" spans="1:8" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:254" s="2" customFormat="1">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+      <c r="AO145" s="5"/>
+      <c r="AP145" s="5"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
+      <c r="AS145" s="5"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
+      <c r="BI145" s="5"/>
+      <c r="BJ145" s="5"/>
+      <c r="BK145" s="5"/>
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+      <c r="BN145" s="5"/>
+      <c r="BO145" s="5"/>
+      <c r="BP145" s="5"/>
+      <c r="BQ145" s="5"/>
+      <c r="BR145" s="5"/>
+      <c r="BS145" s="5"/>
+      <c r="BT145" s="5"/>
+      <c r="BU145" s="5"/>
+      <c r="BV145" s="5"/>
+      <c r="BW145" s="5"/>
+      <c r="BX145" s="5"/>
+      <c r="BY145" s="5"/>
+      <c r="BZ145" s="5"/>
+      <c r="CA145" s="5"/>
+      <c r="CB145" s="5"/>
+      <c r="CC145" s="5"/>
+      <c r="CD145" s="5"/>
+      <c r="CE145" s="5"/>
+      <c r="CF145" s="5"/>
+      <c r="CG145" s="5"/>
+      <c r="CH145" s="5"/>
+      <c r="CI145" s="5"/>
+      <c r="CJ145" s="5"/>
+      <c r="CK145" s="5"/>
+      <c r="CL145" s="5"/>
+      <c r="CM145" s="5"/>
+      <c r="CN145" s="5"/>
+      <c r="CO145" s="5"/>
+      <c r="CP145" s="5"/>
+      <c r="CQ145" s="5"/>
+      <c r="CR145" s="5"/>
+      <c r="CS145" s="5"/>
+      <c r="CT145" s="5"/>
+      <c r="CU145" s="5"/>
+      <c r="CV145" s="5"/>
+      <c r="CW145" s="5"/>
+      <c r="CX145" s="5"/>
+      <c r="CY145" s="5"/>
+      <c r="CZ145" s="5"/>
+      <c r="DA145" s="5"/>
+      <c r="DB145" s="5"/>
+      <c r="DC145" s="5"/>
+      <c r="DD145" s="5"/>
+      <c r="DE145" s="5"/>
+      <c r="DF145" s="5"/>
+      <c r="DG145" s="5"/>
+      <c r="DH145" s="5"/>
+      <c r="DI145" s="5"/>
+      <c r="DJ145" s="5"/>
+      <c r="DK145" s="5"/>
+      <c r="DL145" s="5"/>
+      <c r="DM145" s="5"/>
+      <c r="DN145" s="5"/>
+      <c r="DO145" s="5"/>
+      <c r="DP145" s="5"/>
+      <c r="DQ145" s="5"/>
+      <c r="DR145" s="5"/>
+      <c r="DS145" s="5"/>
+      <c r="DT145" s="5"/>
+      <c r="DU145" s="5"/>
+      <c r="DV145" s="5"/>
+      <c r="DW145" s="5"/>
+      <c r="DX145" s="5"/>
+      <c r="DY145" s="5"/>
+      <c r="DZ145" s="5"/>
+      <c r="EA145" s="5"/>
+      <c r="EB145" s="5"/>
+      <c r="EC145" s="5"/>
+      <c r="ED145" s="5"/>
+      <c r="EE145" s="5"/>
+      <c r="EF145" s="5"/>
+      <c r="EG145" s="5"/>
+      <c r="EH145" s="5"/>
+      <c r="EI145" s="5"/>
+      <c r="EJ145" s="5"/>
+      <c r="EK145" s="5"/>
+      <c r="EL145" s="5"/>
+      <c r="EM145" s="5"/>
+      <c r="EN145" s="5"/>
+      <c r="EO145" s="5"/>
+      <c r="EP145" s="5"/>
+      <c r="EQ145" s="5"/>
+      <c r="ER145" s="5"/>
+      <c r="ES145" s="5"/>
+      <c r="ET145" s="5"/>
+      <c r="EU145" s="5"/>
+      <c r="EV145" s="5"/>
+      <c r="EW145" s="5"/>
+      <c r="EX145" s="5"/>
+      <c r="EY145" s="5"/>
+      <c r="EZ145" s="5"/>
+      <c r="FA145" s="5"/>
+      <c r="FB145" s="5"/>
+      <c r="FC145" s="5"/>
+      <c r="FD145" s="5"/>
+      <c r="FE145" s="5"/>
+      <c r="FF145" s="5"/>
+      <c r="FG145" s="5"/>
+      <c r="FH145" s="5"/>
+      <c r="FI145" s="5"/>
+      <c r="FJ145" s="5"/>
+      <c r="FK145" s="5"/>
+      <c r="FL145" s="5"/>
+      <c r="FM145" s="5"/>
+      <c r="FN145" s="5"/>
+      <c r="FO145" s="5"/>
+      <c r="FP145" s="5"/>
+      <c r="FQ145" s="5"/>
+      <c r="FR145" s="5"/>
+      <c r="FS145" s="5"/>
+      <c r="FT145" s="5"/>
+      <c r="FU145" s="5"/>
+      <c r="FV145" s="5"/>
+      <c r="FW145" s="5"/>
+      <c r="FX145" s="5"/>
+      <c r="FY145" s="5"/>
+      <c r="FZ145" s="5"/>
+      <c r="GA145" s="5"/>
+      <c r="GB145" s="5"/>
+      <c r="GC145" s="5"/>
+      <c r="GD145" s="5"/>
+      <c r="GE145" s="5"/>
+      <c r="GF145" s="5"/>
+      <c r="GG145" s="5"/>
+      <c r="GH145" s="5"/>
+      <c r="GI145" s="5"/>
+      <c r="GJ145" s="5"/>
+      <c r="GK145" s="5"/>
+      <c r="GL145" s="5"/>
+      <c r="GM145" s="5"/>
+      <c r="GN145" s="5"/>
+      <c r="GO145" s="5"/>
+      <c r="GP145" s="5"/>
+      <c r="GQ145" s="5"/>
+      <c r="GR145" s="5"/>
+      <c r="GS145" s="5"/>
+      <c r="GT145" s="5"/>
+      <c r="GU145" s="5"/>
+      <c r="GV145" s="5"/>
+      <c r="GW145" s="5"/>
+      <c r="GX145" s="5"/>
+      <c r="GY145" s="5"/>
+      <c r="GZ145" s="5"/>
+      <c r="HA145" s="5"/>
+      <c r="HB145" s="5"/>
+      <c r="HC145" s="5"/>
+      <c r="HD145" s="5"/>
+      <c r="HE145" s="5"/>
+      <c r="HF145" s="5"/>
+      <c r="HG145" s="5"/>
+      <c r="HH145" s="5"/>
+      <c r="HI145" s="5"/>
+      <c r="HJ145" s="5"/>
+      <c r="HK145" s="5"/>
+      <c r="HL145" s="5"/>
+      <c r="HM145" s="5"/>
+      <c r="HN145" s="5"/>
+      <c r="HO145" s="5"/>
+      <c r="HP145" s="5"/>
+      <c r="HQ145" s="5"/>
+      <c r="HR145" s="5"/>
+      <c r="HS145" s="5"/>
+      <c r="HT145" s="5"/>
+      <c r="HU145" s="5"/>
+      <c r="HV145" s="5"/>
+      <c r="HW145" s="5"/>
+      <c r="HX145" s="5"/>
+      <c r="HY145" s="5"/>
+      <c r="HZ145" s="5"/>
+      <c r="IA145" s="5"/>
+      <c r="IB145" s="5"/>
+      <c r="IC145" s="5"/>
+      <c r="ID145" s="5"/>
+      <c r="IE145" s="5"/>
+      <c r="IF145" s="5"/>
+      <c r="IG145" s="5"/>
+      <c r="IH145" s="5"/>
+      <c r="II145" s="5"/>
+      <c r="IJ145" s="5"/>
+      <c r="IK145" s="5"/>
+      <c r="IL145" s="5"/>
+      <c r="IM145" s="5"/>
+      <c r="IN145" s="5"/>
+      <c r="IO145" s="5"/>
+      <c r="IP145" s="5"/>
+      <c r="IQ145" s="5"/>
+      <c r="IR145" s="5"/>
+      <c r="IS145" s="5"/>
+      <c r="IT145" s="5"/>
+    </row>
+    <row r="146" spans="1:254" s="2" customFormat="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:254">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6873,9 +7346,9 @@
       <c r="G147" s="30"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:254">
       <c r="A148" s="7"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6883,9 +7356,9 @@
       <c r="G148" s="30"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -6893,17 +7366,17 @@
       <c r="G149" s="30"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:254">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="30"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:254">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
@@ -6913,7 +7386,7 @@
       <c r="G151" s="30"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
@@ -6923,7 +7396,7 @@
       <c r="G152" s="30"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:254">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="4"/>
@@ -6933,19 +7406,19 @@
       <c r="G153" s="30"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:254">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="30"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6953,7 +7426,7 @@
       <c r="G155" s="30"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="22"/>
       <c r="C156" s="7"/>
@@ -6963,9 +7436,9 @@
       <c r="G156" s="30"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6973,9 +7446,9 @@
       <c r="G157" s="30"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6983,7 +7456,7 @@
       <c r="G158" s="30"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="20"/>
       <c r="C159" s="7"/>
@@ -6993,9 +7466,9 @@
       <c r="G159" s="30"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7015,7 +7488,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7035,7 +7508,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7055,7 +7528,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7075,7 +7548,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7115,7 +7588,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7125,8 +7598,8 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -7135,7 +7608,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7205,7 +7678,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7215,7 +7688,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7225,7 +7698,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="21"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7245,7 +7718,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7286,7 +7759,7 @@
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
       <c r="B189" s="19"/>
-      <c r="C189" s="7"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -7295,7 +7768,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7315,7 +7788,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7375,7 +7848,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="21"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7415,7 +7888,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7425,7 +7898,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="6"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7435,7 +7908,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7445,7 +7918,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7495,7 +7968,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="21"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7505,7 +7978,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7555,7 +8028,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7615,7 +8088,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7625,7 +8098,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="6"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -7635,8 +8108,8 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -7645,7 +8118,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7655,7 +8128,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7665,7 +8138,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="7"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7705,7 +8178,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7715,7 +8188,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7725,7 +8198,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="23"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -7745,7 +8218,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -7785,7 +8258,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7795,7 +8268,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -7845,7 +8318,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -7855,8 +8328,8 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -7865,7 +8338,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -7875,7 +8348,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7885,7 +8358,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="23"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7935,8 +8408,8 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -7945,7 +8418,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -7955,7 +8428,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -7983,9 +8456,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8" ht="11.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="25"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -7993,9 +8466,9 @@
       <c r="G259" s="30"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="11.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8035,7 +8508,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -8065,7 +8538,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8075,7 +8548,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -8083,15 +8556,15 @@
       <c r="G268" s="30"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8" s="2" customFormat="1">
-      <c r="A269" s="4"/>
+    <row r="269" spans="1:8">
+      <c r="A269" s="7"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="4"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="7"/>
     </row>
     <row r="270" spans="1:8" s="2" customFormat="1">
       <c r="A270" s="4"/>
@@ -8103,19 +8576,19 @@
       <c r="G270" s="34"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="7"/>
+    <row r="271" spans="1:8" s="2" customFormat="1">
+      <c r="A271" s="4"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="30"/>
-      <c r="H271" s="7"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8125,7 +8598,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8155,7 +8628,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="22"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8165,7 +8638,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8185,7 +8658,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="20"/>
+      <c r="B279" s="7"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8205,7 +8678,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8236,7 +8709,7 @@
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
+      <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
@@ -8245,7 +8718,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="6"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8255,7 +8728,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -8335,7 +8808,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8345,8 +8818,8 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -8355,7 +8828,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="19"/>
+      <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8385,7 +8858,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8445,7 +8918,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="19"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8465,7 +8938,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="21"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8475,8 +8948,8 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
@@ -8485,7 +8958,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="6"/>
+      <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8493,15 +8966,15 @@
       <c r="G309" s="30"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8" s="2" customFormat="1">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="34"/>
-      <c r="H310" s="4"/>
+    <row r="310" spans="1:8">
+      <c r="A310" s="7"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="30"/>
+      <c r="H310" s="7"/>
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
@@ -8525,7 +8998,7 @@
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
-      <c r="B313" s="19"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="9"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -8575,8 +9048,8 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="4"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="9"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -8625,7 +9098,7 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="21"/>
+      <c r="B323" s="26"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -8675,7 +9148,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="19"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8685,7 +9158,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -8695,7 +9168,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -8703,20 +9176,20 @@
       <c r="G330" s="34"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="7"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="30"/>
-      <c r="H331" s="7"/>
+    <row r="331" spans="1:8" s="2" customFormat="1">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="34"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="4"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
@@ -8785,7 +9258,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="7"/>
       <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -8796,7 +9269,7 @@
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="7"/>
+      <c r="C340" s="4"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
@@ -8805,7 +9278,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="6"/>
+      <c r="B341" s="4"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -8815,7 +9288,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8825,7 +9298,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="22"/>
+      <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -8835,7 +9308,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="22"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -8875,7 +9348,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8885,7 +9358,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -8895,7 +9368,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="20"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -8925,7 +9398,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8935,7 +9408,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -8955,7 +9428,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8965,7 +9438,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -8975,7 +9448,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -8985,7 +9458,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9015,7 +9488,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9025,7 +9498,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="27"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9035,7 +9508,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9045,8 +9518,8 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
@@ -9055,7 +9528,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9085,7 +9558,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9115,7 +9588,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="20"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -9135,8 +9608,8 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
-      <c r="C374" s="7"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
@@ -9145,7 +9618,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="6"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9155,7 +9628,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9215,7 +9688,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9225,7 +9698,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9246,7 +9719,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -9255,7 +9728,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="20"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9266,7 +9739,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="20"/>
-      <c r="C387" s="7"/>
+      <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -9275,7 +9748,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="27"/>
+      <c r="B388" s="20"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9285,7 +9758,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="22"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9335,7 +9808,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="22"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9345,7 +9818,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="6"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9355,7 +9828,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9365,7 +9838,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9375,7 +9848,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="22"/>
+      <c r="B398" s="20"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9395,7 +9868,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9435,7 +9908,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9445,7 +9918,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9465,7 +9938,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="22"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9475,7 +9948,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="22"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9485,7 +9958,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9495,7 +9968,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9515,7 +9988,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9525,7 +9998,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9535,7 +10008,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="20"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9555,7 +10028,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="20"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9565,7 +10038,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9575,7 +10048,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9625,7 +10098,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9635,7 +10108,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9695,7 +10168,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -9705,7 +10178,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -9725,7 +10198,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9735,7 +10208,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9755,7 +10228,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="4"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -9785,7 +10258,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9795,8 +10268,8 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
-      <c r="C440" s="4"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
@@ -9846,7 +10319,7 @@
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
-      <c r="C445" s="7"/>
+      <c r="C445" s="4"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -9855,7 +10328,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -9865,8 +10338,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="4"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -9906,7 +10379,7 @@
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -9915,7 +10388,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -9925,7 +10398,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="22"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -9985,7 +10458,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
+      <c r="B459" s="22"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -9995,7 +10468,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="7"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -10005,7 +10478,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="22"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -10034,8 +10507,8 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="6"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="7"/>
+      <c r="B464" s="22"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -10044,7 +10517,7 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="7"/>
+      <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
@@ -10085,7 +10558,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="28"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -10115,7 +10588,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10125,7 +10598,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -10135,7 +10608,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10145,21 +10618,21 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="30"/>
+      <c r="B475" s="7"/>
+      <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="29"/>
+      <c r="F475" s="7"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
-      <c r="C476" s="7"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="30"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="7"/>
+      <c r="F476" s="29"/>
       <c r="G476" s="30"/>
       <c r="H476" s="7"/>
     </row>
@@ -14063,6 +14536,16 @@
       <c r="G866" s="30"/>
       <c r="H866" s="7"/>
     </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="7"/>
+      <c r="B867" s="7"/>
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+      <c r="E867" s="7"/>
+      <c r="F867" s="7"/>
+      <c r="G867" s="30"/>
+      <c r="H867" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="248">
   <si>
     <t>Feature</t>
   </si>
@@ -182,9 +182,6 @@
     <t>from first line</t>
   </si>
   <si>
-    <t>to the last line, and no more</t>
-  </si>
-  <si>
     <t>from left text boundary</t>
   </si>
   <si>
@@ -750,6 +747,21 @@
   </si>
   <si>
     <t>move to the end of the document</t>
+  </si>
+  <si>
+    <t>to the last line + 2</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>wrap lines on</t>
+  </si>
+  <si>
+    <t>wrap lines off</t>
+  </si>
+  <si>
+    <t>resets horizontal scroll bar to 0</t>
   </si>
 </sst>
 </file>
@@ -970,28 +982,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1030,7 +1021,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955335"/>
+          <c:w val="0.91978071330955347"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1063,10 +1054,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1085,15 +1076,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$53</c:f>
+              <c:f>Progress!$B$48:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1111,6 +1105,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,10 +1140,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1165,15 +1162,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1191,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,10 +1226,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1245,15 +1248,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,6 +1276,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1303,10 +1312,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1325,15 +1334,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$57</c:f>
+              <c:f>Progress!$E$48:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,21 +1364,24 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153472384"/>
-        <c:axId val="153232512"/>
+        <c:axId val="133483904"/>
+        <c:axId val="133309568"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="153472384"/>
+        <c:axId val="133483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153232512"/>
+        <c:crossAx val="133309568"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1409,7 +1424,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153232512"/>
+        <c:axId val="133309568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153472384"/>
+        <c:crossAx val="133483904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +1489,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218486"/>
+          <c:y val="0.33819556996218492"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1595,7 +1610,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127727E-2"/>
+          <c:x val="4.4510450248127741E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1630,10 +1645,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1652,15 +1667,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$53</c:f>
+              <c:f>Progress!$G$48:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1679,15 +1697,18 @@
                 <c:pt idx="5">
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153252224"/>
-        <c:axId val="153253760"/>
+        <c:axId val="133329280"/>
+        <c:axId val="133330816"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="153252224"/>
+        <c:axId val="133329280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,13 +1716,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="153253760"/>
+        <c:crossAx val="133330816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153253760"/>
+        <c:axId val="133330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1744,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153252224"/>
+        <c:crossAx val="133329280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,10 +1865,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1866,15 +1887,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1892,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,10 +1951,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1946,15 +1973,18 @@
                 <c:pt idx="5">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1973,15 +2003,18 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153282816"/>
-        <c:axId val="153812992"/>
+        <c:axId val="133359872"/>
+        <c:axId val="162463744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="153282816"/>
+        <c:axId val="133359872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153812992"/>
+        <c:crossAx val="162463744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2023,7 +2056,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153812992"/>
+        <c:axId val="162463744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153282816"/>
+        <c:crossAx val="133359872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,7 +2197,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2572,10 +2605,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2588,7 +2621,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2655,7 +2688,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2664,7 +2697,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2673,7 +2706,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2687,7 +2720,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2696,7 +2729,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2710,7 +2743,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2719,7 +2752,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2728,7 +2761,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2737,7 +2770,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2746,7 +2779,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2770,7 +2803,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2782,7 +2815,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2800,7 +2833,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2809,7 +2842,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2818,7 +2851,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2827,7 +2860,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2836,7 +2869,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2845,7 +2878,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2854,7 +2887,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2862,7 +2895,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2870,7 +2903,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2878,7 +2911,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2886,7 +2919,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2894,7 +2927,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2923,7 +2956,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
@@ -2935,7 +2968,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2953,7 +2986,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2962,16 +2995,16 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2980,7 +3013,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2989,7 +3022,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -2998,7 +3031,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3007,16 +3040,16 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3025,7 +3058,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3034,7 +3067,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3043,7 +3076,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3057,7 +3090,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3066,7 +3099,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3075,7 +3108,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3084,7 +3117,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3093,7 +3126,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3102,7 +3135,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3125,7 +3158,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3157,7 +3190,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3166,7 +3199,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3180,7 +3213,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3189,7 +3222,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3202,7 +3235,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3216,7 +3249,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3250,7 +3283,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
@@ -3262,7 +3295,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3271,7 +3304,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3280,7 +3313,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3289,7 +3322,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3298,7 +3331,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3307,7 +3340,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3378,7 +3411,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3387,7 +3420,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3401,7 +3434,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>2</v>
@@ -3410,7 +3443,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2</v>
@@ -3428,7 +3461,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3451,7 +3484,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3465,7 +3498,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3474,7 +3507,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3483,7 +3516,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>14</v>
@@ -3497,7 +3530,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3506,7 +3539,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3515,7 +3548,7 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>14</v>
@@ -3529,7 +3562,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3543,7 +3576,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3552,7 +3585,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3561,7 +3594,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3584,7 +3617,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -3593,7 +3626,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2</v>
@@ -3602,7 +3635,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -3611,7 +3644,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>2</v>
@@ -3634,7 +3667,7 @@
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3661,7 +3694,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3693,7 +3726,7 @@
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3738,19 +3771,19 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D153" s="4"/>
     </row>
@@ -3806,7 +3839,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3815,7 +3848,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3838,7 +3871,9 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="22"/>
+      <c r="B165" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="C165" s="7"/>
       <c r="D165" s="4"/>
     </row>
@@ -3848,31 +3883,35 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="3" t="s">
-        <v>167</v>
+      <c r="B168" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B170" s="22"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
@@ -3881,30 +3920,18 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B174" s="22"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
@@ -3913,21 +3940,13 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
@@ -3936,12 +3955,8 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
@@ -3960,9 +3975,7 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B183" s="22"/>
       <c r="C183" s="7"/>
       <c r="D183" s="4"/>
     </row>
@@ -3972,65 +3985,47 @@
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="B185" s="22"/>
       <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>46</v>
+      <c r="B192" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>14</v>
@@ -4038,17 +4033,13 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B193" s="22"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="23" t="s">
-        <v>182</v>
+      <c r="B194" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -4056,8 +4047,8 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>141</v>
+      <c r="B195" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -4065,8 +4056,8 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23" t="s">
-        <v>142</v>
+      <c r="B196" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>14</v>
@@ -4074,17 +4065,13 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B197" s="22"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="23" t="s">
-        <v>186</v>
+      <c r="B198" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>14</v>
@@ -4092,22 +4079,22 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20"/>
-      <c r="C199" s="7"/>
+      <c r="B199" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="23" t="s">
-        <v>184</v>
+      <c r="B201" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>14</v>
@@ -4120,49 +4107,37 @@
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B203" s="22"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B204" s="22"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B205" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="7"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="7"/>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B207" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C207" s="7"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="23" t="s">
-        <v>60</v>
+      <c r="B208" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>14</v>
@@ -4170,8 +4145,8 @@
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="23" t="s">
-        <v>136</v>
+      <c r="B209" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>14</v>
@@ -4179,13 +4154,17 @@
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
+      <c r="B210" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="20" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>14</v>
@@ -4193,22 +4172,22 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="22"/>
-      <c r="C213" s="7"/>
+      <c r="B213" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="20" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -4217,7 +4196,7 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>14</v>
@@ -4226,7 +4205,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>14</v>
@@ -4234,13 +4213,17 @@
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="22"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="20" t="s">
-        <v>191</v>
+      <c r="B218" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>14</v>
@@ -4248,13 +4231,17 @@
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="7"/>
+      <c r="B219" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20" t="s">
-        <v>110</v>
+      <c r="B220" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>14</v>
@@ -4262,22 +4249,22 @@
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="7"/>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20"/>
-      <c r="C222" s="7"/>
+      <c r="B222" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20" t="s">
-        <v>112</v>
+      <c r="B223" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>14</v>
@@ -4285,17 +4272,13 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B224" s="22"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="23" t="s">
-        <v>114</v>
+      <c r="B225" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>14</v>
@@ -4303,13 +4286,17 @@
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="22"/>
-      <c r="C226" s="7"/>
+      <c r="B226" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20" t="s">
-        <v>116</v>
+      <c r="B227" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4317,17 +4304,13 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="23" t="s">
-        <v>117</v>
+      <c r="B229" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -4335,13 +4318,17 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20"/>
-      <c r="C230" s="7"/>
+      <c r="B230" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20" t="s">
-        <v>118</v>
+      <c r="B231" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>14</v>
@@ -4349,17 +4336,13 @@
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B232" s="22"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="23" t="s">
-        <v>117</v>
+      <c r="B233" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>14</v>
@@ -4367,22 +4350,22 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="20"/>
-      <c r="C234" s="7"/>
+      <c r="B234" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B235" s="22"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="23" t="s">
-        <v>120</v>
+      <c r="B236" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4391,7 +4374,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="23" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>14</v>
@@ -4399,34 +4382,36 @@
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="23"/>
-      <c r="C238" s="7"/>
+      <c r="B238" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B239" s="22"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="20"/>
-      <c r="C240" s="7"/>
+      <c r="B240" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="B241" s="22"/>
       <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="20" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4435,7 +4420,7 @@
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
       <c r="B243" s="23" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>14</v>
@@ -4443,17 +4428,13 @@
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="20" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
@@ -4461,13 +4442,17 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="22"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="20" t="s">
-        <v>62</v>
+      <c r="B247" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>14</v>
@@ -4475,22 +4460,22 @@
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B248" s="22"/>
+      <c r="C248" s="7"/>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="22"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="20" t="s">
-        <v>65</v>
+      <c r="B250" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>14</v>
@@ -4499,7 +4484,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="23" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>14</v>
@@ -4507,13 +4492,13 @@
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="22"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="20" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>14</v>
@@ -4522,7 +4507,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>14</v>
@@ -4530,22 +4515,22 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="20"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B256" s="20"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="20" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>14</v>
@@ -4553,8 +4538,8 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="20" t="s">
-        <v>192</v>
+      <c r="B258" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>14</v>
@@ -4562,8 +4547,8 @@
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="20" t="s">
-        <v>190</v>
+      <c r="B259" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>14</v>
@@ -4571,13 +4556,13 @@
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="20"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="27" t="s">
-        <v>121</v>
+      <c r="B261" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>14</v>
@@ -4585,26 +4570,20 @@
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B262" s="20"/>
+      <c r="C262" s="7"/>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B263" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="7"/>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="22" t="s">
-        <v>139</v>
+      <c r="B264" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
@@ -4612,8 +4591,8 @@
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="20" t="s">
-        <v>78</v>
+      <c r="B265" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>14</v>
@@ -4621,8 +4600,8 @@
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="20" t="s">
-        <v>79</v>
+      <c r="B266" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>14</v>
@@ -4630,8 +4609,12 @@
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22"/>
-      <c r="C267" s="7"/>
+      <c r="B267" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
@@ -4640,15 +4623,21 @@
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22"/>
-      <c r="C269" s="7"/>
+      <c r="B269" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C270" s="7"/>
+      <c r="B270" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
@@ -4657,8 +4646,8 @@
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="22" t="s">
-        <v>80</v>
+      <c r="B272" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>14</v>
@@ -4666,8 +4655,8 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="20" t="s">
-        <v>237</v>
+      <c r="B273" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>14</v>
@@ -4675,17 +4664,13 @@
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B274" s="22"/>
+      <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="20" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>14</v>
@@ -4693,8 +4678,8 @@
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="20" t="s">
-        <v>240</v>
+      <c r="B276" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>14</v>
@@ -4707,8 +4692,8 @@
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22" t="s">
-        <v>81</v>
+      <c r="B278" s="27" t="s">
+        <v>187</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>14</v>
@@ -4717,7 +4702,7 @@
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="20" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4726,7 +4711,7 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="20" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>14</v>
@@ -4735,7 +4720,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="20" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>14</v>
@@ -4743,31 +4728,31 @@
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="7"/>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="7"/>
+      <c r="B283" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22" t="s">
-        <v>217</v>
+      <c r="B284" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="20" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>14</v>
@@ -4775,22 +4760,26 @@
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="7"/>
+      <c r="B286" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22" t="s">
-        <v>218</v>
+      <c r="B287" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="20" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>14</v>
@@ -4803,40 +4792,30 @@
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B290" s="22"/>
+      <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B291" s="22"/>
+      <c r="C291" s="7"/>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22"/>
+      <c r="B292" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B293" s="22"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="20" t="s">
-        <v>241</v>
+      <c r="B294" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>14</v>
@@ -4844,13 +4823,17 @@
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22"/>
-      <c r="C295" s="7"/>
+      <c r="B295" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
-        <v>219</v>
+      <c r="B296" s="20" t="s">
+        <v>237</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>14</v>
@@ -4859,7 +4842,7 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>14</v>
@@ -4867,45 +4850,49 @@
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22"/>
-      <c r="C298" s="7"/>
+      <c r="B298" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="7"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="20" t="s">
-        <v>240</v>
+      <c r="B300" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="7"/>
+      <c r="B301" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22" t="s">
-        <v>243</v>
+      <c r="B302" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>14</v>
@@ -4913,54 +4900,58 @@
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22"/>
-      <c r="C304" s="7"/>
+      <c r="B304" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B305" s="22"/>
+      <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="20" t="s">
-        <v>241</v>
+      <c r="B306" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="22"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B308" s="22"/>
+      <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="20" t="s">
-        <v>241</v>
+      <c r="B309" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
@@ -4969,13 +4960,21 @@
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="22"/>
-      <c r="C313" s="7"/>
+      <c r="B313" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
@@ -4984,543 +4983,544 @@
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22"/>
-      <c r="C315" s="7"/>
+      <c r="B315" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="7"/>
+      <c r="B316" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="20"/>
+      <c r="B317" s="22"/>
       <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="19"/>
-      <c r="C318" s="7"/>
+      <c r="B318" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="4"/>
-      <c r="C319" s="7"/>
+      <c r="B319" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="B320" s="22"/>
       <c r="C320" s="7"/>
       <c r="D320" s="4"/>
     </row>
-    <row r="321" spans="2:3">
-      <c r="C321" s="7"/>
-    </row>
-    <row r="322" spans="2:3">
-      <c r="B322" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C322" s="7"/>
-    </row>
-    <row r="323" spans="2:3">
+    <row r="321" spans="2:4" s="6" customFormat="1">
+      <c r="B321" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="2:4" s="6" customFormat="1">
+      <c r="B322" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="2:4" s="6" customFormat="1">
+      <c r="B323" s="22"/>
       <c r="C323" s="7"/>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="B324" t="s">
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="2:4" s="6" customFormat="1">
+      <c r="B324" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" s="6" customFormat="1">
+      <c r="B325" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="22"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" s="6" customFormat="1">
+      <c r="B328" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="22"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="22"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="22"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="22"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="22"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="22"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="22"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="20"/>
+      <c r="C336" s="7"/>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="19"/>
+      <c r="C337" s="7"/>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="4"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C339" s="7"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="C340" s="7"/>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C341" s="7"/>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="C342" s="7"/>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>73</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
         <v>74</v>
       </c>
-      <c r="C324" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3">
-      <c r="B325" t="s">
+      <c r="C344" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
         <v>75</v>
       </c>
-      <c r="C325" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" t="s">
+      <c r="C345" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
         <v>76</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C346" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="2:3">
-      <c r="B327" t="s">
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>231</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>232</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
         <v>77</v>
       </c>
-      <c r="C327" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3">
-      <c r="B328" t="s">
-        <v>232</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3">
-      <c r="B329" t="s">
-        <v>233</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3">
-      <c r="B330" t="s">
+      <c r="C349" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
         <v>78</v>
       </c>
-      <c r="C330" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" t="s">
+      <c r="C350" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
         <v>79</v>
       </c>
-      <c r="C331" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="B332" t="s">
+      <c r="C351" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
         <v>80</v>
       </c>
-      <c r="C332" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3">
-      <c r="B333" t="s">
-        <v>81</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3">
-      <c r="B334" t="s">
-        <v>82</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3">
-      <c r="B335" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="B336" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3">
-      <c r="B337" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3">
-      <c r="B338" s="44"/>
-      <c r="C338" s="9"/>
-    </row>
-    <row r="339" spans="2:3">
-      <c r="B339" s="44"/>
-      <c r="C339" s="9"/>
-    </row>
-    <row r="340" spans="2:3">
-      <c r="B340" s="44"/>
-      <c r="C340" s="9"/>
-    </row>
-    <row r="341" spans="2:3">
-      <c r="C341" s="9"/>
-    </row>
-    <row r="342" spans="2:3">
-      <c r="C342" s="9"/>
-    </row>
-    <row r="343" spans="2:3">
-      <c r="C343" s="9"/>
-    </row>
-    <row r="344" spans="2:3">
-      <c r="C344" s="9"/>
-    </row>
-    <row r="345" spans="2:3">
-      <c r="B345" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C345" s="9"/>
-    </row>
-    <row r="346" spans="2:3">
-      <c r="C346" s="9"/>
-    </row>
-    <row r="347" spans="2:3">
-      <c r="B347" t="s">
-        <v>99</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3">
-      <c r="B348" t="s">
-        <v>100</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3">
-      <c r="B349" t="s">
-        <v>101</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3">
-      <c r="B350" t="s">
-        <v>102</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3">
-      <c r="B351" t="s">
-        <v>103</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3">
-      <c r="B352" t="s">
-        <v>104</v>
-      </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="353" spans="2:3">
       <c r="B353" t="s">
-        <v>131</v>
-      </c>
-      <c r="C353" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C353" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="354" spans="2:3">
-      <c r="C354" s="9"/>
+      <c r="B354" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="355" spans="2:3">
-      <c r="C355" s="9"/>
+      <c r="B355" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="356" spans="2:3">
-      <c r="C356" s="9"/>
+      <c r="B356" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="B357" s="44"/>
       <c r="C357" s="9"/>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" s="44"/>
+      <c r="C358" s="9"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="44"/>
+      <c r="C359" s="9"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="C360" s="9"/>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="C361" s="9"/>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="C362" s="9"/>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="C363" s="9"/>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C364" s="9"/>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="C365" s="9"/>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" t="s">
+        <v>98</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" t="s">
+        <v>99</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" t="s">
+        <v>100</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" t="s">
+        <v>101</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" t="s">
+        <v>102</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="371" spans="2:3">
       <c r="B371" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="44" t="s">
-        <v>122</v>
+      <c r="B372" t="s">
+        <v>130</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C374" s="9"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="44"/>
-      <c r="C375" s="7"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C376" s="9"/>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" t="s">
+        <v>72</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="B392" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="B393" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3">
+      <c r="B394" s="44"/>
+      <c r="C394" s="7"/>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" t="s">
+        <v>83</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="C396" s="9"/>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="B397" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="C398" s="9"/>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" t="s">
+        <v>87</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="C401" s="9"/>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" t="s">
+        <v>158</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="C403" s="9"/>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="B404" t="s">
+        <v>42</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="B405" t="s">
+        <v>43</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406" t="s">
+        <v>44</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4">
+      <c r="C407" s="9"/>
+    </row>
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
         <v>84</v>
       </c>
-      <c r="C376" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3">
-      <c r="C377" s="9"/>
-    </row>
-    <row r="378" spans="2:3">
-      <c r="B378" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C378" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3">
-      <c r="C379" s="9"/>
-    </row>
-    <row r="380" spans="2:3">
-      <c r="B380" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C380" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="381" spans="2:3">
-      <c r="B381" t="s">
-        <v>88</v>
-      </c>
-      <c r="C381" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3">
-      <c r="C382" s="9"/>
-    </row>
-    <row r="383" spans="2:3">
-      <c r="B383" t="s">
-        <v>159</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3">
-      <c r="C384" s="9"/>
-    </row>
-    <row r="385" spans="2:4">
-      <c r="B385" t="s">
-        <v>42</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="386" spans="2:4">
-      <c r="B386" t="s">
-        <v>43</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="387" spans="2:4">
-      <c r="B387" t="s">
-        <v>44</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="388" spans="2:4">
-      <c r="C388" s="9"/>
-    </row>
-    <row r="389" spans="2:4">
-      <c r="B389" t="s">
+      <c r="C408" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
         <v>85</v>
       </c>
-      <c r="C389" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="390" spans="2:4">
-      <c r="B390" t="s">
-        <v>86</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="391" spans="2:4">
-      <c r="C391" s="9"/>
-    </row>
-    <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C392" s="7"/>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D393" s="4"/>
-    </row>
-    <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D394" s="4"/>
-    </row>
-    <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D396" s="4"/>
-    </row>
-    <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D397" s="4"/>
-    </row>
-    <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="22"/>
-      <c r="C398" s="7"/>
-      <c r="D398" s="4"/>
-    </row>
-    <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D399" s="4"/>
-    </row>
-    <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
-      <c r="D401" s="4"/>
-    </row>
-    <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D402" s="4"/>
-    </row>
-    <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C403" s="7"/>
-      <c r="D403" s="4"/>
-    </row>
-    <row r="404" spans="2:4">
-      <c r="C404" s="9"/>
-    </row>
-    <row r="405" spans="2:4">
-      <c r="C405" s="9"/>
-    </row>
-    <row r="407" spans="2:4" s="6" customFormat="1">
-      <c r="B407" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C407" s="7"/>
-      <c r="D407" s="4"/>
-    </row>
-    <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22"/>
-      <c r="C408" s="7"/>
-      <c r="D408" s="4"/>
-    </row>
-    <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="C409" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D409" s="4"/>
-    </row>
-    <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D410" s="4"/>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="C410" s="9"/>
     </row>
     <row r="411" spans="2:4" s="6" customFormat="1">
       <c r="B411" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C411" s="7"/>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="2:4" s="6" customFormat="1">
-      <c r="B412" s="22" t="s">
-        <v>38</v>
+      <c r="B412" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>14</v>
@@ -5528,13 +5528,17 @@
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22"/>
-      <c r="C413" s="7"/>
+      <c r="B413" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22" t="s">
-        <v>40</v>
+      <c r="B414" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>14</v>
@@ -5542,8 +5546,8 @@
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="22" t="s">
-        <v>41</v>
+      <c r="B415" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>14</v>
@@ -5551,179 +5555,309 @@
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="22"/>
-      <c r="C416" s="7"/>
+      <c r="B416" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="1:4" s="6" customFormat="1">
-      <c r="B417" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="417" spans="2:4" s="6" customFormat="1">
+      <c r="B417" s="22"/>
+      <c r="C417" s="7"/>
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="1:4" s="6" customFormat="1">
+    <row r="418" spans="2:4" s="6" customFormat="1">
       <c r="B418" s="22" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="1:4" s="6" customFormat="1">
+    <row r="419" spans="2:4" s="6" customFormat="1">
       <c r="B419" s="22" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D419" s="4"/>
     </row>
-    <row r="420" spans="1:4" s="6" customFormat="1">
+    <row r="420" spans="2:4" s="6" customFormat="1">
       <c r="B420" s="22"/>
       <c r="C420" s="7"/>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4" s="6" customFormat="1">
+    <row r="421" spans="2:4" s="6" customFormat="1">
       <c r="B421" s="22" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="1:4" s="6" customFormat="1">
-      <c r="B422" s="22"/>
+    <row r="422" spans="2:4" s="6" customFormat="1">
+      <c r="B422" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="C422" s="7"/>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="1:4" s="6" customFormat="1">
-      <c r="B423" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C423" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D423" s="4"/>
-    </row>
-    <row r="424" spans="1:4" s="6" customFormat="1">
-      <c r="B424" s="22"/>
-      <c r="C424" s="7"/>
-      <c r="D424" s="4"/>
-    </row>
-    <row r="425" spans="1:4" s="6" customFormat="1">
-      <c r="B425" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D425" s="4"/>
-    </row>
-    <row r="426" spans="1:4" s="6" customFormat="1">
-      <c r="B426" s="22"/>
+    <row r="423" spans="2:4">
+      <c r="C423" s="9"/>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="C424" s="9"/>
+    </row>
+    <row r="426" spans="2:4" s="6" customFormat="1">
+      <c r="B426" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C426" s="7"/>
       <c r="D426" s="4"/>
     </row>
-    <row r="427" spans="1:4" s="6" customFormat="1">
+    <row r="427" spans="2:4" s="6" customFormat="1">
       <c r="B427" s="22"/>
       <c r="C427" s="7"/>
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="1:4" s="6" customFormat="1">
-      <c r="B428" s="22"/>
-      <c r="C428" s="4"/>
+    <row r="428" spans="2:4" s="6" customFormat="1">
+      <c r="B428" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="1:4" s="6" customFormat="1">
-      <c r="B429" s="19"/>
-      <c r="C429" s="4"/>
+    <row r="429" spans="2:4" s="6" customFormat="1">
+      <c r="B429" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="1:4" s="6" customFormat="1">
-      <c r="B430" s="21"/>
-      <c r="C430" s="4"/>
+    <row r="430" spans="2:4" s="6" customFormat="1">
+      <c r="B430" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D430" s="4"/>
     </row>
-    <row r="431" spans="1:4" s="6" customFormat="1">
-      <c r="B431" s="21"/>
-      <c r="C431" s="4"/>
+    <row r="431" spans="2:4" s="6" customFormat="1">
+      <c r="B431" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="3"/>
-      <c r="B432" s="11"/>
-      <c r="C432" s="11"/>
-      <c r="D432" s="3"/>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="3"/>
-      <c r="B433" s="8" t="s">
+    <row r="432" spans="2:4" s="6" customFormat="1">
+      <c r="B432" s="22"/>
+      <c r="C432" s="7"/>
+      <c r="D432" s="4"/>
+    </row>
+    <row r="433" spans="2:4" s="6" customFormat="1">
+      <c r="B433" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D433" s="4"/>
+    </row>
+    <row r="434" spans="2:4" s="6" customFormat="1">
+      <c r="B434" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D434" s="4"/>
+    </row>
+    <row r="435" spans="2:4" s="6" customFormat="1">
+      <c r="B435" s="22"/>
+      <c r="C435" s="7"/>
+      <c r="D435" s="4"/>
+    </row>
+    <row r="436" spans="2:4" s="6" customFormat="1">
+      <c r="B436" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" s="4"/>
+    </row>
+    <row r="437" spans="2:4" s="6" customFormat="1">
+      <c r="B437" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="4"/>
+    </row>
+    <row r="438" spans="2:4" s="6" customFormat="1">
+      <c r="B438" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="4"/>
+    </row>
+    <row r="439" spans="2:4" s="6" customFormat="1">
+      <c r="B439" s="22"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="4"/>
+    </row>
+    <row r="440" spans="2:4" s="6" customFormat="1">
+      <c r="B440" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" s="4"/>
+    </row>
+    <row r="441" spans="2:4" s="6" customFormat="1">
+      <c r="B441" s="22"/>
+      <c r="C441" s="7"/>
+      <c r="D441" s="4"/>
+    </row>
+    <row r="442" spans="2:4" s="6" customFormat="1">
+      <c r="B442" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="4"/>
+    </row>
+    <row r="443" spans="2:4" s="6" customFormat="1">
+      <c r="B443" s="22"/>
+      <c r="C443" s="7"/>
+      <c r="D443" s="4"/>
+    </row>
+    <row r="444" spans="2:4" s="6" customFormat="1">
+      <c r="B444" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D444" s="4"/>
+    </row>
+    <row r="445" spans="2:4" s="6" customFormat="1">
+      <c r="B445" s="22"/>
+      <c r="C445" s="7"/>
+      <c r="D445" s="4"/>
+    </row>
+    <row r="446" spans="2:4" s="6" customFormat="1">
+      <c r="B446" s="22"/>
+      <c r="C446" s="7"/>
+      <c r="D446" s="4"/>
+    </row>
+    <row r="447" spans="2:4" s="6" customFormat="1">
+      <c r="B447" s="22"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+    </row>
+    <row r="448" spans="2:4" s="6" customFormat="1">
+      <c r="B448" s="19"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+    </row>
+    <row r="449" spans="1:4" s="6" customFormat="1">
+      <c r="B449" s="21"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+    </row>
+    <row r="450" spans="1:4" s="6" customFormat="1">
+      <c r="B450" s="21"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="3"/>
+      <c r="B451" s="11"/>
+      <c r="C451" s="11"/>
+      <c r="D451" s="3"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="3"/>
+      <c r="B452" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C433" s="6">
-        <f>COUNTIF(C5:C432,"y")</f>
-        <v>57</v>
-      </c>
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="3"/>
-      <c r="B434" s="8" t="s">
+      <c r="C452" s="6">
+        <f>COUNTIF(C5:C451,"y")</f>
+        <v>72</v>
+      </c>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="3"/>
+      <c r="B453" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C434" s="6">
-        <f>COUNTIF(C5:C432,"n")</f>
-        <v>201</v>
-      </c>
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="3"/>
-      <c r="B435" s="8" t="s">
+      <c r="C453" s="6">
+        <f>COUNTIF(C5:C451,"n")</f>
+        <v>187</v>
+      </c>
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="3"/>
+      <c r="B454" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C435" s="7">
-        <f>COUNTIF(C5:C432,"TBD")</f>
+      <c r="C454" s="7">
+        <f>COUNTIF(C5:C451,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="3"/>
-      <c r="B436" s="8" t="s">
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="3"/>
+      <c r="B455" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C436">
-        <f>SUM(C433:C435)</f>
-        <v>258</v>
-      </c>
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="1:4" ht="18">
-      <c r="A437" s="3"/>
-      <c r="B437" s="10"/>
-      <c r="C437" s="10" t="s">
+      <c r="C455">
+        <f>SUM(C452:C454)</f>
+        <v>259</v>
+      </c>
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" spans="1:4" ht="18">
+      <c r="A456" s="3"/>
+      <c r="B456" s="10"/>
+      <c r="C456" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D437" s="41">
-        <f>C433/(C434+C433 + C435)</f>
-        <v>0.22093023255813954</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="3"/>
-      <c r="B438" s="11"/>
-      <c r="C438" s="11"/>
-      <c r="D438" s="3"/>
+      <c r="D456" s="41">
+        <f>C452/(C453+C452 + C454)</f>
+        <v>0.27799227799227799</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="3"/>
+      <c r="B457" s="11"/>
+      <c r="C457" s="11"/>
+      <c r="D457" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C407:C65186 C371:C405 C1:C3 C6:C357">
+  <conditionalFormatting sqref="C426:C65205 C390:C424 C1:C3 C6:C376">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5745,12 +5879,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT867"/>
+  <dimension ref="A1:IT868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5771,7 +5905,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6073,7 +6207,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G53" si="2">B51/SUM(B51:E51)</f>
         <v>9.8654708520179366E-2</v>
       </c>
       <c r="H51" s="7"/>
@@ -6119,19 +6253,32 @@
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="30">
-        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <f t="shared" si="2"/>
         <v>0.22093023255813954</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="47"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
+      <c r="A54" s="47">
+        <v>43971</v>
+      </c>
+      <c r="B54" s="4">
+        <v>72</v>
+      </c>
+      <c r="C54" s="4">
+        <v>189</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="30">
+        <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
+        <v>0.27586206896551724</v>
+      </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
@@ -6140,84 +6287,84 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="31"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="38">
-        <f>MIN(G53)</f>
-        <v>0.22093023255813954</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="39">
-        <f>SUM(B57:D57)</f>
-        <v>258</v>
-      </c>
-      <c r="B57" s="15">
-        <f>Features!C433</f>
-        <v>57</v>
-      </c>
-      <c r="C57" s="16">
-        <f>Features!C434</f>
-        <v>201</v>
-      </c>
-      <c r="D57" s="17">
-        <f>Features!C435</f>
+      <c r="G57" s="38">
+        <f>MIN(G54)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="39">
+        <f>SUM(B58:D58)</f>
+        <v>259</v>
+      </c>
+      <c r="B58" s="15">
+        <f>Features!C452</f>
+        <v>72</v>
+      </c>
+      <c r="C58" s="16">
+        <f>Features!C453</f>
+        <v>187</v>
+      </c>
+      <c r="D58" s="17">
+        <f>Features!C454</f>
         <v>0</v>
       </c>
-      <c r="E57" s="18">
-        <f>MIN(E53)</f>
+      <c r="E58" s="18">
+        <f>MIN(E54)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6226,13 +6373,8 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="49">
-        <f>(A53-A48)*A57/B57 +A48</f>
-        <v>45239.052631578947</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6241,8 +6383,13 @@
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="49">
+        <f>(A54-A48)*A58/B58 +A48</f>
+        <v>44944.958333333336</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -6252,7 +6399,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6272,7 +6419,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6292,7 +6439,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -6302,7 +6449,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6321,7 +6468,7 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="7"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="20"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
@@ -6332,7 +6479,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -6463,7 +6610,7 @@
     <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -6472,7 +6619,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -6480,15 +6627,15 @@
       <c r="G85" s="30"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="4"/>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" s="2" customFormat="1">
       <c r="A87" s="4"/>
@@ -6662,7 +6809,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6672,7 +6819,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6702,7 +6849,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6742,7 +6889,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="21"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6752,7 +6899,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6762,7 +6909,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6772,7 +6919,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6782,7 +6929,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6802,7 +6949,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6862,7 +7009,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6962,7 +7109,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7012,7 +7159,7 @@
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="19"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7032,7 +7179,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -7071,284 +7218,284 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5"/>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="5"/>
-      <c r="AT145" s="5"/>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="AZ145" s="5"/>
-      <c r="BA145" s="5"/>
-      <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-      <c r="BE145" s="5"/>
-      <c r="BF145" s="5"/>
-      <c r="BG145" s="5"/>
-      <c r="BH145" s="5"/>
-      <c r="BI145" s="5"/>
-      <c r="BJ145" s="5"/>
-      <c r="BK145" s="5"/>
-      <c r="BL145" s="5"/>
-      <c r="BM145" s="5"/>
-      <c r="BN145" s="5"/>
-      <c r="BO145" s="5"/>
-      <c r="BP145" s="5"/>
-      <c r="BQ145" s="5"/>
-      <c r="BR145" s="5"/>
-      <c r="BS145" s="5"/>
-      <c r="BT145" s="5"/>
-      <c r="BU145" s="5"/>
-      <c r="BV145" s="5"/>
-      <c r="BW145" s="5"/>
-      <c r="BX145" s="5"/>
-      <c r="BY145" s="5"/>
-      <c r="BZ145" s="5"/>
-      <c r="CA145" s="5"/>
-      <c r="CB145" s="5"/>
-      <c r="CC145" s="5"/>
-      <c r="CD145" s="5"/>
-      <c r="CE145" s="5"/>
-      <c r="CF145" s="5"/>
-      <c r="CG145" s="5"/>
-      <c r="CH145" s="5"/>
-      <c r="CI145" s="5"/>
-      <c r="CJ145" s="5"/>
-      <c r="CK145" s="5"/>
-      <c r="CL145" s="5"/>
-      <c r="CM145" s="5"/>
-      <c r="CN145" s="5"/>
-      <c r="CO145" s="5"/>
-      <c r="CP145" s="5"/>
-      <c r="CQ145" s="5"/>
-      <c r="CR145" s="5"/>
-      <c r="CS145" s="5"/>
-      <c r="CT145" s="5"/>
-      <c r="CU145" s="5"/>
-      <c r="CV145" s="5"/>
-      <c r="CW145" s="5"/>
-      <c r="CX145" s="5"/>
-      <c r="CY145" s="5"/>
-      <c r="CZ145" s="5"/>
-      <c r="DA145" s="5"/>
-      <c r="DB145" s="5"/>
-      <c r="DC145" s="5"/>
-      <c r="DD145" s="5"/>
-      <c r="DE145" s="5"/>
-      <c r="DF145" s="5"/>
-      <c r="DG145" s="5"/>
-      <c r="DH145" s="5"/>
-      <c r="DI145" s="5"/>
-      <c r="DJ145" s="5"/>
-      <c r="DK145" s="5"/>
-      <c r="DL145" s="5"/>
-      <c r="DM145" s="5"/>
-      <c r="DN145" s="5"/>
-      <c r="DO145" s="5"/>
-      <c r="DP145" s="5"/>
-      <c r="DQ145" s="5"/>
-      <c r="DR145" s="5"/>
-      <c r="DS145" s="5"/>
-      <c r="DT145" s="5"/>
-      <c r="DU145" s="5"/>
-      <c r="DV145" s="5"/>
-      <c r="DW145" s="5"/>
-      <c r="DX145" s="5"/>
-      <c r="DY145" s="5"/>
-      <c r="DZ145" s="5"/>
-      <c r="EA145" s="5"/>
-      <c r="EB145" s="5"/>
-      <c r="EC145" s="5"/>
-      <c r="ED145" s="5"/>
-      <c r="EE145" s="5"/>
-      <c r="EF145" s="5"/>
-      <c r="EG145" s="5"/>
-      <c r="EH145" s="5"/>
-      <c r="EI145" s="5"/>
-      <c r="EJ145" s="5"/>
-      <c r="EK145" s="5"/>
-      <c r="EL145" s="5"/>
-      <c r="EM145" s="5"/>
-      <c r="EN145" s="5"/>
-      <c r="EO145" s="5"/>
-      <c r="EP145" s="5"/>
-      <c r="EQ145" s="5"/>
-      <c r="ER145" s="5"/>
-      <c r="ES145" s="5"/>
-      <c r="ET145" s="5"/>
-      <c r="EU145" s="5"/>
-      <c r="EV145" s="5"/>
-      <c r="EW145" s="5"/>
-      <c r="EX145" s="5"/>
-      <c r="EY145" s="5"/>
-      <c r="EZ145" s="5"/>
-      <c r="FA145" s="5"/>
-      <c r="FB145" s="5"/>
-      <c r="FC145" s="5"/>
-      <c r="FD145" s="5"/>
-      <c r="FE145" s="5"/>
-      <c r="FF145" s="5"/>
-      <c r="FG145" s="5"/>
-      <c r="FH145" s="5"/>
-      <c r="FI145" s="5"/>
-      <c r="FJ145" s="5"/>
-      <c r="FK145" s="5"/>
-      <c r="FL145" s="5"/>
-      <c r="FM145" s="5"/>
-      <c r="FN145" s="5"/>
-      <c r="FO145" s="5"/>
-      <c r="FP145" s="5"/>
-      <c r="FQ145" s="5"/>
-      <c r="FR145" s="5"/>
-      <c r="FS145" s="5"/>
-      <c r="FT145" s="5"/>
-      <c r="FU145" s="5"/>
-      <c r="FV145" s="5"/>
-      <c r="FW145" s="5"/>
-      <c r="FX145" s="5"/>
-      <c r="FY145" s="5"/>
-      <c r="FZ145" s="5"/>
-      <c r="GA145" s="5"/>
-      <c r="GB145" s="5"/>
-      <c r="GC145" s="5"/>
-      <c r="GD145" s="5"/>
-      <c r="GE145" s="5"/>
-      <c r="GF145" s="5"/>
-      <c r="GG145" s="5"/>
-      <c r="GH145" s="5"/>
-      <c r="GI145" s="5"/>
-      <c r="GJ145" s="5"/>
-      <c r="GK145" s="5"/>
-      <c r="GL145" s="5"/>
-      <c r="GM145" s="5"/>
-      <c r="GN145" s="5"/>
-      <c r="GO145" s="5"/>
-      <c r="GP145" s="5"/>
-      <c r="GQ145" s="5"/>
-      <c r="GR145" s="5"/>
-      <c r="GS145" s="5"/>
-      <c r="GT145" s="5"/>
-      <c r="GU145" s="5"/>
-      <c r="GV145" s="5"/>
-      <c r="GW145" s="5"/>
-      <c r="GX145" s="5"/>
-      <c r="GY145" s="5"/>
-      <c r="GZ145" s="5"/>
-      <c r="HA145" s="5"/>
-      <c r="HB145" s="5"/>
-      <c r="HC145" s="5"/>
-      <c r="HD145" s="5"/>
-      <c r="HE145" s="5"/>
-      <c r="HF145" s="5"/>
-      <c r="HG145" s="5"/>
-      <c r="HH145" s="5"/>
-      <c r="HI145" s="5"/>
-      <c r="HJ145" s="5"/>
-      <c r="HK145" s="5"/>
-      <c r="HL145" s="5"/>
-      <c r="HM145" s="5"/>
-      <c r="HN145" s="5"/>
-      <c r="HO145" s="5"/>
-      <c r="HP145" s="5"/>
-      <c r="HQ145" s="5"/>
-      <c r="HR145" s="5"/>
-      <c r="HS145" s="5"/>
-      <c r="HT145" s="5"/>
-      <c r="HU145" s="5"/>
-      <c r="HV145" s="5"/>
-      <c r="HW145" s="5"/>
-      <c r="HX145" s="5"/>
-      <c r="HY145" s="5"/>
-      <c r="HZ145" s="5"/>
-      <c r="IA145" s="5"/>
-      <c r="IB145" s="5"/>
-      <c r="IC145" s="5"/>
-      <c r="ID145" s="5"/>
-      <c r="IE145" s="5"/>
-      <c r="IF145" s="5"/>
-      <c r="IG145" s="5"/>
-      <c r="IH145" s="5"/>
-      <c r="II145" s="5"/>
-      <c r="IJ145" s="5"/>
-      <c r="IK145" s="5"/>
-      <c r="IL145" s="5"/>
-      <c r="IM145" s="5"/>
-      <c r="IN145" s="5"/>
-      <c r="IO145" s="5"/>
-      <c r="IP145" s="5"/>
-      <c r="IQ145" s="5"/>
-      <c r="IR145" s="5"/>
-      <c r="IS145" s="5"/>
-      <c r="IT145" s="5"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:254">
-      <c r="A147" s="7"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="7"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+      <c r="AN146" s="5"/>
+      <c r="AO146" s="5"/>
+      <c r="AP146" s="5"/>
+      <c r="AQ146" s="5"/>
+      <c r="AR146" s="5"/>
+      <c r="AS146" s="5"/>
+      <c r="AT146" s="5"/>
+      <c r="AU146" s="5"/>
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="5"/>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="5"/>
+      <c r="AZ146" s="5"/>
+      <c r="BA146" s="5"/>
+      <c r="BB146" s="5"/>
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="5"/>
+      <c r="BE146" s="5"/>
+      <c r="BF146" s="5"/>
+      <c r="BG146" s="5"/>
+      <c r="BH146" s="5"/>
+      <c r="BI146" s="5"/>
+      <c r="BJ146" s="5"/>
+      <c r="BK146" s="5"/>
+      <c r="BL146" s="5"/>
+      <c r="BM146" s="5"/>
+      <c r="BN146" s="5"/>
+      <c r="BO146" s="5"/>
+      <c r="BP146" s="5"/>
+      <c r="BQ146" s="5"/>
+      <c r="BR146" s="5"/>
+      <c r="BS146" s="5"/>
+      <c r="BT146" s="5"/>
+      <c r="BU146" s="5"/>
+      <c r="BV146" s="5"/>
+      <c r="BW146" s="5"/>
+      <c r="BX146" s="5"/>
+      <c r="BY146" s="5"/>
+      <c r="BZ146" s="5"/>
+      <c r="CA146" s="5"/>
+      <c r="CB146" s="5"/>
+      <c r="CC146" s="5"/>
+      <c r="CD146" s="5"/>
+      <c r="CE146" s="5"/>
+      <c r="CF146" s="5"/>
+      <c r="CG146" s="5"/>
+      <c r="CH146" s="5"/>
+      <c r="CI146" s="5"/>
+      <c r="CJ146" s="5"/>
+      <c r="CK146" s="5"/>
+      <c r="CL146" s="5"/>
+      <c r="CM146" s="5"/>
+      <c r="CN146" s="5"/>
+      <c r="CO146" s="5"/>
+      <c r="CP146" s="5"/>
+      <c r="CQ146" s="5"/>
+      <c r="CR146" s="5"/>
+      <c r="CS146" s="5"/>
+      <c r="CT146" s="5"/>
+      <c r="CU146" s="5"/>
+      <c r="CV146" s="5"/>
+      <c r="CW146" s="5"/>
+      <c r="CX146" s="5"/>
+      <c r="CY146" s="5"/>
+      <c r="CZ146" s="5"/>
+      <c r="DA146" s="5"/>
+      <c r="DB146" s="5"/>
+      <c r="DC146" s="5"/>
+      <c r="DD146" s="5"/>
+      <c r="DE146" s="5"/>
+      <c r="DF146" s="5"/>
+      <c r="DG146" s="5"/>
+      <c r="DH146" s="5"/>
+      <c r="DI146" s="5"/>
+      <c r="DJ146" s="5"/>
+      <c r="DK146" s="5"/>
+      <c r="DL146" s="5"/>
+      <c r="DM146" s="5"/>
+      <c r="DN146" s="5"/>
+      <c r="DO146" s="5"/>
+      <c r="DP146" s="5"/>
+      <c r="DQ146" s="5"/>
+      <c r="DR146" s="5"/>
+      <c r="DS146" s="5"/>
+      <c r="DT146" s="5"/>
+      <c r="DU146" s="5"/>
+      <c r="DV146" s="5"/>
+      <c r="DW146" s="5"/>
+      <c r="DX146" s="5"/>
+      <c r="DY146" s="5"/>
+      <c r="DZ146" s="5"/>
+      <c r="EA146" s="5"/>
+      <c r="EB146" s="5"/>
+      <c r="EC146" s="5"/>
+      <c r="ED146" s="5"/>
+      <c r="EE146" s="5"/>
+      <c r="EF146" s="5"/>
+      <c r="EG146" s="5"/>
+      <c r="EH146" s="5"/>
+      <c r="EI146" s="5"/>
+      <c r="EJ146" s="5"/>
+      <c r="EK146" s="5"/>
+      <c r="EL146" s="5"/>
+      <c r="EM146" s="5"/>
+      <c r="EN146" s="5"/>
+      <c r="EO146" s="5"/>
+      <c r="EP146" s="5"/>
+      <c r="EQ146" s="5"/>
+      <c r="ER146" s="5"/>
+      <c r="ES146" s="5"/>
+      <c r="ET146" s="5"/>
+      <c r="EU146" s="5"/>
+      <c r="EV146" s="5"/>
+      <c r="EW146" s="5"/>
+      <c r="EX146" s="5"/>
+      <c r="EY146" s="5"/>
+      <c r="EZ146" s="5"/>
+      <c r="FA146" s="5"/>
+      <c r="FB146" s="5"/>
+      <c r="FC146" s="5"/>
+      <c r="FD146" s="5"/>
+      <c r="FE146" s="5"/>
+      <c r="FF146" s="5"/>
+      <c r="FG146" s="5"/>
+      <c r="FH146" s="5"/>
+      <c r="FI146" s="5"/>
+      <c r="FJ146" s="5"/>
+      <c r="FK146" s="5"/>
+      <c r="FL146" s="5"/>
+      <c r="FM146" s="5"/>
+      <c r="FN146" s="5"/>
+      <c r="FO146" s="5"/>
+      <c r="FP146" s="5"/>
+      <c r="FQ146" s="5"/>
+      <c r="FR146" s="5"/>
+      <c r="FS146" s="5"/>
+      <c r="FT146" s="5"/>
+      <c r="FU146" s="5"/>
+      <c r="FV146" s="5"/>
+      <c r="FW146" s="5"/>
+      <c r="FX146" s="5"/>
+      <c r="FY146" s="5"/>
+      <c r="FZ146" s="5"/>
+      <c r="GA146" s="5"/>
+      <c r="GB146" s="5"/>
+      <c r="GC146" s="5"/>
+      <c r="GD146" s="5"/>
+      <c r="GE146" s="5"/>
+      <c r="GF146" s="5"/>
+      <c r="GG146" s="5"/>
+      <c r="GH146" s="5"/>
+      <c r="GI146" s="5"/>
+      <c r="GJ146" s="5"/>
+      <c r="GK146" s="5"/>
+      <c r="GL146" s="5"/>
+      <c r="GM146" s="5"/>
+      <c r="GN146" s="5"/>
+      <c r="GO146" s="5"/>
+      <c r="GP146" s="5"/>
+      <c r="GQ146" s="5"/>
+      <c r="GR146" s="5"/>
+      <c r="GS146" s="5"/>
+      <c r="GT146" s="5"/>
+      <c r="GU146" s="5"/>
+      <c r="GV146" s="5"/>
+      <c r="GW146" s="5"/>
+      <c r="GX146" s="5"/>
+      <c r="GY146" s="5"/>
+      <c r="GZ146" s="5"/>
+      <c r="HA146" s="5"/>
+      <c r="HB146" s="5"/>
+      <c r="HC146" s="5"/>
+      <c r="HD146" s="5"/>
+      <c r="HE146" s="5"/>
+      <c r="HF146" s="5"/>
+      <c r="HG146" s="5"/>
+      <c r="HH146" s="5"/>
+      <c r="HI146" s="5"/>
+      <c r="HJ146" s="5"/>
+      <c r="HK146" s="5"/>
+      <c r="HL146" s="5"/>
+      <c r="HM146" s="5"/>
+      <c r="HN146" s="5"/>
+      <c r="HO146" s="5"/>
+      <c r="HP146" s="5"/>
+      <c r="HQ146" s="5"/>
+      <c r="HR146" s="5"/>
+      <c r="HS146" s="5"/>
+      <c r="HT146" s="5"/>
+      <c r="HU146" s="5"/>
+      <c r="HV146" s="5"/>
+      <c r="HW146" s="5"/>
+      <c r="HX146" s="5"/>
+      <c r="HY146" s="5"/>
+      <c r="HZ146" s="5"/>
+      <c r="IA146" s="5"/>
+      <c r="IB146" s="5"/>
+      <c r="IC146" s="5"/>
+      <c r="ID146" s="5"/>
+      <c r="IE146" s="5"/>
+      <c r="IF146" s="5"/>
+      <c r="IG146" s="5"/>
+      <c r="IH146" s="5"/>
+      <c r="II146" s="5"/>
+      <c r="IJ146" s="5"/>
+      <c r="IK146" s="5"/>
+      <c r="IL146" s="5"/>
+      <c r="IM146" s="5"/>
+      <c r="IN146" s="5"/>
+      <c r="IO146" s="5"/>
+      <c r="IP146" s="5"/>
+      <c r="IQ146" s="5"/>
+      <c r="IR146" s="5"/>
+      <c r="IS146" s="5"/>
+      <c r="IT146" s="5"/>
+    </row>
+    <row r="147" spans="1:254" s="2" customFormat="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -7358,7 +7505,7 @@
     </row>
     <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="20"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -7368,7 +7515,7 @@
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -7379,7 +7526,7 @@
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -7419,7 +7566,7 @@
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -7428,7 +7575,7 @@
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7448,7 +7595,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -7458,7 +7605,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7478,7 +7625,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7498,7 +7645,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7518,7 +7665,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7538,7 +7685,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7558,7 +7705,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7598,7 +7745,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7608,8 +7755,8 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -7618,7 +7765,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="19"/>
+      <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7688,7 +7835,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7698,7 +7845,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7708,7 +7855,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="21"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7728,7 +7875,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7769,7 +7916,7 @@
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
       <c r="B190" s="19"/>
-      <c r="C190" s="7"/>
+      <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -7778,7 +7925,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7798,7 +7945,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="4"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7858,7 +8005,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="21"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7898,7 +8045,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7908,7 +8055,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="6"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7918,7 +8065,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7928,7 +8075,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="19"/>
+      <c r="B206" s="4"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7978,7 +8125,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="21"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7988,7 +8135,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8038,7 +8185,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="21"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -8098,7 +8245,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8108,7 +8255,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="6"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8118,8 +8265,8 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
@@ -8128,7 +8275,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="19"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8138,7 +8285,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8148,7 +8295,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="7"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -8188,7 +8335,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8198,7 +8345,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8208,7 +8355,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="23"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8228,7 +8375,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -8268,7 +8415,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8278,7 +8425,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="7"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8328,7 +8475,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8338,8 +8485,8 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -8348,7 +8495,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -8358,7 +8505,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -8368,7 +8515,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="23"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -8418,8 +8565,8 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -8428,7 +8575,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="23"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -8438,7 +8585,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="24"/>
+      <c r="B257" s="23"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8466,9 +8613,9 @@
       <c r="G259" s="30"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8" ht="11.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="25"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8476,9 +8623,9 @@
       <c r="G260" s="30"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" ht="11.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -8518,7 +8665,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8548,7 +8695,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="23"/>
+      <c r="B268" s="24"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -8558,7 +8705,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -8566,15 +8713,15 @@
       <c r="G269" s="30"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8" s="2" customFormat="1">
-      <c r="A270" s="4"/>
+    <row r="270" spans="1:8">
+      <c r="A270" s="7"/>
       <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="34"/>
-      <c r="H270" s="4"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="30"/>
+      <c r="H270" s="7"/>
     </row>
     <row r="271" spans="1:8" s="2" customFormat="1">
       <c r="A271" s="4"/>
@@ -8586,19 +8733,19 @@
       <c r="G271" s="34"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="7"/>
+    <row r="272" spans="1:8" s="2" customFormat="1">
+      <c r="A272" s="4"/>
       <c r="B272" s="24"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="30"/>
-      <c r="H272" s="7"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="34"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8608,7 +8755,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8638,7 +8785,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8648,7 +8795,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8668,7 +8815,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="20"/>
+      <c r="B280" s="7"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8688,7 +8835,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8719,7 +8866,7 @@
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
+      <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
@@ -8728,7 +8875,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="6"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -8738,7 +8885,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8818,7 +8965,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="6"/>
+      <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -8828,8 +8975,8 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
@@ -8838,7 +8985,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="19"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8868,7 +9015,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="4"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -8928,7 +9075,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="19"/>
+      <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -8948,7 +9095,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="21"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -8958,8 +9105,8 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
@@ -8968,7 +9115,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="6"/>
+      <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -8976,15 +9123,15 @@
       <c r="G310" s="30"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8" s="2" customFormat="1">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="34"/>
-      <c r="H311" s="4"/>
+    <row r="311" spans="1:8">
+      <c r="A311" s="7"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="30"/>
+      <c r="H311" s="7"/>
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
@@ -9008,7 +9155,7 @@
     </row>
     <row r="314" spans="1:8" s="2" customFormat="1">
       <c r="A314" s="4"/>
-      <c r="B314" s="19"/>
+      <c r="B314" s="4"/>
       <c r="C314" s="9"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9058,8 +9205,8 @@
     </row>
     <row r="319" spans="1:8" s="2" customFormat="1">
       <c r="A319" s="4"/>
-      <c r="B319" s="26"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="9"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -9108,7 +9255,7 @@
     </row>
     <row r="324" spans="1:8" s="2" customFormat="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="21"/>
+      <c r="B324" s="26"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -9158,7 +9305,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="19"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -9168,7 +9315,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="21"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -9178,7 +9325,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -9186,20 +9333,20 @@
       <c r="G331" s="34"/>
       <c r="H331" s="4"/>
     </row>
-    <row r="332" spans="1:8">
-      <c r="A332" s="7"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
-      <c r="G332" s="30"/>
-      <c r="H332" s="7"/>
+    <row r="332" spans="1:8" s="2" customFormat="1">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="34"/>
+      <c r="H332" s="4"/>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="7"/>
-      <c r="B333" s="7"/>
-      <c r="C333" s="4"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
@@ -9268,7 +9415,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="4"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="4"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -9279,7 +9426,7 @@
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="7"/>
+      <c r="C341" s="4"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
@@ -9288,7 +9435,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="4"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -9298,7 +9445,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -9308,7 +9455,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="22"/>
+      <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -9318,7 +9465,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="22"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -9358,7 +9505,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="6"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -9368,7 +9515,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9378,7 +9525,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9408,7 +9555,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -9418,7 +9565,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9438,7 +9585,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9448,7 +9595,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9458,7 +9605,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9468,7 +9615,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9498,7 +9645,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9508,7 +9655,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="27"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9518,7 +9665,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="22"/>
+      <c r="B365" s="27"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9528,8 +9675,8 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
-      <c r="C366" s="4"/>
+      <c r="B366" s="22"/>
+      <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
@@ -9538,7 +9685,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="20"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9568,7 +9715,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9598,7 +9745,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="20"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9618,8 +9765,8 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
@@ -9628,7 +9775,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="6"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9638,7 +9785,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="6"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -9698,7 +9845,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="6"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9708,7 +9855,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9729,7 +9876,7 @@
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
-      <c r="C386" s="4"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -9738,7 +9885,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="20"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9749,7 +9896,7 @@
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
       <c r="B388" s="20"/>
-      <c r="C388" s="7"/>
+      <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
@@ -9758,7 +9905,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="27"/>
+      <c r="B389" s="20"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9768,7 +9915,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="22"/>
+      <c r="B390" s="27"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9818,7 +9965,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="22"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9828,7 +9975,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9838,7 +9985,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="6"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9848,7 +9995,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9858,7 +10005,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="22"/>
+      <c r="B399" s="20"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9878,7 +10025,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="20"/>
+      <c r="B401" s="22"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9918,7 +10065,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9928,7 +10075,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9948,7 +10095,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="22"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9958,7 +10105,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="22"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9968,7 +10115,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9978,7 +10125,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9998,7 +10145,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -10008,7 +10155,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -10018,7 +10165,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="20"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -10038,7 +10185,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="20"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -10048,7 +10195,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -10058,7 +10205,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -10108,7 +10255,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -10118,7 +10265,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -10178,7 +10325,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -10188,7 +10335,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -10208,7 +10355,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -10218,7 +10365,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -10238,7 +10385,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="4"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10268,7 +10415,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -10278,8 +10425,8 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
-      <c r="C441" s="4"/>
+      <c r="B441" s="6"/>
+      <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
@@ -10329,7 +10476,7 @@
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
-      <c r="C446" s="7"/>
+      <c r="C446" s="4"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -10338,7 +10485,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="7"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -10348,8 +10495,8 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
-      <c r="C448" s="4"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -10389,7 +10536,7 @@
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
-      <c r="C452" s="7"/>
+      <c r="C452" s="4"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -10398,7 +10545,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="7"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -10408,7 +10555,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="22"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -10468,7 +10615,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="22"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -10478,7 +10625,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="7"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -10488,7 +10635,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="22"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10517,8 +10664,8 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="6"/>
-      <c r="B465" s="7"/>
+      <c r="A465" s="7"/>
+      <c r="B465" s="22"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -10527,7 +10674,7 @@
       <c r="H465" s="7"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="7"/>
+      <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
@@ -10568,7 +10715,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10598,7 +10745,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -10608,7 +10755,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="28"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10618,7 +10765,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="28"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10628,21 +10775,21 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="29"/>
-      <c r="C476" s="30"/>
+      <c r="B476" s="7"/>
+      <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="29"/>
+      <c r="F476" s="7"/>
       <c r="G476" s="30"/>
       <c r="H476" s="7"/>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
-      <c r="C477" s="7"/>
+      <c r="B477" s="29"/>
+      <c r="C477" s="30"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
-      <c r="F477" s="7"/>
+      <c r="F477" s="29"/>
       <c r="G477" s="30"/>
       <c r="H477" s="7"/>
     </row>
@@ -14546,6 +14693,16 @@
       <c r="G867" s="30"/>
       <c r="H867" s="7"/>
     </row>
+    <row r="868" spans="1:8">
+      <c r="A868" s="7"/>
+      <c r="B868" s="7"/>
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+      <c r="E868" s="7"/>
+      <c r="F868" s="7"/>
+      <c r="G868" s="30"/>
+      <c r="H868" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="248">
   <si>
     <t>Feature</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>Mouse Gestures</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>selection</t>
   </si>
   <si>
-    <t>display line unwrapped</t>
-  </si>
-  <si>
-    <t>display line wrapped</t>
-  </si>
-  <si>
     <t>line wrapping</t>
   </si>
   <si>
@@ -191,15 +182,6 @@
     <t>ctrl left mouse click</t>
   </si>
   <si>
-    <t>adds selection block and caret</t>
-  </si>
-  <si>
-    <t>unless caret is already there</t>
-  </si>
-  <si>
-    <t>single selection from mouse down position</t>
-  </si>
-  <si>
     <t>left button mouse drag</t>
   </si>
   <si>
@@ -221,15 +203,9 @@
     <t>ctrl + right button mouse drag</t>
   </si>
   <si>
-    <t>adds selection block from the anchor point</t>
-  </si>
-  <si>
     <t>extends single selection from the anchor point</t>
   </si>
   <si>
-    <t>combines overlapping selection blocks</t>
-  </si>
-  <si>
     <t>matching token highlight logic</t>
   </si>
   <si>
@@ -446,9 +422,6 @@
     <t>configurable word selection logic</t>
   </si>
   <si>
-    <t>triple left click selects line</t>
-  </si>
-  <si>
     <t>get word at marker</t>
   </si>
   <si>
@@ -566,18 +539,12 @@
     <t>highlights matching tokens if enabled</t>
   </si>
   <si>
-    <t>clears selection if outside of selected region(s)</t>
-  </si>
-  <si>
     <t>clears existing selection, selects from anchor to the mouse pointer</t>
   </si>
   <si>
     <t>shift right mouse click shows a popup menu</t>
   </si>
   <si>
-    <t>all but last line: line:0..(line+1):0, last line: line:0..line:max-1</t>
-  </si>
-  <si>
     <t>expand selection shape of the first/last line to the left/right border, considering LTR/RTL</t>
   </si>
   <si>
@@ -762,6 +729,39 @@
   </si>
   <si>
     <t>resets horizontal scroll bar to 0</t>
+  </si>
+  <si>
+    <t>wrapping mode</t>
+  </si>
+  <si>
+    <t>disables horizontal scroll bar</t>
+  </si>
+  <si>
+    <t>in wrapped mode, shows line number only on first row</t>
+  </si>
+  <si>
+    <t>unless first row is scrolled outside of the view</t>
+  </si>
+  <si>
+    <t>highlights caret line</t>
+  </si>
+  <si>
+    <t>triple left click selects line, including newline</t>
+  </si>
+  <si>
+    <t>handle last line</t>
+  </si>
+  <si>
+    <t>works as left click</t>
+  </si>
+  <si>
+    <t>selects from mouse down position</t>
+  </si>
+  <si>
+    <t>alt should not be handled</t>
+  </si>
+  <si>
+    <t>moves caret if outside of selected region</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1107,7 +1149,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +1235,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,7 +1740,7 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27586206896551724</c:v>
+                  <c:v>0.3576923076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,7 +1960,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,10 +2647,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D442"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2621,7 +2663,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2656,7 +2698,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2665,7 +2707,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="B8" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2679,7 +2721,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -2688,7 +2730,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2697,7 +2739,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2706,7 +2748,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2720,7 +2762,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2729,7 +2771,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2743,7 +2785,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2752,7 +2794,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2761,7 +2803,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2770,7 +2812,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2779,7 +2821,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2803,7 +2845,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2815,7 +2857,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2824,7 +2866,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2833,7 +2875,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2842,7 +2884,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2851,7 +2893,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2860,7 +2902,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2869,7 +2911,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2878,7 +2920,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2887,7 +2929,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2895,7 +2937,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2903,7 +2945,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2911,7 +2953,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2919,7 +2961,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2927,7 +2969,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2956,7 +2998,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
@@ -2968,7 +3010,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2977,7 +3019,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2986,7 +3028,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2995,7 +3037,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3004,7 +3046,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -3013,7 +3055,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -3022,7 +3064,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -3031,7 +3073,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3040,7 +3082,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3049,7 +3091,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3058,7 +3100,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3067,7 +3109,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3076,7 +3118,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3090,7 +3132,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3099,7 +3141,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3108,7 +3150,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3117,7 +3159,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3126,7 +3168,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3135,7 +3177,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3149,7 +3191,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3158,7 +3200,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3167,7 +3209,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3176,7 +3218,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3190,7 +3232,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3199,7 +3241,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3213,7 +3255,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3222,7 +3264,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3235,7 +3277,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3249,7 +3291,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3283,7 +3325,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
@@ -3295,7 +3337,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="22" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3304,7 +3346,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3313,7 +3355,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3322,7 +3364,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3331,7 +3373,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3340,7 +3382,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3399,7 +3441,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="3" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
@@ -3411,7 +3453,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3420,7 +3462,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3433,17 +3475,15 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B111" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="20" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2</v>
@@ -3451,8 +3491,8 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22" t="s">
-        <v>29</v>
+      <c r="B113" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3461,7 +3501,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="20" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3469,8 +3509,8 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>30</v>
+      <c r="B115" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2</v>
@@ -3478,27 +3518,31 @@
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C117" s="7" t="s">
+      <c r="B117" s="20"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22"/>
-      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22" t="s">
-        <v>159</v>
+      <c r="B119" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3507,62 +3551,62 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="22" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B125" s="22"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22" t="s">
-        <v>224</v>
+      <c r="B127" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3570,22 +3614,22 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>127</v>
+      <c r="B130" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3593,8 +3637,8 @@
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20" t="s">
-        <v>174</v>
+      <c r="B131" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3602,131 +3646,127 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20" t="s">
-        <v>132</v>
+      <c r="B134" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20" t="s">
-        <v>139</v>
+      <c r="B136" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="20" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="C137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="20"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="20" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
-        <v>35</v>
+      <c r="B146" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="20" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3735,43 +3775,39 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="20" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B151" s="22"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>243</v>
+      <c r="B152" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>2</v>
@@ -3780,7 +3816,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -3788,13 +3824,17 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20"/>
-      <c r="C154" s="9"/>
+      <c r="B154" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="27" t="s">
-        <v>33</v>
+      <c r="B155" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>2</v>
@@ -3803,7 +3843,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3812,7 +3852,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3821,7 +3861,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3830,7 +3870,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3839,7 +3879,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3847,44 +3887,58 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C161" s="7" t="s">
+      <c r="B161" s="20"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C165" s="7"/>
+      <c r="B165" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>245</v>
+      <c r="B167" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3892,8 +3946,8 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22" t="s">
-        <v>246</v>
+      <c r="B168" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3901,12 +3955,8 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B169" s="22"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
@@ -3935,7 +3985,9 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
+      <c r="B175" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
@@ -3945,28 +3997,46 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22"/>
+      <c r="B177" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="B178" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
+      <c r="B179" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22"/>
-      <c r="C180" s="7"/>
+      <c r="B180" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22"/>
-      <c r="C181" s="7"/>
+      <c r="B181" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
@@ -3975,219 +4045,257 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="22"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22"/>
-      <c r="C185" s="7"/>
+      <c r="B185" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="3" t="s">
-        <v>166</v>
+      <c r="B190" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="22"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="22" t="s">
-        <v>167</v>
+      <c r="B192" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B194" s="22"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="22" t="s">
-        <v>169</v>
+      <c r="B195" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22" t="s">
-        <v>170</v>
+      <c r="B196" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="22" t="s">
-        <v>171</v>
+      <c r="B198" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22" t="s">
-        <v>172</v>
+      <c r="B199" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
-      <c r="C200" s="7"/>
+      <c r="B200" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="7"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22"/>
-      <c r="C204" s="7"/>
+      <c r="B204" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B205" s="22"/>
       <c r="C205" s="7"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="22"/>
-      <c r="C206" s="7"/>
+      <c r="B206" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C207" s="7"/>
+      <c r="B207" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B208" s="22"/>
+      <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="20" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B210" s="22"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="20" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="4"/>
+      <c r="D211" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="7"/>
+      <c r="B212" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="20" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -4196,7 +4304,7 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>14</v>
@@ -4205,7 +4313,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>14</v>
@@ -4213,17 +4321,13 @@
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B217" s="22"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23" t="s">
-        <v>141</v>
+      <c r="B218" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>14</v>
@@ -4231,8 +4335,8 @@
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20" t="s">
-        <v>142</v>
+      <c r="B219" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>14</v>
@@ -4241,7 +4345,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>14</v>
@@ -4255,7 +4359,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="20" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>14</v>
@@ -4264,7 +4368,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>14</v>
@@ -4272,22 +4376,22 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="7"/>
+      <c r="B224" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="23" t="s">
-        <v>57</v>
+      <c r="B226" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>14</v>
@@ -4296,7 +4400,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4304,45 +4408,43 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B229" s="23"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>59</v>
+      <c r="B230" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="22"/>
+      <c r="B232" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>14</v>
@@ -4351,7 +4453,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>14</v>
@@ -4359,13 +4461,17 @@
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="22"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4373,45 +4479,45 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B237" s="22"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="23" t="s">
-        <v>69</v>
+      <c r="B238" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="22"/>
-      <c r="C239" s="7"/>
+      <c r="B239" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B240" s="22"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="22"/>
-      <c r="C241" s="7"/>
+      <c r="B241" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="20" t="s">
-        <v>109</v>
+      <c r="B242" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4419,22 +4525,22 @@
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B243" s="22"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="20" t="s">
-        <v>111</v>
+      <c r="B245" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
@@ -4442,17 +4548,13 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B246" s="20"/>
+      <c r="C246" s="7"/>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="23" t="s">
-        <v>113</v>
+      <c r="B247" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>14</v>
@@ -4460,13 +4562,17 @@
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="22"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>14</v>
@@ -4474,8 +4580,8 @@
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="23" t="s">
-        <v>45</v>
+      <c r="B250" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>14</v>
@@ -4483,22 +4589,22 @@
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="7"/>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="20"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>14</v>
@@ -4506,8 +4612,8 @@
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="23" t="s">
-        <v>45</v>
+      <c r="B254" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>14</v>
@@ -4515,8 +4621,8 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="23" t="s">
-        <v>116</v>
+      <c r="B255" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>14</v>
@@ -4524,13 +4630,17 @@
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="20"/>
-      <c r="C256" s="7"/>
+      <c r="B256" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="20" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>14</v>
@@ -4538,52 +4648,44 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B258" s="22"/>
+      <c r="C258" s="7"/>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B259" s="22"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="23"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B261" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C261" s="7"/>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="20"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="7"/>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C263" s="7"/>
+      <c r="B263" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="20" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
@@ -4591,8 +4693,8 @@
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="23" t="s">
-        <v>182</v>
+      <c r="B265" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>14</v>
@@ -4600,8 +4702,8 @@
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="23" t="s">
-        <v>48</v>
+      <c r="B266" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>14</v>
@@ -4610,7 +4712,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="20" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>14</v>
@@ -4618,13 +4720,13 @@
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="22"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="7"/>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="20" t="s">
-        <v>61</v>
+      <c r="B269" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>14</v>
@@ -4632,8 +4734,8 @@
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="23" t="s">
-        <v>62</v>
+      <c r="B270" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>14</v>
@@ -4641,13 +4743,17 @@
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="22"/>
-      <c r="C271" s="7"/>
+      <c r="B271" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>14</v>
@@ -4655,8 +4761,8 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="23" t="s">
-        <v>62</v>
+      <c r="B273" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>14</v>
@@ -4669,120 +4775,112 @@
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="20" t="s">
-        <v>66</v>
+      <c r="B275" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="23" t="s">
-        <v>62</v>
+      <c r="B276" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="20"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="7"/>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="27" t="s">
-        <v>187</v>
+      <c r="B278" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="20" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B280" s="22"/>
+      <c r="C280" s="7"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="20" t="s">
-        <v>189</v>
+      <c r="B281" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="20"/>
-      <c r="C282" s="7"/>
+      <c r="B282" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B283" s="22"/>
+      <c r="C283" s="7"/>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="20" t="s">
-        <v>136</v>
+      <c r="B284" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="20" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B286" s="22"/>
+      <c r="C286" s="7"/>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="20" t="s">
-        <v>77</v>
+      <c r="B287" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="20" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D288" s="4"/>
     </row>
@@ -4792,30 +4890,40 @@
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22"/>
-      <c r="C290" s="7"/>
+      <c r="B290" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="22"/>
-      <c r="C291" s="7"/>
+      <c r="B291" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="B292" s="22"/>
       <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22"/>
-      <c r="C293" s="7"/>
+      <c r="B293" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22" t="s">
-        <v>79</v>
+      <c r="B294" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>14</v>
@@ -4823,17 +4931,13 @@
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B295" s="22"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="20" t="s">
-        <v>237</v>
+      <c r="B296" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>14</v>
@@ -4842,7 +4946,7 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>14</v>
@@ -4850,686 +4954,665 @@
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B298" s="22"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="20"/>
+      <c r="B299" s="22"/>
       <c r="C299" s="7"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B300" s="22"/>
+      <c r="C300" s="7"/>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B301" s="22"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B302" s="22"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B303" s="22"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B304" s="22"/>
+      <c r="C304" s="7"/>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B306" s="19"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B307" s="4"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22"/>
+      <c r="B308" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
+    <row r="309" spans="2:4">
+      <c r="C309" s="7"/>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C310" s="7"/>
+    </row>
+    <row r="311" spans="2:4">
       <c r="C311" s="7"/>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>218</v>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>65</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D312" s="4"/>
-    </row>
-    <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="20" t="s">
-        <v>240</v>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>66</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D313" s="4"/>
-    </row>
-    <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22"/>
-      <c r="C314" s="7"/>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22" t="s">
-        <v>213</v>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>67</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>68</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="20" t="s">
-        <v>240</v>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>220</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="7"/>
-      <c r="D317" s="4"/>
-    </row>
-    <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22" t="s">
-        <v>241</v>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>221</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>69</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="20" t="s">
-        <v>239</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>70</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22"/>
-      <c r="C320" s="7"/>
-      <c r="D320" s="4"/>
-    </row>
-    <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321" s="4"/>
-    </row>
-    <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D322" s="4"/>
-    </row>
-    <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="7"/>
-      <c r="D323" s="4"/>
-    </row>
-    <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" s="4"/>
-    </row>
-    <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
-      <c r="D326" s="4"/>
-    </row>
-    <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D327" s="4"/>
-    </row>
-    <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="22"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="20"/>
-      <c r="C336" s="7"/>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="19"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="C340" s="7"/>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="B341" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C341" s="7"/>
-    </row>
-    <row r="342" spans="2:4">
-      <c r="C342" s="7"/>
-    </row>
-    <row r="343" spans="2:4">
-      <c r="B343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" t="s">
+        <v>71</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" t="s">
+        <v>72</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" t="s">
         <v>73</v>
       </c>
-      <c r="C343" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="B344" t="s">
+      <c r="C322" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C344" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4">
-      <c r="B345" t="s">
+      <c r="C323" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="44"/>
+      <c r="C326" s="9"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="44"/>
+      <c r="C327" s="9"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="44"/>
+      <c r="C328" s="9"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="C329" s="9"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="C330" s="9"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="C331" s="9"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="C332" s="9"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C333" s="9"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="C334" s="9"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" t="s">
+        <v>90</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>91</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" t="s">
+        <v>92</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" t="s">
+        <v>93</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" t="s">
+        <v>94</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" t="s">
+        <v>95</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" t="s">
+        <v>122</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="C342" s="9"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="C344" s="9"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C345" s="9"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" t="s">
+        <v>64</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="44"/>
+      <c r="C363" s="7"/>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" t="s">
         <v>75</v>
       </c>
-      <c r="C345" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4">
-      <c r="B346" t="s">
-        <v>76</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4">
-      <c r="B347" t="s">
-        <v>231</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4">
-      <c r="B348" t="s">
-        <v>232</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4">
-      <c r="B349" t="s">
-        <v>77</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4">
-      <c r="B350" t="s">
-        <v>78</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4">
-      <c r="B351" t="s">
-        <v>79</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4">
-      <c r="B352" t="s">
-        <v>80</v>
-      </c>
-      <c r="C352" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3">
-      <c r="B353" t="s">
-        <v>81</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3">
-      <c r="B354" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C354" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3">
-      <c r="B355" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3">
-      <c r="B356" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3">
-      <c r="B357" s="44"/>
-      <c r="C357" s="9"/>
-    </row>
-    <row r="358" spans="2:3">
-      <c r="B358" s="44"/>
-      <c r="C358" s="9"/>
-    </row>
-    <row r="359" spans="2:3">
-      <c r="B359" s="44"/>
-      <c r="C359" s="9"/>
-    </row>
-    <row r="360" spans="2:3">
-      <c r="C360" s="9"/>
-    </row>
-    <row r="361" spans="2:3">
-      <c r="C361" s="9"/>
-    </row>
-    <row r="362" spans="2:3">
-      <c r="C362" s="9"/>
-    </row>
-    <row r="363" spans="2:3">
-      <c r="C363" s="9"/>
-    </row>
-    <row r="364" spans="2:3">
-      <c r="B364" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C364" s="9"/>
+      <c r="C364" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="365" spans="2:3">
       <c r="C365" s="9"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" t="s">
-        <v>98</v>
-      </c>
-      <c r="C366" s="7" t="s">
+      <c r="B366" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C366" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" t="s">
-        <v>99</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C367" s="9"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" t="s">
-        <v>100</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3">
+      <c r="B368" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4">
       <c r="B369" t="s">
-        <v>101</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="370" spans="2:3">
-      <c r="B370" t="s">
-        <v>102</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="371" spans="2:3">
+        <v>79</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="C370" s="9"/>
+    </row>
+    <row r="371" spans="2:4">
       <c r="B371" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="2:3">
-      <c r="B372" t="s">
-        <v>130</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3">
-      <c r="C373" s="9"/>
-    </row>
-    <row r="374" spans="2:3">
-      <c r="C374" s="9"/>
-    </row>
-    <row r="375" spans="2:3">
-      <c r="C375" s="9"/>
-    </row>
-    <row r="376" spans="2:3">
-      <c r="B376" s="3" t="s">
-        <v>125</v>
-      </c>
+    <row r="372" spans="2:4">
+      <c r="C372" s="9"/>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="B373" t="s">
+        <v>39</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="B374" t="s">
+        <v>40</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="B375" t="s">
+        <v>41</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
       <c r="C376" s="9"/>
     </row>
-    <row r="390" spans="2:3">
-      <c r="B390" t="s">
-        <v>72</v>
+    <row r="377" spans="2:4">
+      <c r="B377" t="s">
+        <v>76</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="B378" t="s">
+        <v>77</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="C379" s="9"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C380" s="7"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="22"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="2:4" s="6" customFormat="1">
+      <c r="B390" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="391" spans="2:3">
-      <c r="B391" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="392" spans="2:3">
-      <c r="B392" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="393" spans="2:3">
-      <c r="B393" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C393" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="394" spans="2:3">
-      <c r="B394" s="44"/>
-      <c r="C394" s="7"/>
-    </row>
-    <row r="395" spans="2:3">
-      <c r="B395" t="s">
-        <v>83</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="396" spans="2:3">
-      <c r="C396" s="9"/>
-    </row>
-    <row r="397" spans="2:3">
-      <c r="B397" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C397" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="398" spans="2:3">
-      <c r="C398" s="9"/>
-    </row>
-    <row r="399" spans="2:3">
-      <c r="B399" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C399" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3">
-      <c r="B400" t="s">
-        <v>87</v>
-      </c>
-      <c r="C400" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="C401" s="9"/>
-    </row>
-    <row r="402" spans="2:4">
-      <c r="B402" t="s">
-        <v>158</v>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C391" s="7"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4">
+      <c r="C392" s="9"/>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="C393" s="9"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C395" s="7"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="22"/>
+      <c r="C396" s="7"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="2:4" s="6" customFormat="1">
+      <c r="B400" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="2:4" s="6" customFormat="1">
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="2:4" s="6" customFormat="1">
+      <c r="B402" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="403" spans="2:4">
-      <c r="C403" s="9"/>
-    </row>
-    <row r="404" spans="2:4">
-      <c r="B404" t="s">
-        <v>42</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4">
-      <c r="B405" t="s">
-        <v>43</v>
+      <c r="D402" s="4"/>
+    </row>
+    <row r="403" spans="2:4" s="6" customFormat="1">
+      <c r="B403" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="2:4" s="6" customFormat="1">
+      <c r="B404" s="22"/>
+      <c r="C404" s="7"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="2:4" s="6" customFormat="1">
+      <c r="B405" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="406" spans="2:4">
-      <c r="B406" t="s">
-        <v>44</v>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="2:4" s="6" customFormat="1">
+      <c r="B406" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="407" spans="2:4">
-      <c r="C407" s="9"/>
-    </row>
-    <row r="408" spans="2:4">
-      <c r="B408" t="s">
-        <v>84</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4">
-      <c r="B409" t="s">
-        <v>85</v>
+      <c r="D406" s="4"/>
+    </row>
+    <row r="407" spans="2:4" s="6" customFormat="1">
+      <c r="B407" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="4"/>
+    </row>
+    <row r="408" spans="2:4" s="6" customFormat="1">
+      <c r="B408" s="22"/>
+      <c r="C408" s="7"/>
+      <c r="D408" s="4"/>
+    </row>
+    <row r="409" spans="2:4" s="6" customFormat="1">
+      <c r="B409" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="410" spans="2:4">
-      <c r="C410" s="9"/>
+      <c r="D409" s="4"/>
+    </row>
+    <row r="410" spans="2:4" s="6" customFormat="1">
+      <c r="B410" s="22"/>
+      <c r="C410" s="7"/>
+      <c r="D410" s="4"/>
     </row>
     <row r="411" spans="2:4" s="6" customFormat="1">
       <c r="B411" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C411" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="2:4" s="6" customFormat="1">
-      <c r="B412" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B412" s="22"/>
+      <c r="C412" s="7"/>
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="20" t="s">
-        <v>146</v>
+      <c r="B413" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>14</v>
@@ -5537,49 +5620,37 @@
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B414" s="22"/>
+      <c r="C414" s="7"/>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B415" s="22"/>
+      <c r="C415" s="7"/>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B416" s="22"/>
+      <c r="C416" s="7"/>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="2:4" s="6" customFormat="1">
-      <c r="B417" s="22"/>
-      <c r="C417" s="7"/>
+      <c r="B417" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="2:4" s="6" customFormat="1">
-      <c r="B418" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B418" s="22"/>
+      <c r="C418" s="7"/>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="2:4" s="6" customFormat="1">
       <c r="B419" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>14</v>
@@ -5593,7 +5664,7 @@
     </row>
     <row r="421" spans="2:4" s="6" customFormat="1">
       <c r="B421" s="22" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>14</v>
@@ -5602,22 +5673,43 @@
     </row>
     <row r="422" spans="2:4" s="6" customFormat="1">
       <c r="B422" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C422" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="2:4">
-      <c r="C423" s="9"/>
-    </row>
-    <row r="424" spans="2:4">
-      <c r="C424" s="9"/>
+    <row r="423" spans="2:4" s="6" customFormat="1">
+      <c r="B423" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="4"/>
+    </row>
+    <row r="424" spans="2:4" s="6" customFormat="1">
+      <c r="B424" s="22"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="4"/>
+    </row>
+    <row r="425" spans="2:4" s="6" customFormat="1">
+      <c r="B425" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="4"/>
     </row>
     <row r="426" spans="2:4" s="6" customFormat="1">
-      <c r="B426" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C426" s="7"/>
+      <c r="B426" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D426" s="4"/>
     </row>
     <row r="427" spans="2:4" s="6" customFormat="1">
@@ -5627,7 +5719,7 @@
     </row>
     <row r="428" spans="2:4" s="6" customFormat="1">
       <c r="B428" s="22" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>14</v>
@@ -5635,229 +5727,110 @@
       <c r="D428" s="4"/>
     </row>
     <row r="429" spans="2:4" s="6" customFormat="1">
-      <c r="B429" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B429" s="22"/>
+      <c r="C429" s="7"/>
       <c r="D429" s="4"/>
     </row>
     <row r="430" spans="2:4" s="6" customFormat="1">
-      <c r="B430" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B430" s="22"/>
+      <c r="C430" s="7"/>
       <c r="D430" s="4"/>
     </row>
     <row r="431" spans="2:4" s="6" customFormat="1">
-      <c r="B431" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B431" s="22"/>
+      <c r="C431" s="7"/>
       <c r="D431" s="4"/>
     </row>
     <row r="432" spans="2:4" s="6" customFormat="1">
       <c r="B432" s="22"/>
-      <c r="C432" s="7"/>
+      <c r="C432" s="4"/>
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="2:4" s="6" customFormat="1">
-      <c r="B433" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C433" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="433" spans="1:4" s="6" customFormat="1">
+      <c r="B433" s="19"/>
+      <c r="C433" s="4"/>
       <c r="D433" s="4"/>
     </row>
-    <row r="434" spans="2:4" s="6" customFormat="1">
-      <c r="B434" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="434" spans="1:4" s="6" customFormat="1">
+      <c r="B434" s="21"/>
+      <c r="C434" s="4"/>
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="2:4" s="6" customFormat="1">
-      <c r="B435" s="22"/>
-      <c r="C435" s="7"/>
+    <row r="435" spans="1:4" s="6" customFormat="1">
+      <c r="B435" s="21"/>
+      <c r="C435" s="4"/>
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="2:4" s="6" customFormat="1">
-      <c r="B436" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D436" s="4"/>
-    </row>
-    <row r="437" spans="2:4" s="6" customFormat="1">
-      <c r="B437" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C437" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D437" s="4"/>
-    </row>
-    <row r="438" spans="2:4" s="6" customFormat="1">
-      <c r="B438" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D438" s="4"/>
-    </row>
-    <row r="439" spans="2:4" s="6" customFormat="1">
-      <c r="B439" s="22"/>
-      <c r="C439" s="7"/>
-      <c r="D439" s="4"/>
-    </row>
-    <row r="440" spans="2:4" s="6" customFormat="1">
-      <c r="B440" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C440" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D440" s="4"/>
-    </row>
-    <row r="441" spans="2:4" s="6" customFormat="1">
-      <c r="B441" s="22"/>
-      <c r="C441" s="7"/>
-      <c r="D441" s="4"/>
-    </row>
-    <row r="442" spans="2:4" s="6" customFormat="1">
-      <c r="B442" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D442" s="4"/>
-    </row>
-    <row r="443" spans="2:4" s="6" customFormat="1">
-      <c r="B443" s="22"/>
-      <c r="C443" s="7"/>
-      <c r="D443" s="4"/>
-    </row>
-    <row r="444" spans="2:4" s="6" customFormat="1">
-      <c r="B444" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D444" s="4"/>
-    </row>
-    <row r="445" spans="2:4" s="6" customFormat="1">
-      <c r="B445" s="22"/>
-      <c r="C445" s="7"/>
-      <c r="D445" s="4"/>
-    </row>
-    <row r="446" spans="2:4" s="6" customFormat="1">
-      <c r="B446" s="22"/>
-      <c r="C446" s="7"/>
-      <c r="D446" s="4"/>
-    </row>
-    <row r="447" spans="2:4" s="6" customFormat="1">
-      <c r="B447" s="22"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-    </row>
-    <row r="448" spans="2:4" s="6" customFormat="1">
-      <c r="B448" s="19"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-    </row>
-    <row r="449" spans="1:4" s="6" customFormat="1">
-      <c r="B449" s="21"/>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-    </row>
-    <row r="450" spans="1:4" s="6" customFormat="1">
-      <c r="B450" s="21"/>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="3"/>
-      <c r="B451" s="11"/>
-      <c r="C451" s="11"/>
-      <c r="D451" s="3"/>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="3"/>
-      <c r="B452" s="8" t="s">
+    <row r="436" spans="1:4">
+      <c r="A436" s="3"/>
+      <c r="B436" s="11"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="3"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="3"/>
+      <c r="B437" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C452" s="6">
-        <f>COUNTIF(C5:C451,"y")</f>
-        <v>72</v>
-      </c>
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="3"/>
-      <c r="B453" s="8" t="s">
+      <c r="C437" s="6">
+        <f>COUNTIF(C5:C436,"y")</f>
+        <v>93</v>
+      </c>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3"/>
+      <c r="B438" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C453" s="6">
-        <f>COUNTIF(C5:C451,"n")</f>
-        <v>187</v>
-      </c>
-      <c r="D453" s="2"/>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="3"/>
-      <c r="B454" s="8" t="s">
+      <c r="C438" s="6">
+        <f>COUNTIF(C5:C436,"n")</f>
+        <v>167</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="3"/>
+      <c r="B439" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C454" s="7">
-        <f>COUNTIF(C5:C451,"TBD")</f>
+      <c r="C439" s="7">
+        <f>COUNTIF(C5:C436,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D454" s="2"/>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="3"/>
-      <c r="B455" s="8" t="s">
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="3"/>
+      <c r="B440" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C455">
-        <f>SUM(C452:C454)</f>
-        <v>259</v>
-      </c>
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456" spans="1:4" ht="18">
-      <c r="A456" s="3"/>
-      <c r="B456" s="10"/>
-      <c r="C456" s="10" t="s">
+      <c r="C440">
+        <f>SUM(C437:C439)</f>
+        <v>260</v>
+      </c>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4" ht="18">
+      <c r="A441" s="3"/>
+      <c r="B441" s="10"/>
+      <c r="C441" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D456" s="41">
-        <f>C452/(C453+C452 + C454)</f>
-        <v>0.27799227799227799</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="3"/>
-      <c r="B457" s="11"/>
-      <c r="C457" s="11"/>
-      <c r="D457" s="3"/>
+      <c r="D441" s="41">
+        <f>C437/(C438+C437 + C439)</f>
+        <v>0.3576923076923077</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="3"/>
+      <c r="B442" s="11"/>
+      <c r="C442" s="11"/>
+      <c r="D442" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C426:C65205 C390:C424 C1:C3 C6:C376">
+  <conditionalFormatting sqref="C359:C393 C395:C65190 C1:C3 C6:C345">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5884,7 +5857,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5905,7 +5878,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6263,10 +6236,10 @@
         <v>43971</v>
       </c>
       <c r="B54" s="4">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C54" s="4">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6277,7 +6250,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.27586206896551724</v>
+        <v>0.3576923076923077</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6322,25 +6295,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.27586206896551724</v>
+        <v>0.3576923076923077</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C452</f>
-        <v>72</v>
+        <f>Features!C437</f>
+        <v>93</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C453</f>
-        <v>187</v>
+        <f>Features!C438</f>
+        <v>167</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C454</f>
+        <f>Features!C439</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6384,11 +6357,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="46" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44944.958333333336</v>
+        <v>44644.387096774197</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="249">
   <si>
     <t>Feature</t>
   </si>
@@ -762,6 +762,9 @@
   </si>
   <si>
     <t>moves caret if outside of selected region</t>
+  </si>
+  <si>
+    <t>minimizes blank lines beyond EOF</t>
   </si>
 </sst>
 </file>
@@ -982,49 +985,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1063,7 +1024,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955347"/>
+          <c:w val="0.91978071330955369"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1235,7 +1196,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,11 +1380,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133483904"/>
-        <c:axId val="133309568"/>
+        <c:axId val="162712960"/>
+        <c:axId val="162473088"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133483904"/>
+        <c:axId val="162712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133309568"/>
+        <c:crossAx val="162473088"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1466,7 +1427,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133309568"/>
+        <c:axId val="162473088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133483904"/>
+        <c:crossAx val="162712960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,7 +1492,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218492"/>
+          <c:y val="0.33819556996218497"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1652,7 +1613,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127741E-2"/>
+          <c:x val="4.4510450248127761E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1740,17 +1701,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3576923076923077</c:v>
+                  <c:v>0.35632183908045978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133329280"/>
-        <c:axId val="133330816"/>
+        <c:axId val="162500992"/>
+        <c:axId val="162502528"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133329280"/>
+        <c:axId val="162500992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,13 +1719,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="133330816"/>
+        <c:crossAx val="162502528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133330816"/>
+        <c:axId val="162502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1807,7 +1768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133329280"/>
+        <c:crossAx val="162500992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1960,7 +1921,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,11 +2013,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133359872"/>
-        <c:axId val="162463744"/>
+        <c:axId val="162523392"/>
+        <c:axId val="162725888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133359872"/>
+        <c:axId val="162523392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162463744"/>
+        <c:crossAx val="162725888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2098,7 +2059,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162463744"/>
+        <c:axId val="162725888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133359872"/>
+        <c:crossAx val="162523392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2647,10 +2608,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3873,7 +3834,7 @@
         <v>232</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D159" s="4"/>
     </row>
@@ -4908,54 +4869,58 @@
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22"/>
-      <c r="C292" s="7"/>
+      <c r="B292" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22" t="s">
+      <c r="B293" s="22"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="20" t="s">
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22"/>
-      <c r="C295" s="7"/>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
+      <c r="B296" s="22"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="20" t="s">
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22"/>
-      <c r="C298" s="7"/>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
@@ -4989,50 +4954,47 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="20"/>
+      <c r="B305" s="22"/>
       <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="19"/>
+      <c r="B306" s="20"/>
       <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="4"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="B308" s="4"/>
       <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C309" s="7"/>
+      <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4">
-      <c r="B310" s="43" t="s">
+      <c r="C310" s="7"/>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C310" s="7"/>
-    </row>
-    <row r="311" spans="2:4">
       <c r="C311" s="7"/>
     </row>
     <row r="312" spans="2:4">
-      <c r="B312" t="s">
-        <v>65</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C312" s="7"/>
     </row>
     <row r="313" spans="2:4">
       <c r="B313" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>2</v>
@@ -5040,7 +5002,7 @@
     </row>
     <row r="314" spans="2:4">
       <c r="B314" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>2</v>
@@ -5048,7 +5010,7 @@
     </row>
     <row r="315" spans="2:4">
       <c r="B315" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>2</v>
@@ -5056,7 +5018,7 @@
     </row>
     <row r="316" spans="2:4">
       <c r="B316" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>2</v>
@@ -5064,7 +5026,7 @@
     </row>
     <row r="317" spans="2:4">
       <c r="B317" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>2</v>
@@ -5072,15 +5034,15 @@
     </row>
     <row r="318" spans="2:4">
       <c r="B318" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="2:4">
       <c r="B319" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>14</v>
@@ -5088,15 +5050,15 @@
     </row>
     <row r="320" spans="2:4">
       <c r="B320" t="s">
-        <v>71</v>
-      </c>
-      <c r="C320" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C320" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C321" s="9" t="s">
         <v>14</v>
@@ -5104,23 +5066,23 @@
     </row>
     <row r="322" spans="2:3">
       <c r="B322" t="s">
+        <v>72</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" t="s">
         <v>73</v>
       </c>
-      <c r="C322" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3">
-      <c r="B323" s="44" t="s">
+      <c r="C323" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="44" t="s">
         <v>74</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="B324" s="45" t="s">
-        <v>82</v>
       </c>
       <c r="C324" s="9" t="s">
         <v>14</v>
@@ -5128,15 +5090,19 @@
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C325" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" s="44"/>
-      <c r="C326" s="9"/>
+      <c r="C326" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" s="44"/>
@@ -5147,6 +5113,7 @@
       <c r="C328" s="9"/>
     </row>
     <row r="329" spans="2:3">
+      <c r="B329" s="44"/>
       <c r="C329" s="9"/>
     </row>
     <row r="330" spans="2:3">
@@ -5159,25 +5126,20 @@
       <c r="C332" s="9"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="43" t="s">
+      <c r="C333" s="9"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C333" s="9"/>
-    </row>
-    <row r="334" spans="2:3">
       <c r="C334" s="9"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" t="s">
-        <v>90</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
@@ -5185,7 +5147,7 @@
     </row>
     <row r="337" spans="2:3">
       <c r="B337" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>14</v>
@@ -5193,7 +5155,7 @@
     </row>
     <row r="338" spans="2:3">
       <c r="B338" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>14</v>
@@ -5201,7 +5163,7 @@
     </row>
     <row r="339" spans="2:3">
       <c r="B339" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>14</v>
@@ -5209,7 +5171,7 @@
     </row>
     <row r="340" spans="2:3">
       <c r="B340" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>14</v>
@@ -5217,14 +5179,19 @@
     </row>
     <row r="341" spans="2:3">
       <c r="B341" t="s">
+        <v>95</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" t="s">
         <v>122</v>
       </c>
-      <c r="C341" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3">
-      <c r="C342" s="9"/>
+      <c r="C342" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="343" spans="2:3">
       <c r="C343" s="9"/>
@@ -5233,22 +5200,17 @@
       <c r="C344" s="9"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="3" t="s">
+      <c r="C345" s="9"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C345" s="9"/>
-    </row>
-    <row r="359" spans="2:3">
-      <c r="B359" t="s">
+      <c r="C346" s="9"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" t="s">
         <v>64</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3">
-      <c r="B360" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>14</v>
@@ -5256,7 +5218,7 @@
     </row>
     <row r="361" spans="2:3">
       <c r="B361" s="44" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
@@ -5264,79 +5226,79 @@
     </row>
     <row r="362" spans="2:3">
       <c r="B362" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C362" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3">
-      <c r="B363" s="44"/>
-      <c r="C363" s="7"/>
+      <c r="C363" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" t="s">
+      <c r="B364" s="44"/>
+      <c r="C364" s="7"/>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" t="s">
         <v>75</v>
       </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3">
-      <c r="C365" s="9"/>
+      <c r="C365" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="45" t="s">
+      <c r="C366" s="9"/>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C366" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3">
-      <c r="C367" s="9"/>
+      <c r="C367" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="45" t="s">
+      <c r="C368" s="9"/>
+    </row>
+    <row r="369" spans="2:4">
+      <c r="B369" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C368" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4">
-      <c r="B369" t="s">
+      <c r="C369" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="B370" t="s">
         <v>79</v>
       </c>
-      <c r="C369" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="C370" s="9"/>
+      <c r="C370" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="371" spans="2:4">
-      <c r="B371" t="s">
+      <c r="C371" s="9"/>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="B372" t="s">
         <v>149</v>
       </c>
-      <c r="C371" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="C372" s="9"/>
+      <c r="C372" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="373" spans="2:4">
-      <c r="B373" t="s">
-        <v>39</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" spans="2:4">
       <c r="B374" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
@@ -5344,53 +5306,52 @@
     </row>
     <row r="375" spans="2:4">
       <c r="B375" t="s">
+        <v>40</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="B376" t="s">
         <v>41</v>
       </c>
-      <c r="C375" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="C376" s="9"/>
+      <c r="C376" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="377" spans="2:4">
-      <c r="B377" t="s">
-        <v>76</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" spans="2:4">
       <c r="B378" t="s">
+        <v>76</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="B379" t="s">
         <v>77</v>
       </c>
-      <c r="C378" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="C379" s="9"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
+      <c r="C379" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="C380" s="9"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C380" s="7"/>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C381" s="7"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
       <c r="B382" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>14</v>
@@ -5399,7 +5360,7 @@
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>14</v>
@@ -5408,7 +5369,7 @@
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -5417,151 +5378,151 @@
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
       <c r="B385" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C385" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
+      <c r="C386" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B387" s="22"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
       <c r="B388" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C388" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D388" s="4"/>
-    </row>
-    <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
+      <c r="C389" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B390" s="22"/>
+      <c r="C390" s="7"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
       <c r="B391" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C391" s="7"/>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="2:4">
-      <c r="C392" s="9"/>
+      <c r="C392" s="7"/>
+      <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4">
       <c r="C393" s="9"/>
     </row>
-    <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="3" t="s">
+    <row r="394" spans="2:4">
+      <c r="C394" s="9"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C395" s="7"/>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="22"/>
       <c r="C396" s="7"/>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B397" s="22"/>
+      <c r="C397" s="7"/>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
       <c r="B398" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="2:4" s="6" customFormat="1">
+      <c r="B401" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C400" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
+      <c r="C401" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" s="6" customFormat="1">
       <c r="B403" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="2:4" s="6" customFormat="1">
+      <c r="B404" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C403" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D403" s="4"/>
-    </row>
-    <row r="404" spans="2:4" s="6" customFormat="1">
-      <c r="B404" s="22"/>
-      <c r="C404" s="7"/>
+      <c r="C404" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="2:4" s="6" customFormat="1">
-      <c r="B405" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C405" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B405" s="22"/>
+      <c r="C405" s="7"/>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="2:4" s="6" customFormat="1">
       <c r="B406" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>14</v>
@@ -5570,58 +5531,62 @@
     </row>
     <row r="407" spans="2:4" s="6" customFormat="1">
       <c r="B407" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="4"/>
+    </row>
+    <row r="408" spans="2:4" s="6" customFormat="1">
+      <c r="B408" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C407" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D407" s="4"/>
-    </row>
-    <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22"/>
-      <c r="C408" s="7"/>
+      <c r="C408" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22" t="s">
+      <c r="B409" s="22"/>
+      <c r="C409" s="7"/>
+      <c r="D409" s="4"/>
+    </row>
+    <row r="410" spans="2:4" s="6" customFormat="1">
+      <c r="B410" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C409" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D409" s="4"/>
-    </row>
-    <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22"/>
-      <c r="C410" s="7"/>
+      <c r="C410" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="2:4" s="6" customFormat="1">
-      <c r="B411" s="22" t="s">
+      <c r="B411" s="22"/>
+      <c r="C411" s="7"/>
+      <c r="D411" s="4"/>
+    </row>
+    <row r="412" spans="2:4" s="6" customFormat="1">
+      <c r="B412" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C411" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D411" s="4"/>
-    </row>
-    <row r="412" spans="2:4" s="6" customFormat="1">
-      <c r="B412" s="22"/>
-      <c r="C412" s="7"/>
+      <c r="C412" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22" t="s">
+      <c r="B413" s="22"/>
+      <c r="C413" s="7"/>
+      <c r="D413" s="4"/>
+    </row>
+    <row r="414" spans="2:4" s="6" customFormat="1">
+      <c r="B414" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C413" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D413" s="4"/>
-    </row>
-    <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22"/>
-      <c r="C414" s="7"/>
+      <c r="C414" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
@@ -5635,45 +5600,41 @@
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="2:4" s="6" customFormat="1">
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="22"/>
+      <c r="C417" s="7"/>
+      <c r="D417" s="4"/>
+    </row>
+    <row r="418" spans="2:4" s="6" customFormat="1">
+      <c r="B418" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C417" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D417" s="4"/>
-    </row>
-    <row r="418" spans="2:4" s="6" customFormat="1">
-      <c r="B418" s="22"/>
-      <c r="C418" s="7"/>
+      <c r="C418" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="2:4" s="6" customFormat="1">
-      <c r="B419" s="22" t="s">
+      <c r="B419" s="22"/>
+      <c r="C419" s="7"/>
+      <c r="D419" s="4"/>
+    </row>
+    <row r="420" spans="2:4" s="6" customFormat="1">
+      <c r="B420" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C419" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D419" s="4"/>
-    </row>
-    <row r="420" spans="2:4" s="6" customFormat="1">
-      <c r="B420" s="22"/>
-      <c r="C420" s="7"/>
+      <c r="C420" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="2:4" s="6" customFormat="1">
-      <c r="B421" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C421" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B421" s="22"/>
+      <c r="C421" s="7"/>
       <c r="D421" s="4"/>
     </row>
     <row r="422" spans="2:4" s="6" customFormat="1">
       <c r="B422" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>14</v>
@@ -5682,53 +5643,57 @@
     </row>
     <row r="423" spans="2:4" s="6" customFormat="1">
       <c r="B423" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="4"/>
+    </row>
+    <row r="424" spans="2:4" s="6" customFormat="1">
+      <c r="B424" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C423" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D423" s="4"/>
-    </row>
-    <row r="424" spans="2:4" s="6" customFormat="1">
-      <c r="B424" s="22"/>
-      <c r="C424" s="7"/>
+      <c r="C424" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D424" s="4"/>
     </row>
     <row r="425" spans="2:4" s="6" customFormat="1">
-      <c r="B425" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B425" s="22"/>
+      <c r="C425" s="7"/>
       <c r="D425" s="4"/>
     </row>
     <row r="426" spans="2:4" s="6" customFormat="1">
       <c r="B426" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426" s="4"/>
+    </row>
+    <row r="427" spans="2:4" s="6" customFormat="1">
+      <c r="B427" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C426" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D426" s="4"/>
-    </row>
-    <row r="427" spans="2:4" s="6" customFormat="1">
-      <c r="B427" s="22"/>
-      <c r="C427" s="7"/>
+      <c r="C427" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D427" s="4"/>
     </row>
     <row r="428" spans="2:4" s="6" customFormat="1">
-      <c r="B428" s="22" t="s">
+      <c r="B428" s="22"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="4"/>
+    </row>
+    <row r="429" spans="2:4" s="6" customFormat="1">
+      <c r="B429" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C428" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D428" s="4"/>
-    </row>
-    <row r="429" spans="2:4" s="6" customFormat="1">
-      <c r="B429" s="22"/>
-      <c r="C429" s="7"/>
+      <c r="C429" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D429" s="4"/>
     </row>
     <row r="430" spans="2:4" s="6" customFormat="1">
@@ -5743,16 +5708,16 @@
     </row>
     <row r="432" spans="2:4" s="6" customFormat="1">
       <c r="B432" s="22"/>
-      <c r="C432" s="4"/>
+      <c r="C432" s="7"/>
       <c r="D432" s="4"/>
     </row>
     <row r="433" spans="1:4" s="6" customFormat="1">
-      <c r="B433" s="19"/>
+      <c r="B433" s="22"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4" s="6" customFormat="1">
-      <c r="B434" s="21"/>
+      <c r="B434" s="19"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
     </row>
@@ -5761,76 +5726,81 @@
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="3"/>
-      <c r="B436" s="11"/>
-      <c r="C436" s="11"/>
-      <c r="D436" s="3"/>
+    <row r="436" spans="1:4" s="6" customFormat="1">
+      <c r="B436" s="21"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="3"/>
-      <c r="B437" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C437" s="6">
-        <f>COUNTIF(C5:C436,"y")</f>
-        <v>93</v>
-      </c>
-      <c r="D437" s="2"/>
+      <c r="B437" s="11"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="3"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="3"/>
       <c r="B438" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C438" s="6">
-        <f>COUNTIF(C5:C436,"n")</f>
-        <v>167</v>
+        <f>COUNTIF(C5:C437,"y")</f>
+        <v>93</v>
       </c>
       <c r="D438" s="2"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="3"/>
       <c r="B439" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C439" s="7">
-        <f>COUNTIF(C5:C436,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C439" s="6">
+        <f>COUNTIF(C5:C437,"n")</f>
+        <v>168</v>
       </c>
       <c r="D439" s="2"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="3"/>
       <c r="B440" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C440" s="7">
+        <f>COUNTIF(C5:C437,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="3"/>
+      <c r="B441" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C440">
-        <f>SUM(C437:C439)</f>
-        <v>260</v>
-      </c>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="1:4" ht="18">
-      <c r="A441" s="3"/>
-      <c r="B441" s="10"/>
-      <c r="C441" s="10" t="s">
+      <c r="C441">
+        <f>SUM(C438:C440)</f>
+        <v>261</v>
+      </c>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4" ht="18">
+      <c r="A442" s="3"/>
+      <c r="B442" s="10"/>
+      <c r="C442" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D441" s="41">
-        <f>C437/(C438+C437 + C439)</f>
-        <v>0.3576923076923077</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="3"/>
-      <c r="B442" s="11"/>
-      <c r="C442" s="11"/>
-      <c r="D442" s="3"/>
+      <c r="D442" s="41">
+        <f>C438/(C439+C438 + C440)</f>
+        <v>0.35632183908045978</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="3"/>
+      <c r="B443" s="11"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C359:C393 C395:C65190 C1:C3 C6:C345">
+  <conditionalFormatting sqref="C360:C394 C396:C65191 C1:C3 C6:C346">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5857,7 +5827,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6239,7 +6209,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6250,7 +6220,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.3576923076923077</v>
+        <v>0.35632183908045978</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6295,25 +6265,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.3576923076923077</v>
+        <v>0.35632183908045978</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C437</f>
+        <f>Features!C438</f>
         <v>93</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C438</f>
-        <v>167</v>
+        <f>Features!C439</f>
+        <v>168</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C439</f>
+        <f>Features!C440</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6361,7 +6331,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44644.387096774197</v>
+        <v>44648.419354838712</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -716,9 +716,6 @@
     <t>move to the end of the document</t>
   </si>
   <si>
-    <t>to the last line + 2</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -765,6 +762,9 @@
   </si>
   <si>
     <t>minimizes blank lines beyond EOF</t>
+  </si>
+  <si>
+    <t>to the last line + 1</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1110,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1166,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1196,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1252,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,7 +1338,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1671,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,7 +1701,7 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35632183908045978</c:v>
+                  <c:v>0.36015325670498083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,7 +1891,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1921,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1977,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43971</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
@@ -3437,14 +3437,14 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>2</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D159" s="4"/>
     </row>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
@@ -4414,7 +4414,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>14</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>2</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="C438" s="6">
         <f>COUNTIF(C5:C437,"y")</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D438" s="2"/>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="C439" s="6">
         <f>COUNTIF(C5:C437,"n")</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="D442" s="41">
         <f>C438/(C439+C438 + C440)</f>
-        <v>0.35632183908045978</v>
+        <v>0.36015325670498083</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -5827,7 +5827,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6203,13 +6203,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B54" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.35632183908045978</v>
+        <v>0.36015325670498083</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.35632183908045978</v>
+        <v>0.36015325670498083</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -6276,11 +6276,11 @@
       </c>
       <c r="B58" s="15">
         <f>Features!C438</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" s="16">
         <f>Features!C439</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="17">
         <f>Features!C440</f>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44648.419354838712</v>
+        <v>44640</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -1024,7 +1024,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955369"/>
+          <c:w val="0.9197807133095538"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1110,7 +1110,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1196,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1380,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162712960"/>
-        <c:axId val="162473088"/>
+        <c:axId val="153013632"/>
+        <c:axId val="152839296"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="162712960"/>
+        <c:axId val="153013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162473088"/>
+        <c:crossAx val="152839296"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1427,7 +1427,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162473088"/>
+        <c:axId val="152839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162712960"/>
+        <c:crossAx val="153013632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,7 +1492,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218497"/>
+          <c:y val="0.33819556996218503"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1613,7 +1613,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127761E-2"/>
+          <c:x val="4.4510450248127775E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1701,17 +1701,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36015325670498083</c:v>
+                  <c:v>0.39080459770114945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162500992"/>
-        <c:axId val="162502528"/>
+        <c:axId val="152863104"/>
+        <c:axId val="152864640"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="162500992"/>
+        <c:axId val="152863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,13 +1719,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="162502528"/>
+        <c:crossAx val="152864640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162502528"/>
+        <c:axId val="152864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1768,7 +1768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162500992"/>
+        <c:crossAx val="152863104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,7 +1921,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,11 +2013,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162523392"/>
-        <c:axId val="162725888"/>
+        <c:axId val="152889600"/>
+        <c:axId val="153288704"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="162523392"/>
+        <c:axId val="152889600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162725888"/>
+        <c:crossAx val="153288704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2059,7 +2059,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162725888"/>
+        <c:axId val="153288704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162523392"/>
+        <c:crossAx val="152889600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3055,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -3064,7 +3064,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4"/>
     </row>
@@ -4887,7 +4887,7 @@
         <v>70</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D294" s="4"/>
     </row>
@@ -4896,7 +4896,7 @@
         <v>229</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D295" s="4"/>
     </row>
@@ -4910,7 +4910,7 @@
         <v>69</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D297" s="4"/>
     </row>
@@ -4919,7 +4919,7 @@
         <v>229</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D298" s="4"/>
     </row>
@@ -5045,7 +5045,7 @@
         <v>69</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="2:4">
@@ -5053,7 +5053,7 @@
         <v>70</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="2:3">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="C438" s="6">
         <f>COUNTIF(C5:C437,"y")</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D438" s="2"/>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="C439" s="6">
         <f>COUNTIF(C5:C437,"n")</f>
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="D442" s="41">
         <f>C438/(C439+C438 + C440)</f>
-        <v>0.36015325670498083</v>
+        <v>0.39080459770114945</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -5827,7 +5827,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6206,10 +6206,10 @@
         <v>43972</v>
       </c>
       <c r="B54" s="4">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6220,7 +6220,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.36015325670498083</v>
+        <v>0.39080459770114945</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.36015325670498083</v>
+        <v>0.39080459770114945</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -6276,11 +6276,11 @@
       </c>
       <c r="B58" s="15">
         <f>Features!C438</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C58" s="16">
         <f>Features!C439</f>
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D58" s="17">
         <f>Features!C440</f>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44640</v>
+        <v>44558.117647058825</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="244">
   <si>
     <t>Feature</t>
   </si>
@@ -311,18 +311,6 @@
     <t>shift window down</t>
   </si>
   <si>
-    <t>semantics</t>
-  </si>
-  <si>
-    <t>shift: selects</t>
-  </si>
-  <si>
-    <t>ctrl: adds selection block</t>
-  </si>
-  <si>
-    <t>alt: mimics rectangular selection</t>
-  </si>
-  <si>
     <t>alt + shift click</t>
   </si>
   <si>
@@ -410,9 +398,6 @@
     <t>block scroll down</t>
   </si>
   <si>
-    <t>ctrl-scroll wheel</t>
-  </si>
-  <si>
     <t>reset blinking animation cycle on mouse released to avoid flicker</t>
   </si>
   <si>
@@ -533,9 +518,6 @@
     <t>line markers</t>
   </si>
   <si>
-    <t>right click: invokes a popup</t>
-  </si>
-  <si>
     <t>highlights matching tokens if enabled</t>
   </si>
   <si>
@@ -765,6 +747,9 @@
   </si>
   <si>
     <t>to the last line + 1</t>
+  </si>
+  <si>
+    <t>scrollWheelStepSize</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1009,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095538"/>
+          <c:w val="0.91978071330955391"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1080,7 +1065,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1095,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1151,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1181,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1237,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,7 +1323,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1365,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153013632"/>
-        <c:axId val="152839296"/>
+        <c:axId val="164875648"/>
+        <c:axId val="164635776"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="153013632"/>
+        <c:axId val="164875648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152839296"/>
+        <c:crossAx val="164635776"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1427,7 +1412,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152839296"/>
+        <c:axId val="164635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153013632"/>
+        <c:crossAx val="164875648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,7 +1477,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218503"/>
+          <c:y val="0.33819556996218514"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1613,7 +1598,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127775E-2"/>
+          <c:x val="4.4510450248127796E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1671,7 +1656,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,17 +1686,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39080459770114945</c:v>
+                  <c:v>0.41568627450980394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152863104"/>
-        <c:axId val="152864640"/>
+        <c:axId val="164659584"/>
+        <c:axId val="164661120"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="152863104"/>
+        <c:axId val="164659584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,13 +1704,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="152864640"/>
+        <c:crossAx val="164661120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152864640"/>
+        <c:axId val="164661120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1768,7 +1753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152863104"/>
+        <c:crossAx val="164659584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,7 +1876,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +1906,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>159</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1962,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43972</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,11 +1998,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152889600"/>
-        <c:axId val="153288704"/>
+        <c:axId val="164686080"/>
+        <c:axId val="165019648"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="152889600"/>
+        <c:axId val="164686080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153288704"/>
+        <c:crossAx val="165019648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2059,7 +2044,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153288704"/>
+        <c:axId val="165019648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152889600"/>
+        <c:crossAx val="164686080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2608,10 +2593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2624,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2691,7 +2676,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2700,7 +2685,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2709,7 +2694,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2723,7 +2708,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2732,7 +2717,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2806,7 +2791,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2818,7 +2803,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2845,7 +2830,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2854,7 +2839,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2863,7 +2848,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2872,7 +2857,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2881,7 +2866,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2890,7 +2875,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2898,7 +2883,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2906,7 +2891,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2914,7 +2899,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2922,24 +2907,27 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22" t="s">
-        <v>208</v>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>193</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
@@ -2958,29 +2946,25 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="B46" s="22"/>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
+      <c r="B47" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2989,7 +2973,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2998,25 +2982,25 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -3025,16 +3009,16 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3043,7 +3027,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3052,7 +3036,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3061,7 +3045,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3070,7 +3054,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3079,7 +3063,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3087,31 +3071,31 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3120,7 +3104,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3129,7 +3113,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3138,7 +3122,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3146,22 +3130,22 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3170,7 +3154,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3179,53 +3163,53 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3233,35 +3217,39 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="C79" s="7"/>
+      <c r="B79" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="9" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
@@ -3285,29 +3273,25 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="B88" s="22"/>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
+      <c r="B89" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3316,7 +3300,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3325,7 +3309,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3334,7 +3318,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3343,7 +3327,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3351,8 +3335,12 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
@@ -3401,29 +3389,25 @@
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="B106" s="22"/>
       <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
+      <c r="B107" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3431,29 +3415,29 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="B111" s="22"/>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B112" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="23" t="s">
-        <v>237</v>
+      <c r="B113" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3461,8 +3445,8 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="20" t="s">
-        <v>234</v>
+      <c r="B114" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3470,8 +3454,8 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="23" t="s">
-        <v>121</v>
+      <c r="B115" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2</v>
@@ -3480,7 +3464,7 @@
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="23" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3488,22 +3472,22 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
-        <v>211</v>
+      <c r="B119" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3512,7 +3496,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3521,7 +3505,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3529,8 +3513,8 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="23" t="s">
-        <v>239</v>
+      <c r="B122" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3538,45 +3522,45 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="20"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="20"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="22"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3584,22 +3568,22 @@
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B130" s="22"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3608,44 +3592,44 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="7"/>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="20" t="s">
-        <v>119</v>
+      <c r="B137" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3654,7 +3638,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="20" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3662,22 +3646,22 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="20"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>2</v>
@@ -3686,7 +3670,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>2</v>
@@ -3695,7 +3679,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>2</v>
@@ -3704,7 +3688,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="20" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -3712,22 +3696,22 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="27" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3736,7 +3720,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3745,7 +3729,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3754,7 +3738,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3762,22 +3746,22 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="22"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -3786,25 +3770,25 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="20" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3813,7 +3797,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3822,7 +3806,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3831,7 +3815,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3840,7 +3824,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3848,22 +3832,22 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20"/>
-      <c r="C161" s="9"/>
+      <c r="B161" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="20"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -3872,7 +3856,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3881,7 +3865,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -3890,7 +3874,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3899,7 +3883,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3908,7 +3892,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3916,8 +3900,12 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
@@ -3946,54 +3934,52 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B175" s="22"/>
       <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
+      <c r="B176" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="B177" s="22"/>
       <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>98</v>
+      <c r="B178" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
       <c r="B179" s="20" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20" t="s">
-        <v>100</v>
+      <c r="B180" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20" t="s">
-        <v>171</v>
+      <c r="B181" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>14</v>
@@ -4001,22 +3987,26 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="27" t="s">
-        <v>43</v>
+      <c r="B183" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="20" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>2</v>
@@ -4025,7 +4015,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>2</v>
@@ -4033,44 +4023,36 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
       <c r="B187" s="20" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="23" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="23" t="s">
-        <v>242</v>
+      <c r="B190" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4078,22 +4060,22 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20"/>
-      <c r="C191" s="7"/>
+      <c r="B191" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
-        <v>173</v>
+      <c r="B193" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4101,36 +4083,40 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>53</v>
+      <c r="B195" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="22"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20"/>
-      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>54</v>
+      <c r="B198" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4139,30 +4125,30 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="C199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C201" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22"/>
-      <c r="C201" s="7"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20" t="s">
-        <v>57</v>
+      <c r="B202" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4170,20 +4156,16 @@
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C203" s="7" t="s">
+      <c r="B203" s="22"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D204" s="4"/>
     </row>
@@ -4194,69 +4176,73 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="20" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="20" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
+      <c r="B210" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20" t="s">
+      <c r="B211" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B212" s="22"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20"/>
-      <c r="C213" s="7"/>
+      <c r="B213" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20" t="s">
-        <v>103</v>
+      <c r="B214" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -4273,22 +4259,22 @@
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="23" t="s">
+      <c r="B216" s="20"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C216" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="22"/>
-      <c r="C217" s="7"/>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="20" t="s">
-        <v>107</v>
+      <c r="B218" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>14</v>
@@ -4297,7 +4283,7 @@
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="23" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>14</v>
@@ -4305,22 +4291,22 @@
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="20"/>
-      <c r="C221" s="7"/>
+      <c r="B221" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20" t="s">
-        <v>109</v>
+      <c r="B222" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>14</v>
@@ -4329,7 +4315,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>14</v>
@@ -4337,40 +4323,34 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B224" s="23"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20"/>
-      <c r="C225" s="7"/>
+      <c r="B225" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B227" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C227" s="7"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="23" t="s">
-        <v>105</v>
+      <c r="B228" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4378,61 +4358,63 @@
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="23"/>
-      <c r="C229" s="7"/>
+      <c r="B229" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20" t="s">
-        <v>106</v>
+      <c r="B230" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="B232" s="22"/>
       <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B235" s="22"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4440,45 +4422,45 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="22"/>
-      <c r="C237" s="7"/>
+      <c r="B237" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B238" s="22"/>
+      <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="23" t="s">
+      <c r="B239" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="22"/>
-      <c r="C240" s="7"/>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B241" s="20"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="23" t="s">
-        <v>56</v>
+      <c r="B242" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4486,13 +4468,17 @@
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="22"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
       <c r="B244" s="20" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>14</v>
@@ -4500,8 +4486,8 @@
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="23" t="s">
-        <v>56</v>
+      <c r="B245" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>14</v>
@@ -4515,75 +4501,61 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="27" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="20" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B250" s="22"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="20"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="7"/>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B252" s="22"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B253" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C253" s="7"/>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B254" s="22"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="22" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>14</v>
@@ -4592,7 +4564,7 @@
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="20" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>14</v>
@@ -4601,7 +4573,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="20" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>14</v>
@@ -4609,35 +4581,49 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="22"/>
-      <c r="C258" s="7"/>
+      <c r="B258" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="22"/>
-      <c r="C259" s="7"/>
+      <c r="B259" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="22"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C261" s="7"/>
+      <c r="B261" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="22"/>
-      <c r="C262" s="7"/>
+      <c r="B262" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="22" t="s">
-        <v>71</v>
+      <c r="B263" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>14</v>
@@ -4646,7 +4632,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
@@ -4655,7 +4641,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>14</v>
@@ -4663,90 +4649,82 @@
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B266" s="22"/>
+      <c r="C266" s="7"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="20" t="s">
-        <v>228</v>
+      <c r="B267" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="20"/>
-      <c r="C268" s="7"/>
+      <c r="B268" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B269" s="22"/>
+      <c r="C269" s="7"/>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="20" t="s">
-        <v>223</v>
+      <c r="B270" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B272" s="22"/>
+      <c r="C272" s="7"/>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="20" t="s">
-        <v>228</v>
+      <c r="B273" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="7"/>
+      <c r="B274" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B275" s="22"/>
+      <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="20" t="s">
-        <v>228</v>
+      <c r="B276" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>2</v>
@@ -4754,22 +4732,22 @@
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22"/>
-      <c r="C277" s="7"/>
+      <c r="B277" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="20" t="s">
-        <v>228</v>
+      <c r="B279" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>2</v>
@@ -4777,22 +4755,22 @@
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22"/>
-      <c r="C280" s="7"/>
+      <c r="B280" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B281" s="22"/>
+      <c r="C281" s="7"/>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="20" t="s">
-        <v>229</v>
+      <c r="B282" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>2</v>
@@ -4800,13 +4778,17 @@
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="7"/>
+      <c r="B283" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22" t="s">
-        <v>202</v>
+      <c r="B284" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>2</v>
@@ -4814,22 +4796,22 @@
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C285" s="7" t="s">
+      <c r="B285" s="22"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="7"/>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22" t="s">
-        <v>230</v>
+      <c r="B287" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>2</v>
@@ -4837,22 +4819,22 @@
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C288" s="7" t="s">
+      <c r="B288" s="22"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C289" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22"/>
-      <c r="C289" s="7"/>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>231</v>
+      <c r="B290" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
@@ -4860,21 +4842,13 @@
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B291" s="22"/>
+      <c r="C291" s="7"/>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B292" s="22"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
@@ -4883,21 +4857,13 @@
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B294" s="22"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B295" s="22"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
@@ -4906,461 +4872,477 @@
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B297" s="22"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="7"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22"/>
+      <c r="B300" s="4"/>
       <c r="C300" s="7"/>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
+      <c r="B301" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C301" s="7"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22"/>
+    <row r="302" spans="2:4">
       <c r="C302" s="7"/>
-      <c r="D302" s="4"/>
-    </row>
-    <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22"/>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="C303" s="7"/>
-      <c r="D303" s="4"/>
-    </row>
-    <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22"/>
+    </row>
+    <row r="304" spans="2:4">
       <c r="C304" s="7"/>
-      <c r="D304" s="4"/>
-    </row>
-    <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22"/>
-      <c r="C305" s="7"/>
-      <c r="D305" s="4"/>
-    </row>
-    <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="20"/>
-      <c r="C306" s="7"/>
-      <c r="D306" s="4"/>
-    </row>
-    <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="19"/>
-      <c r="C307" s="7"/>
-      <c r="D307" s="4"/>
-    </row>
-    <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="4"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="4"/>
-    </row>
-    <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="3" t="s">
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" t="s">
+        <v>65</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" t="s">
+        <v>66</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" t="s">
+        <v>67</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" t="s">
+        <v>68</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" t="s">
         <v>214</v>
       </c>
-      <c r="C309" s="7"/>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="2:4">
-      <c r="C310" s="7"/>
-    </row>
-    <row r="311" spans="2:4">
-      <c r="B311" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C311" s="7"/>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="C312" s="7"/>
-    </row>
-    <row r="313" spans="2:4">
+      <c r="C309" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" t="s">
+        <v>215</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" t="s">
+        <v>69</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" t="s">
+        <v>70</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
       <c r="B313" t="s">
-        <v>65</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4">
+        <v>71</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
       <c r="B314" t="s">
-        <v>66</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4">
+        <v>72</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
       <c r="B315" t="s">
-        <v>67</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="B316" t="s">
-        <v>68</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4">
-      <c r="B317" t="s">
-        <v>220</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4">
-      <c r="B318" t="s">
-        <v>221</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="B319" t="s">
-        <v>69</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="B320" t="s">
-        <v>70</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="44"/>
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="44"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" t="s">
-        <v>71</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B321" s="44"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" t="s">
-        <v>72</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" t="s">
-        <v>73</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C324" s="9"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B326" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="44"/>
       <c r="C327" s="9"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="44"/>
-      <c r="C328" s="9"/>
+      <c r="B328" t="s">
+        <v>90</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="44"/>
-      <c r="C329" s="9"/>
+      <c r="B329" t="s">
+        <v>91</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="C330" s="9"/>
+      <c r="B330" t="s">
+        <v>92</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="331" spans="2:3">
-      <c r="C331" s="9"/>
+      <c r="B331" t="s">
+        <v>93</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="332" spans="2:3">
-      <c r="C332" s="9"/>
+      <c r="B332" t="s">
+        <v>94</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="333" spans="2:3">
-      <c r="C333" s="9"/>
+      <c r="B333" t="s">
+        <v>95</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C334" s="9"/>
+      <c r="B334" t="s">
+        <v>118</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="2:3">
       <c r="C335" s="9"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" t="s">
-        <v>90</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" t="s">
-        <v>91</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" t="s">
-        <v>92</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3">
-      <c r="B339" t="s">
-        <v>93</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3">
-      <c r="B340" t="s">
-        <v>94</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3">
-      <c r="B341" t="s">
-        <v>95</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3">
-      <c r="B342" t="s">
-        <v>122</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3">
-      <c r="C343" s="9"/>
-    </row>
-    <row r="344" spans="2:3">
-      <c r="C344" s="9"/>
-    </row>
-    <row r="345" spans="2:3">
-      <c r="C345" s="9"/>
-    </row>
-    <row r="346" spans="2:3">
-      <c r="B346" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C346" s="9"/>
+      <c r="B338" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C338" s="9"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" t="s">
+        <v>64</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" s="44"/>
+      <c r="C356" s="7"/>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" t="s">
+        <v>75</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="C358" s="9"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" t="s">
-        <v>64</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C361" s="7" t="s">
+      <c r="B361" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C361" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C362" s="7" t="s">
+      <c r="B362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C362" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="44"/>
-      <c r="C364" s="7"/>
+      <c r="B364" t="s">
+        <v>144</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" t="s">
-        <v>75</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="C366" s="9"/>
+      <c r="B366" t="s">
+        <v>39</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C367" s="9" t="s">
+      <c r="B367" t="s">
+        <v>40</v>
+      </c>
+      <c r="C367" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="368" spans="2:3">
-      <c r="C368" s="9"/>
+      <c r="B368" t="s">
+        <v>41</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="369" spans="2:4">
-      <c r="B369" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C369" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" spans="2:4">
       <c r="B370" t="s">
-        <v>79</v>
-      </c>
-      <c r="C370" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C370" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="371" spans="2:4">
-      <c r="C371" s="9"/>
+      <c r="B371" t="s">
+        <v>77</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="372" spans="2:4">
-      <c r="B372" t="s">
-        <v>149</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="C373" s="9"/>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="B374" t="s">
-        <v>39</v>
+      <c r="C372" s="9"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C373" s="7"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="375" spans="2:4">
-      <c r="B375" t="s">
-        <v>40</v>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="B376" t="s">
-        <v>41</v>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="377" spans="2:4">
-      <c r="C377" s="9"/>
-    </row>
-    <row r="378" spans="2:4">
-      <c r="B378" t="s">
-        <v>76</v>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="B379" t="s">
-        <v>77</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="C380" s="9"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
       <c r="B381" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C381" s="7"/>
+      <c r="C381" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B382" s="22"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="20" t="s">
-        <v>137</v>
+      <c r="B383" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>14</v>
@@ -5368,87 +5350,87 @@
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B384" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C384" s="7"/>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="7"/>
-      <c r="D387" s="4"/>
+    <row r="385" spans="2:4">
+      <c r="C385" s="9"/>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="C386" s="9"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B388" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22"/>
-      <c r="C390" s="7"/>
+      <c r="B390" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
       <c r="B391" s="22" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
       <c r="B392" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C392" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="2:4">
-      <c r="C393" s="9"/>
-    </row>
-    <row r="394" spans="2:4">
-      <c r="C394" s="9"/>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="22"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="4"/>
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C396" s="7"/>
+      <c r="B396" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
@@ -5458,7 +5440,7 @@
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
       <c r="B398" s="22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>14</v>
@@ -5467,16 +5449,16 @@
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>14</v>
@@ -5484,31 +5466,27 @@
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22"/>
-      <c r="C402" s="7"/>
+      <c r="B402" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B403" s="22"/>
+      <c r="C403" s="7"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="2:4" s="6" customFormat="1">
       <c r="B404" s="22" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>14</v>
@@ -5522,7 +5500,7 @@
     </row>
     <row r="406" spans="2:4" s="6" customFormat="1">
       <c r="B406" s="22" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>14</v>
@@ -5530,21 +5508,13 @@
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="2:4" s="6" customFormat="1">
-      <c r="B407" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B407" s="22"/>
+      <c r="C407" s="7"/>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B408" s="22"/>
+      <c r="C408" s="7"/>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="2:4" s="6" customFormat="1">
@@ -5553,8 +5523,8 @@
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22" t="s">
-        <v>118</v>
+      <c r="B410" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>14</v>
@@ -5568,7 +5538,7 @@
     </row>
     <row r="412" spans="2:4" s="6" customFormat="1">
       <c r="B412" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>14</v>
@@ -5582,7 +5552,7 @@
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
       <c r="B414" s="22" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>14</v>
@@ -5590,22 +5560,30 @@
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="22"/>
-      <c r="C415" s="7"/>
+      <c r="B415" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="22"/>
-      <c r="C416" s="7"/>
+      <c r="B416" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="2:4" s="6" customFormat="1">
+    <row r="417" spans="1:4" s="6" customFormat="1">
       <c r="B417" s="22"/>
       <c r="C417" s="7"/>
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="2:4" s="6" customFormat="1">
-      <c r="B418" s="3" t="s">
+    <row r="418" spans="1:4" s="6" customFormat="1">
+      <c r="B418" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C418" s="7" t="s">
@@ -5613,194 +5591,134 @@
       </c>
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="2:4" s="6" customFormat="1">
-      <c r="B419" s="22"/>
-      <c r="C419" s="7"/>
+    <row r="419" spans="1:4" s="6" customFormat="1">
+      <c r="B419" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D419" s="4"/>
     </row>
-    <row r="420" spans="2:4" s="6" customFormat="1">
-      <c r="B420" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="420" spans="1:4" s="6" customFormat="1">
+      <c r="B420" s="22"/>
+      <c r="C420" s="7"/>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="2:4" s="6" customFormat="1">
-      <c r="B421" s="22"/>
-      <c r="C421" s="7"/>
+    <row r="421" spans="1:4" s="6" customFormat="1">
+      <c r="B421" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="2:4" s="6" customFormat="1">
-      <c r="B422" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="422" spans="1:4" s="6" customFormat="1">
+      <c r="B422" s="22"/>
+      <c r="C422" s="7"/>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="2:4" s="6" customFormat="1">
-      <c r="B423" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C423" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="423" spans="1:4" s="6" customFormat="1">
+      <c r="B423" s="22"/>
+      <c r="C423" s="7"/>
       <c r="D423" s="4"/>
     </row>
-    <row r="424" spans="2:4" s="6" customFormat="1">
-      <c r="B424" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C424" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="424" spans="1:4" s="6" customFormat="1">
+      <c r="B424" s="22"/>
+      <c r="C424" s="7"/>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="2:4" s="6" customFormat="1">
+    <row r="425" spans="1:4" s="6" customFormat="1">
       <c r="B425" s="22"/>
-      <c r="C425" s="7"/>
+      <c r="C425" s="4"/>
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="2:4" s="6" customFormat="1">
-      <c r="B426" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C426" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="426" spans="1:4" s="6" customFormat="1">
+      <c r="B426" s="19"/>
+      <c r="C426" s="4"/>
       <c r="D426" s="4"/>
     </row>
-    <row r="427" spans="2:4" s="6" customFormat="1">
-      <c r="B427" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="427" spans="1:4" s="6" customFormat="1">
+      <c r="B427" s="21"/>
+      <c r="C427" s="4"/>
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="2:4" s="6" customFormat="1">
-      <c r="B428" s="22"/>
-      <c r="C428" s="7"/>
+    <row r="428" spans="1:4" s="6" customFormat="1">
+      <c r="B428" s="21"/>
+      <c r="C428" s="4"/>
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="2:4" s="6" customFormat="1">
-      <c r="B429" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D429" s="4"/>
-    </row>
-    <row r="430" spans="2:4" s="6" customFormat="1">
-      <c r="B430" s="22"/>
-      <c r="C430" s="7"/>
-      <c r="D430" s="4"/>
-    </row>
-    <row r="431" spans="2:4" s="6" customFormat="1">
-      <c r="B431" s="22"/>
-      <c r="C431" s="7"/>
-      <c r="D431" s="4"/>
-    </row>
-    <row r="432" spans="2:4" s="6" customFormat="1">
-      <c r="B432" s="22"/>
-      <c r="C432" s="7"/>
-      <c r="D432" s="4"/>
-    </row>
-    <row r="433" spans="1:4" s="6" customFormat="1">
-      <c r="B433" s="22"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-    </row>
-    <row r="434" spans="1:4" s="6" customFormat="1">
-      <c r="B434" s="19"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-    </row>
-    <row r="435" spans="1:4" s="6" customFormat="1">
-      <c r="B435" s="21"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-    </row>
-    <row r="436" spans="1:4" s="6" customFormat="1">
-      <c r="B436" s="21"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="3"/>
-      <c r="B437" s="11"/>
-      <c r="C437" s="11"/>
-      <c r="D437" s="3"/>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="3"/>
-      <c r="B438" s="8" t="s">
+    <row r="429" spans="1:4">
+      <c r="A429" s="3"/>
+      <c r="B429" s="11"/>
+      <c r="C429" s="11"/>
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="3"/>
+      <c r="B430" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C438" s="6">
-        <f>COUNTIF(C5:C437,"y")</f>
-        <v>102</v>
-      </c>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="3"/>
-      <c r="B439" s="8" t="s">
+      <c r="C430" s="6">
+        <f>COUNTIF(C5:C429,"y")</f>
+        <v>106</v>
+      </c>
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="3"/>
+      <c r="B431" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C439" s="6">
-        <f>COUNTIF(C5:C437,"n")</f>
-        <v>159</v>
-      </c>
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="3"/>
-      <c r="B440" s="8" t="s">
+      <c r="C431" s="6">
+        <f>COUNTIF(C5:C429,"n")</f>
+        <v>149</v>
+      </c>
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="3"/>
+      <c r="B432" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C440" s="7">
-        <f>COUNTIF(C5:C437,"TBD")</f>
+      <c r="C432" s="7">
+        <f>COUNTIF(C5:C429,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="3"/>
-      <c r="B441" s="8" t="s">
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="3"/>
+      <c r="B433" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C441">
-        <f>SUM(C438:C440)</f>
-        <v>261</v>
-      </c>
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="1:4" ht="18">
-      <c r="A442" s="3"/>
-      <c r="B442" s="10"/>
-      <c r="C442" s="10" t="s">
+      <c r="C433">
+        <f>SUM(C430:C432)</f>
+        <v>255</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4" ht="18">
+      <c r="A434" s="3"/>
+      <c r="B434" s="10"/>
+      <c r="C434" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D442" s="41">
-        <f>C438/(C439+C438 + C440)</f>
-        <v>0.39080459770114945</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="3"/>
-      <c r="B443" s="11"/>
-      <c r="C443" s="11"/>
-      <c r="D443" s="3"/>
+      <c r="D434" s="41">
+        <f>C430/(C431+C430 + C432)</f>
+        <v>0.41568627450980394</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="3"/>
+      <c r="B435" s="11"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C360:C394 C396:C65191 C1:C3 C6:C346">
+  <conditionalFormatting sqref="C352:C386 C388:C65183 C1:C3 C6:C338">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5827,7 +5745,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5848,7 +5766,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6203,13 +6121,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B54" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="4">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6220,7 +6138,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.39080459770114945</v>
+        <v>0.41568627450980394</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6265,25 +6183,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.39080459770114945</v>
+        <v>0.41568627450980394</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C438</f>
-        <v>102</v>
+        <f>Features!C430</f>
+        <v>106</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C439</f>
-        <v>159</v>
+        <f>Features!C431</f>
+        <v>149</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C440</f>
+        <f>Features!C432</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6327,11 +6245,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="46" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44558.117647058825</v>
+        <v>44505.339622641506</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="238">
   <si>
     <t>Feature</t>
   </si>
@@ -666,24 +666,6 @@
   </si>
   <si>
     <t>move to document end: shortcut-End</t>
-  </si>
-  <si>
-    <t>next key press navigates to the end of next row, if wrapped, unless already there</t>
-  </si>
-  <si>
-    <t>first key press navigates to the end of text</t>
-  </si>
-  <si>
-    <t>next key press navigates to the end of row</t>
-  </si>
-  <si>
-    <t>first key press navigates to the start of text</t>
-  </si>
-  <si>
-    <t>next key press navigates to the start of row</t>
-  </si>
-  <si>
-    <t>next key press navigates to the start of previous row, if wrapped, unless already there</t>
   </si>
   <si>
     <t>sets phantom position</t>
@@ -1009,7 +991,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955391"/>
+          <c:w val="0.91978071330955402"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1095,7 +1077,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,7 +1163,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,11 +1347,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164875648"/>
-        <c:axId val="164635776"/>
+        <c:axId val="158649728"/>
+        <c:axId val="158409856"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="164875648"/>
+        <c:axId val="158649728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164635776"/>
+        <c:crossAx val="158409856"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1412,7 +1394,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164635776"/>
+        <c:axId val="158409856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164875648"/>
+        <c:crossAx val="158649728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,7 +1459,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218514"/>
+          <c:y val="0.33819556996218525"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1598,7 +1580,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127796E-2"/>
+          <c:x val="4.4510450248127817E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1686,17 +1668,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41568627450980394</c:v>
+                  <c:v>0.44979919678714858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164659584"/>
-        <c:axId val="164661120"/>
+        <c:axId val="158429568"/>
+        <c:axId val="158431104"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="164659584"/>
+        <c:axId val="158429568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,13 +1686,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="164661120"/>
+        <c:crossAx val="158431104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164661120"/>
+        <c:axId val="158431104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1753,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164659584"/>
+        <c:crossAx val="158429568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,7 +1888,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,11 +1980,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164686080"/>
-        <c:axId val="165019648"/>
+        <c:axId val="158460160"/>
+        <c:axId val="158924800"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="164686080"/>
+        <c:axId val="158460160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165019648"/>
+        <c:crossAx val="158924800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2044,7 +2026,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165019648"/>
+        <c:axId val="158924800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164686080"/>
+        <c:crossAx val="158460160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,10 +2575,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259:XFD261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2899,7 +2881,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -3003,7 +2985,7 @@
         <v>197</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -3012,7 +2994,7 @@
         <v>198</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -3395,7 +3377,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="4"/>
@@ -3430,14 +3412,14 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="27" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3446,7 +3428,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3455,7 +3437,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2</v>
@@ -3473,7 +3455,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3505,7 +3487,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3514,7 +3496,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3523,7 +3505,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3824,7 +3806,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -4006,7 +3988,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>2</v>
@@ -4015,7 +3997,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>2</v>
@@ -4061,7 +4043,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4084,7 +4066,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4148,7 +4130,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4182,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
@@ -4359,7 +4341,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -4558,93 +4540,85 @@
         <v>71</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="20" t="s">
-        <v>221</v>
+      <c r="B258" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
       <c r="B259" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="20"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="22" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B263" s="22"/>
+      <c r="C263" s="7"/>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="20" t="s">
-        <v>216</v>
+      <c r="B264" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D265" s="4"/>
     </row>
@@ -4655,7 +4629,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4664,7 +4638,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>2</v>
@@ -4678,7 +4652,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>2</v>
@@ -4687,7 +4661,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>2</v>
@@ -4701,7 +4675,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="22" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>2</v>
@@ -4710,7 +4684,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>2</v>
@@ -4724,7 +4698,7 @@
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="22" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>2</v>
@@ -4733,7 +4707,7 @@
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
       <c r="B277" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>2</v>
@@ -4741,22 +4715,22 @@
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="7"/>
+      <c r="B278" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B279" s="22"/>
+      <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="20" t="s">
-        <v>222</v>
+      <c r="B280" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>2</v>
@@ -4764,22 +4738,22 @@
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22"/>
-      <c r="C281" s="7"/>
+      <c r="B281" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B282" s="22"/>
+      <c r="C282" s="7"/>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="20" t="s">
-        <v>222</v>
+      <c r="B283" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>2</v>
@@ -4788,7 +4762,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="20" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>2</v>
@@ -4801,21 +4775,13 @@
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B286" s="22"/>
+      <c r="C286" s="7"/>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B287" s="22"/>
+      <c r="C287" s="7"/>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
@@ -4824,21 +4790,13 @@
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B289" s="22"/>
+      <c r="C289" s="7"/>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B290" s="22"/>
+      <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
@@ -4847,72 +4805,90 @@
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22"/>
+      <c r="B293" s="19"/>
       <c r="C293" s="7"/>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22"/>
+      <c r="B295" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22"/>
+    <row r="296" spans="2:4">
       <c r="C296" s="7"/>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22"/>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="C297" s="7"/>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="20"/>
+    </row>
+    <row r="298" spans="2:4">
       <c r="C298" s="7"/>
-      <c r="D298" s="4"/>
-    </row>
-    <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="19"/>
-      <c r="C299" s="7"/>
-      <c r="D299" s="4"/>
-    </row>
-    <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="4"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="4"/>
-    </row>
-    <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C301" s="7"/>
-      <c r="D301" s="4"/>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>65</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>66</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>67</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="302" spans="2:4">
-      <c r="C302" s="7"/>
+      <c r="B302" t="s">
+        <v>68</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="303" spans="2:4">
-      <c r="B303" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C303" s="7"/>
+      <c r="B303" t="s">
+        <v>214</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="304" spans="2:4">
-      <c r="C304" s="7"/>
+      <c r="B304" t="s">
+        <v>215</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>2</v>
@@ -4920,7 +4896,7 @@
     </row>
     <row r="306" spans="2:3">
       <c r="B306" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>2</v>
@@ -4928,348 +4904,350 @@
     </row>
     <row r="307" spans="2:3">
       <c r="B307" t="s">
-        <v>67</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" t="s">
-        <v>68</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" t="s">
-        <v>214</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" t="s">
-        <v>215</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>2</v>
+      <c r="B310" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" t="s">
-        <v>69</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>2</v>
+      <c r="B311" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" t="s">
-        <v>70</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>2</v>
+      <c r="B312" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" t="s">
-        <v>71</v>
-      </c>
-      <c r="C313" s="9" t="s">
+      <c r="B313" s="44"/>
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="44"/>
+      <c r="C314" s="9"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" s="44"/>
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="C316" s="9"/>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="C317" s="9"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="C321" s="9"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" t="s">
+        <v>90</v>
+      </c>
+      <c r="C322" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:3">
-      <c r="B314" t="s">
-        <v>72</v>
-      </c>
-      <c r="C314" s="9" t="s">
+    <row r="323" spans="2:3">
+      <c r="B323" t="s">
+        <v>91</v>
+      </c>
+      <c r="C323" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="2:3">
-      <c r="B315" t="s">
-        <v>73</v>
-      </c>
-      <c r="C315" s="9" t="s">
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>92</v>
+      </c>
+      <c r="C324" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="2:3">
-      <c r="B316" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C316" s="9" t="s">
+    <row r="325" spans="2:3">
+      <c r="B325" t="s">
+        <v>93</v>
+      </c>
+      <c r="C325" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:3">
-      <c r="B317" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C317" s="9" t="s">
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
+        <v>94</v>
+      </c>
+      <c r="C326" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:3">
-      <c r="B318" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C318" s="9" t="s">
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
+        <v>95</v>
+      </c>
+      <c r="C327" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="319" spans="2:3">
-      <c r="B319" s="44"/>
-      <c r="C319" s="9"/>
-    </row>
-    <row r="320" spans="2:3">
-      <c r="B320" s="44"/>
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="2:3">
-      <c r="B321" s="44"/>
-      <c r="C321" s="9"/>
-    </row>
-    <row r="322" spans="2:3">
-      <c r="C322" s="9"/>
-    </row>
-    <row r="323" spans="2:3">
-      <c r="C323" s="9"/>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="C324" s="9"/>
-    </row>
-    <row r="325" spans="2:3">
-      <c r="C325" s="9"/>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C326" s="9"/>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" t="s">
-        <v>91</v>
-      </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="9"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="C330" s="9"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="C331" s="9"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C332" s="9"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" t="s">
+        <v>64</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="2:3">
-      <c r="B330" t="s">
-        <v>92</v>
-      </c>
-      <c r="C330" s="7" t="s">
+    <row r="347" spans="2:3">
+      <c r="B347" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="2:3">
-      <c r="B331" t="s">
-        <v>93</v>
-      </c>
-      <c r="C331" s="7" t="s">
+    <row r="348" spans="2:3">
+      <c r="B348" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>94</v>
-      </c>
-      <c r="C332" s="7" t="s">
+    <row r="349" spans="2:3">
+      <c r="B349" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C349" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="2:3">
-      <c r="B333" t="s">
-        <v>95</v>
-      </c>
-      <c r="C333" s="7" t="s">
+    <row r="350" spans="2:3">
+      <c r="B350" s="44"/>
+      <c r="C350" s="7"/>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" t="s">
+        <v>75</v>
+      </c>
+      <c r="C351" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="2:3">
-      <c r="B334" t="s">
-        <v>118</v>
-      </c>
-      <c r="C334" s="7" t="s">
+    <row r="352" spans="2:3">
+      <c r="C352" s="9"/>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="B353" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C353" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="2:3">
-      <c r="C335" s="9"/>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="C336" s="9"/>
-    </row>
-    <row r="337" spans="2:3">
-      <c r="C337" s="9"/>
-    </row>
-    <row r="338" spans="2:3">
-      <c r="B338" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C338" s="9"/>
-    </row>
-    <row r="352" spans="2:3">
-      <c r="B352" t="s">
-        <v>64</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3">
-      <c r="B353" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3">
-      <c r="B354" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3">
-      <c r="B355" s="44" t="s">
-        <v>81</v>
+    <row r="354" spans="2:4">
+      <c r="C354" s="9"/>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="C355" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:3">
-      <c r="B356" s="44"/>
-      <c r="C356" s="7"/>
-    </row>
-    <row r="357" spans="2:3">
-      <c r="B357" t="s">
-        <v>75</v>
-      </c>
-      <c r="C357" s="7" t="s">
+    <row r="356" spans="2:4">
+      <c r="B356" t="s">
+        <v>79</v>
+      </c>
+      <c r="C356" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="2:3">
-      <c r="C358" s="9"/>
-    </row>
-    <row r="359" spans="2:3">
-      <c r="B359" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C359" s="9" t="s">
+    <row r="357" spans="2:4">
+      <c r="C357" s="9"/>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="B358" t="s">
+        <v>144</v>
+      </c>
+      <c r="C358" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="2:3">
-      <c r="C360" s="9"/>
-    </row>
-    <row r="361" spans="2:3">
-      <c r="B361" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C361" s="9" t="s">
+    <row r="359" spans="2:4">
+      <c r="C359" s="9"/>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="B360" t="s">
+        <v>39</v>
+      </c>
+      <c r="C360" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="2:3">
+    <row r="361" spans="2:4">
+      <c r="B361" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4">
       <c r="B362" t="s">
-        <v>79</v>
-      </c>
-      <c r="C362" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C362" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="2:3">
+    <row r="363" spans="2:4">
       <c r="C363" s="9"/>
     </row>
-    <row r="364" spans="2:3">
+    <row r="364" spans="2:4">
       <c r="B364" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="2:3">
-      <c r="C365" s="9"/>
-    </row>
-    <row r="366" spans="2:3">
-      <c r="B366" t="s">
-        <v>39</v>
-      </c>
-      <c r="C366" s="7" t="s">
+    <row r="365" spans="2:4">
+      <c r="B365" t="s">
+        <v>77</v>
+      </c>
+      <c r="C365" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="2:3">
-      <c r="B367" t="s">
-        <v>40</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3">
-      <c r="B368" t="s">
-        <v>41</v>
+    <row r="366" spans="2:4">
+      <c r="C366" s="9"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C367" s="7"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="369" spans="2:4">
-      <c r="C369" s="9"/>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="B370" t="s">
-        <v>76</v>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="371" spans="2:4">
-      <c r="B371" t="s">
-        <v>77</v>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="C372" s="9"/>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22" t="s">
-        <v>137</v>
-      </c>
+      <c r="B373" s="22"/>
       <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="20" t="s">
-        <v>131</v>
+      <c r="B374" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
@@ -5277,8 +5255,8 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="20" t="s">
-        <v>132</v>
+      <c r="B375" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>14</v>
@@ -5286,17 +5264,13 @@
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B376" s="22"/>
+      <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="20" t="s">
-        <v>136</v>
+      <c r="B377" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>14</v>
@@ -5304,79 +5278,83 @@
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B378" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D381" s="4"/>
+    <row r="379" spans="2:4">
+      <c r="C379" s="9"/>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="C380" s="9"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
+      <c r="B382" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B383" s="22"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C384" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="2:4">
-      <c r="C385" s="9"/>
-    </row>
-    <row r="386" spans="2:4">
-      <c r="C386" s="9"/>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B388" s="22"/>
       <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
+      <c r="B389" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
       <c r="B390" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5384,17 +5362,13 @@
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B391" s="22"/>
+      <c r="C391" s="7"/>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
       <c r="B392" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>14</v>
@@ -5403,7 +5377,7 @@
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
       <c r="B393" s="22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>14</v>
@@ -5411,22 +5385,22 @@
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="22"/>
-      <c r="C394" s="7"/>
+      <c r="B394" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B395" s="22"/>
+      <c r="C395" s="7"/>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5440,7 +5414,7 @@
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
       <c r="B398" s="22" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>14</v>
@@ -5448,17 +5422,13 @@
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B399" s="22"/>
+      <c r="C399" s="7"/>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>14</v>
@@ -5471,12 +5441,8 @@
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" s="6" customFormat="1">
@@ -5485,8 +5451,8 @@
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="2:4" s="6" customFormat="1">
-      <c r="B404" s="22" t="s">
-        <v>151</v>
+      <c r="B404" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>14</v>
@@ -5500,7 +5466,7 @@
     </row>
     <row r="406" spans="2:4" s="6" customFormat="1">
       <c r="B406" s="22" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>14</v>
@@ -5513,18 +5479,26 @@
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22"/>
-      <c r="C408" s="7"/>
+      <c r="B408" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22"/>
-      <c r="C409" s="7"/>
+      <c r="B409" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="3" t="s">
-        <v>152</v>
+      <c r="B410" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>14</v>
@@ -5538,7 +5512,7 @@
     </row>
     <row r="412" spans="2:4" s="6" customFormat="1">
       <c r="B412" s="22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>14</v>
@@ -5546,22 +5520,22 @@
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22"/>
-      <c r="C413" s="7"/>
+      <c r="B413" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B414" s="22"/>
+      <c r="C414" s="7"/>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
       <c r="B415" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>14</v>
@@ -5569,12 +5543,8 @@
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B416" s="22"/>
+      <c r="C416" s="7"/>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="1:4" s="6" customFormat="1">
@@ -5583,71 +5553,90 @@
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="1:4" s="6" customFormat="1">
-      <c r="B418" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B418" s="22"/>
+      <c r="C418" s="7"/>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4" s="6" customFormat="1">
-      <c r="B419" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C419" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B419" s="22"/>
+      <c r="C419" s="4"/>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="1:4" s="6" customFormat="1">
-      <c r="B420" s="22"/>
-      <c r="C420" s="7"/>
+      <c r="B420" s="19"/>
+      <c r="C420" s="4"/>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="1:4" s="6" customFormat="1">
-      <c r="B421" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C421" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B421" s="21"/>
+      <c r="C421" s="4"/>
       <c r="D421" s="4"/>
     </row>
     <row r="422" spans="1:4" s="6" customFormat="1">
-      <c r="B422" s="22"/>
-      <c r="C422" s="7"/>
+      <c r="B422" s="21"/>
+      <c r="C422" s="4"/>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="1:4" s="6" customFormat="1">
-      <c r="B423" s="22"/>
-      <c r="C423" s="7"/>
-      <c r="D423" s="4"/>
-    </row>
-    <row r="424" spans="1:4" s="6" customFormat="1">
-      <c r="B424" s="22"/>
-      <c r="C424" s="7"/>
-      <c r="D424" s="4"/>
-    </row>
-    <row r="425" spans="1:4" s="6" customFormat="1">
-      <c r="B425" s="22"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-    </row>
-    <row r="426" spans="1:4" s="6" customFormat="1">
-      <c r="B426" s="19"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
-    </row>
-    <row r="427" spans="1:4" s="6" customFormat="1">
-      <c r="B427" s="21"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-    </row>
-    <row r="428" spans="1:4" s="6" customFormat="1">
-      <c r="B428" s="21"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+    <row r="423" spans="1:4">
+      <c r="A423" s="3"/>
+      <c r="B423" s="11"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="3"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="3"/>
+      <c r="B424" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="6">
+        <f>COUNTIF(C5:C423,"y")</f>
+        <v>112</v>
+      </c>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="3"/>
+      <c r="B425" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" s="6">
+        <f>COUNTIF(C5:C423,"n")</f>
+        <v>137</v>
+      </c>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="3"/>
+      <c r="B426" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426" s="7">
+        <f>COUNTIF(C5:C423,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="3"/>
+      <c r="B427" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427">
+        <f>SUM(C424:C426)</f>
+        <v>249</v>
+      </c>
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4" ht="18">
+      <c r="A428" s="3"/>
+      <c r="B428" s="10"/>
+      <c r="C428" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D428" s="41">
+        <f>C424/(C425+C424 + C426)</f>
+        <v>0.44979919678714858</v>
+      </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="3"/>
@@ -5655,70 +5644,9 @@
       <c r="C429" s="11"/>
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="3"/>
-      <c r="B430" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C430" s="6">
-        <f>COUNTIF(C5:C429,"y")</f>
-        <v>106</v>
-      </c>
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="3"/>
-      <c r="B431" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C431" s="6">
-        <f>COUNTIF(C5:C429,"n")</f>
-        <v>149</v>
-      </c>
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="3"/>
-      <c r="B432" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C432" s="7">
-        <f>COUNTIF(C5:C429,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="3"/>
-      <c r="B433" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C433">
-        <f>SUM(C430:C432)</f>
-        <v>255</v>
-      </c>
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="1:4" ht="18">
-      <c r="A434" s="3"/>
-      <c r="B434" s="10"/>
-      <c r="C434" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D434" s="41">
-        <f>C430/(C431+C430 + C432)</f>
-        <v>0.41568627450980394</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="3"/>
-      <c r="B435" s="11"/>
-      <c r="C435" s="11"/>
-      <c r="D435" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C352:C386 C388:C65183 C1:C3 C6:C338">
+  <conditionalFormatting sqref="C346:C380 C382:C65177 C1:C3 C6:C332">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5745,7 +5673,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6124,10 +6052,10 @@
         <v>43974</v>
       </c>
       <c r="B54" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6138,7 +6066,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.41568627450980394</v>
+        <v>0.44979919678714858</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6183,25 +6111,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.41568627450980394</v>
+        <v>0.44979919678714858</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C430</f>
-        <v>106</v>
+        <f>Features!C424</f>
+        <v>112</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C431</f>
-        <v>149</v>
+        <f>Features!C425</f>
+        <v>137</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C432</f>
+        <f>Features!C426</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6249,7 +6177,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44505.339622641506</v>
+        <v>44436.375</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="227">
   <si>
     <t>Feature</t>
   </si>
@@ -311,39 +311,9 @@
     <t>shift window down</t>
   </si>
   <si>
-    <t>alt + shift click</t>
-  </si>
-  <si>
-    <t>clears selection, moves caret</t>
-  </si>
-  <si>
-    <t>alt + ctrl click</t>
-  </si>
-  <si>
-    <t>adds caret</t>
-  </si>
-  <si>
-    <t>does not affect existing selection</t>
-  </si>
-  <si>
     <t>ctrl + shift: ctrl ignored</t>
   </si>
   <si>
-    <t>alt + drag</t>
-  </si>
-  <si>
-    <t>rectangular selection from the last anchor point</t>
-  </si>
-  <si>
-    <t>alt + shift drag</t>
-  </si>
-  <si>
-    <t>alt + ctrl drag</t>
-  </si>
-  <si>
-    <t>adds rectangular selection block</t>
-  </si>
-  <si>
     <t>scroll wheel</t>
   </si>
   <si>
@@ -539,9 +509,6 @@
     <t>scroll caret to visible on mouse release</t>
   </si>
   <si>
-    <t>alt + click: same as click</t>
-  </si>
-  <si>
     <t>goes faster if moved further from the boundary</t>
   </si>
   <si>
@@ -719,9 +686,6 @@
     <t>selects from mouse down position</t>
   </si>
   <si>
-    <t>alt should not be handled</t>
-  </si>
-  <si>
     <t>moves caret if outside of selected region</t>
   </si>
   <si>
@@ -732,6 +696,9 @@
   </si>
   <si>
     <t>scrollWheelStepSize</t>
+  </si>
+  <si>
+    <t>alt is ignored</t>
   </si>
 </sst>
 </file>
@@ -991,7 +958,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955402"/>
+          <c:w val="0.91978071330955413"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1047,7 +1014,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1044,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,7 +1100,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1130,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1186,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1272,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,11 +1314,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158649728"/>
-        <c:axId val="158409856"/>
+        <c:axId val="161205632"/>
+        <c:axId val="160900224"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="158649728"/>
+        <c:axId val="161205632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158409856"/>
+        <c:crossAx val="160900224"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1394,7 +1361,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158409856"/>
+        <c:axId val="160900224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158649728"/>
+        <c:crossAx val="161205632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,7 +1426,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218525"/>
+          <c:y val="0.33819556996218536"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1580,7 +1547,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127817E-2"/>
+          <c:x val="4.4510450248127831E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1638,7 +1605,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,17 +1635,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44979919678714858</c:v>
+                  <c:v>0.51063829787234039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158429568"/>
-        <c:axId val="158431104"/>
+        <c:axId val="160924032"/>
+        <c:axId val="160925568"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="158429568"/>
+        <c:axId val="160924032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,13 +1653,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="158431104"/>
+        <c:crossAx val="160925568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158431104"/>
+        <c:axId val="160925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1735,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158429568"/>
+        <c:crossAx val="160924032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,7 +1825,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,7 +1855,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +1911,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43974</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,11 +1947,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158460160"/>
-        <c:axId val="158924800"/>
+        <c:axId val="160950528"/>
+        <c:axId val="161480704"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="158460160"/>
+        <c:axId val="160950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +1984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158924800"/>
+        <c:crossAx val="161480704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2026,7 +1993,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158924800"/>
+        <c:axId val="161480704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158460160"/>
+        <c:crossAx val="160950528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2575,10 +2542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259:XFD261"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2591,7 +2558,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2658,7 +2625,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2667,7 +2634,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2676,7 +2643,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2690,7 +2657,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2699,7 +2666,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2773,7 +2740,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2785,7 +2752,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2812,7 +2779,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2821,7 +2788,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2830,7 +2797,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2839,7 +2806,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2848,7 +2815,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2857,7 +2824,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2865,7 +2832,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2873,7 +2840,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2881,7 +2848,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2889,7 +2856,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2897,7 +2864,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2905,7 +2872,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -2934,7 +2901,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
@@ -2964,7 +2931,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2973,7 +2940,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -2982,7 +2949,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -2991,7 +2958,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -3000,7 +2967,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -3009,7 +2976,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3018,7 +2985,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3045,7 +3012,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3054,7 +3021,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3068,7 +3035,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3077,7 +3044,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3086,7 +3053,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3095,7 +3062,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3104,7 +3071,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3113,7 +3080,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3136,7 +3103,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3191,7 +3158,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3200,7 +3167,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -3213,7 +3180,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3227,7 +3194,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3261,7 +3228,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
@@ -3273,7 +3240,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3282,7 +3249,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3291,7 +3258,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="22" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3300,7 +3267,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3309,7 +3276,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3318,7 +3285,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3377,7 +3344,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="4"/>
@@ -3389,7 +3356,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3398,7 +3365,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3412,14 +3379,14 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="27" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3428,7 +3395,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3437,7 +3404,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>2</v>
@@ -3446,7 +3413,7 @@
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3455,7 +3422,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3469,7 +3436,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="22" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3478,7 +3445,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3487,7 +3454,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3496,7 +3463,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3505,7 +3472,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3519,7 +3486,7 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3533,7 +3500,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>2</v>
@@ -3542,7 +3509,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3551,7 +3518,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3597,7 +3564,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="22" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>14</v>
@@ -3611,7 +3578,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>14</v>
@@ -3620,7 +3587,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="20" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3629,7 +3596,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>14</v>
@@ -3652,7 +3619,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>2</v>
@@ -3661,7 +3628,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>2</v>
@@ -3670,7 +3637,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -3679,7 +3646,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>2</v>
@@ -3702,7 +3669,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3729,7 +3696,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="20" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3761,7 +3728,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3806,7 +3773,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3815,7 +3782,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3933,8 +3900,8 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="27" t="s">
-        <v>43</v>
+      <c r="B178" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>2</v>
@@ -3942,17 +3909,13 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="22"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>2</v>
@@ -3960,26 +3923,26 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="23" t="s">
-        <v>166</v>
+      <c r="B181" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="20" t="s">
-        <v>127</v>
+      <c r="B182" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="23" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -3988,30 +3951,34 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="20" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20"/>
-      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
-        <v>46</v>
+      <c r="B187" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>2</v>
@@ -4019,22 +3986,22 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C188" s="7" t="s">
+      <c r="B188" s="20"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22"/>
-      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>53</v>
+      <c r="B190" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4042,22 +4009,22 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C191" s="7" t="s">
+      <c r="B191" s="22"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20"/>
-      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>54</v>
+      <c r="B193" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4065,86 +4032,86 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C194" s="7" t="s">
+      <c r="B194" s="20"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C195" s="7" t="s">
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20" t="s">
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="22"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C199" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="23" t="s">
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C199" s="7" t="s">
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20" t="s">
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="22"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="7"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="20" t="s">
-        <v>173</v>
+      <c r="B204" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4161,29 +4128,25 @@
         <v>97</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B207" s="20"/>
+      <c r="C207" s="7"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20"/>
+      <c r="B208" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="20" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>14</v>
@@ -4192,7 +4155,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>14</v>
@@ -4201,7 +4164,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>14</v>
@@ -4209,109 +4172,109 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="7"/>
+      <c r="B212" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="23" t="s">
-        <v>42</v>
+      <c r="B214" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="20" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
       <c r="B218" s="23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B219" s="22"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20"/>
-      <c r="C220" s="7"/>
+      <c r="B220" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="20" t="s">
-        <v>106</v>
+      <c r="B221" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="23" t="s">
-        <v>101</v>
+      <c r="B223" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="23"/>
-      <c r="C224" s="7"/>
+      <c r="B224" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="20" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>2</v>
@@ -4319,51 +4282,49 @@
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20"/>
-      <c r="C226" s="7"/>
+      <c r="B226" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="B227" s="20"/>
       <c r="C227" s="7"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20" t="s">
-        <v>44</v>
+      <c r="B228" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="23" t="s">
-        <v>234</v>
+      <c r="B229" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>45</v>
+      <c r="B230" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B231" s="22"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
@@ -4372,21 +4333,15 @@
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B233" s="22"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B234" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C234" s="7"/>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
@@ -4395,104 +4350,100 @@
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="20" t="s">
-        <v>58</v>
+      <c r="B236" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="23" t="s">
-        <v>56</v>
+      <c r="B237" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="22"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20" t="s">
-        <v>60</v>
+      <c r="B239" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="23" t="s">
-        <v>56</v>
+      <c r="B240" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="20"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="27" t="s">
-        <v>170</v>
+      <c r="B242" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
       <c r="B243" s="20" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B244" s="22"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="20" t="s">
-        <v>172</v>
+      <c r="B245" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="20"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B247" s="22"/>
+      <c r="C247" s="7"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="20" t="s">
-        <v>124</v>
+      <c r="B248" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4501,7 +4452,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>2</v>
@@ -4514,30 +4465,40 @@
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="22"/>
-      <c r="C251" s="7"/>
+      <c r="B251" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="22"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B253" s="22"/>
       <c r="C253" s="7"/>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="22"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="22" t="s">
-        <v>71</v>
+      <c r="B255" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>2</v>
@@ -4545,22 +4506,22 @@
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C256" s="7" t="s">
+      <c r="B256" s="22"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="20"/>
-      <c r="C257" s="7"/>
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="22" t="s">
-        <v>72</v>
+      <c r="B258" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>2</v>
@@ -4569,7 +4530,7 @@
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
       <c r="B259" s="20" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>2</v>
@@ -4583,7 +4544,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="22" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>2</v>
@@ -4592,7 +4553,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>2</v>
@@ -4606,7 +4567,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="22" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4615,7 +4576,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>2</v>
@@ -4628,21 +4589,13 @@
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B267" s="22"/>
+      <c r="C267" s="7"/>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B268" s="22"/>
+      <c r="C268" s="7"/>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
@@ -4651,21 +4604,13 @@
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B270" s="22"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B271" s="22"/>
+      <c r="C271" s="7"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
@@ -4674,530 +4619,533 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B273" s="20"/>
+      <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B274" s="19"/>
+      <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22"/>
+      <c r="B275" s="4"/>
       <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B276" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C276" s="7"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22"/>
+    <row r="277" spans="2:4">
+      <c r="C277" s="7"/>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C278" s="7"/>
+    </row>
+    <row r="279" spans="2:4">
       <c r="C279" s="7"/>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22" t="s">
-        <v>70</v>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280" t="s">
+        <v>65</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="20" t="s">
-        <v>217</v>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>66</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22" t="s">
-        <v>69</v>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>67</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>68</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="20" t="s">
-        <v>217</v>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>203</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="4"/>
-    </row>
-    <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="22"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="20"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="19"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="4"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C295" s="7"/>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4">
-      <c r="C296" s="7"/>
-    </row>
-    <row r="297" spans="2:4">
-      <c r="B297" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C297" s="7"/>
-    </row>
-    <row r="298" spans="2:4">
-      <c r="C298" s="7"/>
-    </row>
-    <row r="299" spans="2:4">
-      <c r="B299" t="s">
-        <v>65</v>
-      </c>
-      <c r="C299" s="7" t="s">
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>204</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="2:4">
-      <c r="B300" t="s">
-        <v>66</v>
-      </c>
-      <c r="C300" s="7" t="s">
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>69</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="2:4">
-      <c r="B301" t="s">
-        <v>67</v>
-      </c>
-      <c r="C301" s="7" t="s">
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
+        <v>70</v>
+      </c>
+      <c r="C287" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="2:4">
-      <c r="B302" t="s">
-        <v>68</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="2:4">
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>71</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" t="s">
+        <v>72</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" t="s">
+        <v>73</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="44"/>
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="44"/>
+      <c r="C295" s="9"/>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="44"/>
+      <c r="C296" s="9"/>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="C297" s="9"/>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="C298" s="9"/>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="C299" s="9"/>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="C300" s="9"/>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C301" s="9"/>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="2:3">
       <c r="B303" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
       <c r="B304" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="2:3">
       <c r="B307" t="s">
-        <v>71</v>
-      </c>
-      <c r="C307" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C307" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" t="s">
-        <v>72</v>
-      </c>
-      <c r="C308" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C308" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" t="s">
-        <v>73</v>
-      </c>
-      <c r="C309" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C309" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="44"/>
+      <c r="B313" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C313" s="9"/>
-    </row>
-    <row r="314" spans="2:3">
-      <c r="B314" s="44"/>
-      <c r="C314" s="9"/>
-    </row>
-    <row r="315" spans="2:3">
-      <c r="B315" s="44"/>
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="2:3">
-      <c r="C316" s="9"/>
-    </row>
-    <row r="317" spans="2:3">
-      <c r="C317" s="9"/>
-    </row>
-    <row r="318" spans="2:3">
-      <c r="C318" s="9"/>
-    </row>
-    <row r="319" spans="2:3">
-      <c r="C319" s="9"/>
-    </row>
-    <row r="320" spans="2:3">
-      <c r="B320" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="2:3">
-      <c r="C321" s="9"/>
-    </row>
-    <row r="322" spans="2:3">
-      <c r="B322" t="s">
-        <v>90</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3">
-      <c r="B323" t="s">
-        <v>91</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="B324" t="s">
-        <v>92</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3">
-      <c r="B325" t="s">
-        <v>93</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" t="s">
-        <v>94</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" t="s">
-        <v>118</v>
+      <c r="B328" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="329" spans="2:3">
-      <c r="C329" s="9"/>
+      <c r="B329" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="C330" s="9"/>
+      <c r="B330" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="331" spans="2:3">
-      <c r="C331" s="9"/>
+      <c r="B331" s="44"/>
+      <c r="C331" s="7"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C332" s="9"/>
-    </row>
-    <row r="346" spans="2:3">
+      <c r="B332" t="s">
+        <v>75</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="C333" s="9"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="C335" s="9"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>79</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="C338" s="9"/>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>134</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>39</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>40</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>41</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="C344" s="9"/>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>76</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
       <c r="B346" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:3">
-      <c r="B347" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C347" s="7" t="s">
+    <row r="347" spans="2:4">
+      <c r="C347" s="9"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C348" s="7"/>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C349" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="348" spans="2:3">
-      <c r="B348" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C348" s="7" t="s">
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="2:3">
-      <c r="B349" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C349" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3">
-      <c r="B350" s="44"/>
-      <c r="C350" s="7"/>
-    </row>
-    <row r="351" spans="2:3">
-      <c r="B351" t="s">
-        <v>75</v>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="352" spans="2:3">
-      <c r="C352" s="9"/>
-    </row>
-    <row r="353" spans="2:4">
-      <c r="B353" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C353" s="9" t="s">
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C352" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="354" spans="2:4">
-      <c r="C354" s="9"/>
-    </row>
-    <row r="355" spans="2:4">
-      <c r="B355" s="45" t="s">
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="22"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4">
-      <c r="B356" t="s">
-        <v>79</v>
-      </c>
-      <c r="C356" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4">
-      <c r="C357" s="9"/>
-    </row>
-    <row r="358" spans="2:4">
-      <c r="B358" t="s">
-        <v>144</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="359" spans="2:4">
-      <c r="C359" s="9"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C359" s="7"/>
+      <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4">
-      <c r="B360" t="s">
-        <v>39</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" spans="2:4">
-      <c r="B361" t="s">
-        <v>40</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4">
-      <c r="B362" t="s">
-        <v>41</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4">
-      <c r="C363" s="9"/>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="B364" t="s">
-        <v>76</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4">
-      <c r="B365" t="s">
-        <v>77</v>
+      <c r="C361" s="9"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C363" s="7"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="C366" s="9"/>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
       <c r="B367" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C367" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="20" t="s">
-        <v>131</v>
+      <c r="B368" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>14</v>
@@ -5205,17 +5153,13 @@
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="20" t="s">
-        <v>135</v>
+      <c r="B370" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>14</v>
@@ -5223,8 +5167,8 @@
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="20" t="s">
-        <v>136</v>
+      <c r="B371" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
@@ -5232,22 +5176,22 @@
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C372" s="7" t="s">
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C373" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22"/>
-      <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="22" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
@@ -5256,7 +5200,7 @@
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
       <c r="B375" s="22" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>14</v>
@@ -5270,7 +5214,7 @@
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="22" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>14</v>
@@ -5278,22 +5222,35 @@
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>179</v>
-      </c>
+      <c r="B378" s="22"/>
       <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="2:4">
-      <c r="C379" s="9"/>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="C380" s="9"/>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22"/>
+      <c r="C380" s="7"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B382" s="22"/>
       <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
@@ -5303,35 +5260,27 @@
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C384" s="7" t="s">
+      <c r="B384" s="22"/>
+      <c r="C384" s="7"/>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C385" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B386" s="22"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
       <c r="B387" s="22" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>14</v>
@@ -5345,7 +5294,7 @@
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
       <c r="B389" s="22" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>14</v>
@@ -5354,7 +5303,7 @@
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
       <c r="B390" s="22" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5362,22 +5311,22 @@
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22"/>
-      <c r="C391" s="7"/>
+      <c r="B391" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B392" s="22"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
       <c r="B393" s="22" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>14</v>
@@ -5386,7 +5335,7 @@
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
       <c r="B394" s="22" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>14</v>
@@ -5400,7 +5349,7 @@
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5413,12 +5362,8 @@
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B398" s="22"/>
+      <c r="C398" s="7"/>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
@@ -5427,226 +5372,95 @@
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B400" s="22"/>
+      <c r="C400" s="4"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
+    <row r="401" spans="1:4" s="6" customFormat="1">
+      <c r="B401" s="19"/>
+      <c r="C401" s="4"/>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22"/>
-      <c r="C402" s="7"/>
+    <row r="402" spans="1:4" s="6" customFormat="1">
+      <c r="B402" s="21"/>
+      <c r="C402" s="4"/>
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="22"/>
-      <c r="C403" s="7"/>
+    <row r="403" spans="1:4" s="6" customFormat="1">
+      <c r="B403" s="21"/>
+      <c r="C403" s="4"/>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="2:4" s="6" customFormat="1">
-      <c r="B404" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D404" s="4"/>
-    </row>
-    <row r="405" spans="2:4" s="6" customFormat="1">
-      <c r="B405" s="22"/>
-      <c r="C405" s="7"/>
-      <c r="D405" s="4"/>
-    </row>
-    <row r="406" spans="2:4" s="6" customFormat="1">
-      <c r="B406" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D406" s="4"/>
-    </row>
-    <row r="407" spans="2:4" s="6" customFormat="1">
-      <c r="B407" s="22"/>
-      <c r="C407" s="7"/>
-      <c r="D407" s="4"/>
-    </row>
-    <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D408" s="4"/>
-    </row>
-    <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C409" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D409" s="4"/>
-    </row>
-    <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D410" s="4"/>
-    </row>
-    <row r="411" spans="2:4" s="6" customFormat="1">
-      <c r="B411" s="22"/>
-      <c r="C411" s="7"/>
-      <c r="D411" s="4"/>
-    </row>
-    <row r="412" spans="2:4" s="6" customFormat="1">
-      <c r="B412" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D412" s="4"/>
-    </row>
-    <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C413" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D413" s="4"/>
-    </row>
-    <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22"/>
-      <c r="C414" s="7"/>
-      <c r="D414" s="4"/>
-    </row>
-    <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D415" s="4"/>
-    </row>
-    <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="22"/>
-      <c r="C416" s="7"/>
-      <c r="D416" s="4"/>
-    </row>
-    <row r="417" spans="1:4" s="6" customFormat="1">
-      <c r="B417" s="22"/>
-      <c r="C417" s="7"/>
-      <c r="D417" s="4"/>
-    </row>
-    <row r="418" spans="1:4" s="6" customFormat="1">
-      <c r="B418" s="22"/>
-      <c r="C418" s="7"/>
-      <c r="D418" s="4"/>
-    </row>
-    <row r="419" spans="1:4" s="6" customFormat="1">
-      <c r="B419" s="22"/>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-    </row>
-    <row r="420" spans="1:4" s="6" customFormat="1">
-      <c r="B420" s="19"/>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-    </row>
-    <row r="421" spans="1:4" s="6" customFormat="1">
-      <c r="B421" s="21"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-    </row>
-    <row r="422" spans="1:4" s="6" customFormat="1">
-      <c r="B422" s="21"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="3"/>
-      <c r="B423" s="11"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="3"/>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="3"/>
-      <c r="B424" s="8" t="s">
+    <row r="404" spans="1:4">
+      <c r="A404" s="3"/>
+      <c r="B404" s="11"/>
+      <c r="C404" s="11"/>
+      <c r="D404" s="3"/>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="3"/>
+      <c r="B405" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C424" s="6">
-        <f>COUNTIF(C5:C423,"y")</f>
-        <v>112</v>
-      </c>
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="3"/>
-      <c r="B425" s="8" t="s">
+      <c r="C405" s="6">
+        <f>COUNTIF(C5:C404,"y")</f>
+        <v>120</v>
+      </c>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="3"/>
+      <c r="B406" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C425" s="6">
-        <f>COUNTIF(C5:C423,"n")</f>
-        <v>137</v>
-      </c>
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="3"/>
-      <c r="B426" s="8" t="s">
+      <c r="C406" s="6">
+        <f>COUNTIF(C5:C404,"n")</f>
+        <v>115</v>
+      </c>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="3"/>
+      <c r="B407" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C426" s="7">
-        <f>COUNTIF(C5:C423,"TBD")</f>
+      <c r="C407" s="7">
+        <f>COUNTIF(C5:C404,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D426" s="2"/>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="3"/>
-      <c r="B427" s="8" t="s">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="3"/>
+      <c r="B408" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C427">
-        <f>SUM(C424:C426)</f>
-        <v>249</v>
-      </c>
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="1:4" ht="18">
-      <c r="A428" s="3"/>
-      <c r="B428" s="10"/>
-      <c r="C428" s="10" t="s">
+      <c r="C408">
+        <f>SUM(C405:C407)</f>
+        <v>235</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4" ht="18">
+      <c r="A409" s="3"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D428" s="41">
-        <f>C424/(C425+C424 + C426)</f>
-        <v>0.44979919678714858</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="3"/>
-      <c r="B429" s="11"/>
-      <c r="C429" s="11"/>
-      <c r="D429" s="3"/>
+      <c r="D409" s="41">
+        <f>C405/(C406+C405 + C407)</f>
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="3"/>
+      <c r="B410" s="11"/>
+      <c r="C410" s="11"/>
+      <c r="D410" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C346:C380 C382:C65177 C1:C3 C6:C332">
+  <conditionalFormatting sqref="C327:C361 C363:C65158 C1:C3 C6:C313">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5673,7 +5487,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5694,7 +5508,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6049,13 +5863,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B54" s="4">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C54" s="4">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -6066,7 +5880,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.44979919678714858</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6111,25 +5925,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.44979919678714858</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C424</f>
-        <v>112</v>
+        <f>Features!C405</f>
+        <v>120</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C425</f>
-        <v>137</v>
+        <f>Features!C406</f>
+        <v>115</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C426</f>
+        <f>Features!C407</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6173,11 +5987,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="46" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44436.375</v>
+        <v>44338.208333333336</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="230">
   <si>
     <t>Feature</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>alt is ignored</t>
+  </si>
+  <si>
+    <t>caret line color</t>
+  </si>
+  <si>
+    <t>selection background color</t>
+  </si>
+  <si>
+    <t>line number color</t>
   </si>
 </sst>
 </file>
@@ -958,7 +967,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955413"/>
+          <c:w val="0.91978071330955424"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1014,7 +1023,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1053,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1109,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,7 +1195,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1281,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,11 +1323,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161205632"/>
-        <c:axId val="160900224"/>
+        <c:axId val="157076864"/>
+        <c:axId val="156902528"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="161205632"/>
+        <c:axId val="157076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160900224"/>
+        <c:crossAx val="156902528"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1361,7 +1370,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160900224"/>
+        <c:axId val="156902528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161205632"/>
+        <c:crossAx val="157076864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,7 +1435,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218536"/>
+          <c:y val="0.33819556996218542"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1547,7 +1556,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127831E-2"/>
+          <c:x val="4.4510450248127838E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1605,7 +1614,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,17 +1644,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51063829787234039</c:v>
+                  <c:v>0.51680672268907568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160924032"/>
-        <c:axId val="160925568"/>
+        <c:axId val="156926336"/>
+        <c:axId val="156927872"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160924032"/>
+        <c:axId val="156926336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,13 +1662,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="160925568"/>
+        <c:crossAx val="156927872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160925568"/>
+        <c:axId val="156927872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1702,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160924032"/>
+        <c:crossAx val="156926336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1825,7 +1834,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,7 +1920,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43975</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,11 +1956,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160950528"/>
-        <c:axId val="161480704"/>
+        <c:axId val="156952832"/>
+        <c:axId val="157356032"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="160950528"/>
+        <c:axId val="156952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161480704"/>
+        <c:crossAx val="157356032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1993,7 +2002,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161480704"/>
+        <c:axId val="157356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160950528"/>
+        <c:crossAx val="156952832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2542,10 +2551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2832,7 +2841,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2840,7 +2849,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2848,7 +2857,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2856,7 +2865,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2864,34 +2873,43 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22"/>
-      <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
@@ -2900,9 +2918,7 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="B47" s="22"/>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
     </row>
@@ -2912,62 +2928,52 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2976,7 +2982,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -2985,7 +2991,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3029,13 +3035,17 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3044,34 +3054,30 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3080,7 +3086,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3088,13 +3094,17 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3103,7 +3113,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3111,17 +3121,13 @@
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -3129,13 +3135,17 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3144,7 +3154,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="22" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3158,7 +3168,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3167,7 +3177,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -3175,12 +3185,13 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="22"/>
       <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="9" t="s">
-        <v>128</v>
+      <c r="B81" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3188,22 +3199,25 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22"/>
-      <c r="C84" s="7"/>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
@@ -3212,8 +3226,12 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
@@ -3227,9 +3245,7 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="B89" s="22"/>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
@@ -3239,35 +3255,25 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3276,7 +3282,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3285,7 +3291,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3293,18 +3299,30 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
@@ -3343,9 +3361,7 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="B107" s="22"/>
       <c r="C107" s="7"/>
       <c r="D107" s="4"/>
     </row>
@@ -3355,21 +3371,15 @@
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B110" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
@@ -3378,42 +3388,38 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1">
+      <c r="B114" s="22"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="20" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3422,7 +3428,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3430,13 +3436,17 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20"/>
-      <c r="C118" s="7"/>
+      <c r="B118" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="22" t="s">
-        <v>130</v>
+      <c r="B119" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3444,8 +3454,8 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="20" t="s">
-        <v>194</v>
+      <c r="B120" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3453,17 +3463,13 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
-        <v>215</v>
+      <c r="B122" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3471,8 +3477,8 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="23" t="s">
-        <v>216</v>
+      <c r="B123" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3480,13 +3486,17 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22" t="s">
-        <v>195</v>
+      <c r="B125" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3494,45 +3504,45 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="20"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="22"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>14</v>
@@ -3540,8 +3550,8 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22" t="s">
-        <v>86</v>
+      <c r="B132" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>14</v>
@@ -3549,22 +3559,22 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="22"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="22" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>14</v>
@@ -3572,22 +3582,22 @@
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20" t="s">
-        <v>105</v>
+      <c r="B138" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>14</v>
@@ -3595,49 +3605,45 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20"/>
-      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="27" t="s">
-        <v>26</v>
+      <c r="B141" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20" t="s">
-        <v>116</v>
+      <c r="B144" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -3646,7 +3652,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="20" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>2</v>
@@ -3654,40 +3660,40 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="27" t="s">
-        <v>25</v>
+      <c r="B147" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="20" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20" t="s">
-        <v>27</v>
+      <c r="B150" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3696,7 +3702,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3704,40 +3710,40 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="27" t="s">
-        <v>29</v>
+      <c r="B153" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="20" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B155" s="22"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
-        <v>47</v>
+      <c r="B156" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3755,16 +3761,16 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3773,7 +3779,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3790,13 +3796,17 @@
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="20"/>
-      <c r="C162" s="9"/>
+      <c r="B162" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="27" t="s">
-        <v>30</v>
+      <c r="B163" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -3805,7 +3815,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3813,17 +3823,13 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="9"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="20" t="s">
-        <v>49</v>
+      <c r="B166" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3850,7 +3856,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3858,18 +3864,30 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
@@ -3888,9 +3906,7 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B176" s="22"/>
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
@@ -3900,31 +3916,25 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
+      <c r="B179" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B180" s="22"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="20" t="s">
-        <v>43</v>
+      <c r="B181" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>2</v>
@@ -3932,67 +3942,67 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C182" s="7" t="s">
+      <c r="B182" s="22"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="20" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C188" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20"/>
-      <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="20" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4001,7 +4011,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="23" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4009,13 +4019,13 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="22"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4024,7 +4034,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4032,13 +4042,13 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4047,7 +4057,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4055,22 +4065,22 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="22"/>
-      <c r="C198" s="7"/>
+      <c r="B198" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20" t="s">
-        <v>57</v>
+      <c r="B199" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4079,30 +4089,30 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="22"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>2</v>
@@ -4111,10 +4121,10 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D204" s="4"/>
     </row>
@@ -4125,7 +4135,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="20" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4133,47 +4143,43 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="20"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="B208" s="22"/>
       <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="20"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C211" s="7"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="20" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>14</v>
@@ -4181,25 +4187,29 @@
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="22"/>
-      <c r="C213" s="7"/>
+      <c r="B213" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20" t="s">
-        <v>55</v>
+      <c r="B214" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="23" t="s">
-        <v>56</v>
+      <c r="B215" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D215" s="4"/>
     </row>
@@ -4210,7 +4220,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>2</v>
@@ -4233,7 +4243,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4250,13 +4260,13 @@
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="27" t="s">
-        <v>160</v>
+      <c r="B223" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>2</v>
@@ -4264,8 +4274,8 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="20" t="s">
-        <v>161</v>
+      <c r="B224" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>2</v>
@@ -4273,17 +4283,13 @@
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20" t="s">
-        <v>162</v>
+      <c r="B226" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2</v>
@@ -4291,13 +4297,17 @@
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20"/>
-      <c r="C227" s="7"/>
+      <c r="B227" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="27" t="s">
-        <v>98</v>
+      <c r="B228" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>2</v>
@@ -4306,7 +4316,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="20" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -4314,33 +4324,39 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20" t="s">
+      <c r="B230" s="20"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="22"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="22"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="4"/>
-    </row>
-    <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="22"/>
-      <c r="C233" s="7"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="B234" s="22"/>
       <c r="C234" s="7"/>
       <c r="D234" s="4"/>
     </row>
@@ -4350,31 +4366,25 @@
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B236" s="22"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B237" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2</v>
@@ -4391,13 +4401,13 @@
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="22"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="22" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>2</v>
@@ -4420,7 +4430,7 @@
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -4443,7 +4453,7 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4452,7 +4462,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>2</v>
@@ -4466,7 +4476,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -4489,7 +4499,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="22" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>2</v>
@@ -4498,7 +4508,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>2</v>
@@ -4512,7 +4522,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -4529,22 +4539,22 @@
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C259" s="7" t="s">
+      <c r="B259" s="22"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" s="6" customFormat="1">
+      <c r="B260" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C260" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="4"/>
-    </row>
-    <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="22"/>
-      <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="22" t="s">
-        <v>70</v>
+      <c r="B261" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>2</v>
@@ -4553,7 +4563,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="20" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>2</v>
@@ -4567,7 +4577,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4589,13 +4599,21 @@
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22"/>
-      <c r="C267" s="7"/>
+      <c r="B267" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="22"/>
-      <c r="C268" s="7"/>
+      <c r="B268" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
@@ -4619,66 +4637,57 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="20"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="19"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="4"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="B276" s="20"/>
       <c r="C276" s="7"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="2:4">
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="19"/>
       <c r="C277" s="7"/>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="B278" s="43" t="s">
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="4"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C279" s="7"/>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="C280" s="7"/>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C278" s="7"/>
-    </row>
-    <row r="279" spans="2:4">
-      <c r="C279" s="7"/>
-    </row>
-    <row r="280" spans="2:4">
-      <c r="B280" t="s">
-        <v>65</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4">
-      <c r="B281" t="s">
-        <v>66</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C281" s="7"/>
     </row>
     <row r="282" spans="2:4">
-      <c r="B282" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>2</v>
@@ -4686,7 +4695,7 @@
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>2</v>
@@ -4694,7 +4703,7 @@
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>2</v>
@@ -4702,7 +4711,7 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>2</v>
@@ -4710,7 +4719,7 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>2</v>
@@ -4718,112 +4727,112 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>71</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>14</v>
+        <v>204</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>72</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>73</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="44" t="s">
-        <v>74</v>
+      <c r="B291" t="s">
+        <v>71</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="45" t="s">
-        <v>82</v>
+      <c r="B292" t="s">
+        <v>72</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="45" t="s">
-        <v>96</v>
+      <c r="B293" t="s">
+        <v>73</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="44"/>
-      <c r="C294" s="9"/>
+      <c r="B294" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="44"/>
-      <c r="C295" s="9"/>
+      <c r="B295" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="44"/>
-      <c r="C296" s="9"/>
+      <c r="B296" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="297" spans="2:3">
+      <c r="B297" s="44"/>
       <c r="C297" s="9"/>
     </row>
     <row r="298" spans="2:3">
+      <c r="B298" s="44"/>
       <c r="C298" s="9"/>
     </row>
     <row r="299" spans="2:3">
+      <c r="B299" s="44"/>
       <c r="C299" s="9"/>
     </row>
     <row r="300" spans="2:3">
       <c r="C300" s="9"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="43" t="s">
-        <v>102</v>
-      </c>
       <c r="C301" s="9"/>
     </row>
     <row r="302" spans="2:3">
       <c r="C302" s="9"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" t="s">
-        <v>90</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" t="s">
-        <v>91</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B304" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" t="s">
-        <v>92</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>14</v>
@@ -4831,7 +4840,7 @@
     </row>
     <row r="307" spans="2:3">
       <c r="B307" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>14</v>
@@ -4839,7 +4848,7 @@
     </row>
     <row r="308" spans="2:3">
       <c r="B308" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>14</v>
@@ -4847,96 +4856,101 @@
     </row>
     <row r="309" spans="2:3">
       <c r="B309" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="310" spans="2:3">
-      <c r="C310" s="9"/>
+      <c r="B310" t="s">
+        <v>94</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="311" spans="2:3">
-      <c r="C311" s="9"/>
+      <c r="B311" t="s">
+        <v>95</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="312" spans="2:3">
-      <c r="C312" s="9"/>
+      <c r="B312" t="s">
+        <v>108</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="3" t="s">
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="C314" s="9"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C313" s="9"/>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="B327" t="s">
+      <c r="C316" s="9"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
         <v>64</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C330" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:3">
-      <c r="B328" s="44" t="s">
+    <row r="331" spans="2:3">
+      <c r="B331" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C331" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="2:3">
-      <c r="B329" s="44" t="s">
+    <row r="332" spans="2:3">
+      <c r="B332" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3">
-      <c r="B330" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" s="44"/>
-      <c r="C331" s="7"/>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>75</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="333" spans="2:3">
-      <c r="C333" s="9"/>
+      <c r="B333" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="45" t="s">
+      <c r="B334" s="44"/>
+      <c r="C334" s="7"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" t="s">
+        <v>75</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="C336" s="9"/>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3">
-      <c r="C335" s="9"/>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="B336" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" t="s">
-        <v>79</v>
       </c>
       <c r="C337" s="9" t="s">
         <v>14</v>
@@ -4946,46 +4960,46 @@
       <c r="C338" s="9"/>
     </row>
     <row r="339" spans="2:4">
-      <c r="B339" t="s">
-        <v>134</v>
-      </c>
-      <c r="C339" s="7" t="s">
+      <c r="B339" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C339" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="340" spans="2:4">
-      <c r="C340" s="9"/>
+      <c r="B340" t="s">
+        <v>79</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="341" spans="2:4">
-      <c r="B341" t="s">
-        <v>39</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="2:4">
       <c r="B342" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="343" spans="2:4">
-      <c r="B343" t="s">
-        <v>41</v>
-      </c>
-      <c r="C343" s="7" t="s">
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>39</v>
+      </c>
+      <c r="C344" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="C344" s="9"/>
     </row>
     <row r="345" spans="2:4">
       <c r="B345" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>14</v>
@@ -4993,7 +5007,7 @@
     </row>
     <row r="346" spans="2:4">
       <c r="B346" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
@@ -5002,43 +5016,35 @@
     <row r="347" spans="2:4">
       <c r="C347" s="9"/>
     </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C348" s="7"/>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="20" t="s">
-        <v>121</v>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>76</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
+        <v>77</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350" s="4"/>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B351" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C351" s="7"/>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
       <c r="B352" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -5047,7 +5053,7 @@
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
       <c r="B353" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>14</v>
@@ -5055,13 +5061,17 @@
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="7"/>
+      <c r="B354" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>131</v>
+      <c r="B355" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5069,8 +5079,8 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>132</v>
+      <c r="B356" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>14</v>
@@ -5084,7 +5094,7 @@
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="22" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5093,59 +5103,55 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="22"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C359" s="7"/>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4">
-      <c r="C360" s="9"/>
-    </row>
-    <row r="361" spans="2:4">
-      <c r="C361" s="9"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="3" t="s">
+      <c r="C362" s="7"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="C363" s="9"/>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="C364" s="9"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C363" s="7"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="7"/>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C366" s="7"/>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B367" s="22"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
       <c r="B368" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>14</v>
@@ -5153,13 +5159,17 @@
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="7"/>
+      <c r="B369" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
       <c r="B370" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>14</v>
@@ -5168,7 +5178,7 @@
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
       <c r="B371" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>14</v>
@@ -5182,7 +5192,7 @@
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
       <c r="B373" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>14</v>
@@ -5191,7 +5201,7 @@
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>14</v>
@@ -5199,22 +5209,22 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C375" s="7" t="s">
+      <c r="B375" s="22"/>
+      <c r="C375" s="7"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C376" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="22" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>14</v>
@@ -5222,36 +5232,40 @@
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="7"/>
+      <c r="B378" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22"/>
+      <c r="C381" s="7"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C382" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22"/>
-      <c r="C380" s="7"/>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C381" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
@@ -5260,17 +5274,17 @@
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B385" s="22"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
@@ -5279,31 +5293,27 @@
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C387" s="7" t="s">
+      <c r="B387" s="22"/>
+      <c r="C387" s="7"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C388" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
       <c r="B390" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5311,22 +5321,22 @@
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C391" s="7" t="s">
+      <c r="B391" s="22"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C392" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22"/>
-      <c r="C392" s="7"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
       <c r="B393" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>14</v>
@@ -5335,7 +5345,7 @@
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
       <c r="B394" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>14</v>
@@ -5349,7 +5359,7 @@
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5357,8 +5367,12 @@
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22"/>
-      <c r="C397" s="7"/>
+      <c r="B397" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
@@ -5367,100 +5381,119 @@
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="22"/>
-      <c r="C399" s="7"/>
+      <c r="B399" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="7"/>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="19"/>
-      <c r="C401" s="4"/>
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" s="6" customFormat="1">
-      <c r="B402" s="21"/>
-      <c r="C402" s="4"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
-      <c r="B403" s="21"/>
+      <c r="B403" s="22"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="3"/>
-      <c r="B404" s="11"/>
-      <c r="C404" s="11"/>
-      <c r="D404" s="3"/>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="3"/>
-      <c r="B405" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C405" s="6">
-        <f>COUNTIF(C5:C404,"y")</f>
-        <v>120</v>
-      </c>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="3"/>
-      <c r="B406" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C406" s="6">
-        <f>COUNTIF(C5:C404,"n")</f>
-        <v>115</v>
-      </c>
-      <c r="D406" s="2"/>
+    <row r="404" spans="1:4" s="6" customFormat="1">
+      <c r="B404" s="19"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="1:4" s="6" customFormat="1">
+      <c r="B405" s="21"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="1:4" s="6" customFormat="1">
+      <c r="B406" s="21"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="3"/>
-      <c r="B407" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C407" s="7">
-        <f>COUNTIF(C5:C404,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D407" s="2"/>
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="3"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="3"/>
       <c r="B408" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C408">
-        <f>SUM(C405:C407)</f>
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C408" s="6">
+        <f>COUNTIF(C5:C407,"y")</f>
+        <v>123</v>
       </c>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" ht="18">
+    <row r="409" spans="1:4">
       <c r="A409" s="3"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D409" s="41">
-        <f>C405/(C406+C405 + C407)</f>
-        <v>0.51063829787234039</v>
-      </c>
+      <c r="B409" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" s="6">
+        <f>COUNTIF(C5:C407,"n")</f>
+        <v>115</v>
+      </c>
+      <c r="D409" s="2"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="3"/>
-      <c r="B410" s="11"/>
-      <c r="C410" s="11"/>
-      <c r="D410" s="3"/>
+      <c r="B410" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410" s="7">
+        <f>COUNTIF(C5:C407,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="3"/>
+      <c r="B411" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411">
+        <f>SUM(C408:C410)</f>
+        <v>238</v>
+      </c>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4" ht="18">
+      <c r="A412" s="3"/>
+      <c r="B412" s="10"/>
+      <c r="C412" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D412" s="41">
+        <f>C408/(C409+C408 + C410)</f>
+        <v>0.51680672268907568</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="3"/>
+      <c r="B413" s="11"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C327:C361 C363:C65158 C1:C3 C6:C313">
+  <conditionalFormatting sqref="C330:C364 C366:C65161 C1:C3 C6:C316">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5487,7 +5520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5863,10 +5896,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B54" s="4">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4">
         <v>115</v>
@@ -5880,7 +5913,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.51063829787234039</v>
+        <v>0.51680672268907568</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -5925,25 +5958,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.51063829787234039</v>
+        <v>0.51680672268907568</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C405</f>
-        <v>120</v>
+        <f>Features!C408</f>
+        <v>123</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C406</f>
+        <f>Features!C409</f>
         <v>115</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C407</f>
+        <f>Features!C410</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -5991,7 +6024,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44338.208333333336</v>
+        <v>44331.284552845529</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -1053,7 +1053,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1139,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,7 +1644,7 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51680672268907568</c:v>
+                  <c:v>0.52100840336134457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1864,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:D413"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3987,7 +3987,7 @@
         <v>117</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D187" s="4"/>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C408" s="6">
         <f>COUNTIF(C5:C407,"y")</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="C409" s="6">
         <f>COUNTIF(C5:C407,"n")</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D409" s="2"/>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="D412" s="41">
         <f>C408/(C409+C408 + C410)</f>
-        <v>0.51680672268907568</v>
+        <v>0.52100840336134457</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -5520,7 +5520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5899,10 +5899,10 @@
         <v>43976</v>
       </c>
       <c r="B54" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -5913,7 +5913,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.51680672268907568</v>
+        <v>0.52100840336134457</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.51680672268907568</v>
+        <v>0.52100840336134457</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -5969,11 +5969,11 @@
       </c>
       <c r="B58" s="15">
         <f>Features!C408</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="16">
         <f>Features!C409</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="17">
         <f>Features!C410</f>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44331.284552845529</v>
+        <v>44325.354838709674</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="233">
   <si>
     <t>Feature</t>
   </si>
@@ -95,15 +95,9 @@
     <t>line-oriented model</t>
   </si>
   <si>
-    <t>styles</t>
-  </si>
-  <si>
     <t>caret</t>
   </si>
   <si>
-    <t>selection</t>
-  </si>
-  <si>
     <t>line wrapping</t>
   </si>
   <si>
@@ -431,12 +425,6 @@
     <t>correctly highlights selection of LTR + RTL text</t>
   </si>
   <si>
-    <t>content pane</t>
-  </si>
-  <si>
-    <t>caret line</t>
-  </si>
-  <si>
     <t>adjusts horizontal scroll bar when needed</t>
   </si>
   <si>
@@ -708,6 +696,27 @@
   </si>
   <si>
     <t>line number color</t>
+  </si>
+  <si>
+    <t>cell styles</t>
+  </si>
+  <si>
+    <t>text color</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>strike through</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -967,7 +976,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955424"/>
+          <c:w val="0.91978071330955435"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1023,7 +1032,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1062,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1118,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1148,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1204,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +1290,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,11 +1332,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157076864"/>
-        <c:axId val="156902528"/>
+        <c:axId val="167038336"/>
+        <c:axId val="166864000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="157076864"/>
+        <c:axId val="167038336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156902528"/>
+        <c:crossAx val="166864000"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1370,7 +1379,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156902528"/>
+        <c:axId val="166864000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157076864"/>
+        <c:crossAx val="167038336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,7 +1444,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218542"/>
+          <c:y val="0.33819556996218547"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1556,7 +1565,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127838E-2"/>
+          <c:x val="4.4510450248127852E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1614,7 +1623,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,17 +1653,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52100840336134457</c:v>
+                  <c:v>0.5541666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156926336"/>
-        <c:axId val="156927872"/>
+        <c:axId val="166887808"/>
+        <c:axId val="166889344"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="156926336"/>
+        <c:axId val="166887808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,13 +1671,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156927872"/>
+        <c:crossAx val="166889344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156927872"/>
+        <c:axId val="166889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1711,7 +1720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156926336"/>
+        <c:crossAx val="166887808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1834,7 +1843,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1873,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,7 +1929,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43976</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,11 +1965,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156952832"/>
-        <c:axId val="157356032"/>
+        <c:axId val="166914304"/>
+        <c:axId val="167182336"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="156952832"/>
+        <c:axId val="166914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +2002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157356032"/>
+        <c:crossAx val="167182336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2002,7 +2011,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157356032"/>
+        <c:axId val="167182336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156952832"/>
+        <c:crossAx val="166914304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,10 +2560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2567,7 +2576,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2634,7 +2643,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -2643,7 +2652,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2652,7 +2661,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2666,7 +2675,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2675,7 +2684,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2689,7 +2698,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2698,7 +2707,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2707,7 +2716,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2716,7 +2725,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2725,7 +2734,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2749,7 +2758,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
@@ -2761,7 +2770,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2770,7 +2779,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2779,7 +2788,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2788,7 +2797,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2797,7 +2806,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2806,7 +2815,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2815,7 +2824,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2824,7 +2833,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2833,7 +2842,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2841,7 +2850,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2849,7 +2858,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2857,7 +2866,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2865,7 +2874,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2873,7 +2882,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2881,7 +2890,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2889,7 +2898,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2897,7 +2906,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2905,7 +2914,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2934,7 +2943,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -2946,7 +2955,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2955,7 +2964,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2964,7 +2973,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2973,7 +2982,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2982,7 +2991,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -2991,7 +3000,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3000,7 +3009,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3009,7 +3018,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3018,7 +3027,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3027,7 +3036,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3036,7 +3045,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3045,7 +3054,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3054,7 +3063,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3086,7 +3095,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3095,7 +3104,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3104,7 +3113,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3113,7 +3122,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3127,7 +3136,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -3136,7 +3145,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3145,7 +3154,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3154,7 +3163,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3168,7 +3177,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -3177,7 +3186,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -3191,7 +3200,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3200,7 +3209,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3213,7 +3222,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -3227,7 +3236,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3261,7 +3270,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
@@ -3273,7 +3282,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3282,7 +3291,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3291,7 +3300,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3300,7 +3309,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3309,7 +3318,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3318,7 +3327,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3377,7 +3386,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="4"/>
@@ -3389,7 +3398,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3398,7 +3407,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3411,15 +3420,17 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="7"/>
+      <c r="B115" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="20" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3427,8 +3438,8 @@
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="23" t="s">
-        <v>214</v>
+      <c r="B117" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3437,7 +3448,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3445,8 +3456,8 @@
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="23" t="s">
-        <v>107</v>
+      <c r="B119" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3454,8 +3465,8 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="23" t="s">
-        <v>212</v>
+      <c r="B120" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3463,31 +3474,29 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B123" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>2</v>
@@ -3495,8 +3504,8 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
-        <v>215</v>
+      <c r="B125" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3504,8 +3513,8 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="23" t="s">
-        <v>216</v>
+      <c r="B126" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>2</v>
@@ -3513,13 +3522,17 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22" t="s">
-        <v>195</v>
+      <c r="B128" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3527,13 +3540,13 @@
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3542,51 +3555,51 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="20" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="20" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22" t="s">
-        <v>83</v>
+      <c r="B134" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="22" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -3597,21 +3610,25 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="22" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22"/>
-      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="27" t="s">
-        <v>154</v>
+      <c r="B140" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3619,17 +3636,13 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B141" s="22"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20" t="s">
-        <v>150</v>
+      <c r="B142" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3637,63 +3650,63 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="27" t="s">
-        <v>26</v>
+      <c r="B144" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
-        <v>109</v>
+      <c r="B146" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B147" s="22"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="20" t="s">
-        <v>165</v>
+      <c r="B148" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="27" t="s">
-        <v>25</v>
+      <c r="B150" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3701,49 +3714,49 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
-        <v>26</v>
+      <c r="B152" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="20" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="27" t="s">
-        <v>29</v>
+      <c r="B156" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3751,26 +3764,22 @@
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="7" t="s">
+      <c r="B157" s="22"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3779,16 +3788,16 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3797,7 +3806,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>2</v>
@@ -3806,7 +3815,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -3815,7 +3824,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3823,13 +3832,17 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20"/>
-      <c r="C165" s="9"/>
+      <c r="B165" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="27" t="s">
-        <v>30</v>
+      <c r="B166" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3837,17 +3850,13 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="9"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>47</v>
+      <c r="B168" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3856,7 +3865,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="20" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3865,7 +3874,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -3874,7 +3883,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -3883,7 +3892,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -3891,13 +3900,21 @@
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
@@ -3921,9 +3938,7 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B179" s="22"/>
       <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
@@ -3933,12 +3948,10 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B181" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="7"/>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
@@ -3947,8 +3960,8 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="27" t="s">
-        <v>43</v>
+      <c r="B183" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>2</v>
@@ -3956,17 +3969,13 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="23" t="s">
-        <v>42</v>
+      <c r="B185" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>2</v>
@@ -3974,17 +3983,17 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23" t="s">
-        <v>156</v>
+      <c r="B186" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
-        <v>117</v>
+      <c r="B187" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>2</v>
@@ -3993,7 +4002,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="23" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>14</v>
@@ -4002,7 +4011,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="20" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4011,21 +4020,25 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="23" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20"/>
-      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>46</v>
+      <c r="B192" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4033,22 +4046,22 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C193" s="7" t="s">
+      <c r="B193" s="20"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22"/>
-      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>53</v>
+      <c r="B195" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4056,22 +4069,22 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C196" s="7" t="s">
+      <c r="B196" s="22"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20"/>
-      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>54</v>
+      <c r="B198" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4079,86 +4092,86 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C199" s="7" t="s">
+      <c r="B199" s="20"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C200" s="7" t="s">
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20" t="s">
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="22"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="2:4" s="6" customFormat="1">
+      <c r="B205" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="22"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20" t="s">
-        <v>97</v>
+      <c r="B209" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>2</v>
@@ -4166,38 +4179,34 @@
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="20"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C211" s="7"/>
+      <c r="B211" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B213" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="23" t="s">
-        <v>45</v>
+      <c r="B214" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>14</v>
@@ -4205,8 +4214,8 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20" t="s">
-        <v>158</v>
+      <c r="B215" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>14</v>
@@ -4214,36 +4223,40 @@
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="22"/>
-      <c r="C216" s="7"/>
+      <c r="B216" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="20" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="22"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20" t="s">
-        <v>58</v>
+      <c r="B220" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4251,22 +4264,22 @@
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="23" t="s">
+      <c r="B221" s="22"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="22"/>
-      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20" t="s">
-        <v>60</v>
+      <c r="B223" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>2</v>
@@ -4274,22 +4287,22 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C224" s="7" t="s">
+      <c r="B224" s="22"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C225" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20"/>
-      <c r="C225" s="7"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="27" t="s">
-        <v>160</v>
+      <c r="B226" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2</v>
@@ -4297,17 +4310,13 @@
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20" t="s">
-        <v>163</v>
+      <c r="B228" s="27" t="s">
+        <v>156</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>2</v>
@@ -4316,7 +4325,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -4324,13 +4333,17 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20"/>
-      <c r="C230" s="7"/>
+      <c r="B230" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="27" t="s">
-        <v>98</v>
+      <c r="B231" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>2</v>
@@ -4338,17 +4351,13 @@
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20" t="s">
-        <v>115</v>
+      <c r="B233" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2</v>
@@ -4356,13 +4365,21 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="22"/>
-      <c r="C234" s="7"/>
+      <c r="B234" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="22"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
@@ -4371,9 +4388,7 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="B237" s="22"/>
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
@@ -4383,31 +4398,29 @@
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C239" s="7" t="s">
+      <c r="B239" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="22"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D240" s="4"/>
-    </row>
-    <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="20"/>
-      <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="22" t="s">
-        <v>72</v>
+      <c r="B242" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>2</v>
@@ -4415,22 +4428,22 @@
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C243" s="7" t="s">
+      <c r="B243" s="20"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C244" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="22"/>
-      <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="22" t="s">
-        <v>188</v>
+      <c r="B245" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -4438,22 +4451,22 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C246" s="7" t="s">
+      <c r="B246" s="22"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C247" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="22"/>
-      <c r="C247" s="7"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="22" t="s">
-        <v>189</v>
+      <c r="B248" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4461,22 +4474,22 @@
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C249" s="7" t="s">
+      <c r="B249" s="22"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C250" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="22"/>
-      <c r="C250" s="7"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="22" t="s">
-        <v>190</v>
+      <c r="B251" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -4484,22 +4497,22 @@
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C252" s="7" t="s">
+      <c r="B252" s="22"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C253" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="22"/>
-      <c r="C253" s="7"/>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="22" t="s">
-        <v>185</v>
+      <c r="B254" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>2</v>
@@ -4507,22 +4520,22 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C255" s="7" t="s">
+      <c r="B255" s="22"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C256" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="4"/>
-    </row>
-    <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="22"/>
-      <c r="C256" s="7"/>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="22" t="s">
-        <v>207</v>
+      <c r="B257" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -4530,22 +4543,22 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C258" s="7" t="s">
+      <c r="B258" s="22"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" s="6" customFormat="1">
+      <c r="B259" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C259" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="4"/>
-    </row>
-    <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="22"/>
-      <c r="C259" s="7"/>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="22" t="s">
-        <v>208</v>
+      <c r="B260" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>2</v>
@@ -4553,17 +4566,13 @@
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B261" s="22"/>
+      <c r="C261" s="7"/>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="20" t="s">
-        <v>223</v>
+      <c r="B262" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>2</v>
@@ -4571,13 +4580,17 @@
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="22"/>
-      <c r="C263" s="7"/>
+      <c r="B263" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="22" t="s">
-        <v>70</v>
+      <c r="B264" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4585,22 +4598,22 @@
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C265" s="7" t="s">
+      <c r="B265" s="22"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C266" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="4"/>
-    </row>
-    <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="22"/>
-      <c r="C266" s="7"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="22" t="s">
-        <v>69</v>
+      <c r="B267" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4608,22 +4621,26 @@
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C268" s="7" t="s">
+      <c r="B268" s="22"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22"/>
-      <c r="C269" s="7"/>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22"/>
-      <c r="C270" s="7"/>
+      <c r="B270" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
@@ -4652,58 +4669,52 @@
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="20"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="7"/>
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="19"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="7"/>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="4"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="B279" s="19"/>
       <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="2:4">
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="4"/>
       <c r="C280" s="7"/>
-    </row>
-    <row r="281" spans="2:4">
-      <c r="B281" s="43" t="s">
-        <v>101</v>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C281" s="7"/>
+      <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4">
       <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:4">
-      <c r="B283" t="s">
-        <v>65</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B283" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" s="7"/>
     </row>
     <row r="284" spans="2:4">
-      <c r="B284" t="s">
-        <v>66</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C284" s="7"/>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>2</v>
@@ -4711,7 +4722,7 @@
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>2</v>
@@ -4719,7 +4730,7 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>2</v>
@@ -4727,7 +4738,7 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>2</v>
@@ -4735,7 +4746,7 @@
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>2</v>
@@ -4743,7 +4754,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
@@ -4751,68 +4762,78 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>71</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>72</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
-        <v>73</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>14</v>
+      <c r="B294" t="s">
+        <v>70</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="45" t="s">
-        <v>82</v>
+      <c r="B295" t="s">
+        <v>71</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="45" t="s">
-        <v>96</v>
+      <c r="B296" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="44"/>
-      <c r="C297" s="9"/>
+      <c r="B297" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="44"/>
-      <c r="C298" s="9"/>
+      <c r="B298" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" s="44"/>
       <c r="C299" s="9"/>
     </row>
     <row r="300" spans="2:3">
+      <c r="B300" s="44"/>
       <c r="C300" s="9"/>
     </row>
     <row r="301" spans="2:3">
+      <c r="B301" s="44"/>
       <c r="C301" s="9"/>
     </row>
     <row r="302" spans="2:3">
@@ -4822,33 +4843,23 @@
       <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="43" t="s">
-        <v>102</v>
-      </c>
       <c r="C304" s="9"/>
     </row>
     <row r="305" spans="2:3">
       <c r="C305" s="9"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" t="s">
-        <v>90</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B306" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" t="s">
-        <v>91</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>14</v>
@@ -4856,7 +4867,7 @@
     </row>
     <row r="309" spans="2:3">
       <c r="B309" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>14</v>
@@ -4864,7 +4875,7 @@
     </row>
     <row r="310" spans="2:3">
       <c r="B310" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>14</v>
@@ -4872,7 +4883,7 @@
     </row>
     <row r="311" spans="2:3">
       <c r="B311" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>14</v>
@@ -4880,46 +4891,46 @@
     </row>
     <row r="312" spans="2:3">
       <c r="B312" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="313" spans="2:3">
-      <c r="C313" s="9"/>
+      <c r="B313" t="s">
+        <v>93</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="314" spans="2:3">
-      <c r="C314" s="9"/>
+      <c r="B314" t="s">
+        <v>106</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="315" spans="2:3">
       <c r="C315" s="9"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C316" s="9"/>
     </row>
-    <row r="330" spans="2:3">
-      <c r="B330" t="s">
-        <v>64</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="317" spans="2:3">
+      <c r="C317" s="9"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C318" s="9"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="44" t="s">
-        <v>166</v>
+      <c r="B332" t="s">
+        <v>62</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>14</v>
@@ -4927,39 +4938,44 @@
     </row>
     <row r="333" spans="2:3">
       <c r="B333" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C333" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C333" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="44"/>
-      <c r="C334" s="7"/>
+      <c r="B334" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" t="s">
-        <v>75</v>
-      </c>
-      <c r="C335" s="7" t="s">
+      <c r="B335" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C335" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="336" spans="2:3">
-      <c r="C336" s="9"/>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C337" s="9" t="s">
+      <c r="B336" s="44"/>
+      <c r="C336" s="7"/>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" t="s">
+        <v>73</v>
+      </c>
+      <c r="C337" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="2:3">
       <c r="C338" s="9"/>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="2:3">
       <c r="B339" s="45" t="s">
         <v>78</v>
       </c>
@@ -4967,102 +4983,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
-      <c r="B340" t="s">
-        <v>79</v>
-      </c>
-      <c r="C340" s="9" t="s">
+    <row r="340" spans="2:3">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C341" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
-      <c r="C341" s="9"/>
-    </row>
-    <row r="342" spans="2:4">
+    <row r="342" spans="2:3">
       <c r="B342" t="s">
-        <v>134</v>
-      </c>
-      <c r="C342" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C342" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="2:4">
+    <row r="343" spans="2:3">
       <c r="C343" s="9"/>
     </row>
-    <row r="344" spans="2:4">
+    <row r="344" spans="2:3">
       <c r="B344" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
-      <c r="B345" t="s">
-        <v>40</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4">
+    <row r="345" spans="2:3">
+      <c r="C345" s="9"/>
+    </row>
+    <row r="346" spans="2:3">
       <c r="B346" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
-      <c r="C347" s="9"/>
-    </row>
-    <row r="348" spans="2:4">
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>38</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
       <c r="B348" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
-      <c r="B349" t="s">
-        <v>77</v>
-      </c>
-      <c r="C349" s="7" t="s">
+    <row r="349" spans="2:3">
+      <c r="C349" s="9"/>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" t="s">
+        <v>74</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
-      <c r="C350" s="9"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C351" s="7"/>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C352" s="7" t="s">
+    <row r="351" spans="2:3">
+      <c r="B351" t="s">
+        <v>75</v>
+      </c>
+      <c r="C351" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D352" s="4"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B353" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -5071,7 +5080,7 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5080,7 +5089,7 @@
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>14</v>
@@ -5088,13 +5097,17 @@
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="7"/>
+      <c r="B357" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>131</v>
+      <c r="B358" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5102,22 +5115,22 @@
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C359" s="7" t="s">
+      <c r="B359" s="22"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C360" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22"/>
-      <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
       <c r="B361" s="22" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
@@ -5125,51 +5138,47 @@
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22" t="s">
-        <v>168</v>
-      </c>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="2:4">
-      <c r="C363" s="9"/>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="C364" s="9"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="3" t="s">
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4">
+      <c r="C365" s="9"/>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="C366" s="9"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C366" s="7"/>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="7"/>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C368" s="7"/>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
       <c r="B370" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>14</v>
@@ -5178,21 +5187,25 @@
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
       <c r="B371" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C371" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C372" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22"/>
-      <c r="C372" s="7"/>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
       <c r="B373" s="22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>14</v>
@@ -5200,22 +5213,22 @@
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C374" s="7" t="s">
+      <c r="B374" s="22"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C375" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="7"/>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
       <c r="B376" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>14</v>
@@ -5223,17 +5236,13 @@
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B377" s="22"/>
+      <c r="C377" s="7"/>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
       <c r="B378" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>14</v>
@@ -5241,13 +5250,17 @@
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>14</v>
@@ -5261,7 +5274,7 @@
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
       <c r="B382" s="22" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>14</v>
@@ -5275,7 +5288,7 @@
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -5288,8 +5301,12 @@
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
+      <c r="B386" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
@@ -5298,12 +5315,8 @@
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B388" s="22"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
@@ -5312,8 +5325,8 @@
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22" t="s">
-        <v>143</v>
+      <c r="B390" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5327,7 +5340,7 @@
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
       <c r="B392" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>14</v>
@@ -5335,17 +5348,13 @@
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B393" s="22"/>
+      <c r="C393" s="7"/>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
       <c r="B394" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>14</v>
@@ -5353,13 +5362,17 @@
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="22"/>
-      <c r="C395" s="7"/>
+      <c r="B395" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5367,22 +5380,22 @@
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C397" s="7" t="s">
+      <c r="B397" s="22"/>
+      <c r="C397" s="7"/>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C398" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D397" s="4"/>
-    </row>
-    <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="22"/>
-      <c r="C398" s="7"/>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5395,8 +5408,12 @@
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
+      <c r="B401" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" s="6" customFormat="1">
@@ -5406,94 +5423,104 @@
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
       <c r="B403" s="22"/>
-      <c r="C403" s="4"/>
+      <c r="C403" s="7"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" s="6" customFormat="1">
-      <c r="B404" s="19"/>
-      <c r="C404" s="4"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="7"/>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" s="6" customFormat="1">
-      <c r="B405" s="21"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="1:4" s="6" customFormat="1">
-      <c r="B406" s="21"/>
+      <c r="B406" s="19"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="3"/>
-      <c r="B407" s="11"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="3"/>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="3"/>
-      <c r="B408" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C408" s="6">
-        <f>COUNTIF(C5:C407,"y")</f>
-        <v>124</v>
-      </c>
-      <c r="D408" s="2"/>
+    <row r="407" spans="1:4" s="6" customFormat="1">
+      <c r="B407" s="21"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+    </row>
+    <row r="408" spans="1:4" s="6" customFormat="1">
+      <c r="B408" s="21"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="3"/>
-      <c r="B409" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C409" s="6">
-        <f>COUNTIF(C5:C407,"n")</f>
-        <v>114</v>
-      </c>
-      <c r="D409" s="2"/>
+      <c r="B409" s="11"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="3"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="3"/>
       <c r="B410" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C410" s="7">
-        <f>COUNTIF(C5:C407,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C410" s="6">
+        <f>COUNTIF(C5:C409,"y")</f>
+        <v>133</v>
       </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="3"/>
       <c r="B411" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C411">
-        <f>SUM(C408:C410)</f>
-        <v>238</v>
+        <v>7</v>
+      </c>
+      <c r="C411" s="6">
+        <f>COUNTIF(C5:C409,"n")</f>
+        <v>107</v>
       </c>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" ht="18">
+    <row r="412" spans="1:4">
       <c r="A412" s="3"/>
-      <c r="B412" s="10"/>
-      <c r="C412" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D412" s="41">
-        <f>C408/(C409+C408 + C410)</f>
-        <v>0.52100840336134457</v>
-      </c>
+      <c r="B412" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C412" s="7">
+        <f>COUNTIF(C5:C409,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D412" s="2"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="3"/>
+      <c r="B413" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C413">
+        <f>SUM(C410:C412)</f>
+        <v>240</v>
+      </c>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4" ht="18">
+      <c r="A414" s="3"/>
+      <c r="B414" s="10"/>
+      <c r="C414" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" s="41">
+        <f>C410/(C411+C410 + C412)</f>
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="3"/>
+      <c r="B415" s="11"/>
+      <c r="C415" s="11"/>
+      <c r="D415" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C330:C364 C366:C65161 C1:C3 C6:C316">
+  <conditionalFormatting sqref="C332:C366 C368:C65163 C1:C3 C6:C318">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5541,7 +5568,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5896,16 +5923,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B54" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4">
-        <v>114</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -5913,7 +5940,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.52100840336134457</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -5958,25 +5985,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.52100840336134457</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C408</f>
-        <v>124</v>
+        <f>Features!C410</f>
+        <v>133</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C409</f>
-        <v>114</v>
+        <f>Features!C411</f>
+        <v>107</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C410</f>
+        <f>Features!C412</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6020,11 +6047,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44325.354838709674</v>
+        <v>44283.518796992481</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="235">
   <si>
     <t>Feature</t>
   </si>
@@ -116,9 +116,6 @@
     <t>get line count</t>
   </si>
   <si>
-    <t>get load info</t>
-  </si>
-  <si>
     <t>get search text</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>clears existing selection, selects from anchor to the mouse pointer</t>
   </si>
   <si>
-    <t>shift right mouse click shows a popup menu</t>
-  </si>
-  <si>
     <t>expand selection shape of the first/last line to the left/right border, considering LTR/RTL</t>
   </si>
   <si>
@@ -716,7 +710,19 @@
     <t>strike through</t>
   </si>
   <si>
-    <t>s</t>
+    <t>displays loading progress</t>
+  </si>
+  <si>
+    <t>restricts thumb movement up to loaded fraction of the model</t>
+  </si>
+  <si>
+    <t>scrolls faster when moved further away</t>
+  </si>
+  <si>
+    <t>load status property</t>
+  </si>
+  <si>
+    <t>performant with long lines (1M+)</t>
   </si>
 </sst>
 </file>
@@ -937,7 +943,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -976,7 +1003,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955435"/>
+          <c:w val="0.91978071330955447"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1032,7 +1059,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,7 +1089,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1145,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,7 +1175,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,7 +1231,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1317,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1359,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="167038336"/>
-        <c:axId val="166864000"/>
+        <c:axId val="155635072"/>
+        <c:axId val="155395200"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="167038336"/>
+        <c:axId val="155635072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166864000"/>
+        <c:crossAx val="155395200"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1379,7 +1406,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166864000"/>
+        <c:axId val="155395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167038336"/>
+        <c:crossAx val="155635072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,7 +1471,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218547"/>
+          <c:y val="0.33819556996218553"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1565,7 +1592,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127852E-2"/>
+          <c:x val="4.4510450248127865E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1623,7 +1650,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,17 +1680,17 @@
                   <c:v>0.22093023255813954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5541666666666667</c:v>
+                  <c:v>0.5901639344262295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166887808"/>
-        <c:axId val="166889344"/>
+        <c:axId val="155419008"/>
+        <c:axId val="155420544"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166887808"/>
+        <c:axId val="155419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,13 +1698,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="166889344"/>
+        <c:crossAx val="155420544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166889344"/>
+        <c:axId val="155420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1720,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166887808"/>
+        <c:crossAx val="155419008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1843,7 +1870,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +1900,7 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1956,7 @@
                   <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,11 +1992,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166914304"/>
-        <c:axId val="167182336"/>
+        <c:axId val="155445504"/>
+        <c:axId val="155979776"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166914304"/>
+        <c:axId val="155445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167182336"/>
+        <c:crossAx val="155979776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2011,7 +2038,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167182336"/>
+        <c:axId val="155979776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166914304"/>
+        <c:crossAx val="155445504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2560,10 +2587,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2576,7 +2603,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2628,31 +2655,31 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
+      <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="B11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
-      <c r="B12" s="22" t="s">
-        <v>165</v>
+      <c r="B12" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2660,8 +2687,8 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="20" t="s">
-        <v>98</v>
+      <c r="B13" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2669,22 +2696,22 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2692,22 +2719,22 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2716,7 +2743,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2725,7 +2752,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2734,7 +2761,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2742,8 +2769,12 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
@@ -2757,29 +2788,25 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
+      <c r="B27" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2788,7 +2815,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2797,7 +2824,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2806,7 +2833,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2815,7 +2842,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2824,7 +2851,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2833,24 +2860,25 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>170</v>
+    <row r="36" spans="2:4" s="6" customFormat="1">
+      <c r="B36" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2858,7 +2886,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2866,7 +2894,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2874,7 +2902,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2882,7 +2910,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2890,7 +2918,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2898,7 +2926,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2906,24 +2934,27 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22" t="s">
-        <v>187</v>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>176</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="6" customFormat="1">
+      <c r="B46" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
@@ -2942,29 +2973,25 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="B50" s="22"/>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
+      <c r="B51" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="22" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -2973,7 +3000,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2982,16 +3009,16 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3000,7 +3027,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3009,7 +3036,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3018,7 +3045,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3027,7 +3054,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3036,7 +3063,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3054,7 +3081,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3063,7 +3090,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3071,31 +3098,31 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3104,7 +3131,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3113,7 +3140,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3122,7 +3149,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3130,22 +3157,22 @@
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="22" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>14</v>
@@ -3154,7 +3181,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3163,7 +3190,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3171,22 +3198,22 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -3194,22 +3221,22 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3217,35 +3244,39 @@
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="C83" s="7"/>
+      <c r="B83" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
@@ -3269,29 +3300,25 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="B92" s="22"/>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
+      <c r="B93" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3300,7 +3327,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3309,7 +3336,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3318,7 +3345,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3327,7 +3354,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3335,8 +3362,12 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
@@ -3385,29 +3416,25 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="B110" s="22"/>
       <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
+      <c r="B111" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -3415,22 +3442,22 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="20" t="s">
-        <v>227</v>
+      <c r="B116" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3439,7 +3466,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="20" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3448,7 +3475,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3457,7 +3484,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3466,7 +3493,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3475,7 +3502,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3483,29 +3510,29 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="27" t="s">
-        <v>209</v>
-      </c>
+      <c r="B123" s="22"/>
       <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B124" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="23" t="s">
-        <v>210</v>
+      <c r="B125" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3513,8 +3540,8 @@
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20" t="s">
-        <v>207</v>
+      <c r="B126" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>2</v>
@@ -3522,8 +3549,8 @@
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="23" t="s">
-        <v>105</v>
+      <c r="B127" s="20" t="s">
+        <v>205</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>2</v>
@@ -3532,7 +3559,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="23" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3540,22 +3567,22 @@
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20"/>
-      <c r="C129" s="7"/>
+      <c r="B129" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20" t="s">
-        <v>190</v>
+      <c r="B131" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -3564,7 +3591,7 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="20" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
@@ -3581,8 +3608,8 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
-        <v>212</v>
+      <c r="B134" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -3590,45 +3617,45 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20"/>
-      <c r="C135" s="7"/>
+      <c r="B135" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="20"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22"/>
-      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="22"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="20" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3636,22 +3663,22 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="22"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3660,7 +3687,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3668,36 +3695,36 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
-        <v>103</v>
+      <c r="B149" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3706,7 +3733,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3714,22 +3741,22 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20"/>
-      <c r="C151" s="7"/>
+      <c r="B151" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="20"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -3747,7 +3774,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>2</v>
@@ -3756,7 +3783,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3764,22 +3791,22 @@
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="27" t="s">
+      <c r="B158" s="22"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" s="6" customFormat="1">
+      <c r="B159" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3788,25 +3815,25 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>2</v>
@@ -3824,7 +3851,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3833,7 +3860,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="20" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -3842,7 +3869,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3850,13 +3877,17 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20"/>
-      <c r="C167" s="9"/>
+      <c r="B167" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="27" t="s">
-        <v>28</v>
+      <c r="B168" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3865,7 +3896,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="20" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3873,17 +3904,13 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20" t="s">
-        <v>47</v>
+      <c r="B171" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -3892,7 +3919,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -3901,7 +3928,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>2</v>
@@ -3910,7 +3937,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>2</v>
@@ -3918,18 +3945,30 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
@@ -3948,9 +3987,7 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B181" s="22"/>
       <c r="C181" s="7"/>
       <c r="D181" s="4"/>
     </row>
@@ -3960,31 +3997,25 @@
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B183" s="22"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
+      <c r="B184" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B185" s="22"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>41</v>
+      <c r="B186" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>2</v>
@@ -3992,26 +4023,22 @@
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C188" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="20" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4020,25 +4047,25 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="23" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C190" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="23" t="s">
-        <v>215</v>
+      <c r="B192" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4046,13 +4073,17 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4061,7 +4092,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="23" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4069,13 +4100,13 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -4084,7 +4115,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4092,13 +4123,13 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>2</v>
@@ -4107,7 +4138,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>2</v>
@@ -4115,22 +4146,22 @@
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="7"/>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="20" t="s">
-        <v>55</v>
+      <c r="B204" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4139,7 +4170,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4148,10 +4179,10 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D206" s="4"/>
     </row>
@@ -4162,7 +4193,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>2</v>
@@ -4171,7 +4202,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>2</v>
@@ -4179,13 +4210,17 @@
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
+      <c r="B210" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20" t="s">
-        <v>95</v>
+      <c r="B211" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>2</v>
@@ -4193,61 +4228,57 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="7"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C213" s="7"/>
+      <c r="B213" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20" t="s">
-        <v>42</v>
+      <c r="B214" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B215" s="22"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="23" t="s">
-        <v>43</v>
+      <c r="B216" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="22"/>
+      <c r="B218" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="C218" s="7"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>2</v>
@@ -4256,7 +4287,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4264,22 +4295,22 @@
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="7"/>
+      <c r="B221" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B222" s="22"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="23" t="s">
-        <v>54</v>
+      <c r="B223" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>2</v>
@@ -4287,22 +4318,22 @@
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="7"/>
+      <c r="B224" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B225" s="22"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="23" t="s">
-        <v>54</v>
+      <c r="B226" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2</v>
@@ -4310,22 +4341,22 @@
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="20"/>
-      <c r="C227" s="7"/>
+      <c r="B227" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B228" s="22"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="20" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -4333,8 +4364,8 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20" t="s">
-        <v>159</v>
+      <c r="B230" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2</v>
@@ -4342,22 +4373,22 @@
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C231" s="7" t="s">
+      <c r="B231" s="20"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C232" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20"/>
-      <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="27" t="s">
-        <v>96</v>
+      <c r="B233" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2</v>
@@ -4366,7 +4397,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="20" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4375,7 +4406,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4383,25 +4414,35 @@
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="22"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="22"/>
-      <c r="C237" s="7"/>
+      <c r="B237" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="22"/>
-      <c r="C238" s="7"/>
+      <c r="B238" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C239" s="7"/>
+      <c r="B239" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
@@ -4410,40 +4451,30 @@
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B241" s="22"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B242" s="22"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="20"/>
+      <c r="B243" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C243" s="7"/>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B244" s="22"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="20" t="s">
-        <v>201</v>
+      <c r="B245" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -4451,22 +4482,22 @@
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="22"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B247" s="20"/>
+      <c r="C247" s="7"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="20" t="s">
-        <v>201</v>
+      <c r="B248" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4474,22 +4505,22 @@
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="22"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B250" s="22"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="20" t="s">
-        <v>201</v>
+      <c r="B251" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -4497,22 +4528,22 @@
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="22"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B253" s="22"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="20" t="s">
-        <v>202</v>
+      <c r="B254" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>2</v>
@@ -4520,22 +4551,22 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="22"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B256" s="22"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="20" t="s">
-        <v>202</v>
+      <c r="B257" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -4543,22 +4574,22 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="22"/>
-      <c r="C258" s="7"/>
+      <c r="B258" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B259" s="22"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="20" t="s">
-        <v>201</v>
+      <c r="B260" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>2</v>
@@ -4566,21 +4597,21 @@
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="22"/>
-      <c r="C261" s="7"/>
+      <c r="B261" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B262" s="22"/>
+      <c r="C262" s="7"/>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="20" t="s">
+      <c r="B263" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C263" s="7" t="s">
@@ -4590,7 +4621,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="20" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4604,7 +4635,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="22" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>2</v>
@@ -4613,7 +4644,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4621,22 +4652,22 @@
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="22"/>
-      <c r="C268" s="7"/>
+      <c r="B268" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22" t="s">
+      <c r="B269" s="22"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>2</v>
@@ -4644,8 +4675,12 @@
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="22"/>
-      <c r="C271" s="7"/>
+      <c r="B271" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
@@ -4654,13 +4689,21 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22"/>
-      <c r="C273" s="7"/>
+      <c r="B273" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="7"/>
+      <c r="B274" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
@@ -4679,74 +4722,62 @@
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="20"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="19"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="4"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="7"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="B281" s="22"/>
       <c r="C281" s="7"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="2:4">
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="20"/>
       <c r="C282" s="7"/>
-    </row>
-    <row r="283" spans="2:4">
-      <c r="B283" s="43" t="s">
-        <v>99</v>
-      </c>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="19"/>
       <c r="C283" s="7"/>
-    </row>
-    <row r="284" spans="2:4">
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="4"/>
       <c r="C284" s="7"/>
-    </row>
-    <row r="285" spans="2:4">
-      <c r="B285" t="s">
-        <v>63</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C285" s="7"/>
+      <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4">
-      <c r="B286" t="s">
-        <v>64</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C286" s="7"/>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" t="s">
-        <v>65</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B287" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C287" s="7"/>
     </row>
     <row r="288" spans="2:4">
-      <c r="B288" t="s">
-        <v>66</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C288" s="7"/>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>2</v>
@@ -4754,7 +4785,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
@@ -4762,7 +4793,7 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>2</v>
@@ -4770,7 +4801,7 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>2</v>
@@ -4778,7 +4809,7 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>2</v>
@@ -4786,7 +4817,7 @@
     </row>
     <row r="294" spans="2:3">
       <c r="B294" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
@@ -4794,104 +4825,104 @@
     </row>
     <row r="295" spans="2:3">
       <c r="B295" t="s">
+        <v>66</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" t="s">
+        <v>67</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" t="s">
+        <v>68</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" t="s">
+        <v>69</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" t="s">
+        <v>70</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C300" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="2:3">
-      <c r="B296" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C296" s="9" t="s">
+    <row r="301" spans="2:3">
+      <c r="B301" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="2:3">
-      <c r="B297" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C297" s="9" t="s">
+    <row r="302" spans="2:3">
+      <c r="B302" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C302" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="2:3">
-      <c r="B298" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3">
-      <c r="B299" s="44"/>
-      <c r="C299" s="9"/>
-    </row>
-    <row r="300" spans="2:3">
-      <c r="B300" s="44"/>
-      <c r="C300" s="9"/>
-    </row>
-    <row r="301" spans="2:3">
-      <c r="B301" s="44"/>
-      <c r="C301" s="9"/>
-    </row>
-    <row r="302" spans="2:3">
-      <c r="C302" s="9"/>
-    </row>
     <row r="303" spans="2:3">
+      <c r="B303" s="44"/>
       <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
+      <c r="B304" s="44"/>
       <c r="C304" s="9"/>
     </row>
     <row r="305" spans="2:3">
+      <c r="B305" s="44"/>
       <c r="C305" s="9"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="43" t="s">
-        <v>100</v>
-      </c>
       <c r="C306" s="9"/>
     </row>
     <row r="307" spans="2:3">
       <c r="C307" s="9"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" t="s">
-        <v>88</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" t="s">
-        <v>89</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" t="s">
-        <v>90</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B310" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" t="s">
-        <v>91</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" spans="2:3">
       <c r="B312" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>14</v>
@@ -4899,7 +4930,7 @@
     </row>
     <row r="313" spans="2:3">
       <c r="B313" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>14</v>
@@ -4907,76 +4938,85 @@
     </row>
     <row r="314" spans="2:3">
       <c r="B314" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="315" spans="2:3">
-      <c r="C315" s="9"/>
+      <c r="B315" t="s">
+        <v>90</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="316" spans="2:3">
-      <c r="C316" s="9"/>
+      <c r="B316" t="s">
+        <v>91</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="317" spans="2:3">
-      <c r="C317" s="9"/>
+      <c r="B317" t="s">
+        <v>92</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C318" s="9"/>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>62</v>
-      </c>
-      <c r="C332" s="7" t="s">
+      <c r="B318" t="s">
+        <v>105</v>
+      </c>
+      <c r="C318" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="2:3">
-      <c r="B333" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C333" s="7" t="s">
+    <row r="319" spans="2:3">
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="C321" s="9"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C322" s="9"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>61</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="2:3">
-      <c r="B334" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3">
-      <c r="B335" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="B336" s="44"/>
-      <c r="C336" s="7"/>
-    </row>
     <row r="337" spans="2:3">
-      <c r="B337" t="s">
-        <v>73</v>
+      <c r="B337" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="338" spans="2:3">
-      <c r="C338" s="9"/>
+      <c r="B338" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="45" t="s">
+      <c r="B339" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C339" s="9" t="s">
@@ -4984,57 +5024,53 @@
       </c>
     </row>
     <row r="340" spans="2:3">
-      <c r="C340" s="9"/>
+      <c r="B340" s="44"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C341" s="9" t="s">
+      <c r="B341" t="s">
+        <v>72</v>
+      </c>
+      <c r="C341" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" t="s">
+      <c r="C342" s="9"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C343" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="2:3">
-      <c r="C343" s="9"/>
-    </row>
     <row r="344" spans="2:3">
-      <c r="B344" t="s">
-        <v>132</v>
-      </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="9"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C345" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="345" spans="2:3">
-      <c r="C345" s="9"/>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" t="s">
-        <v>37</v>
-      </c>
-      <c r="C346" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C346" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" t="s">
-        <v>38</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" spans="2:3">
       <c r="B348" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
@@ -5045,7 +5081,7 @@
     </row>
     <row r="350" spans="2:3">
       <c r="B350" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -5053,61 +5089,52 @@
     </row>
     <row r="351" spans="2:3">
       <c r="B351" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="352" spans="2:3">
-      <c r="C352" s="9"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C353" s="7"/>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="20" t="s">
-        <v>119</v>
+      <c r="B352" t="s">
+        <v>38</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="C353" s="9"/>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="B354" t="s">
+        <v>73</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="20" t="s">
-        <v>120</v>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" t="s">
+        <v>74</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D356" s="4"/>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="20" t="s">
+      <c r="B357" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C357" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5115,13 +5142,17 @@
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="7"/>
+      <c r="B359" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22" t="s">
-        <v>129</v>
+      <c r="B360" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>14</v>
@@ -5129,8 +5160,8 @@
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>130</v>
+      <c r="B361" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
@@ -5138,120 +5169,120 @@
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
+      <c r="B362" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C364" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="2:4">
-      <c r="C365" s="9"/>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="C366" s="9"/>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="22"/>
+      <c r="C366" s="7"/>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="3" t="s">
-        <v>20</v>
+      <c r="B368" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="C368" s="7"/>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="7"/>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C371" s="7" t="s">
+    <row r="369" spans="2:4">
+      <c r="C369" s="9"/>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="C370" s="9"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372" s="7"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="22"/>
+      <c r="C373" s="7"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C374" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22"/>
-      <c r="C374" s="7"/>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
       <c r="B375" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
       <c r="B376" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C376" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C377" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22"/>
-      <c r="C377" s="7"/>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B378" s="22"/>
+      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
       <c r="B379" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>14</v>
@@ -5260,7 +5291,7 @@
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>14</v>
@@ -5274,7 +5305,7 @@
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
       <c r="B382" s="22" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>14</v>
@@ -5282,13 +5313,17 @@
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22"/>
-      <c r="C383" s="7"/>
+      <c r="B383" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -5302,7 +5337,7 @@
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
       <c r="B386" s="22" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>14</v>
@@ -5315,8 +5350,12 @@
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
+      <c r="B388" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
@@ -5325,8 +5364,8 @@
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="3" t="s">
-        <v>138</v>
+      <c r="B390" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5339,12 +5378,8 @@
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B392" s="22"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
@@ -5353,8 +5388,8 @@
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="22" t="s">
-        <v>140</v>
+      <c r="B394" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>14</v>
@@ -5362,17 +5397,13 @@
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B395" s="22"/>
+      <c r="C395" s="7"/>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5386,7 +5417,7 @@
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
       <c r="B398" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>14</v>
@@ -5395,7 +5426,7 @@
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5403,27 +5434,35 @@
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22"/>
-      <c r="C400" s="7"/>
+      <c r="B400" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C401" s="7" t="s">
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="1:4" s="6" customFormat="1">
+      <c r="B402" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C402" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D401" s="4"/>
-    </row>
-    <row r="402" spans="1:4" s="6" customFormat="1">
-      <c r="B402" s="22"/>
-      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
-      <c r="B403" s="22"/>
-      <c r="C403" s="7"/>
+      <c r="B403" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" s="6" customFormat="1">
@@ -5432,95 +5471,119 @@
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" s="6" customFormat="1">
-      <c r="B405" s="22"/>
-      <c r="C405" s="4"/>
+      <c r="B405" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="1:4" s="6" customFormat="1">
-      <c r="B406" s="19"/>
-      <c r="C406" s="4"/>
+      <c r="B406" s="22"/>
+      <c r="C406" s="7"/>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4" s="6" customFormat="1">
-      <c r="B407" s="21"/>
-      <c r="C407" s="4"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="7"/>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="1:4" s="6" customFormat="1">
-      <c r="B408" s="21"/>
-      <c r="C408" s="4"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="7"/>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="3"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="3"/>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="3"/>
-      <c r="B410" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C410" s="6">
-        <f>COUNTIF(C5:C409,"y")</f>
-        <v>133</v>
-      </c>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="3"/>
-      <c r="B411" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C411" s="6">
-        <f>COUNTIF(C5:C409,"n")</f>
-        <v>107</v>
-      </c>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="3"/>
-      <c r="B412" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C412" s="7">
-        <f>COUNTIF(C5:C409,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D412" s="2"/>
+    <row r="409" spans="1:4" s="6" customFormat="1">
+      <c r="B409" s="22"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+    </row>
+    <row r="410" spans="1:4" s="6" customFormat="1">
+      <c r="B410" s="19"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+    </row>
+    <row r="411" spans="1:4" s="6" customFormat="1">
+      <c r="B411" s="21"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+    </row>
+    <row r="412" spans="1:4" s="6" customFormat="1">
+      <c r="B412" s="21"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3"/>
-      <c r="B413" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C413">
-        <f>SUM(C410:C412)</f>
-        <v>240</v>
-      </c>
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="1:4" ht="18">
+      <c r="B413" s="11"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="3"/>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="3"/>
-      <c r="B414" s="10"/>
-      <c r="C414" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D414" s="41">
-        <f>C410/(C411+C410 + C412)</f>
-        <v>0.5541666666666667</v>
-      </c>
+      <c r="B414" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="6">
+        <f>COUNTIF(C5:C413,"y")</f>
+        <v>144</v>
+      </c>
+      <c r="D414" s="2"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="3"/>
-      <c r="B415" s="11"/>
-      <c r="C415" s="11"/>
-      <c r="D415" s="3"/>
+      <c r="B415" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" s="6">
+        <f>COUNTIF(C5:C413,"n")</f>
+        <v>100</v>
+      </c>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="3"/>
+      <c r="B416" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C416" s="7">
+        <f>COUNTIF(C5:C413,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="3"/>
+      <c r="B417" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417">
+        <f>SUM(C414:C416)</f>
+        <v>244</v>
+      </c>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4" ht="18">
+      <c r="A418" s="3"/>
+      <c r="B418" s="10"/>
+      <c r="C418" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="41">
+        <f>C414/(C415+C414 + C416)</f>
+        <v>0.5901639344262295</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="3"/>
+      <c r="B419" s="11"/>
+      <c r="C419" s="11"/>
+      <c r="D419" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C332:C366 C368:C65163 C1:C3 C6:C318">
+  <conditionalFormatting sqref="C336:C370 C372:C65167 C1:C3 C6:C322">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5568,7 +5631,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5923,16 +5986,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="47">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B54" s="4">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4">
-        <v>107</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>232</v>
+        <v>100</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -5940,7 +6003,7 @@
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.5541666666666667</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -5985,25 +6048,25 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.5541666666666667</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C410</f>
-        <v>133</v>
+        <f>Features!C414</f>
+        <v>144</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C411</f>
-        <v>107</v>
+        <f>Features!C415</f>
+        <v>100</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C412</f>
+        <f>Features!C416</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
@@ -6047,11 +6110,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="49">
         <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44283.518796992481</v>
+        <v>44243.277777777781</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -146,9 +146,6 @@
     <t>right mouse click</t>
   </si>
   <si>
-    <t>triggers popup menu</t>
-  </si>
-  <si>
     <t>shift left mouse click</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>performant with long lines (1M+)</t>
+  </si>
+  <si>
+    <t>loading indicator color</t>
   </si>
 </sst>
 </file>
@@ -943,28 +943,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1003,7 +982,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955447"/>
+          <c:w val="0.91978071330955469"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1036,10 +1015,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1061,15 +1040,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$54</c:f>
+              <c:f>Progress!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1090,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,10 +1107,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1147,15 +1132,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1176,6 +1164,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,10 +1199,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1233,15 +1224,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1261,6 +1255,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1294,10 +1291,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1319,15 +1316,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$58</c:f>
+              <c:f>Progress!$E$48:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1349,21 +1349,24 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155635072"/>
-        <c:axId val="155395200"/>
+        <c:axId val="48794240"/>
+        <c:axId val="48812416"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="155635072"/>
+        <c:axId val="48794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155395200"/>
+        <c:crossAx val="48812416"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1406,7 +1409,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155395200"/>
+        <c:axId val="48812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155635072"/>
+        <c:crossAx val="48794240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,7 +1474,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218553"/>
+          <c:y val="0.33819556996218564"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1592,7 +1595,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127865E-2"/>
+          <c:x val="4.4510450248127886E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1627,10 +1630,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1652,15 +1655,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$54</c:f>
+              <c:f>Progress!$G$48:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1682,15 +1688,18 @@
                 <c:pt idx="6">
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59836065573770492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155419008"/>
-        <c:axId val="155420544"/>
+        <c:axId val="47254912"/>
+        <c:axId val="47268992"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="155419008"/>
+        <c:axId val="47254912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,13 +1707,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="155420544"/>
+        <c:crossAx val="47268992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155420544"/>
+        <c:axId val="47268992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1747,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155419008"/>
+        <c:crossAx val="47254912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,10 +1856,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1872,15 +1881,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1901,6 +1913,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,10 +1948,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1958,15 +1973,18 @@
                 <c:pt idx="6">
                   <c:v>43978</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43981</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1988,15 +2006,18 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155445504"/>
-        <c:axId val="155979776"/>
+        <c:axId val="47309952"/>
+        <c:axId val="47311488"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="155445504"/>
+        <c:axId val="47309952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155979776"/>
+        <c:crossAx val="47311488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2038,7 +2059,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155979776"/>
+        <c:axId val="47311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155445504"/>
+        <c:crossAx val="47309952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,7 +2200,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2589,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2603,7 +2624,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2656,7 +2677,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2679,7 +2700,7 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>14</v>
@@ -2688,7 +2709,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
@@ -2697,7 +2718,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2711,7 +2732,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2720,7 +2741,7 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -2734,7 +2755,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
@@ -2743,7 +2764,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2752,7 +2773,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2761,7 +2782,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2770,7 +2791,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -2794,7 +2815,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2806,7 +2827,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2824,7 +2845,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2833,7 +2854,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2842,7 +2863,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2851,7 +2872,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2860,7 +2881,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2869,7 +2890,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2878,7 +2899,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2886,7 +2907,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2894,7 +2915,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2902,7 +2923,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2910,7 +2931,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2918,7 +2939,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2926,7 +2947,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2934,7 +2955,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2942,24 +2963,27 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22" t="s">
-        <v>185</v>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>175</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="6" customFormat="1">
+      <c r="B47" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="7"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
@@ -2978,29 +3002,25 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="B51" s="22"/>
       <c r="C51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
+      <c r="B52" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="22" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -3009,7 +3029,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3018,16 +3038,16 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3036,7 +3056,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3045,7 +3065,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3054,7 +3074,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3063,7 +3083,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3072,7 +3092,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3099,7 +3119,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3107,31 +3127,31 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3140,7 +3160,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3149,7 +3169,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3158,7 +3178,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3166,22 +3186,22 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3190,7 +3210,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="22" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3199,7 +3219,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3207,22 +3227,22 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3230,22 +3250,22 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3253,35 +3273,39 @@
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="C84" s="7"/>
+      <c r="B84" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="7"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
@@ -3305,29 +3329,25 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="B93" s="22"/>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
+      <c r="B94" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3336,7 +3356,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3345,7 +3365,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3354,7 +3374,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3363,7 +3383,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3371,8 +3391,12 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
@@ -3421,29 +3445,25 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="B111" s="22"/>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
+      <c r="B112" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3451,22 +3471,22 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20" t="s">
-        <v>225</v>
+      <c r="B117" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3475,7 +3495,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3484,7 +3504,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3493,7 +3513,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3502,7 +3522,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3519,47 +3539,47 @@
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="27" t="s">
-        <v>207</v>
-      </c>
+      <c r="B124" s="22"/>
       <c r="C124" s="7"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3568,7 +3588,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="23" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>2</v>
@@ -3576,22 +3596,22 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
-        <v>188</v>
+      <c r="B132" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
@@ -3600,7 +3620,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="20" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3609,62 +3629,62 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20"/>
-      <c r="C136" s="7"/>
+      <c r="C136" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B139" s="22"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
-        <v>133</v>
+      <c r="B140" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3672,22 +3692,22 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="7"/>
+      <c r="B142" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B143" s="22"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3696,7 +3716,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3704,36 +3724,36 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C147" s="7" t="s">
+      <c r="B147" s="22"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" s="6" customFormat="1">
+      <c r="B148" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20" t="s">
-        <v>102</v>
+      <c r="B150" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3742,7 +3762,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="20" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3750,22 +3770,22 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="20"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>2</v>
@@ -3783,7 +3803,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3792,7 +3812,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3800,22 +3820,22 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="27" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" s="6" customFormat="1">
+      <c r="B160" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3824,25 +3844,25 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -3860,7 +3880,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -3869,7 +3889,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3878,7 +3898,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3887,7 +3907,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3896,7 +3916,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3904,22 +3924,22 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20"/>
-      <c r="C170" s="9"/>
+      <c r="B170" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="20"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -3928,7 +3948,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>2</v>
@@ -3937,7 +3957,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>2</v>
@@ -3955,7 +3975,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>2</v>
@@ -3964,7 +3984,7 @@
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>2</v>
@@ -3972,8 +3992,12 @@
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="B178" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
@@ -4002,52 +4026,48 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B184" s="22"/>
       <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22"/>
+      <c r="B185" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4056,112 +4076,112 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" s="6" customFormat="1">
+      <c r="B193" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="20"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="23" t="s">
+      <c r="C199" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="20" t="s">
+      <c r="C202" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="20"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4170,7 +4190,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4179,7 +4199,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4187,22 +4207,22 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B208" s="22"/>
+      <c r="C208" s="7"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="23" t="s">
-        <v>58</v>
+      <c r="B209" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>2</v>
@@ -4211,7 +4231,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>2</v>
@@ -4220,7 +4240,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>2</v>
@@ -4228,22 +4248,22 @@
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="7"/>
+      <c r="B212" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="23" t="s">
-        <v>215</v>
+      <c r="B214" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -4251,43 +4271,43 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="22"/>
-      <c r="C215" s="7"/>
+      <c r="B215" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B216" s="22"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="27" t="s">
-        <v>41</v>
-      </c>
+      <c r="B218" s="20"/>
       <c r="C218" s="7"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20" t="s">
+      <c r="B219" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="23" t="s">
-        <v>216</v>
+      <c r="B220" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4296,10 +4316,10 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D221" s="4"/>
     </row>
@@ -4310,7 +4330,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>2</v>
@@ -4319,7 +4339,7 @@
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>2</v>
@@ -4333,7 +4353,7 @@
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
       <c r="B226" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2</v>
@@ -4342,7 +4362,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>2</v>
@@ -4356,7 +4376,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -4365,7 +4385,7 @@
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
       <c r="B230" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2</v>
@@ -4379,7 +4399,7 @@
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
       <c r="B232" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>2</v>
@@ -4388,7 +4408,7 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2</v>
@@ -4397,7 +4417,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4406,7 +4426,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4420,7 +4440,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>2</v>
@@ -4429,7 +4449,7 @@
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>2</v>
@@ -4438,7 +4458,7 @@
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2</v>
@@ -4462,7 +4482,7 @@
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
       <c r="B243" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C243" s="7"/>
       <c r="D243" s="4"/>
@@ -4474,7 +4494,7 @@
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -4483,7 +4503,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -4497,7 +4517,7 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4506,7 +4526,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>2</v>
@@ -4520,7 +4540,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -4529,7 +4549,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>2</v>
@@ -4543,7 +4563,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>2</v>
@@ -4552,7 +4572,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>2</v>
@@ -4566,7 +4586,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -4575,7 +4595,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>2</v>
@@ -4589,7 +4609,7 @@
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
       <c r="B260" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>2</v>
@@ -4598,7 +4618,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>2</v>
@@ -4612,7 +4632,7 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>2</v>
@@ -4621,7 +4641,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4635,7 +4655,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>2</v>
@@ -4644,7 +4664,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4653,7 +4673,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>2</v>
@@ -4667,7 +4687,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>2</v>
@@ -4676,7 +4696,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>2</v>
@@ -4690,7 +4710,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>2</v>
@@ -4699,7 +4719,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>2</v>
@@ -4758,7 +4778,7 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C285" s="7"/>
       <c r="D285" s="4"/>
@@ -4768,7 +4788,7 @@
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C287" s="7"/>
     </row>
@@ -4777,7 +4797,7 @@
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>2</v>
@@ -4785,7 +4805,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
@@ -4793,7 +4813,7 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>2</v>
@@ -4801,7 +4821,7 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>2</v>
@@ -4809,7 +4829,7 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>2</v>
@@ -4817,7 +4837,7 @@
     </row>
     <row r="294" spans="2:3">
       <c r="B294" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
@@ -4825,7 +4845,7 @@
     </row>
     <row r="295" spans="2:3">
       <c r="B295" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>2</v>
@@ -4833,7 +4853,7 @@
     </row>
     <row r="296" spans="2:3">
       <c r="B296" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>2</v>
@@ -4841,7 +4861,7 @@
     </row>
     <row r="297" spans="2:3">
       <c r="B297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>2</v>
@@ -4849,7 +4869,7 @@
     </row>
     <row r="298" spans="2:3">
       <c r="B298" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>2</v>
@@ -4857,7 +4877,7 @@
     </row>
     <row r="299" spans="2:3">
       <c r="B299" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>14</v>
@@ -4865,7 +4885,7 @@
     </row>
     <row r="300" spans="2:3">
       <c r="B300" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>14</v>
@@ -4873,7 +4893,7 @@
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>14</v>
@@ -4881,7 +4901,7 @@
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>14</v>
@@ -4913,7 +4933,7 @@
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C310" s="9"/>
     </row>
@@ -4922,7 +4942,7 @@
     </row>
     <row r="312" spans="2:3">
       <c r="B312" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>14</v>
@@ -4930,7 +4950,7 @@
     </row>
     <row r="313" spans="2:3">
       <c r="B313" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>14</v>
@@ -4938,7 +4958,7 @@
     </row>
     <row r="314" spans="2:3">
       <c r="B314" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>14</v>
@@ -4946,7 +4966,7 @@
     </row>
     <row r="315" spans="2:3">
       <c r="B315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>14</v>
@@ -4954,7 +4974,7 @@
     </row>
     <row r="316" spans="2:3">
       <c r="B316" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>14</v>
@@ -4962,7 +4982,7 @@
     </row>
     <row r="317" spans="2:3">
       <c r="B317" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>14</v>
@@ -4970,10 +4990,10 @@
     </row>
     <row r="318" spans="2:3">
       <c r="B318" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="2:3">
@@ -4987,13 +5007,13 @@
     </row>
     <row r="322" spans="2:3">
       <c r="B322" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C322" s="9"/>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
@@ -5001,7 +5021,7 @@
     </row>
     <row r="337" spans="2:3">
       <c r="B337" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>14</v>
@@ -5009,7 +5029,7 @@
     </row>
     <row r="338" spans="2:3">
       <c r="B338" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>14</v>
@@ -5017,7 +5037,7 @@
     </row>
     <row r="339" spans="2:3">
       <c r="B339" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C339" s="9" t="s">
         <v>14</v>
@@ -5029,7 +5049,7 @@
     </row>
     <row r="341" spans="2:3">
       <c r="B341" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>14</v>
@@ -5040,7 +5060,7 @@
     </row>
     <row r="343" spans="2:3">
       <c r="B343" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C343" s="9" t="s">
         <v>14</v>
@@ -5051,7 +5071,7 @@
     </row>
     <row r="345" spans="2:3">
       <c r="B345" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C345" s="9" t="s">
         <v>14</v>
@@ -5059,7 +5079,7 @@
     </row>
     <row r="346" spans="2:3">
       <c r="B346" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C346" s="9" t="s">
         <v>14</v>
@@ -5070,7 +5090,7 @@
     </row>
     <row r="348" spans="2:3">
       <c r="B348" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
@@ -5108,7 +5128,7 @@
     </row>
     <row r="354" spans="2:4">
       <c r="B354" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -5116,7 +5136,7 @@
     </row>
     <row r="355" spans="2:4">
       <c r="B355" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5127,14 +5147,14 @@
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
       <c r="B357" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5143,7 +5163,7 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
@@ -5152,7 +5172,7 @@
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
       <c r="B360" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>14</v>
@@ -5161,7 +5181,7 @@
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
       <c r="B361" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
@@ -5170,7 +5190,7 @@
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
       <c r="B362" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>14</v>
@@ -5184,7 +5204,7 @@
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>14</v>
@@ -5193,7 +5213,7 @@
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>14</v>
@@ -5207,7 +5227,7 @@
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
       <c r="B367" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>14</v>
@@ -5216,7 +5236,7 @@
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
       <c r="B368" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C368" s="7"/>
       <c r="D368" s="4"/>
@@ -5241,7 +5261,7 @@
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>2</v>
@@ -5337,7 +5357,7 @@
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
       <c r="B386" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>14</v>
@@ -5351,7 +5371,7 @@
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
       <c r="B388" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>14</v>
@@ -5365,7 +5385,7 @@
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
       <c r="B390" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>14</v>
@@ -5389,7 +5409,7 @@
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
       <c r="B394" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>14</v>
@@ -5403,7 +5423,7 @@
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
       <c r="B396" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>14</v>
@@ -5417,7 +5437,7 @@
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
       <c r="B398" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>14</v>
@@ -5426,7 +5446,7 @@
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5435,7 +5455,7 @@
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>14</v>
@@ -5449,7 +5469,7 @@
     </row>
     <row r="402" spans="1:4" s="6" customFormat="1">
       <c r="B402" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>14</v>
@@ -5458,7 +5478,7 @@
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
       <c r="B403" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>14</v>
@@ -5472,7 +5492,7 @@
     </row>
     <row r="405" spans="1:4" s="6" customFormat="1">
       <c r="B405" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>14</v>
@@ -5527,7 +5547,7 @@
       </c>
       <c r="C414" s="6">
         <f>COUNTIF(C5:C413,"y")</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -5538,7 +5558,7 @@
       </c>
       <c r="C415" s="6">
         <f>COUNTIF(C5:C413,"n")</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -5572,7 +5592,7 @@
       </c>
       <c r="D418" s="41">
         <f>C414/(C415+C414 + C416)</f>
-        <v>0.5901639344262295</v>
+        <v>0.59836065573770492</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -5605,12 +5625,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT868"/>
+  <dimension ref="A1:IT869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5631,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -5933,7 +5953,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G53" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G54" si="2">B51/SUM(B51:E51)</f>
         <v>9.8654708520179366E-2</v>
       </c>
       <c r="H51" s="7"/>
@@ -6002,19 +6022,32 @@
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="30">
-        <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
+        <f t="shared" si="2"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="47"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
+      <c r="A55" s="47">
+        <v>43981</v>
+      </c>
+      <c r="B55" s="4">
+        <v>146</v>
+      </c>
+      <c r="C55" s="4">
+        <v>98</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="30">
+        <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
+        <v>0.59836065573770492</v>
+      </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:10">
@@ -6023,84 +6056,84 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="31"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F58" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="38">
-        <f>MIN(G54)</f>
-        <v>0.5901639344262295</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="39">
-        <f>SUM(B58:D58)</f>
+      <c r="G58" s="38">
+        <f>MIN(G55)</f>
+        <v>0.59836065573770492</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="39">
+        <f>SUM(B59:D59)</f>
         <v>244</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B59" s="15">
         <f>Features!C414</f>
-        <v>144</v>
-      </c>
-      <c r="C58" s="16">
+        <v>146</v>
+      </c>
+      <c r="C59" s="16">
         <f>Features!C415</f>
-        <v>100</v>
-      </c>
-      <c r="D58" s="17">
+        <v>98</v>
+      </c>
+      <c r="D59" s="17">
         <f>Features!C416</f>
         <v>0</v>
       </c>
-      <c r="E58" s="18">
-        <f>MIN(E54)</f>
+      <c r="E59" s="18">
+        <f>MIN(E55)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
-      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
+      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6109,13 +6142,8 @@
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="49">
-        <f>(A54-A48)*A58/B58 +A48</f>
-        <v>44243.277777777781</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -6124,8 +6152,13 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="49">
+        <f>(A55-A48)*A59/B59 +A48</f>
+        <v>44239.424657534248</v>
+      </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6135,7 +6168,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -6155,7 +6188,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6175,7 +6208,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6185,7 +6218,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6204,7 +6237,7 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
@@ -6215,7 +6248,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -6346,7 +6379,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6355,7 +6388,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6363,15 +6396,15 @@
       <c r="G86" s="30"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="4"/>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="4"/>
@@ -6545,7 +6578,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6555,7 +6588,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6585,7 +6618,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6625,7 +6658,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6635,7 +6668,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6645,7 +6678,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6655,7 +6688,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6665,7 +6698,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6685,7 +6718,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6745,7 +6778,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6845,7 +6878,7 @@
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6895,7 +6928,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6915,7 +6948,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6954,284 +6987,284 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-      <c r="AA146" s="5"/>
-      <c r="AB146" s="5"/>
-      <c r="AC146" s="5"/>
-      <c r="AD146" s="5"/>
-      <c r="AE146" s="5"/>
-      <c r="AF146" s="5"/>
-      <c r="AG146" s="5"/>
-      <c r="AH146" s="5"/>
-      <c r="AI146" s="5"/>
-      <c r="AJ146" s="5"/>
-      <c r="AK146" s="5"/>
-      <c r="AL146" s="5"/>
-      <c r="AM146" s="5"/>
-      <c r="AN146" s="5"/>
-      <c r="AO146" s="5"/>
-      <c r="AP146" s="5"/>
-      <c r="AQ146" s="5"/>
-      <c r="AR146" s="5"/>
-      <c r="AS146" s="5"/>
-      <c r="AT146" s="5"/>
-      <c r="AU146" s="5"/>
-      <c r="AV146" s="5"/>
-      <c r="AW146" s="5"/>
-      <c r="AX146" s="5"/>
-      <c r="AY146" s="5"/>
-      <c r="AZ146" s="5"/>
-      <c r="BA146" s="5"/>
-      <c r="BB146" s="5"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="5"/>
-      <c r="BE146" s="5"/>
-      <c r="BF146" s="5"/>
-      <c r="BG146" s="5"/>
-      <c r="BH146" s="5"/>
-      <c r="BI146" s="5"/>
-      <c r="BJ146" s="5"/>
-      <c r="BK146" s="5"/>
-      <c r="BL146" s="5"/>
-      <c r="BM146" s="5"/>
-      <c r="BN146" s="5"/>
-      <c r="BO146" s="5"/>
-      <c r="BP146" s="5"/>
-      <c r="BQ146" s="5"/>
-      <c r="BR146" s="5"/>
-      <c r="BS146" s="5"/>
-      <c r="BT146" s="5"/>
-      <c r="BU146" s="5"/>
-      <c r="BV146" s="5"/>
-      <c r="BW146" s="5"/>
-      <c r="BX146" s="5"/>
-      <c r="BY146" s="5"/>
-      <c r="BZ146" s="5"/>
-      <c r="CA146" s="5"/>
-      <c r="CB146" s="5"/>
-      <c r="CC146" s="5"/>
-      <c r="CD146" s="5"/>
-      <c r="CE146" s="5"/>
-      <c r="CF146" s="5"/>
-      <c r="CG146" s="5"/>
-      <c r="CH146" s="5"/>
-      <c r="CI146" s="5"/>
-      <c r="CJ146" s="5"/>
-      <c r="CK146" s="5"/>
-      <c r="CL146" s="5"/>
-      <c r="CM146" s="5"/>
-      <c r="CN146" s="5"/>
-      <c r="CO146" s="5"/>
-      <c r="CP146" s="5"/>
-      <c r="CQ146" s="5"/>
-      <c r="CR146" s="5"/>
-      <c r="CS146" s="5"/>
-      <c r="CT146" s="5"/>
-      <c r="CU146" s="5"/>
-      <c r="CV146" s="5"/>
-      <c r="CW146" s="5"/>
-      <c r="CX146" s="5"/>
-      <c r="CY146" s="5"/>
-      <c r="CZ146" s="5"/>
-      <c r="DA146" s="5"/>
-      <c r="DB146" s="5"/>
-      <c r="DC146" s="5"/>
-      <c r="DD146" s="5"/>
-      <c r="DE146" s="5"/>
-      <c r="DF146" s="5"/>
-      <c r="DG146" s="5"/>
-      <c r="DH146" s="5"/>
-      <c r="DI146" s="5"/>
-      <c r="DJ146" s="5"/>
-      <c r="DK146" s="5"/>
-      <c r="DL146" s="5"/>
-      <c r="DM146" s="5"/>
-      <c r="DN146" s="5"/>
-      <c r="DO146" s="5"/>
-      <c r="DP146" s="5"/>
-      <c r="DQ146" s="5"/>
-      <c r="DR146" s="5"/>
-      <c r="DS146" s="5"/>
-      <c r="DT146" s="5"/>
-      <c r="DU146" s="5"/>
-      <c r="DV146" s="5"/>
-      <c r="DW146" s="5"/>
-      <c r="DX146" s="5"/>
-      <c r="DY146" s="5"/>
-      <c r="DZ146" s="5"/>
-      <c r="EA146" s="5"/>
-      <c r="EB146" s="5"/>
-      <c r="EC146" s="5"/>
-      <c r="ED146" s="5"/>
-      <c r="EE146" s="5"/>
-      <c r="EF146" s="5"/>
-      <c r="EG146" s="5"/>
-      <c r="EH146" s="5"/>
-      <c r="EI146" s="5"/>
-      <c r="EJ146" s="5"/>
-      <c r="EK146" s="5"/>
-      <c r="EL146" s="5"/>
-      <c r="EM146" s="5"/>
-      <c r="EN146" s="5"/>
-      <c r="EO146" s="5"/>
-      <c r="EP146" s="5"/>
-      <c r="EQ146" s="5"/>
-      <c r="ER146" s="5"/>
-      <c r="ES146" s="5"/>
-      <c r="ET146" s="5"/>
-      <c r="EU146" s="5"/>
-      <c r="EV146" s="5"/>
-      <c r="EW146" s="5"/>
-      <c r="EX146" s="5"/>
-      <c r="EY146" s="5"/>
-      <c r="EZ146" s="5"/>
-      <c r="FA146" s="5"/>
-      <c r="FB146" s="5"/>
-      <c r="FC146" s="5"/>
-      <c r="FD146" s="5"/>
-      <c r="FE146" s="5"/>
-      <c r="FF146" s="5"/>
-      <c r="FG146" s="5"/>
-      <c r="FH146" s="5"/>
-      <c r="FI146" s="5"/>
-      <c r="FJ146" s="5"/>
-      <c r="FK146" s="5"/>
-      <c r="FL146" s="5"/>
-      <c r="FM146" s="5"/>
-      <c r="FN146" s="5"/>
-      <c r="FO146" s="5"/>
-      <c r="FP146" s="5"/>
-      <c r="FQ146" s="5"/>
-      <c r="FR146" s="5"/>
-      <c r="FS146" s="5"/>
-      <c r="FT146" s="5"/>
-      <c r="FU146" s="5"/>
-      <c r="FV146" s="5"/>
-      <c r="FW146" s="5"/>
-      <c r="FX146" s="5"/>
-      <c r="FY146" s="5"/>
-      <c r="FZ146" s="5"/>
-      <c r="GA146" s="5"/>
-      <c r="GB146" s="5"/>
-      <c r="GC146" s="5"/>
-      <c r="GD146" s="5"/>
-      <c r="GE146" s="5"/>
-      <c r="GF146" s="5"/>
-      <c r="GG146" s="5"/>
-      <c r="GH146" s="5"/>
-      <c r="GI146" s="5"/>
-      <c r="GJ146" s="5"/>
-      <c r="GK146" s="5"/>
-      <c r="GL146" s="5"/>
-      <c r="GM146" s="5"/>
-      <c r="GN146" s="5"/>
-      <c r="GO146" s="5"/>
-      <c r="GP146" s="5"/>
-      <c r="GQ146" s="5"/>
-      <c r="GR146" s="5"/>
-      <c r="GS146" s="5"/>
-      <c r="GT146" s="5"/>
-      <c r="GU146" s="5"/>
-      <c r="GV146" s="5"/>
-      <c r="GW146" s="5"/>
-      <c r="GX146" s="5"/>
-      <c r="GY146" s="5"/>
-      <c r="GZ146" s="5"/>
-      <c r="HA146" s="5"/>
-      <c r="HB146" s="5"/>
-      <c r="HC146" s="5"/>
-      <c r="HD146" s="5"/>
-      <c r="HE146" s="5"/>
-      <c r="HF146" s="5"/>
-      <c r="HG146" s="5"/>
-      <c r="HH146" s="5"/>
-      <c r="HI146" s="5"/>
-      <c r="HJ146" s="5"/>
-      <c r="HK146" s="5"/>
-      <c r="HL146" s="5"/>
-      <c r="HM146" s="5"/>
-      <c r="HN146" s="5"/>
-      <c r="HO146" s="5"/>
-      <c r="HP146" s="5"/>
-      <c r="HQ146" s="5"/>
-      <c r="HR146" s="5"/>
-      <c r="HS146" s="5"/>
-      <c r="HT146" s="5"/>
-      <c r="HU146" s="5"/>
-      <c r="HV146" s="5"/>
-      <c r="HW146" s="5"/>
-      <c r="HX146" s="5"/>
-      <c r="HY146" s="5"/>
-      <c r="HZ146" s="5"/>
-      <c r="IA146" s="5"/>
-      <c r="IB146" s="5"/>
-      <c r="IC146" s="5"/>
-      <c r="ID146" s="5"/>
-      <c r="IE146" s="5"/>
-      <c r="IF146" s="5"/>
-      <c r="IG146" s="5"/>
-      <c r="IH146" s="5"/>
-      <c r="II146" s="5"/>
-      <c r="IJ146" s="5"/>
-      <c r="IK146" s="5"/>
-      <c r="IL146" s="5"/>
-      <c r="IM146" s="5"/>
-      <c r="IN146" s="5"/>
-      <c r="IO146" s="5"/>
-      <c r="IP146" s="5"/>
-      <c r="IQ146" s="5"/>
-      <c r="IR146" s="5"/>
-      <c r="IS146" s="5"/>
-      <c r="IT146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:254">
-      <c r="A148" s="7"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="7"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+      <c r="AN147" s="5"/>
+      <c r="AO147" s="5"/>
+      <c r="AP147" s="5"/>
+      <c r="AQ147" s="5"/>
+      <c r="AR147" s="5"/>
+      <c r="AS147" s="5"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="5"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="5"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="5"/>
+      <c r="BI147" s="5"/>
+      <c r="BJ147" s="5"/>
+      <c r="BK147" s="5"/>
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+      <c r="BN147" s="5"/>
+      <c r="BO147" s="5"/>
+      <c r="BP147" s="5"/>
+      <c r="BQ147" s="5"/>
+      <c r="BR147" s="5"/>
+      <c r="BS147" s="5"/>
+      <c r="BT147" s="5"/>
+      <c r="BU147" s="5"/>
+      <c r="BV147" s="5"/>
+      <c r="BW147" s="5"/>
+      <c r="BX147" s="5"/>
+      <c r="BY147" s="5"/>
+      <c r="BZ147" s="5"/>
+      <c r="CA147" s="5"/>
+      <c r="CB147" s="5"/>
+      <c r="CC147" s="5"/>
+      <c r="CD147" s="5"/>
+      <c r="CE147" s="5"/>
+      <c r="CF147" s="5"/>
+      <c r="CG147" s="5"/>
+      <c r="CH147" s="5"/>
+      <c r="CI147" s="5"/>
+      <c r="CJ147" s="5"/>
+      <c r="CK147" s="5"/>
+      <c r="CL147" s="5"/>
+      <c r="CM147" s="5"/>
+      <c r="CN147" s="5"/>
+      <c r="CO147" s="5"/>
+      <c r="CP147" s="5"/>
+      <c r="CQ147" s="5"/>
+      <c r="CR147" s="5"/>
+      <c r="CS147" s="5"/>
+      <c r="CT147" s="5"/>
+      <c r="CU147" s="5"/>
+      <c r="CV147" s="5"/>
+      <c r="CW147" s="5"/>
+      <c r="CX147" s="5"/>
+      <c r="CY147" s="5"/>
+      <c r="CZ147" s="5"/>
+      <c r="DA147" s="5"/>
+      <c r="DB147" s="5"/>
+      <c r="DC147" s="5"/>
+      <c r="DD147" s="5"/>
+      <c r="DE147" s="5"/>
+      <c r="DF147" s="5"/>
+      <c r="DG147" s="5"/>
+      <c r="DH147" s="5"/>
+      <c r="DI147" s="5"/>
+      <c r="DJ147" s="5"/>
+      <c r="DK147" s="5"/>
+      <c r="DL147" s="5"/>
+      <c r="DM147" s="5"/>
+      <c r="DN147" s="5"/>
+      <c r="DO147" s="5"/>
+      <c r="DP147" s="5"/>
+      <c r="DQ147" s="5"/>
+      <c r="DR147" s="5"/>
+      <c r="DS147" s="5"/>
+      <c r="DT147" s="5"/>
+      <c r="DU147" s="5"/>
+      <c r="DV147" s="5"/>
+      <c r="DW147" s="5"/>
+      <c r="DX147" s="5"/>
+      <c r="DY147" s="5"/>
+      <c r="DZ147" s="5"/>
+      <c r="EA147" s="5"/>
+      <c r="EB147" s="5"/>
+      <c r="EC147" s="5"/>
+      <c r="ED147" s="5"/>
+      <c r="EE147" s="5"/>
+      <c r="EF147" s="5"/>
+      <c r="EG147" s="5"/>
+      <c r="EH147" s="5"/>
+      <c r="EI147" s="5"/>
+      <c r="EJ147" s="5"/>
+      <c r="EK147" s="5"/>
+      <c r="EL147" s="5"/>
+      <c r="EM147" s="5"/>
+      <c r="EN147" s="5"/>
+      <c r="EO147" s="5"/>
+      <c r="EP147" s="5"/>
+      <c r="EQ147" s="5"/>
+      <c r="ER147" s="5"/>
+      <c r="ES147" s="5"/>
+      <c r="ET147" s="5"/>
+      <c r="EU147" s="5"/>
+      <c r="EV147" s="5"/>
+      <c r="EW147" s="5"/>
+      <c r="EX147" s="5"/>
+      <c r="EY147" s="5"/>
+      <c r="EZ147" s="5"/>
+      <c r="FA147" s="5"/>
+      <c r="FB147" s="5"/>
+      <c r="FC147" s="5"/>
+      <c r="FD147" s="5"/>
+      <c r="FE147" s="5"/>
+      <c r="FF147" s="5"/>
+      <c r="FG147" s="5"/>
+      <c r="FH147" s="5"/>
+      <c r="FI147" s="5"/>
+      <c r="FJ147" s="5"/>
+      <c r="FK147" s="5"/>
+      <c r="FL147" s="5"/>
+      <c r="FM147" s="5"/>
+      <c r="FN147" s="5"/>
+      <c r="FO147" s="5"/>
+      <c r="FP147" s="5"/>
+      <c r="FQ147" s="5"/>
+      <c r="FR147" s="5"/>
+      <c r="FS147" s="5"/>
+      <c r="FT147" s="5"/>
+      <c r="FU147" s="5"/>
+      <c r="FV147" s="5"/>
+      <c r="FW147" s="5"/>
+      <c r="FX147" s="5"/>
+      <c r="FY147" s="5"/>
+      <c r="FZ147" s="5"/>
+      <c r="GA147" s="5"/>
+      <c r="GB147" s="5"/>
+      <c r="GC147" s="5"/>
+      <c r="GD147" s="5"/>
+      <c r="GE147" s="5"/>
+      <c r="GF147" s="5"/>
+      <c r="GG147" s="5"/>
+      <c r="GH147" s="5"/>
+      <c r="GI147" s="5"/>
+      <c r="GJ147" s="5"/>
+      <c r="GK147" s="5"/>
+      <c r="GL147" s="5"/>
+      <c r="GM147" s="5"/>
+      <c r="GN147" s="5"/>
+      <c r="GO147" s="5"/>
+      <c r="GP147" s="5"/>
+      <c r="GQ147" s="5"/>
+      <c r="GR147" s="5"/>
+      <c r="GS147" s="5"/>
+      <c r="GT147" s="5"/>
+      <c r="GU147" s="5"/>
+      <c r="GV147" s="5"/>
+      <c r="GW147" s="5"/>
+      <c r="GX147" s="5"/>
+      <c r="GY147" s="5"/>
+      <c r="GZ147" s="5"/>
+      <c r="HA147" s="5"/>
+      <c r="HB147" s="5"/>
+      <c r="HC147" s="5"/>
+      <c r="HD147" s="5"/>
+      <c r="HE147" s="5"/>
+      <c r="HF147" s="5"/>
+      <c r="HG147" s="5"/>
+      <c r="HH147" s="5"/>
+      <c r="HI147" s="5"/>
+      <c r="HJ147" s="5"/>
+      <c r="HK147" s="5"/>
+      <c r="HL147" s="5"/>
+      <c r="HM147" s="5"/>
+      <c r="HN147" s="5"/>
+      <c r="HO147" s="5"/>
+      <c r="HP147" s="5"/>
+      <c r="HQ147" s="5"/>
+      <c r="HR147" s="5"/>
+      <c r="HS147" s="5"/>
+      <c r="HT147" s="5"/>
+      <c r="HU147" s="5"/>
+      <c r="HV147" s="5"/>
+      <c r="HW147" s="5"/>
+      <c r="HX147" s="5"/>
+      <c r="HY147" s="5"/>
+      <c r="HZ147" s="5"/>
+      <c r="IA147" s="5"/>
+      <c r="IB147" s="5"/>
+      <c r="IC147" s="5"/>
+      <c r="ID147" s="5"/>
+      <c r="IE147" s="5"/>
+      <c r="IF147" s="5"/>
+      <c r="IG147" s="5"/>
+      <c r="IH147" s="5"/>
+      <c r="II147" s="5"/>
+      <c r="IJ147" s="5"/>
+      <c r="IK147" s="5"/>
+      <c r="IL147" s="5"/>
+      <c r="IM147" s="5"/>
+      <c r="IN147" s="5"/>
+      <c r="IO147" s="5"/>
+      <c r="IP147" s="5"/>
+      <c r="IQ147" s="5"/>
+      <c r="IR147" s="5"/>
+      <c r="IS147" s="5"/>
+      <c r="IT147" s="5"/>
+    </row>
+    <row r="148" spans="1:254" s="2" customFormat="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -7241,7 +7274,7 @@
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -7251,7 +7284,7 @@
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -7262,7 +7295,7 @@
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -7302,7 +7335,7 @@
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -7311,7 +7344,7 @@
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -7331,7 +7364,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7341,7 +7374,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7361,7 +7394,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7381,7 +7414,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7401,7 +7434,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7421,7 +7454,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7441,7 +7474,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7481,7 +7514,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7491,8 +7524,8 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -7501,7 +7534,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7571,7 +7604,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7581,7 +7614,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7591,7 +7624,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="21"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7611,7 +7644,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7652,7 +7685,7 @@
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
       <c r="B191" s="19"/>
-      <c r="C191" s="7"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -7661,7 +7694,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7681,7 +7714,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7741,7 +7774,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="21"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7781,7 +7814,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7791,7 +7824,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="6"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7801,7 +7834,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7811,7 +7844,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7861,7 +7894,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="21"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -7871,7 +7904,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7921,7 +7954,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="21"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -7981,7 +8014,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7991,7 +8024,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="6"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8001,8 +8034,8 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -8011,7 +8044,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="19"/>
+      <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8021,7 +8054,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -8031,7 +8064,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8071,7 +8104,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8081,7 +8114,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8091,7 +8124,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="23"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -8111,7 +8144,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8151,7 +8184,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8161,7 +8194,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8211,7 +8244,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8221,8 +8254,8 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -8231,7 +8264,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -8241,7 +8274,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -8251,7 +8284,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="23"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -8301,8 +8334,8 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -8311,7 +8344,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8321,7 +8354,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8349,9 +8382,9 @@
       <c r="G260" s="30"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8" ht="11.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="25"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -8359,9 +8392,9 @@
       <c r="G261" s="30"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="11.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8401,7 +8434,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8431,7 +8464,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -8441,7 +8474,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8449,15 +8482,15 @@
       <c r="G270" s="30"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8" s="2" customFormat="1">
-      <c r="A271" s="4"/>
+    <row r="271" spans="1:8">
+      <c r="A271" s="7"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="34"/>
-      <c r="H271" s="4"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="7"/>
     </row>
     <row r="272" spans="1:8" s="2" customFormat="1">
       <c r="A272" s="4"/>
@@ -8469,19 +8502,19 @@
       <c r="G272" s="34"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="7"/>
+    <row r="273" spans="1:8" s="2" customFormat="1">
+      <c r="A273" s="4"/>
       <c r="B273" s="24"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="7"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="34"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8491,7 +8524,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8521,7 +8554,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8531,7 +8564,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8551,7 +8584,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="20"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8571,7 +8604,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8602,7 +8635,7 @@
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
+      <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
@@ -8611,7 +8644,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="6"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8621,7 +8654,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8701,7 +8734,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="6"/>
+      <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8711,8 +8744,8 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
@@ -8721,7 +8754,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="19"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8751,7 +8784,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8811,7 +8844,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="19"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8831,7 +8864,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="21"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8841,8 +8874,8 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
@@ -8851,7 +8884,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8859,15 +8892,15 @@
       <c r="G311" s="30"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8" s="2" customFormat="1">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="34"/>
-      <c r="H312" s="4"/>
+    <row r="312" spans="1:8">
+      <c r="A312" s="7"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" s="30"/>
+      <c r="H312" s="7"/>
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
@@ -8891,7 +8924,7 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="19"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -8941,8 +8974,8 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="9"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -8991,7 +9024,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="21"/>
+      <c r="B325" s="26"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -9041,7 +9074,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="19"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -9051,7 +9084,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="21"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -9061,7 +9094,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -9069,20 +9102,20 @@
       <c r="G332" s="34"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="1:8">
-      <c r="A333" s="7"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="30"/>
-      <c r="H333" s="7"/>
+    <row r="333" spans="1:8" s="2" customFormat="1">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="34"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
@@ -9151,7 +9184,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="4"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -9162,7 +9195,7 @@
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="7"/>
+      <c r="C342" s="4"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
@@ -9171,7 +9204,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="6"/>
+      <c r="B343" s="4"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -9181,7 +9214,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -9191,7 +9224,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="22"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -9201,7 +9234,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="22"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9241,7 +9274,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9251,7 +9284,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9261,7 +9294,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -9291,7 +9324,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9301,7 +9334,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9321,7 +9354,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9331,7 +9364,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9341,7 +9374,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9351,7 +9384,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9381,7 +9414,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9391,7 +9424,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="27"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9401,7 +9434,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="22"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9411,8 +9444,8 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
@@ -9421,7 +9454,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9451,7 +9484,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9481,7 +9514,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="20"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9501,8 +9534,8 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
@@ -9511,7 +9544,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="6"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -9521,7 +9554,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9581,7 +9614,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="6"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9591,7 +9624,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9612,7 +9645,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -9621,7 +9654,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="20"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9632,7 +9665,7 @@
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
       <c r="B389" s="20"/>
-      <c r="C389" s="7"/>
+      <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -9641,7 +9674,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="27"/>
+      <c r="B390" s="20"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9651,7 +9684,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="22"/>
+      <c r="B391" s="27"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9701,7 +9734,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="22"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9711,7 +9744,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9721,7 +9754,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9731,7 +9764,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9741,7 +9774,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="22"/>
+      <c r="B400" s="20"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9761,7 +9794,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9801,7 +9834,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9811,7 +9844,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9831,7 +9864,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="22"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9841,7 +9874,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="22"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9851,7 +9884,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9861,7 +9894,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9881,7 +9914,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9891,7 +9924,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9901,7 +9934,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="20"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9921,7 +9954,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="20"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9931,7 +9964,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9941,7 +9974,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9991,7 +10024,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -10001,7 +10034,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -10061,7 +10094,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -10071,7 +10104,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -10091,7 +10124,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -10101,7 +10134,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -10121,7 +10154,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="4"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -10151,7 +10184,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -10161,8 +10194,8 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
-      <c r="C442" s="4"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -10212,7 +10245,7 @@
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
-      <c r="C447" s="7"/>
+      <c r="C447" s="4"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -10221,7 +10254,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -10231,8 +10264,8 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
-      <c r="C449" s="4"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -10272,7 +10305,7 @@
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
-      <c r="C453" s="7"/>
+      <c r="C453" s="4"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -10281,7 +10314,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="7"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -10291,7 +10324,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="22"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -10351,7 +10384,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -10361,7 +10394,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10371,7 +10404,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="22"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10400,8 +10433,8 @@
       <c r="H465" s="7"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="6"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="7"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10410,7 +10443,7 @@
       <c r="H466" s="7"/>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="7"/>
+      <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
@@ -10451,7 +10484,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10481,7 +10514,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10491,7 +10524,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10501,7 +10534,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10511,21 +10544,21 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="29"/>
-      <c r="C477" s="30"/>
+      <c r="B477" s="7"/>
+      <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
-      <c r="F477" s="29"/>
+      <c r="F477" s="7"/>
       <c r="G477" s="30"/>
       <c r="H477" s="7"/>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
-      <c r="C478" s="7"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="30"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
-      <c r="F478" s="7"/>
+      <c r="F478" s="29"/>
       <c r="G478" s="30"/>
       <c r="H478" s="7"/>
     </row>
@@ -14429,6 +14462,16 @@
       <c r="G868" s="30"/>
       <c r="H868" s="7"/>
     </row>
+    <row r="869" spans="1:8">
+      <c r="A869" s="7"/>
+      <c r="B869" s="7"/>
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+      <c r="E869" s="7"/>
+      <c r="F869" s="7"/>
+      <c r="G869" s="30"/>
+      <c r="H869" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="236">
   <si>
     <t>Feature</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>loading indicator color</t>
+  </si>
+  <si>
+    <t>line color</t>
   </si>
 </sst>
 </file>
@@ -982,7 +985,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955469"/>
+          <c:w val="0.9197807133095548"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1041,7 +1044,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1077,7 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>146</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,7 +1136,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1169,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1228,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1320,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,11 +1365,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48794240"/>
-        <c:axId val="48812416"/>
+        <c:axId val="174026752"/>
+        <c:axId val="174028288"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="48794240"/>
+        <c:axId val="174026752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48812416"/>
+        <c:crossAx val="174028288"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1409,7 +1412,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="48812416"/>
+        <c:axId val="174028288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48794240"/>
+        <c:crossAx val="174026752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +1477,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218564"/>
+          <c:y val="0.33819556996218575"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1595,7 +1598,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127886E-2"/>
+          <c:x val="4.45104502481279E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1656,7 +1659,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,17 +1692,17 @@
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59836065573770492</c:v>
+                  <c:v>0.61065573770491799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="47254912"/>
-        <c:axId val="47268992"/>
+        <c:axId val="169906944"/>
+        <c:axId val="169908480"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="47254912"/>
+        <c:axId val="169906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,13 +1710,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="47268992"/>
+        <c:crossAx val="169908480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47268992"/>
+        <c:axId val="169908480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1756,7 +1759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47254912"/>
+        <c:crossAx val="169906944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1882,7 +1885,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,7 +1918,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1977,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,11 +2016,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="47309952"/>
-        <c:axId val="47311488"/>
+        <c:axId val="57018624"/>
+        <c:axId val="57032704"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="47309952"/>
+        <c:axId val="57018624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47311488"/>
+        <c:crossAx val="57032704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2059,7 +2062,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47311488"/>
+        <c:axId val="57032704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47309952"/>
+        <c:crossAx val="57018624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,8 +2613,8 @@
   </sheetPr>
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2712,7 +2715,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3038,16 +3041,16 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3056,7 +3059,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3065,7 +3068,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3074,7 +3077,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -3110,7 +3113,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3127,31 +3130,31 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3186,22 +3189,22 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="22" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -3219,7 +3222,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3227,22 +3230,22 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3250,22 +3253,22 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3273,39 +3276,35 @@
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
@@ -3329,25 +3328,29 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="B94" s="22"/>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3383,7 +3386,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3391,12 +3394,8 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
@@ -3445,25 +3444,29 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
+      <c r="B111" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="B112" s="22"/>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3471,22 +3474,22 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
-        <v>223</v>
+      <c r="B117" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3495,7 +3498,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3522,7 +3525,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3540,7 +3543,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="20" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -5547,7 +5550,7 @@
       </c>
       <c r="C414" s="6">
         <f>COUNTIF(C5:C413,"y")</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -5558,7 +5561,7 @@
       </c>
       <c r="C415" s="6">
         <f>COUNTIF(C5:C413,"n")</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -5592,7 +5595,7 @@
       </c>
       <c r="D418" s="41">
         <f>C414/(C415+C414 + C416)</f>
-        <v>0.59836065573770492</v>
+        <v>0.61065573770491799</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6029,13 +6032,13 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="47">
-        <v>43981</v>
+        <v>43986</v>
       </c>
       <c r="B55" s="4">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6046,7 +6049,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.59836065573770492</v>
+        <v>0.61065573770491799</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -6091,7 +6094,7 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.59836065573770492</v>
+        <v>0.61065573770491799</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -6102,11 +6105,11 @@
       </c>
       <c r="B59" s="15">
         <f>Features!C414</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C59" s="16">
         <f>Features!C415</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D59" s="17">
         <f>Features!C416</f>
@@ -6157,7 +6160,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>44239.424657534248</v>
+        <v>44234.657718120805</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="238">
   <si>
     <t>Feature</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>line color</t>
+  </si>
+  <si>
+    <t>tab + selection: indents right</t>
+  </si>
+  <si>
+    <t>shift + tab + selection: indents left</t>
   </si>
 </sst>
 </file>
@@ -985,7 +991,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095548"/>
+          <c:w val="0.91978071330955491"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1044,7 +1050,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1142,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1175,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1234,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1326,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,11 +1371,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174026752"/>
-        <c:axId val="174028288"/>
+        <c:axId val="122352000"/>
+        <c:axId val="122353536"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174026752"/>
+        <c:axId val="122352000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174028288"/>
+        <c:crossAx val="122353536"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1412,7 +1418,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174028288"/>
+        <c:axId val="122353536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174026752"/>
+        <c:crossAx val="122352000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,7 +1483,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218575"/>
+          <c:y val="0.33819556996218586"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1598,7 +1604,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.45104502481279E-2"/>
+          <c:x val="4.4510450248127914E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1659,7 +1665,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,17 +1698,17 @@
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61065573770491799</c:v>
+                  <c:v>0.60569105691056913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169906944"/>
-        <c:axId val="169908480"/>
+        <c:axId val="122430592"/>
+        <c:axId val="122432128"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="169906944"/>
+        <c:axId val="122430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,13 +1716,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="169908480"/>
+        <c:crossAx val="122432128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169908480"/>
+        <c:axId val="122432128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1759,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169906944"/>
+        <c:crossAx val="122430592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1885,7 +1891,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,7 +1924,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1983,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43986</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,11 +2022,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="57018624"/>
-        <c:axId val="57032704"/>
+        <c:axId val="122559104"/>
+        <c:axId val="122593664"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="57018624"/>
+        <c:axId val="122559104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,7 +2059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57032704"/>
+        <c:crossAx val="122593664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2062,7 +2068,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57032704"/>
+        <c:axId val="122593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57018624"/>
+        <c:crossAx val="122559104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,10 +2617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D420"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5014,235 +5020,281 @@
       </c>
       <c r="C322" s="9"/>
     </row>
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>60</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="44"/>
+      <c r="C328" s="7"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>71</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="C330" s="9"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="C332" s="9"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>75</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="C335" s="9"/>
+    </row>
     <row r="336" spans="2:3">
       <c r="B336" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:3">
-      <c r="B337" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3">
-      <c r="B338" s="44" t="s">
-        <v>159</v>
+    <row r="337" spans="2:4">
+      <c r="C337" s="9"/>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>36</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="2:3">
-      <c r="B339" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C339" s="9" t="s">
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>37</v>
+      </c>
+      <c r="C339" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="2:3">
-      <c r="B340" s="44"/>
-      <c r="C340" s="7"/>
-    </row>
-    <row r="341" spans="2:3">
-      <c r="B341" t="s">
-        <v>71</v>
-      </c>
-      <c r="C341" s="7" t="s">
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>38</v>
+      </c>
+      <c r="C340" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="2:3">
-      <c r="C342" s="9"/>
-    </row>
-    <row r="343" spans="2:3">
-      <c r="B343" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C343" s="9" t="s">
+    <row r="341" spans="2:4">
+      <c r="C341" s="9"/>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>72</v>
+      </c>
+      <c r="C342" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="2:3">
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>73</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
       <c r="C344" s="9"/>
     </row>
-    <row r="345" spans="2:3">
-      <c r="B345" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C345" s="9" t="s">
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="346" spans="2:3">
-      <c r="B346" t="s">
-        <v>75</v>
-      </c>
-      <c r="C346" s="9" t="s">
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="347" spans="2:3">
-      <c r="C347" s="9"/>
-    </row>
-    <row r="348" spans="2:3">
-      <c r="B348" t="s">
-        <v>130</v>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="349" spans="2:3">
-      <c r="C349" s="9"/>
-    </row>
-    <row r="350" spans="2:3">
-      <c r="B350" t="s">
-        <v>36</v>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="351" spans="2:3">
-      <c r="B351" t="s">
-        <v>37</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3">
-      <c r="B352" t="s">
-        <v>38</v>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="353" spans="2:4">
-      <c r="C353" s="9"/>
-    </row>
-    <row r="354" spans="2:4">
-      <c r="B354" t="s">
-        <v>72</v>
-      </c>
-      <c r="C354" s="7" t="s">
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="355" spans="2:4">
-      <c r="B355" t="s">
-        <v>73</v>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="356" spans="2:4">
-      <c r="C356" s="9"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C357" s="7"/>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="20" t="s">
-        <v>117</v>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="C357" s="9"/>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="B358" t="s">
+        <v>236</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20" t="s">
-        <v>118</v>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="B359" t="s">
+        <v>237</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="7"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22"/>
-      <c r="C366" s="7"/>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C368" s="7"/>
-      <c r="D368" s="4"/>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="C360" s="9"/>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="C361" s="9"/>
+    </row>
+    <row r="362" spans="2:4">
+      <c r="C362" s="9"/>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="C363" s="9"/>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="C364" s="9"/>
+    </row>
+    <row r="365" spans="2:4">
+      <c r="C365" s="9"/>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="C366" s="9"/>
+    </row>
+    <row r="367" spans="2:4">
+      <c r="C367" s="9"/>
+    </row>
+    <row r="368" spans="2:4">
+      <c r="C368" s="9"/>
     </row>
     <row r="369" spans="2:4">
       <c r="C369" s="9"/>
@@ -5250,30 +5302,24 @@
     <row r="370" spans="2:4">
       <c r="C370" s="9"/>
     </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="3" t="s">
+    <row r="371" spans="2:4">
+      <c r="C371" s="9"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C372" s="7"/>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22"/>
       <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B374" s="22"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
       <c r="B375" s="22" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>2</v>
@@ -5282,7 +5328,7 @@
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
       <c r="B376" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>2</v>
@@ -5291,30 +5337,30 @@
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C378" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>14</v>
@@ -5322,22 +5368,22 @@
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22"/>
-      <c r="C381" s="7"/>
+      <c r="B381" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B382" s="22"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>14</v>
@@ -5346,7 +5392,7 @@
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -5354,50 +5400,54 @@
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="22"/>
-      <c r="C385" s="7"/>
+      <c r="B385" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22" t="s">
+      <c r="B386" s="22"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C387" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="7"/>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22" t="s">
+      <c r="B388" s="22"/>
+      <c r="C388" s="7"/>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C389" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D388" s="4"/>
-    </row>
-    <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22" t="s">
+      <c r="B390" s="22"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C391" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D390" s="4"/>
-    </row>
-    <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22"/>
-      <c r="C391" s="7"/>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
@@ -5411,45 +5461,41 @@
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="22"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C395" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="4"/>
-    </row>
-    <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="22"/>
-      <c r="C395" s="7"/>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="22" t="s">
+      <c r="B396" s="22"/>
+      <c r="C396" s="7"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C397" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="4"/>
-    </row>
-    <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22"/>
-      <c r="C397" s="7"/>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B398" s="22"/>
+      <c r="C398" s="7"/>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5458,7 +5504,7 @@
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>14</v>
@@ -5466,22 +5512,22 @@
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="22"/>
-      <c r="C401" s="7"/>
+      <c r="B401" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" s="6" customFormat="1">
-      <c r="B402" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
       <c r="B403" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>14</v>
@@ -5489,22 +5535,26 @@
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" s="6" customFormat="1">
-      <c r="B404" s="22"/>
-      <c r="C404" s="7"/>
+      <c r="B404" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" s="6" customFormat="1">
-      <c r="B405" s="22" t="s">
+      <c r="B405" s="22"/>
+      <c r="C405" s="7"/>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="1:4" s="6" customFormat="1">
+      <c r="B406" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C406" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D405" s="4"/>
-    </row>
-    <row r="406" spans="1:4" s="6" customFormat="1">
-      <c r="B406" s="22"/>
-      <c r="C406" s="7"/>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4" s="6" customFormat="1">
@@ -5519,16 +5569,16 @@
     </row>
     <row r="409" spans="1:4" s="6" customFormat="1">
       <c r="B409" s="22"/>
-      <c r="C409" s="4"/>
+      <c r="C409" s="7"/>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4" s="6" customFormat="1">
-      <c r="B410" s="19"/>
+      <c r="B410" s="22"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4" s="6" customFormat="1">
-      <c r="B411" s="21"/>
+      <c r="B411" s="19"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
     </row>
@@ -5537,76 +5587,81 @@
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="3"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="3"/>
+    <row r="413" spans="1:4" s="6" customFormat="1">
+      <c r="B413" s="21"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="3"/>
-      <c r="B414" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C414" s="6">
-        <f>COUNTIF(C5:C413,"y")</f>
-        <v>149</v>
-      </c>
-      <c r="D414" s="2"/>
+      <c r="B414" s="11"/>
+      <c r="C414" s="11"/>
+      <c r="D414" s="3"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="3"/>
       <c r="B415" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C415" s="6">
-        <f>COUNTIF(C5:C413,"n")</f>
-        <v>95</v>
+        <f>COUNTIF(C5:C414,"y")</f>
+        <v>149</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="3"/>
       <c r="B416" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C416" s="7">
-        <f>COUNTIF(C5:C413,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C416" s="6">
+        <f>COUNTIF(C5:C414,"n")</f>
+        <v>97</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="3"/>
       <c r="B417" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C417" s="7">
+        <f>COUNTIF(C5:C414,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="3"/>
+      <c r="B418" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C417">
-        <f>SUM(C414:C416)</f>
-        <v>244</v>
-      </c>
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="1:4" ht="18">
-      <c r="A418" s="3"/>
-      <c r="B418" s="10"/>
-      <c r="C418" s="10" t="s">
+      <c r="C418">
+        <f>SUM(C415:C417)</f>
+        <v>246</v>
+      </c>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4" ht="18">
+      <c r="A419" s="3"/>
+      <c r="B419" s="10"/>
+      <c r="C419" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D418" s="41">
-        <f>C414/(C415+C414 + C416)</f>
-        <v>0.61065573770491799</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="3"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="3"/>
+      <c r="D419" s="41">
+        <f>C415/(C416+C415 + C417)</f>
+        <v>0.60569105691056913</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="3"/>
+      <c r="B420" s="11"/>
+      <c r="C420" s="11"/>
+      <c r="D420" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C336:C370 C372:C65167 C1:C3 C6:C322">
+  <conditionalFormatting sqref="C324:C371 C373:C65168 C1:C3 C6:C322">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5633,7 +5688,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6032,13 +6087,13 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="47">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B55" s="4">
         <v>149</v>
       </c>
       <c r="C55" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6049,7 +6104,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.61065573770491799</v>
+        <v>0.60569105691056913</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -6094,25 +6149,25 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.61065573770491799</v>
+        <v>0.60569105691056913</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="39">
         <f>SUM(B59:D59)</f>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B59" s="15">
-        <f>Features!C414</f>
+        <f>Features!C415</f>
         <v>149</v>
       </c>
       <c r="C59" s="16">
-        <f>Features!C415</f>
-        <v>95</v>
+        <f>Features!C416</f>
+        <v>97</v>
       </c>
       <c r="D59" s="17">
-        <f>Features!C416</f>
+        <f>Features!C417</f>
         <v>0</v>
       </c>
       <c r="E59" s="18">
@@ -6160,7 +6215,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>44234.657718120805</v>
+        <v>44244.845637583894</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="244">
   <si>
     <t>Feature</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Navigation</t>
   </si>
   <si>
-    <t>Selection</t>
-  </si>
-  <si>
     <t>Editing</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
     <t>copy specific data formats</t>
   </si>
   <si>
-    <t>add clipboard handler</t>
-  </si>
-  <si>
     <t>Find Panel</t>
   </si>
   <si>
@@ -599,9 +593,6 @@
     <t>select line at cursor</t>
   </si>
   <si>
-    <t>provide own sections for plain text and rich text models</t>
-  </si>
-  <si>
     <t>move to document start</t>
   </si>
   <si>
@@ -732,6 +723,33 @@
   </si>
   <si>
     <t>shift + tab + selection: indents left</t>
+  </si>
+  <si>
+    <t>plaint text</t>
+  </si>
+  <si>
+    <t>styled text</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>clipboard</t>
+  </si>
+  <si>
+    <t>copy plain text</t>
+  </si>
+  <si>
+    <t>copy styled text</t>
+  </si>
+  <si>
+    <t>copy specified format(s)</t>
+  </si>
+  <si>
+    <t>set clipboard copy handler(s)</t>
   </si>
 </sst>
 </file>
@@ -851,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,6 +966,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,7 +1012,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955491"/>
+          <c:w val="0.91978071330955502"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1050,7 +1071,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1104,7 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1163,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1196,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,7 +1255,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,7 +1347,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,11 +1392,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122352000"/>
-        <c:axId val="122353536"/>
+        <c:axId val="122613120"/>
+        <c:axId val="123085952"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122352000"/>
+        <c:axId val="122613120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122353536"/>
+        <c:crossAx val="123085952"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1418,7 +1439,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122353536"/>
+        <c:axId val="123085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122352000"/>
+        <c:crossAx val="122613120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,7 +1504,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218586"/>
+          <c:y val="0.33819556996218592"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1604,7 +1625,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127914E-2"/>
+          <c:x val="4.4510450248127921E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1665,7 +1686,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,17 +1719,17 @@
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60569105691056913</c:v>
+                  <c:v>0.62650602409638556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122430592"/>
-        <c:axId val="122432128"/>
+        <c:axId val="123117952"/>
+        <c:axId val="123119488"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122430592"/>
+        <c:axId val="123117952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,13 +1737,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122432128"/>
+        <c:crossAx val="123119488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122432128"/>
+        <c:axId val="123119488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1765,7 +1786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122430592"/>
+        <c:crossAx val="123117952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,7 +1912,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,7 +1945,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,7 +2004,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43989</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,11 +2043,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122559104"/>
-        <c:axId val="122593664"/>
+        <c:axId val="122349440"/>
+        <c:axId val="122350976"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122559104"/>
+        <c:axId val="122349440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122593664"/>
+        <c:crossAx val="122350976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2068,7 +2089,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122593664"/>
+        <c:axId val="122350976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122559104"/>
+        <c:crossAx val="122349440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2619,8 +2640,8 @@
   </sheetPr>
   <dimension ref="A1:D420"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2633,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2686,7 +2707,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2718,7 +2739,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
@@ -2741,7 +2762,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2750,7 +2771,7 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -2824,7 +2845,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2863,7 +2884,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2872,7 +2893,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2881,7 +2902,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2890,7 +2911,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2899,7 +2920,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2908,7 +2929,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2916,7 +2937,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2924,7 +2945,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2932,7 +2953,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2940,7 +2961,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2948,7 +2969,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2956,7 +2977,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2964,7 +2985,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2972,7 +2993,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2980,7 +3001,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2988,7 +3009,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -3017,7 +3038,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -3038,7 +3059,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3047,7 +3068,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3056,7 +3077,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3065,7 +3086,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3074,7 +3095,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3083,7 +3104,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3092,7 +3113,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3119,7 +3140,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3128,7 +3149,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3142,7 +3163,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3151,7 +3172,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3160,7 +3181,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3169,7 +3190,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3178,7 +3199,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3187,7 +3208,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3204,13 +3225,13 @@
         <v>36</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3265,7 +3286,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -3274,7 +3295,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3287,7 +3308,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -3301,7 +3322,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3335,7 +3356,7 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
@@ -3347,7 +3368,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3356,7 +3377,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3365,16 +3386,16 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3383,7 +3404,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3392,7 +3413,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3435,7 +3456,9 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
+      <c r="B108" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
@@ -3445,15 +3468,21 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="7"/>
+      <c r="B111" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
@@ -3463,7 +3492,7 @@
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
       <c r="B113" s="22" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>2</v>
@@ -3471,22 +3500,26 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22" t="s">
-        <v>108</v>
+      <c r="B114" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
-        <v>223</v>
+      <c r="B116" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>2</v>
@@ -3495,7 +3528,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3504,7 +3537,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3513,7 +3546,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3522,7 +3555,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3530,26 +3563,20 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B122" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="20" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3557,20 +3584,26 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C125" s="7"/>
+      <c r="B125" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20" t="s">
-        <v>203</v>
+      <c r="B126" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>2</v>
@@ -3579,57 +3612,57 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="20"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="23" t="s">
+      <c r="C131" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" s="6" customFormat="1">
+      <c r="B132" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="20" t="s">
-        <v>187</v>
+      <c r="B133" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3637,17 +3670,13 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20" t="s">
-        <v>208</v>
+      <c r="B135" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2</v>
@@ -3655,45 +3684,45 @@
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="20"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22" t="s">
-        <v>188</v>
+      <c r="B138" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>132</v>
+      <c r="B141" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3701,8 +3730,8 @@
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20" t="s">
-        <v>152</v>
+      <c r="B142" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3710,22 +3739,22 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B144" s="22"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="22" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3733,22 +3762,22 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22" t="s">
-        <v>189</v>
+      <c r="B148" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3756,45 +3785,49 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>101</v>
+      <c r="B151" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="27" t="s">
-        <v>25</v>
+      <c r="B154" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>2</v>
@@ -3803,7 +3836,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>2</v>
@@ -3811,17 +3844,13 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
-        <v>112</v>
+      <c r="B157" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3830,7 +3859,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3838,13 +3867,17 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="27" t="s">
-        <v>27</v>
+      <c r="B160" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -3853,7 +3886,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3862,16 +3895,16 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -3880,7 +3913,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3889,7 +3922,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="20" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -3898,7 +3931,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3907,7 +3940,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3915,17 +3948,13 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20" t="s">
-        <v>229</v>
+      <c r="B169" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3934,7 +3963,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="20" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -3942,13 +3971,17 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20"/>
-      <c r="C171" s="9"/>
+      <c r="B171" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="27" t="s">
-        <v>28</v>
+      <c r="B172" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -3957,7 +3990,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>2</v>
@@ -3966,7 +3999,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>2</v>
@@ -3975,7 +4008,7 @@
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>2</v>
@@ -3983,30 +4016,18 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
@@ -4025,7 +4046,9 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
+      <c r="B182" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
@@ -4035,25 +4058,31 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B185" s="22"/>
       <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="7"/>
+      <c r="B186" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22" t="s">
-        <v>219</v>
+      <c r="B187" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>2</v>
@@ -4061,22 +4090,26 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="27" t="s">
-        <v>40</v>
+      <c r="B189" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="20" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4085,25 +4118,25 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="23" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="23" t="s">
-        <v>150</v>
+      <c r="B192" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>113</v>
+      <c r="B193" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4111,17 +4144,13 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="20" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4130,7 +4159,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="23" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4138,13 +4167,13 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4153,7 +4182,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4161,13 +4190,13 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>2</v>
@@ -4176,7 +4205,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4184,13 +4213,17 @@
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="20" t="s">
-        <v>50</v>
+      <c r="B204" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>2</v>
@@ -4198,17 +4231,13 @@
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B205" s="22"/>
+      <c r="C205" s="7"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="23" t="s">
-        <v>109</v>
+      <c r="B206" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4217,7 +4246,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4225,13 +4254,17 @@
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="20" t="s">
-        <v>53</v>
+      <c r="B209" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>2</v>
@@ -4239,17 +4272,13 @@
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B210" s="22"/>
+      <c r="C210" s="7"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="23" t="s">
-        <v>109</v>
+      <c r="B211" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>2</v>
@@ -4258,7 +4287,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>2</v>
@@ -4272,7 +4301,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="20" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>2</v>
@@ -4280,22 +4309,20 @@
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="22"/>
+      <c r="B216" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="C216" s="7"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="20" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>2</v>
@@ -4303,20 +4330,22 @@
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="20"/>
-      <c r="C218" s="7"/>
+      <c r="B218" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="27" t="s">
-        <v>41</v>
-      </c>
+      <c r="B219" s="22"/>
       <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>2</v>
@@ -4325,7 +4354,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>2</v>
@@ -4339,7 +4368,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>2</v>
@@ -4362,7 +4391,7 @@
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
       <c r="B226" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>2</v>
@@ -4379,13 +4408,13 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="20" t="s">
-        <v>56</v>
+      <c r="B229" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>2</v>
@@ -4393,8 +4422,8 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>52</v>
+      <c r="B230" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2</v>
@@ -4402,12 +4431,16 @@
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C232" s="7" t="s">
@@ -4416,17 +4449,13 @@
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="20" t="s">
-        <v>156</v>
+      <c r="B234" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4435,7 +4464,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4443,39 +4472,33 @@
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="20"/>
-      <c r="C236" s="7"/>
+      <c r="B236" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B237" s="22"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B238" s="22"/>
+      <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B239" s="22"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="22"/>
+      <c r="B240" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C240" s="7"/>
       <c r="D240" s="4"/>
     </row>
@@ -4485,25 +4508,31 @@
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="22"/>
-      <c r="C242" s="7"/>
+      <c r="B242" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C243" s="7"/>
+      <c r="B243" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="22"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>2</v>
@@ -4512,7 +4541,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -4520,13 +4549,13 @@
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="20"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="7"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="22" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>2</v>
@@ -4535,7 +4564,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>2</v>
@@ -4549,7 +4578,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -4558,7 +4587,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>2</v>
@@ -4572,7 +4601,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>2</v>
@@ -4581,7 +4610,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>2</v>
@@ -4595,7 +4624,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -4604,7 +4633,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>2</v>
@@ -4618,7 +4647,7 @@
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
       <c r="B260" s="22" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>2</v>
@@ -4627,7 +4656,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>2</v>
@@ -4641,7 +4670,7 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>2</v>
@@ -4650,7 +4679,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4658,22 +4687,22 @@
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="22"/>
-      <c r="C265" s="7"/>
+      <c r="B265" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B266" s="22"/>
+      <c r="C266" s="7"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
-      <c r="B267" s="20" t="s">
-        <v>198</v>
+      <c r="B267" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4682,7 +4711,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>2</v>
@@ -4696,7 +4725,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>2</v>
@@ -4705,7 +4734,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>2</v>
@@ -4718,21 +4747,13 @@
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B273" s="22"/>
+      <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B274" s="22"/>
+      <c r="C274" s="7"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
@@ -4756,254 +4777,259 @@
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="7"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22"/>
+      <c r="B281" s="4"/>
       <c r="C281" s="7"/>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="20"/>
+      <c r="B282" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="C282" s="7"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="19"/>
+    <row r="283" spans="2:4">
       <c r="C283" s="7"/>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="4"/>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" s="43" t="s">
+        <v>237</v>
+      </c>
       <c r="C284" s="7"/>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C285" s="7"/>
-      <c r="D285" s="4"/>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="286" spans="2:4">
-      <c r="C286" s="7"/>
+      <c r="B286" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C287" s="7"/>
+      <c r="B287" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="288" spans="2:4">
-      <c r="C288" s="7"/>
+      <c r="B288" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" t="s">
-        <v>61</v>
+      <c r="B289" s="44" t="s">
+        <v>193</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" t="s">
-        <v>62</v>
+      <c r="B290" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" t="s">
-        <v>63</v>
+      <c r="B291" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" t="s">
-        <v>64</v>
+      <c r="B292" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" t="s">
-        <v>196</v>
+      <c r="B293" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" t="s">
-        <v>197</v>
+      <c r="B294" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" t="s">
-        <v>65</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>2</v>
+      <c r="B295" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" t="s">
-        <v>66</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>2</v>
+      <c r="B296" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" t="s">
-        <v>67</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>2</v>
+      <c r="B297" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" t="s">
-        <v>68</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>2</v>
+      <c r="B298" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" t="s">
-        <v>69</v>
-      </c>
-      <c r="C299" s="9" t="s">
+      <c r="B299" s="44"/>
+      <c r="C299" s="9"/>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C300" s="9"/>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C301" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="2:3">
-      <c r="B300" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C300" s="9" t="s">
+    <row r="302" spans="2:3">
+      <c r="B302" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C302" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="2:3">
-      <c r="B301" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C301" s="9" t="s">
+    <row r="303" spans="2:3">
+      <c r="B303" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C303" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="2:3">
-      <c r="B302" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C302" s="9" t="s">
+    <row r="304" spans="2:3">
+      <c r="B304" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C304" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
-      <c r="B303" s="44"/>
-      <c r="C303" s="9"/>
-    </row>
-    <row r="304" spans="2:3">
-      <c r="B304" s="44"/>
-      <c r="C304" s="9"/>
-    </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="44"/>
-      <c r="C305" s="9"/>
+      <c r="B305" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="306" spans="2:3">
-      <c r="C306" s="9"/>
+      <c r="B306" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="307" spans="2:3">
-      <c r="C307" s="9"/>
+      <c r="B307" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="308" spans="2:3">
       <c r="C308" s="9"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="C309" s="9"/>
+      <c r="B309" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C309" s="7"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C310" s="9"/>
+      <c r="B310" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="311" spans="2:3">
-      <c r="C311" s="9"/>
+      <c r="B311" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" t="s">
-        <v>86</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" t="s">
-        <v>87</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" t="s">
-        <v>88</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" t="s">
-        <v>89</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" t="s">
-        <v>90</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" t="s">
-        <v>91</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" t="s">
-        <v>104</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C318" s="9"/>
     </row>
     <row r="319" spans="2:3">
       <c r="C319" s="9"/>
@@ -5016,7 +5042,7 @@
     </row>
     <row r="322" spans="2:3">
       <c r="B322" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C322" s="9"/>
     </row>
@@ -5038,7 +5064,7 @@
     </row>
     <row r="326" spans="2:3">
       <c r="B326" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>14</v>
@@ -5099,7 +5125,7 @@
     </row>
     <row r="336" spans="2:3">
       <c r="B336" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
@@ -5113,75 +5139,73 @@
         <v>36</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="2:4">
-      <c r="B339" t="s">
-        <v>37</v>
+      <c r="B339" s="44" t="s">
+        <v>235</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="2:4">
-      <c r="B340" t="s">
-        <v>38</v>
+      <c r="B340" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="341" spans="2:4">
-      <c r="C341" s="9"/>
+      <c r="B341" t="s">
+        <v>37</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="342" spans="2:4">
       <c r="B342" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="343" spans="2:4">
-      <c r="B343" t="s">
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>72</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
         <v>73</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C345" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="2:4">
-      <c r="C344" s="9"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C345" s="7"/>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D346" s="4"/>
+    <row r="346" spans="2:4">
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B347" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
@@ -5190,7 +5214,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -5199,7 +5223,7 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
@@ -5207,13 +5231,17 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22" t="s">
-        <v>127</v>
+      <c r="B352" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -5221,22 +5249,22 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C353" s="7" t="s">
+      <c r="B353" s="22"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="22" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5244,36 +5272,44 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="2:4">
-      <c r="C357" s="9"/>
-    </row>
-    <row r="358" spans="2:4">
-      <c r="B358" t="s">
-        <v>236</v>
-      </c>
-      <c r="C358" s="7" t="s">
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C357" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C358" s="7"/>
+      <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4">
-      <c r="B359" t="s">
-        <v>237</v>
-      </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="9"/>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="B360" t="s">
+        <v>233</v>
+      </c>
+      <c r="C360" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="2:4">
-      <c r="C360" s="9"/>
-    </row>
     <row r="361" spans="2:4">
-      <c r="C361" s="9"/>
+      <c r="B361" t="s">
+        <v>234</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="362" spans="2:4">
       <c r="C362" s="9"/>
@@ -5305,39 +5341,27 @@
     <row r="371" spans="2:4">
       <c r="C371" s="9"/>
     </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="3" t="s">
+    <row r="372" spans="2:4">
+      <c r="C372" s="9"/>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="C373" s="9"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C373" s="7"/>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22"/>
-      <c r="C374" s="7"/>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C375" s="7"/>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B376" s="22"/>
+      <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="22" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>2</v>
@@ -5346,21 +5370,25 @@
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
       <c r="B378" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>14</v>
@@ -5368,22 +5396,22 @@
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C381" s="7" t="s">
+      <c r="B381" s="22"/>
+      <c r="C381" s="7"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C382" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>14</v>
@@ -5391,31 +5419,31 @@
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B384" s="22"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
       <c r="B385" s="22" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="C385" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C386" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
       <c r="B387" s="22" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>14</v>
@@ -5429,7 +5457,7 @@
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
       <c r="B389" s="22" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>14</v>
@@ -5443,10 +5471,10 @@
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
       <c r="B391" s="22" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D391" s="4"/>
     </row>
@@ -5467,7 +5495,7 @@
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
       <c r="B395" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>14</v>
@@ -5481,7 +5509,7 @@
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
       <c r="B397" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>14</v>
@@ -5495,7 +5523,7 @@
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5504,7 +5532,7 @@
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
       <c r="B400" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>14</v>
@@ -5513,7 +5541,7 @@
     </row>
     <row r="401" spans="1:4" s="6" customFormat="1">
       <c r="B401" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>14</v>
@@ -5527,7 +5555,7 @@
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
       <c r="B403" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>14</v>
@@ -5536,7 +5564,7 @@
     </row>
     <row r="404" spans="1:4" s="6" customFormat="1">
       <c r="B404" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>14</v>
@@ -5550,7 +5578,7 @@
     </row>
     <row r="406" spans="1:4" s="6" customFormat="1">
       <c r="B406" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>14</v>
@@ -5605,7 +5633,7 @@
       </c>
       <c r="C415" s="6">
         <f>COUNTIF(C5:C414,"y")</f>
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -5616,7 +5644,7 @@
       </c>
       <c r="C416" s="6">
         <f>COUNTIF(C5:C414,"n")</f>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D416" s="2"/>
     </row>
@@ -5638,7 +5666,7 @@
       </c>
       <c r="C418">
         <f>SUM(C415:C417)</f>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -5650,7 +5678,7 @@
       </c>
       <c r="D419" s="41">
         <f>C415/(C416+C415 + C417)</f>
-        <v>0.60569105691056913</v>
+        <v>0.62650602409638556</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -5661,7 +5689,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C324:C371 C373:C65168 C1:C3 C6:C322">
+  <conditionalFormatting sqref="C324:C373 C375:C65168 C1:C3 C6:C322">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5688,7 +5716,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5709,7 +5737,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6087,13 +6115,13 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="47">
-        <v>43989</v>
+        <v>43992</v>
       </c>
       <c r="B55" s="4">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6104,7 +6132,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.60569105691056913</v>
+        <v>0.62650602409638556</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -6149,22 +6177,22 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.60569105691056913</v>
+        <v>0.62650602409638556</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="39">
         <f>SUM(B59:D59)</f>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B59" s="15">
         <f>Features!C415</f>
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C59" s="16">
         <f>Features!C416</f>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="17">
         <f>Features!C417</f>
@@ -6211,11 +6239,11 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>44244.845637583894</v>
+        <v>44228.076923076922</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="247">
   <si>
     <t>Feature</t>
   </si>
@@ -419,9 +419,6 @@
     <t>adjusts horizontal scroll bar when needed</t>
   </si>
   <si>
-    <t>copy specific data formats</t>
-  </si>
-  <si>
     <t>Find Panel</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
     <t>plaint text</t>
   </si>
   <si>
-    <t>styled text</t>
-  </si>
-  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -743,13 +737,28 @@
     <t>copy plain text</t>
   </si>
   <si>
-    <t>copy styled text</t>
-  </si>
-  <si>
-    <t>copy specified format(s)</t>
-  </si>
-  <si>
     <t>set clipboard copy handler(s)</t>
+  </si>
+  <si>
+    <t>copy rtf</t>
+  </si>
+  <si>
+    <t>copy html</t>
+  </si>
+  <si>
+    <t>rtf</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>all supported formats</t>
+  </si>
+  <si>
+    <t>plain text</t>
+  </si>
+  <si>
+    <t>copy all supported formats</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1021,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955502"/>
+          <c:w val="0.91978071330955513"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1071,7 +1080,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1113,7 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1172,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,7 +1264,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1356,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,11 +1401,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122613120"/>
-        <c:axId val="123085952"/>
+        <c:axId val="174077056"/>
+        <c:axId val="174078592"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122613120"/>
+        <c:axId val="174077056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123085952"/>
+        <c:crossAx val="174078592"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1439,7 +1448,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="123085952"/>
+        <c:axId val="174078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122613120"/>
+        <c:crossAx val="174077056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1513,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218592"/>
+          <c:y val="0.33819556996218597"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1625,7 +1634,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127921E-2"/>
+          <c:x val="4.4510450248127928E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1686,7 +1695,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,17 +1728,17 @@
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62650602409638556</c:v>
+                  <c:v>0.63671875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123117952"/>
-        <c:axId val="123119488"/>
+        <c:axId val="137107712"/>
+        <c:axId val="137113600"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="123117952"/>
+        <c:axId val="137107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,13 +1746,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="123119488"/>
+        <c:crossAx val="137113600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="123119488"/>
+        <c:axId val="137113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1786,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123117952"/>
+        <c:crossAx val="137107712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,7 +1921,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,7 +2013,7 @@
                   <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43992</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,11 +2052,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122349440"/>
-        <c:axId val="122350976"/>
+        <c:axId val="137121792"/>
+        <c:axId val="137123328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122349440"/>
+        <c:axId val="137121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122350976"/>
+        <c:crossAx val="137123328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2089,7 +2098,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122350976"/>
+        <c:axId val="137123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122349440"/>
+        <c:crossAx val="137121792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2638,10 +2647,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D420"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD103"/>
+    <sheetView topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2654,7 +2663,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2707,7 +2716,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2739,7 +2748,7 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
@@ -2762,7 +2771,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2771,7 +2780,7 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -2845,7 +2854,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2884,7 +2893,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2893,7 +2902,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2902,7 +2911,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2911,7 +2920,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2920,7 +2929,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2929,7 +2938,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2937,7 +2946,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2953,7 +2962,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2961,7 +2970,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2969,7 +2978,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2977,7 +2986,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2985,7 +2994,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2993,7 +3002,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -3001,7 +3010,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -3009,7 +3018,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -3038,7 +3047,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -3059,7 +3068,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3086,7 +3095,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3095,7 +3104,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3104,7 +3113,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3113,7 +3122,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3140,7 +3149,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3149,7 +3158,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3172,7 +3181,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3190,7 +3199,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3230,49 +3239,49 @@
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>133</v>
+      <c r="B75" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -3280,22 +3289,22 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3303,26 +3312,31 @@
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="C84" s="7"/>
+      <c r="B84" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3330,13 +3344,16 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
@@ -3345,8 +3362,12 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
@@ -3355,9 +3376,7 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="B93" s="22"/>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
@@ -3367,44 +3386,30 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B97" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3413,7 +3418,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3421,23 +3426,39 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
@@ -3456,9 +3477,7 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B108" s="22"/>
       <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
@@ -3468,40 +3487,30 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
+      <c r="B112" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="20" t="s">
-        <v>221</v>
+      <c r="B114" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3509,26 +3518,22 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="20" t="s">
-        <v>165</v>
+      <c r="B115" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20" t="s">
-        <v>223</v>
+      <c r="B117" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3555,7 +3560,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3563,155 +3568,159 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22"/>
-      <c r="C121" s="7"/>
+      <c r="B121" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C122" s="7"/>
+      <c r="B122" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="23" t="s">
+      <c r="C129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" s="6" customFormat="1">
+      <c r="B132" s="20"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
+      <c r="C136" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="20"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="C139" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D139" s="4"/>
     </row>
@@ -3722,16 +3731,16 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="22" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22" t="s">
-        <v>82</v>
+      <c r="B142" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3739,8 +3748,8 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22" t="s">
-        <v>84</v>
+      <c r="B143" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3754,7 +3763,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="22" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3762,13 +3771,17 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="27" t="s">
-        <v>146</v>
+      <c r="B147" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3776,17 +3789,13 @@
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
-        <v>142</v>
+      <c r="B149" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3794,63 +3803,63 @@
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="7"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="27" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="20"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" s="6" customFormat="1">
+      <c r="B156" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" s="6" customFormat="1">
+      <c r="B157" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3859,7 +3868,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3868,25 +3877,21 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B160" s="22"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
-        <v>45</v>
+      <c r="B161" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>2</v>
@@ -3895,7 +3900,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>2</v>
@@ -3904,16 +3909,16 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -3922,7 +3927,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="20" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -3931,7 +3936,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -3940,7 +3945,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -3948,13 +3953,17 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20"/>
-      <c r="C168" s="9"/>
+      <c r="B168" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="27" t="s">
-        <v>28</v>
+      <c r="B169" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3963,7 +3972,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="20" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -3972,7 +3981,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="20" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -3980,17 +3989,13 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="9"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="20" t="s">
-        <v>44</v>
+      <c r="B173" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>2</v>
@@ -3999,7 +4004,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="20" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>2</v>
@@ -4008,31 +4013,47 @@
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" s="6" customFormat="1">
+      <c r="B179" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
+      <c r="C179" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
@@ -4046,9 +4067,7 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B182" s="22"/>
       <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
@@ -4058,12 +4077,8 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
@@ -4072,62 +4087,52 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
+      <c r="C190" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="23" t="s">
+      <c r="C191" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="2:4" s="6" customFormat="1">
+      <c r="B192" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4136,76 +4141,80 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="20"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
+      <c r="C199" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="22"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="20"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>2</v>
@@ -4214,7 +4223,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>2</v>
@@ -4222,22 +4231,22 @@
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22"/>
-      <c r="C205" s="7"/>
+      <c r="B205" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20" t="s">
-        <v>53</v>
+      <c r="B206" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4246,7 +4255,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4255,7 +4264,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>2</v>
@@ -4263,22 +4272,22 @@
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B209" s="22"/>
+      <c r="C209" s="7"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
+      <c r="B210" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20" t="s">
-        <v>55</v>
+      <c r="B211" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>2</v>
@@ -4287,7 +4296,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>2</v>
@@ -4295,135 +4304,135 @@
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="22"/>
-      <c r="C213" s="7"/>
+      <c r="B213" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="20" t="s">
+      <c r="B214" s="22"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="22"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C216" s="7"/>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23" t="s">
-        <v>212</v>
-      </c>
       <c r="C218" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20" t="s">
+      <c r="B220" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" s="7"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="22"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="23" t="s">
+      <c r="C224" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C221" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="22"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="20" t="s">
+      <c r="C225" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="22"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C223" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="23" t="s">
+      <c r="C227" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="22"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20"/>
-      <c r="C228" s="7"/>
+      <c r="C228" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B229" s="22"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
       <c r="B230" s="20" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>2</v>
@@ -4431,8 +4440,8 @@
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20" t="s">
-        <v>154</v>
+      <c r="B231" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>2</v>
@@ -4440,22 +4449,22 @@
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="7"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="27" t="s">
-        <v>94</v>
+      <c r="B234" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4464,7 +4473,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4473,7 +4482,7 @@
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2</v>
@@ -4481,25 +4490,35 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="22"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="22"/>
-      <c r="C238" s="7"/>
+      <c r="B238" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="22"/>
-      <c r="C239" s="7"/>
+      <c r="B239" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C240" s="7"/>
+      <c r="B240" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
@@ -4508,178 +4527,168 @@
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B242" s="22"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B243" s="22"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="20"/>
+      <c r="B244" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="22"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="20"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="20" t="s">
+      <c r="C249" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="22"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" s="6" customFormat="1">
+      <c r="B254" s="22"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" s="6" customFormat="1">
+      <c r="B255" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="22"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" s="6" customFormat="1">
+      <c r="B258" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" s="6" customFormat="1">
+      <c r="B259" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="22"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D248" s="4"/>
-    </row>
-    <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="20" t="s">
+      <c r="C259" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" s="6" customFormat="1">
+      <c r="B260" s="22"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" s="6" customFormat="1">
+      <c r="B261" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" s="6" customFormat="1">
+      <c r="B262" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="22"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="2:4" s="6" customFormat="1">
-      <c r="B253" s="22"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="4"/>
-    </row>
-    <row r="254" spans="2:4" s="6" customFormat="1">
-      <c r="B254" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="4"/>
-    </row>
-    <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="20" t="s">
+      <c r="C262" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="2:4" s="6" customFormat="1">
+      <c r="B263" s="22"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" s="6" customFormat="1">
+      <c r="B264" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="4"/>
-    </row>
-    <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="22"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D258" s="4"/>
-    </row>
-    <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="22"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="4"/>
-    </row>
-    <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D260" s="4"/>
-    </row>
-    <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D261" s="4"/>
-    </row>
-    <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="22"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="4"/>
-    </row>
-    <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D263" s="4"/>
-    </row>
-    <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4688,7 +4697,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="20" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>2</v>
@@ -4702,7 +4711,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="22" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4711,7 +4720,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>2</v>
@@ -4719,22 +4728,22 @@
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22"/>
-      <c r="C269" s="7"/>
+      <c r="B269" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B270" s="22"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="20" t="s">
-        <v>196</v>
+      <c r="B271" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>2</v>
@@ -4742,8 +4751,12 @@
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="22"/>
-      <c r="C272" s="7"/>
+      <c r="B272" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
@@ -4752,13 +4765,21 @@
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="7"/>
+      <c r="B274" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22"/>
-      <c r="C275" s="7"/>
+      <c r="B275" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
@@ -4777,71 +4798,59 @@
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="20"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="19"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="7"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="4"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="7"/>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="B282" s="22"/>
       <c r="C282" s="7"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="2:4">
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="20"/>
       <c r="C283" s="7"/>
-    </row>
-    <row r="284" spans="2:4">
-      <c r="B284" s="43" t="s">
-        <v>237</v>
-      </c>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="19"/>
       <c r="C284" s="7"/>
-    </row>
-    <row r="285" spans="2:4">
-      <c r="B285" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4">
-      <c r="B286" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="4"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C286" s="7"/>
+      <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4">
-      <c r="B287" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C287" s="7"/>
     </row>
     <row r="288" spans="2:4">
-      <c r="B288" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B288" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C288" s="7"/>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" s="44" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>2</v>
@@ -4849,7 +4858,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="44" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>2</v>
@@ -4857,7 +4866,7 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>2</v>
@@ -4865,7 +4874,7 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>2</v>
@@ -4873,7 +4882,7 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="44" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>2</v>
@@ -4881,7 +4890,7 @@
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="44" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
@@ -4889,81 +4898,81 @@
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>14</v>
+      <c r="B296" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C298" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C299" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="2:3">
-      <c r="B299" s="44"/>
-      <c r="C299" s="9"/>
-    </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C300" s="9"/>
+      <c r="B300" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C301" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C301" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C302" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C302" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B303" s="44"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B304" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" s="44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>14</v>
@@ -4971,7 +4980,7 @@
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>14</v>
@@ -4979,45 +4988,60 @@
     </row>
     <row r="307" spans="2:3">
       <c r="B307" s="44" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="2:3">
-      <c r="C308" s="9"/>
+      <c r="B308" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C309" s="7"/>
+      <c r="B309" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="44" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="44" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="2:3">
       <c r="C312" s="9"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="C313" s="9"/>
+      <c r="B313" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C313" s="7"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="C314" s="9"/>
+      <c r="B314" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="315" spans="2:3">
       <c r="C315" s="9"/>
@@ -5041,80 +5065,70 @@
       <c r="C321" s="9"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="3" t="s">
+      <c r="C322" s="9"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="C323" s="9"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C322" s="9"/>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="B324" t="s">
+      <c r="C325" s="9"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
         <v>60</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C327" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="2:3">
-      <c r="B325" s="44" t="s">
+    <row r="328" spans="2:3">
+      <c r="B328" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C328" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="2:3">
-      <c r="B326" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="B327" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3">
-      <c r="B328" s="44"/>
-      <c r="C328" s="7"/>
-    </row>
     <row r="329" spans="2:3">
-      <c r="B329" t="s">
-        <v>71</v>
+      <c r="B329" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="C330" s="9"/>
+      <c r="B330" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="45" t="s">
+      <c r="B331" s="44"/>
+      <c r="C331" s="7"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" t="s">
+        <v>71</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="C333" s="9"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="45" t="s">
         <v>76</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="C332" s="9"/>
-    </row>
-    <row r="333" spans="2:3">
-      <c r="B333" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3">
-      <c r="B334" t="s">
-        <v>75</v>
       </c>
       <c r="C334" s="9" t="s">
         <v>14</v>
@@ -5124,138 +5138,127 @@
       <c r="C335" s="9"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" t="s">
+      <c r="B336" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" t="s">
+        <v>75</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="C338" s="9"/>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" t="s">
         <v>129</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C339" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
-      <c r="C337" s="9"/>
-    </row>
-    <row r="338" spans="2:4">
-      <c r="B338" t="s">
+    <row r="340" spans="2:3">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" t="s">
         <v>36</v>
       </c>
-      <c r="C338" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="B339" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="B340" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4">
-      <c r="B341" t="s">
-        <v>37</v>
-      </c>
       <c r="C341" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4">
-      <c r="B342" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4">
-      <c r="C343" s="9"/>
-    </row>
-    <row r="344" spans="2:4">
-      <c r="B344" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="44" t="s">
+        <v>242</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4">
-      <c r="B345" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
-      <c r="C346" s="9"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C347" s="7"/>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="20" t="s">
-        <v>116</v>
+    <row r="346" spans="2:3">
+      <c r="B346" s="44"/>
+      <c r="C346" s="7"/>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>37</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" t="s">
+        <v>38</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="20" t="s">
-        <v>120</v>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="C349" s="9"/>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" t="s">
+        <v>72</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20" t="s">
-        <v>121</v>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" t="s">
+        <v>73</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D352" s="4"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
+      <c r="B353" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>126</v>
+      <c r="B354" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -5263,8 +5266,8 @@
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>127</v>
+      <c r="B355" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5272,13 +5275,17 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="7"/>
+      <c r="B356" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22" t="s">
-        <v>74</v>
+      <c r="B357" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>14</v>
@@ -5286,48 +5293,76 @@
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C358" s="7"/>
+      <c r="B358" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="2:4">
-      <c r="C359" s="9"/>
-    </row>
-    <row r="360" spans="2:4">
-      <c r="B360" t="s">
-        <v>233</v>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="22"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="361" spans="2:4">
-      <c r="B361" t="s">
-        <v>234</v>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="362" spans="2:4">
-      <c r="C362" s="9"/>
-    </row>
-    <row r="363" spans="2:4">
-      <c r="C363" s="9"/>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="C364" s="9"/>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4">
       <c r="C365" s="9"/>
     </row>
     <row r="366" spans="2:4">
-      <c r="C366" s="9"/>
+      <c r="B366" t="s">
+        <v>232</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="367" spans="2:4">
-      <c r="C367" s="9"/>
+      <c r="B367" t="s">
+        <v>233</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="368" spans="2:4">
       <c r="C368" s="9"/>
@@ -5347,85 +5382,57 @@
     <row r="373" spans="2:4">
       <c r="C373" s="9"/>
     </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="3" t="s">
+    <row r="374" spans="2:4">
+      <c r="C374" s="9"/>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="C375" s="9"/>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="C376" s="9"/>
+    </row>
+    <row r="377" spans="2:4">
+      <c r="C377" s="9"/>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="C378" s="9"/>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="C379" s="9"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C375" s="7"/>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="7"/>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22"/>
       <c r="C381" s="7"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B382" s="22"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="22" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
       <c r="B385" s="22" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>2</v>
@@ -5434,7 +5441,7 @@
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
       <c r="B386" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>14</v>
@@ -5442,22 +5449,22 @@
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C387" s="7" t="s">
+      <c r="B387" s="22"/>
+      <c r="C387" s="7"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C388" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
       <c r="B389" s="22" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>14</v>
@@ -5471,45 +5478,57 @@
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
       <c r="B391" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C391" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22"/>
-      <c r="C392" s="7"/>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="22"/>
-      <c r="C393" s="7"/>
-      <c r="D393" s="4"/>
-    </row>
-    <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="22"/>
-      <c r="C394" s="7"/>
+      <c r="C394" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C395" s="7" t="s">
+      <c r="B395" s="20"/>
+      <c r="C395" s="7"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C396" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="22"/>
-      <c r="C396" s="7"/>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
       <c r="B397" s="22" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>14</v>
@@ -5523,7 +5542,7 @@
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
       <c r="B399" s="22" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>14</v>
@@ -5531,165 +5550,231 @@
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B400" s="22"/>
+      <c r="C400" s="7"/>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="1:4" s="6" customFormat="1">
+    <row r="401" spans="2:4" s="6" customFormat="1">
       <c r="B401" s="22" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="1:4" s="6" customFormat="1">
+    <row r="402" spans="2:4" s="6" customFormat="1">
       <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="1:4" s="6" customFormat="1">
-      <c r="B403" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C403" s="7" t="s">
+    <row r="403" spans="2:4" s="6" customFormat="1">
+      <c r="B403" s="22"/>
+      <c r="C403" s="7"/>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="2:4" s="6" customFormat="1">
+      <c r="B404" s="22"/>
+      <c r="C404" s="7"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="2:4" s="6" customFormat="1">
+      <c r="B405" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C405" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D403" s="4"/>
-    </row>
-    <row r="404" spans="1:4" s="6" customFormat="1">
-      <c r="B404" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C404" s="7" t="s">
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="2:4" s="6" customFormat="1">
+      <c r="B406" s="22"/>
+      <c r="C406" s="7"/>
+      <c r="D406" s="4"/>
+    </row>
+    <row r="407" spans="2:4" s="6" customFormat="1">
+      <c r="B407" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C407" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D404" s="4"/>
-    </row>
-    <row r="405" spans="1:4" s="6" customFormat="1">
-      <c r="B405" s="22"/>
-      <c r="C405" s="7"/>
-      <c r="D405" s="4"/>
-    </row>
-    <row r="406" spans="1:4" s="6" customFormat="1">
-      <c r="B406" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D406" s="4"/>
-    </row>
-    <row r="407" spans="1:4" s="6" customFormat="1">
-      <c r="B407" s="22"/>
-      <c r="C407" s="7"/>
       <c r="D407" s="4"/>
     </row>
-    <row r="408" spans="1:4" s="6" customFormat="1">
+    <row r="408" spans="2:4" s="6" customFormat="1">
       <c r="B408" s="22"/>
       <c r="C408" s="7"/>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4" s="6" customFormat="1">
-      <c r="B409" s="22"/>
-      <c r="C409" s="7"/>
+    <row r="409" spans="2:4" s="6" customFormat="1">
+      <c r="B409" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="1:4" s="6" customFormat="1">
-      <c r="B410" s="22"/>
-      <c r="C410" s="4"/>
+    <row r="410" spans="2:4" s="6" customFormat="1">
+      <c r="B410" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D410" s="4"/>
     </row>
-    <row r="411" spans="1:4" s="6" customFormat="1">
-      <c r="B411" s="19"/>
-      <c r="C411" s="4"/>
+    <row r="411" spans="2:4" s="6" customFormat="1">
+      <c r="B411" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="1:4" s="6" customFormat="1">
-      <c r="B412" s="21"/>
-      <c r="C412" s="4"/>
+    <row r="412" spans="2:4" s="6" customFormat="1">
+      <c r="B412" s="22"/>
+      <c r="C412" s="7"/>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4" s="6" customFormat="1">
-      <c r="B413" s="21"/>
-      <c r="C413" s="4"/>
+    <row r="413" spans="2:4" s="6" customFormat="1">
+      <c r="B413" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="4"/>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="3"/>
-      <c r="B414" s="11"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="3"/>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="3"/>
-      <c r="B415" s="8" t="s">
+    <row r="414" spans="2:4" s="6" customFormat="1">
+      <c r="B414" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="4"/>
+    </row>
+    <row r="415" spans="2:4" s="6" customFormat="1">
+      <c r="B415" s="22"/>
+      <c r="C415" s="7"/>
+      <c r="D415" s="4"/>
+    </row>
+    <row r="416" spans="2:4" s="6" customFormat="1">
+      <c r="B416" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="4"/>
+    </row>
+    <row r="417" spans="1:4" s="6" customFormat="1">
+      <c r="B417" s="22"/>
+      <c r="C417" s="7"/>
+      <c r="D417" s="4"/>
+    </row>
+    <row r="418" spans="1:4" s="6" customFormat="1">
+      <c r="B418" s="22"/>
+      <c r="C418" s="7"/>
+      <c r="D418" s="4"/>
+    </row>
+    <row r="419" spans="1:4" s="6" customFormat="1">
+      <c r="B419" s="22"/>
+      <c r="C419" s="7"/>
+      <c r="D419" s="4"/>
+    </row>
+    <row r="420" spans="1:4" s="6" customFormat="1">
+      <c r="B420" s="22"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+    </row>
+    <row r="421" spans="1:4" s="6" customFormat="1">
+      <c r="B421" s="19"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+    </row>
+    <row r="422" spans="1:4" s="6" customFormat="1">
+      <c r="B422" s="21"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+    </row>
+    <row r="423" spans="1:4" s="6" customFormat="1">
+      <c r="B423" s="21"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="3"/>
+      <c r="B424" s="11"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="3"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="3"/>
+      <c r="B425" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C415" s="6">
-        <f>COUNTIF(C5:C414,"y")</f>
-        <v>156</v>
-      </c>
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="3"/>
-      <c r="B416" s="8" t="s">
+      <c r="C425" s="6">
+        <f>COUNTIF(C5:C424,"y")</f>
+        <v>163</v>
+      </c>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="3"/>
+      <c r="B426" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C416" s="6">
-        <f>COUNTIF(C5:C414,"n")</f>
+      <c r="C426" s="6">
+        <f>COUNTIF(C5:C424,"n")</f>
         <v>93</v>
       </c>
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="3"/>
-      <c r="B417" s="8" t="s">
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="3"/>
+      <c r="B427" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C417" s="7">
-        <f>COUNTIF(C5:C414,"TBD")</f>
+      <c r="C427" s="7">
+        <f>COUNTIF(C5:C424,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="3"/>
-      <c r="B418" s="8" t="s">
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="3"/>
+      <c r="B428" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C418">
-        <f>SUM(C415:C417)</f>
-        <v>249</v>
-      </c>
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="1:4" ht="18">
-      <c r="A419" s="3"/>
-      <c r="B419" s="10"/>
-      <c r="C419" s="10" t="s">
+      <c r="C428">
+        <f>SUM(C425:C427)</f>
+        <v>256</v>
+      </c>
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="1:4" ht="18">
+      <c r="A429" s="3"/>
+      <c r="B429" s="10"/>
+      <c r="C429" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D419" s="41">
-        <f>C415/(C416+C415 + C417)</f>
-        <v>0.62650602409638556</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="3"/>
-      <c r="B420" s="11"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="3"/>
+      <c r="D429" s="41">
+        <f>C425/(C426+C425 + C427)</f>
+        <v>0.63671875</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="3"/>
+      <c r="B430" s="11"/>
+      <c r="C430" s="11"/>
+      <c r="D430" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C324:C373 C375:C65168 C1:C3 C6:C322">
+  <conditionalFormatting sqref="C327:C379 C381:C65178 C1:C3 C6:C325">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5716,7 +5801,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5737,7 +5822,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6115,10 +6200,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="47">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B55" s="4">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4">
         <v>93</v>
@@ -6132,7 +6217,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.62650602409638556</v>
+        <v>0.63671875</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -6177,25 +6262,25 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.62650602409638556</v>
+        <v>0.63671875</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="39">
         <f>SUM(B59:D59)</f>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B59" s="15">
-        <f>Features!C415</f>
-        <v>156</v>
+        <f>Features!C425</f>
+        <v>163</v>
       </c>
       <c r="C59" s="16">
-        <f>Features!C416</f>
+        <f>Features!C426</f>
         <v>93</v>
       </c>
       <c r="D59" s="17">
-        <f>Features!C417</f>
+        <f>Features!C427</f>
         <v>0</v>
       </c>
       <c r="E59" s="18">
@@ -6243,7 +6328,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>44228.076923076922</v>
+        <v>44219.509202453984</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -1021,7 +1021,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955513"/>
+          <c:w val="0.91978071330955524"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1113,7 +1113,7 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1205,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,11 +1401,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174077056"/>
-        <c:axId val="174078592"/>
+        <c:axId val="172242432"/>
+        <c:axId val="172251008"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174077056"/>
+        <c:axId val="172242432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174078592"/>
+        <c:crossAx val="172251008"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1448,7 +1448,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174078592"/>
+        <c:axId val="172251008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174077056"/>
+        <c:crossAx val="172242432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,7 +1513,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218597"/>
+          <c:y val="0.33819556996218603"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1634,7 +1634,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127928E-2"/>
+          <c:x val="4.4510450248127935E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1728,17 +1728,17 @@
                   <c:v>0.5901639344262295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63671875</c:v>
+                  <c:v>0.6484375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="137107712"/>
-        <c:axId val="137113600"/>
+        <c:axId val="135031040"/>
+        <c:axId val="135032832"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="137107712"/>
+        <c:axId val="135031040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,13 +1746,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="137113600"/>
+        <c:crossAx val="135032832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="137113600"/>
+        <c:axId val="135032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1795,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137107712"/>
+        <c:crossAx val="135031040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,7 +1954,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,11 +2052,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="137121792"/>
-        <c:axId val="137123328"/>
+        <c:axId val="135049216"/>
+        <c:axId val="135050752"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="137121792"/>
+        <c:axId val="135049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137123328"/>
+        <c:crossAx val="135050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2098,7 +2098,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="137123328"/>
+        <c:axId val="135050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137121792"/>
+        <c:crossAx val="135049216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,8 +2649,8 @@
   </sheetPr>
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3270,7 +3270,7 @@
         <v>241</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D78" s="4"/>
     </row>
@@ -5204,7 +5204,7 @@
         <v>243</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="2:3">
@@ -5508,7 +5508,7 @@
         <v>243</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D394" s="4"/>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="C425" s="6">
         <f>COUNTIF(C5:C424,"y")</f>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D425" s="2"/>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C426" s="6">
         <f>COUNTIF(C5:C424,"n")</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D426" s="2"/>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D429" s="41">
         <f>C425/(C426+C425 + C427)</f>
-        <v>0.63671875</v>
+        <v>0.6484375</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -5801,7 +5801,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="R30" sqref="R30"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6203,10 +6203,10 @@
         <v>43993</v>
       </c>
       <c r="B55" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6217,7 +6217,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.63671875</v>
+        <v>0.6484375</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.63671875</v>
+        <v>0.6484375</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="B59" s="15">
         <f>Features!C425</f>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C59" s="16">
         <f>Features!C426</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D59" s="17">
         <f>Features!C427</f>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>44219.509202453984</v>
+        <v>44208.240963855424</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxTextEditor Features.xlsx
+++ b/FxTextEditor Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="255">
   <si>
     <t>Feature</t>
   </si>
@@ -248,12 +248,6 @@
     <t>insert line</t>
   </si>
   <si>
-    <t>backspace delete word</t>
-  </si>
-  <si>
-    <t>works with multiple carets</t>
-  </si>
-  <si>
     <t>shift window up</t>
   </si>
   <si>
@@ -759,6 +753,36 @@
   </si>
   <si>
     <t>copy all supported formats</t>
+  </si>
+  <si>
+    <t>ctrl-backspace delete word</t>
+  </si>
+  <si>
+    <t>until beginning of line</t>
+  </si>
+  <si>
+    <t>then line break</t>
+  </si>
+  <si>
+    <t>ctrl-left: move word left</t>
+  </si>
+  <si>
+    <t>ctrl-right: move word right</t>
+  </si>
+  <si>
+    <t>ctrl-up: scroll viewport one line down</t>
+  </si>
+  <si>
+    <t>ctrl-down: scroll viewport one line up</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>actions?</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1045,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955524"/>
+          <c:w val="0.91978071330955535"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1054,10 +1078,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1082,15 +1106,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$55</c:f>
+              <c:f>Progress!$B$48:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1114,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,10 +1176,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1174,15 +1204,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1206,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,10 +1274,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1266,15 +1302,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1297,6 +1336,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,10 +1372,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1358,15 +1400,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$59</c:f>
+              <c:f>Progress!$E$48:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1391,21 +1436,24 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="172242432"/>
-        <c:axId val="172251008"/>
+        <c:axId val="166125568"/>
+        <c:axId val="166127104"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="172242432"/>
+        <c:axId val="166125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172251008"/>
+        <c:crossAx val="166127104"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1448,7 +1496,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172251008"/>
+        <c:axId val="166127104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172242432"/>
+        <c:crossAx val="166125568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,7 +1561,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218603"/>
+          <c:y val="0.33819556996218614"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1634,7 +1682,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127935E-2"/>
+          <c:x val="4.4510450248127949E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1669,10 +1717,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1697,15 +1745,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$55</c:f>
+              <c:f>Progress!$G$48:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1730,15 +1781,18 @@
                 <c:pt idx="7">
                   <c:v>0.6484375</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64150943396226412</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="135031040"/>
-        <c:axId val="135032832"/>
+        <c:axId val="166216448"/>
+        <c:axId val="166217984"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="135031040"/>
+        <c:axId val="166216448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,13 +1800,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="135032832"/>
+        <c:crossAx val="166217984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135032832"/>
+        <c:axId val="166217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1795,7 +1849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135031040"/>
+        <c:crossAx val="166216448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1895,10 +1949,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -1923,15 +1977,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1955,6 +2012,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1987,10 +2047,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43596</c:v>
                 </c:pt>
@@ -2015,15 +2075,18 @@
                 <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2048,15 +2111,18 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="135049216"/>
-        <c:axId val="135050752"/>
+        <c:axId val="166238464"/>
+        <c:axId val="166322176"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="135049216"/>
+        <c:axId val="166238464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135050752"/>
+        <c:crossAx val="166322176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2098,7 +2164,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135050752"/>
+        <c:axId val="166322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135049216"/>
+        <c:crossAx val="166238464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,7 +2305,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2647,10 +2713,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C395" sqref="C395"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338:XFD339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2663,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="40"/>
     </row>
@@ -2716,7 +2782,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2739,16 +2805,16 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="B12" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>2</v>
@@ -2757,7 +2823,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2771,7 +2837,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2780,7 +2846,7 @@
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -2812,7 +2878,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2821,7 +2887,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2830,7 +2896,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -2854,7 +2920,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2866,7 +2932,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2884,7 +2950,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2893,7 +2959,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2902,7 +2968,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2911,7 +2977,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2920,7 +2986,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2929,7 +2995,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2938,7 +3004,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>2</v>
@@ -2946,7 +3012,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2954,7 +3020,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2962,7 +3028,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -2970,7 +3036,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2978,7 +3044,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2986,7 +3052,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2994,7 +3060,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -3002,7 +3068,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -3010,7 +3076,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -3018,7 +3084,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>14</v>
@@ -3047,7 +3113,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="4"/>
@@ -3068,7 +3134,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3077,7 +3143,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -3086,7 +3152,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -3095,7 +3161,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -3104,7 +3170,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -3113,7 +3179,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -3122,7 +3188,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -3149,7 +3215,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3158,7 +3224,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3172,7 +3238,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3181,7 +3247,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -3190,7 +3256,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3199,7 +3265,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3208,7 +3274,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3217,7 +3283,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3240,7 +3306,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3249,7 +3315,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -3258,7 +3324,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2</v>
@@ -3267,7 +3333,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2</v>
@@ -3327,7 +3393,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3336,7 +3402,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3349,7 +3415,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3363,7 +3429,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3397,7 +3463,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
@@ -3409,7 +3475,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3418,7 +3484,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3427,7 +3493,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>2</v>
@@ -3436,7 +3502,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3445,7 +3511,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3454,7 +3520,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3498,7 +3564,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
@@ -3510,7 +3576,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>2</v>
@@ -3519,7 +3585,7 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -3533,7 +3599,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>2</v>
@@ -3542,7 +3608,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>2</v>
@@ -3551,7 +3617,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>2</v>
@@ -3560,7 +3626,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>2</v>
@@ -3569,7 +3635,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3578,7 +3644,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3587,7 +3653,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>2</v>
@@ -3596,7 +3662,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>2</v>
@@ -3610,14 +3676,14 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>2</v>
@@ -3626,7 +3692,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3635,7 +3701,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>2</v>
@@ -3644,7 +3710,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3653,7 +3719,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -3667,7 +3733,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3676,7 +3742,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -3685,7 +3751,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>2</v>
@@ -3694,7 +3760,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -3703,7 +3769,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>2</v>
@@ -3717,7 +3783,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>2</v>
@@ -3731,7 +3797,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>2</v>
@@ -3740,7 +3806,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>14</v>
@@ -3749,7 +3815,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>14</v>
@@ -3763,7 +3829,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>14</v>
@@ -3772,7 +3838,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>14</v>
@@ -3781,7 +3847,7 @@
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3795,7 +3861,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>14</v>
@@ -3809,7 +3875,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>14</v>
@@ -3818,7 +3884,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3827,7 +3893,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3850,7 +3916,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>2</v>
@@ -3859,7 +3925,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>2</v>
@@ -3868,7 +3934,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3877,7 +3943,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3909,7 +3975,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>14</v>
@@ -3954,7 +4020,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>2</v>
@@ -3963,7 +4029,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -3972,7 +4038,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -3981,7 +4047,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -4100,7 +4166,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>2</v>
@@ -4141,7 +4207,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>14</v>
@@ -4150,7 +4216,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4159,7 +4225,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>14</v>
@@ -4168,7 +4234,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4177,7 +4243,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -4200,7 +4266,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>2</v>
@@ -4223,7 +4289,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>2</v>
@@ -4246,7 +4312,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>2</v>
@@ -4255,7 +4321,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>2</v>
@@ -4264,7 +4330,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>2</v>
@@ -4296,7 +4362,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>2</v>
@@ -4305,7 +4371,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>2</v>
@@ -4328,7 +4394,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>2</v>
@@ -4342,7 +4408,7 @@
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
       <c r="B218" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>2</v>
@@ -4372,7 +4438,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>2</v>
@@ -4455,7 +4521,7 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>2</v>
@@ -4464,7 +4530,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4473,7 +4539,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4482,7 +4548,7 @@
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2</v>
@@ -4496,7 +4562,7 @@
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>2</v>
@@ -4505,7 +4571,7 @@
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2</v>
@@ -4514,7 +4580,7 @@
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
       <c r="B240" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>2</v>
@@ -4538,7 +4604,7 @@
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
       <c r="B244" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="4"/>
@@ -4559,7 +4625,7 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>2</v>
@@ -4582,7 +4648,7 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>2</v>
@@ -4596,7 +4662,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>2</v>
@@ -4605,7 +4671,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>2</v>
@@ -4619,7 +4685,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>2</v>
@@ -4628,7 +4694,7 @@
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>2</v>
@@ -4642,7 +4708,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>2</v>
@@ -4651,7 +4717,7 @@
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
       <c r="B259" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>2</v>
@@ -4665,7 +4731,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>2</v>
@@ -4674,7 +4740,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>2</v>
@@ -4688,7 +4754,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>2</v>
@@ -4697,7 +4763,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>2</v>
@@ -4711,7 +4777,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>2</v>
@@ -4720,7 +4786,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>2</v>
@@ -4729,7 +4795,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>2</v>
@@ -4752,7 +4818,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>2</v>
@@ -4775,7 +4841,7 @@
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>2</v>
@@ -4834,7 +4900,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C286" s="7"/>
       <c r="D286" s="4"/>
@@ -4844,7 +4910,7 @@
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C288" s="7"/>
     </row>
@@ -4882,7 +4948,7 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>2</v>
@@ -4890,7 +4956,7 @@
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
@@ -4898,113 +4964,113 @@
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="44" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="2:3">
       <c r="B296" s="44" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="44" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="44" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>14</v>
+      <c r="B300" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C302" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C303" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
-      <c r="B303" s="44"/>
-      <c r="C303" s="9"/>
-    </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C304" s="9"/>
+      <c r="B304" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C305" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C305" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C306" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C306" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B307" s="44"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B308" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" s="44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>14</v>
@@ -5012,7 +5078,7 @@
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="44" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>14</v>
@@ -5020,40 +5086,60 @@
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="44" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="2:3">
-      <c r="C312" s="9"/>
+      <c r="B312" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C313" s="7"/>
+      <c r="B313" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="314" spans="2:3">
       <c r="B314" s="44" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="2:3">
-      <c r="C315" s="9"/>
+      <c r="B315" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="316" spans="2:3">
       <c r="C316" s="9"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="C317" s="9"/>
+      <c r="B317" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C317" s="7"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="C318" s="9"/>
+      <c r="B318" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="319" spans="2:3">
       <c r="C319" s="9"/>
@@ -5074,322 +5160,350 @@
       <c r="C324" s="9"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C325" s="9"/>
     </row>
+    <row r="326" spans="2:3">
+      <c r="C326" s="9"/>
+    </row>
     <row r="327" spans="2:3">
-      <c r="B327" t="s">
+      <c r="C327" s="9"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="C328" s="9"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C329" s="9"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" t="s">
         <v>60</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C331" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="44"/>
+      <c r="C334" s="7"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C335" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:3">
-      <c r="B328" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C328" s="7" t="s">
+    <row r="336" spans="2:3">
+      <c r="B336" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="2:3">
-      <c r="B329" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C329" s="7" t="s">
+    <row r="337" spans="2:3">
+      <c r="B337" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C337" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="2:3">
-      <c r="B330" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" s="44"/>
-      <c r="C331" s="7"/>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>71</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3">
-      <c r="C333" s="9"/>
-    </row>
-    <row r="334" spans="2:3">
-      <c r="B334" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3">
-      <c r="C335" s="9"/>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="B336" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C336" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3">
-      <c r="B337" t="s">
-        <v>75</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="338" spans="2:3">
-      <c r="C338" s="9"/>
+      <c r="B338" s="45"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" t="s">
-        <v>129</v>
+      <c r="B339" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="340" spans="2:3">
-      <c r="C340" s="9"/>
+      <c r="B340" s="44"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341" spans="2:3">
       <c r="B341" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>2</v>
+      <c r="B343" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="2:3">
       <c r="B344" s="44" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345" spans="2:3">
       <c r="B345" s="44" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" s="44"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" t="s">
-        <v>37</v>
+      <c r="B347" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" t="s">
-        <v>38</v>
-      </c>
-      <c r="C348" s="7" t="s">
+      <c r="B348" s="44"/>
+      <c r="C348" s="9"/>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" t="s">
+        <v>127</v>
+      </c>
+      <c r="C349" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="2:3">
-      <c r="C349" s="9"/>
-    </row>
     <row r="350" spans="2:3">
-      <c r="B350" t="s">
-        <v>72</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="2:3">
       <c r="B351" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="2:3">
-      <c r="C352" s="9"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C353" s="7"/>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="20" t="s">
-        <v>116</v>
+      <c r="B352" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="B353" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="B354" s="44" t="s">
+        <v>240</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="20" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" s="44" t="s">
+        <v>241</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="20" t="s">
-        <v>121</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="B356" s="44"/>
+      <c r="C356" s="7"/>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="B357" t="s">
+        <v>37</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="20" t="s">
-        <v>124</v>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="B358" t="s">
+        <v>38</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="7"/>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22" t="s">
-        <v>126</v>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="C359" s="9"/>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="B360" t="s">
+        <v>72</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>127</v>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="B361" t="s">
+        <v>73</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
-      <c r="D362" s="4"/>
+    </row>
+    <row r="362" spans="2:4">
+      <c r="C362" s="9"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C363" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C363" s="7"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C364" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C364" s="7"/>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="2:4">
-      <c r="C365" s="9"/>
-    </row>
-    <row r="366" spans="2:4">
-      <c r="B366" t="s">
-        <v>232</v>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="367" spans="2:4">
-      <c r="B367" t="s">
-        <v>233</v>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="368" spans="2:4">
-      <c r="C368" s="9"/>
-    </row>
-    <row r="369" spans="2:4">
-      <c r="C369" s="9"/>
-    </row>
-    <row r="370" spans="2:4">
-      <c r="C370" s="9"/>
-    </row>
-    <row r="371" spans="2:4">
-      <c r="C371" s="9"/>
-    </row>
-    <row r="372" spans="2:4">
-      <c r="C372" s="9"/>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="C373" s="9"/>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="C374" s="9"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D373" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4">
-      <c r="C375" s="9"/>
+      <c r="B375" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="376" spans="2:4">
-      <c r="C376" s="9"/>
+      <c r="B376" t="s">
+        <v>75</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="377" spans="2:4">
       <c r="C377" s="9"/>
@@ -5400,75 +5514,35 @@
     <row r="379" spans="2:4">
       <c r="C379" s="9"/>
     </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="3" t="s">
+    <row r="380" spans="2:4">
+      <c r="C380" s="9"/>
+    </row>
+    <row r="381" spans="2:4">
+      <c r="C381" s="9"/>
+    </row>
+    <row r="382" spans="2:4">
+      <c r="C382" s="9"/>
+    </row>
+    <row r="383" spans="2:4">
+      <c r="C383" s="9"/>
+    </row>
+    <row r="384" spans="2:4">
+      <c r="C384" s="9"/>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="C385" s="9"/>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="C386" s="9"/>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="C387" s="9"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C381" s="7"/>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3